--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2843C31E-3F4A-DB4A-A512-4BAF99B65838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80B8DF8-9C5B-C945-8333-FF970674459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>H-Index</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Hashmap with array methods such as array_rand(), isset(), unset()</t>
   </si>
 </sst>
 </file>
@@ -432,18 +438,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="62.83203125" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -486,6 +493,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>380</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80B8DF8-9C5B-C945-8333-FF970674459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41566117-352A-9F4A-82FD-F5536AD39B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>H-Index</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Hashmap with array methods such as array_rand(), isset(), unset()</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self O(n)</t>
+  </si>
+  <si>
+    <t>Postfix and prefix</t>
   </si>
 </sst>
 </file>
@@ -438,13 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,6 +510,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>238</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41566117-352A-9F4A-82FD-F5536AD39B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29109CE7-5B28-EF4F-80CA-5E52AAAE67DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>H-Index</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Postfix and prefix</t>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>Greedy algorithm</t>
   </si>
 </sst>
 </file>
@@ -444,13 +450,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,6 +527,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29109CE7-5B28-EF4F-80CA-5E52AAAE67DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1343A97C-53D6-A143-A07B-A960FC967EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>H-Index</t>
   </si>
@@ -83,14 +83,20 @@
     <t>Gas Station</t>
   </si>
   <si>
-    <t>Greedy algorithm</t>
+    <t>Roman to Interger</t>
+  </si>
+  <si>
+    <t>Always think reverse!</t>
+  </si>
+  <si>
+    <t>Greedy algorithm (DIFFICULT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,6 +108,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,9 +146,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,15 +541,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>134</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1343A97C-53D6-A143-A07B-A960FC967EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CD1B5F-B96A-3E48-9228-85814EBF0043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>H-Index</t>
   </si>
@@ -90,13 +90,19 @@
   </si>
   <si>
     <t>Greedy algorithm (DIFFICULT)</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String</t>
+  </si>
+  <si>
+    <t>preg_replace. Trim() does not clean in-betweens</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +121,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,15 +157,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,13 +481,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,7 +580,21 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>151</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" display="https://leetcode.com/problems/reverse-words-in-a-string/" xr:uid="{C2D68F3B-EC44-C746-B6E6-3A50D3518045}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/notes.xlsx
+++ b/notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CD1B5F-B96A-3E48-9228-85814EBF0043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785C54D8-6791-424B-BC0C-8BC6EAE5F66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>H-Index</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>preg_replace. Trim() does not clean in-betweens</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Going right then left. Always think about using two passes instead of one go</t>
   </si>
 </sst>
 </file>
@@ -481,19 +487,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="62.83203125" customWidth="1"/>
+    <col min="3" max="3" width="65.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -591,9 +597,21 @@
         <v>19</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>135</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="https://leetcode.com/problems/reverse-words-in-a-string/" xr:uid="{C2D68F3B-EC44-C746-B6E6-3A50D3518045}"/>
+    <hyperlink ref="B9" r:id="rId2" display="https://leetcode.com/problems/candy/" xr:uid="{98599FC9-2AC8-CC44-AB4B-2CAA994B5395}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785C54D8-6791-424B-BC0C-8BC6EAE5F66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F613DEB5-266D-F846-ACB2-2DDFA1D98FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>H-Index</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Going right then left. Always think about using two passes instead of one go</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>When comparing left and right, think about going back &amp; forth strategy. Similar to 135 Candy.</t>
   </si>
 </sst>
 </file>
@@ -487,19 +493,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="65.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -608,10 +614,22 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="https://leetcode.com/problems/reverse-words-in-a-string/" xr:uid="{C2D68F3B-EC44-C746-B6E6-3A50D3518045}"/>
     <hyperlink ref="B9" r:id="rId2" display="https://leetcode.com/problems/candy/" xr:uid="{98599FC9-2AC8-CC44-AB4B-2CAA994B5395}"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{D7072EB0-E7EC-FF43-814F-9E4C259B399E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F613DEB5-266D-F846-ACB2-2DDFA1D98FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1360A812-5977-DF46-A5B4-BD9AB62EBD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>H-Index</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>When comparing left and right, think about going back &amp; forth strategy. Similar to 135 Candy.</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>Hashmap</t>
   </si>
 </sst>
 </file>
@@ -493,13 +499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,6 +631,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="https://leetcode.com/problems/reverse-words-in-a-string/" xr:uid="{C2D68F3B-EC44-C746-B6E6-3A50D3518045}"/>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1360A812-5977-DF46-A5B4-BD9AB62EBD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7458A1B3-8637-C34E-9AF0-7AB843D51F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="-1680" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>H-Index</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Hashmap</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Two pointer from left and right then reduce down</t>
   </si>
 </sst>
 </file>
@@ -499,13 +505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,11 +638,25 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>167</v>
+      </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7458A1B3-8637-C34E-9AF0-7AB843D51F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C679FE-6020-AF46-9B7A-5A2A3743A413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1680" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>H-Index</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Two pointer from left and right then reduce down</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>Unique + non = always Unique. Two pointer on sorted array.</t>
   </si>
 </sst>
 </file>
@@ -505,13 +511,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,6 +665,17 @@
         <v>27</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="https://leetcode.com/problems/reverse-words-in-a-string/" xr:uid="{C2D68F3B-EC44-C746-B6E6-3A50D3518045}"/>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C679FE-6020-AF46-9B7A-5A2A3743A413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6C6C3A-8CF0-814D-8832-ECEE20BBDCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1680" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="0" yWindow="22360" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>H-Index</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Unique + non = always Unique. Two pointer on sorted array.</t>
+  </si>
+  <si>
+    <t>Substring with Concatenation of All Words</t>
+  </si>
+  <si>
+    <t>1. Sort and sliding window. Permutation * sort = 1 possibility</t>
+  </si>
+  <si>
+    <t>2. Hashmap and check… more difficult to understand</t>
   </si>
 </sst>
 </file>
@@ -511,18 +520,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -676,11 +685,28 @@
         <v>29</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="https://leetcode.com/problems/reverse-words-in-a-string/" xr:uid="{C2D68F3B-EC44-C746-B6E6-3A50D3518045}"/>
     <hyperlink ref="B9" r:id="rId2" display="https://leetcode.com/problems/candy/" xr:uid="{98599FC9-2AC8-CC44-AB4B-2CAA994B5395}"/>
     <hyperlink ref="B10" r:id="rId3" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{D7072EB0-E7EC-FF43-814F-9E4C259B399E}"/>
+    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words/" xr:uid="{4808337D-8166-D64F-AB17-B4900C322D77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6C6C3A-8CF0-814D-8832-ECEE20BBDCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6521529-1385-E94A-BEDD-653A598D4F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="22360" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>H-Index</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>2. Hashmap and check… more difficult to understand</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Hashmap &amp; sliding window. Compare HAVE vs NEED</t>
   </si>
 </sst>
 </file>
@@ -520,13 +526,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C23:C24"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,6 +707,17 @@
         <v>32</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="https://leetcode.com/problems/reverse-words-in-a-string/" xr:uid="{C2D68F3B-EC44-C746-B6E6-3A50D3518045}"/>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6521529-1385-E94A-BEDD-653A598D4F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E824BDE5-7041-6B41-82F4-D18D5F011444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>H-Index</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Hashmap &amp; sliding window. Compare HAVE vs NEED</t>
+  </si>
+  <si>
+    <t>Game of Life</t>
+  </si>
+  <si>
+    <t>Truth Table.</t>
   </si>
 </sst>
 </file>
@@ -526,13 +532,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,6 +724,17 @@
         <v>34</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>289</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="https://leetcode.com/problems/reverse-words-in-a-string/" xr:uid="{C2D68F3B-EC44-C746-B6E6-3A50D3518045}"/>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E824BDE5-7041-6B41-82F4-D18D5F011444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162CF474-559E-CC4B-989D-75C99554BA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>H-Index</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Truth Table.</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>Two maps mapping each char to other char and compare it through iteration</t>
   </si>
 </sst>
 </file>
@@ -532,13 +538,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,6 +741,17 @@
         <v>36</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>205</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="https://leetcode.com/problems/reverse-words-in-a-string/" xr:uid="{C2D68F3B-EC44-C746-B6E6-3A50D3518045}"/>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162CF474-559E-CC4B-989D-75C99554BA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CBC842-05AF-0B4F-8EF4-CDCA58470DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Structure" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>H-Index</t>
   </si>
@@ -153,6 +154,15 @@
   </si>
   <si>
     <t>Two maps mapping each char to other char and compare it through iteration</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Dummy and two pointer</t>
   </si>
 </sst>
 </file>
@@ -242,9 +252,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -282,7 +292,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -388,7 +398,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -530,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -538,13 +548,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,6 +762,22 @@
         <v>38</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="https://leetcode.com/problems/reverse-words-in-a-string/" xr:uid="{C2D68F3B-EC44-C746-B6E6-3A50D3518045}"/>
@@ -761,4 +787,24 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D196E9A6-494B-B84E-BE8D-483208DB9428}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/notes.xlsx
+++ b/notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CBC842-05AF-0B4F-8EF4-CDCA58470DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65ED41B-F8C9-7D4D-9587-17E3B8772AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" activeTab="1" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>H-Index</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Dummy and two pointer</t>
+  </si>
+  <si>
+    <t>Floyd Cycle Detection</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
@@ -791,19 +794,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D196E9A6-494B-B84E-BE8D-483208DB9428}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65ED41B-F8C9-7D4D-9587-17E3B8772AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCB98B7-6B50-0B4F-AAD3-5E3E1D4BFE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" activeTab="1" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
-    <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Structure" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="LeetCode" sheetId="1" r:id="rId2"/>
+    <sheet name="Data Structure" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>H-Index</t>
   </si>
@@ -166,6 +167,42 @@
   </si>
   <si>
     <t>Floyd Cycle Detection</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Array / String</t>
+  </si>
+  <si>
+    <t>Revise 1</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
   </si>
 </sst>
 </file>
@@ -231,17 +268,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -550,6 +609,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>88</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>80</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>169</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>125</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{45809EEC-81DF-6A4E-91D1-93A7E83EA600}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{CAD87BE9-3459-9647-879D-600C4D8BBB0F}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{A8A5E2CC-53DE-0044-8B55-C9507DCBB63C}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{E8209BAF-E983-F84D-85E9-51122788BE77}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{2E7E73D3-1400-3840-936A-92013437C2C9}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -792,11 +981,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D196E9A6-494B-B84E-BE8D-483208DB9428}">
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCB98B7-6B50-0B4F-AAD3-5E3E1D4BFE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60C8F18-9D15-E242-A3CE-C48A03E0788A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -613,7 +613,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,6 +713,12 @@
       </c>
       <c r="C9" t="s">
         <v>44</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60C8F18-9D15-E242-A3CE-C48A03E0788A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CB0C26-45B2-874C-9D6A-89B7DC5CD8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>H-Index</t>
   </si>
@@ -203,6 +203,21 @@
   </si>
   <si>
     <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Valid Sudoku</t>
   </si>
 </sst>
 </file>
@@ -268,18 +283,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -292,11 +340,131 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -610,34 +778,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="1">
         <v>2</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="1">
         <v>3</v>
       </c>
     </row>
@@ -651,8 +820,8 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" s="5">
+        <v>44256</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -687,6 +856,9 @@
       <c r="C5" t="s">
         <v>48</v>
       </c>
+      <c r="E5" s="5">
+        <v>44256</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -699,10 +871,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -717,19 +895,94 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
         <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>209</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="5">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"Easy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CB0C26-45B2-874C-9D6A-89B7DC5CD8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE7EB34-E788-104F-A172-690090EB4875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>H-Index</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Valid Sudoku</t>
+  </si>
+  <si>
+    <t>Ransom Note</t>
   </si>
 </sst>
 </file>
@@ -778,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,6 +964,31 @@
       </c>
       <c r="C16" t="s">
         <v>48</v>
+      </c>
+      <c r="E16" s="5">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>383</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE7EB34-E788-104F-A172-690090EB4875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA364CA9-EFA0-8948-A09E-C79E1AA7D38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>H-Index</t>
   </si>
@@ -175,21 +175,12 @@
     <t>Easy</t>
   </si>
   <si>
-    <t>Remove Element</t>
-  </si>
-  <si>
-    <t>Remove Duplicates from Sorted Array</t>
-  </si>
-  <si>
     <t>Remove Duplicates from Sorted Array II</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Majority Element</t>
-  </si>
-  <si>
     <t>Array / String</t>
   </si>
   <si>
@@ -221,6 +212,9 @@
   </si>
   <si>
     <t>Ransom Note</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
   </si>
 </sst>
 </file>
@@ -313,6 +307,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -323,6 +337,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -338,56 +382,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -781,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,14 +791,14 @@
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1">
         <v>2</v>
@@ -829,91 +823,83 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>80</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="E3" s="5">
         <v>44256</v>
       </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>125</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>44256</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E10" s="5">
         <v>44256</v>
@@ -922,7 +908,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -932,13 +918,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="5">
         <v>44256</v>
@@ -947,7 +933,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -957,69 +943,55 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>36</v>
+        <v>383</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E16" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>383</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>"Easy"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"Hard"</formula>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{45809EEC-81DF-6A4E-91D1-93A7E83EA600}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{CAD87BE9-3459-9647-879D-600C4D8BBB0F}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{A8A5E2CC-53DE-0044-8B55-C9507DCBB63C}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{E8209BAF-E983-F84D-85E9-51122788BE77}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{2E7E73D3-1400-3840-936A-92013437C2C9}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{E8209BAF-E983-F84D-85E9-51122788BE77}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA364CA9-EFA0-8948-A09E-C79E1AA7D38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37AA519-1100-4C4A-BFB1-2F06D4EF6476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>H-Index</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Intervals</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
   </si>
 </sst>
 </file>
@@ -775,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -955,7 +961,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>49</v>
       </c>
@@ -964,6 +970,31 @@
       </c>
       <c r="C17" t="s">
         <v>46</v>
+      </c>
+      <c r="E17" s="5">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>228</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37AA519-1100-4C4A-BFB1-2F06D4EF6476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFF0DD2-0B93-284A-A1CB-BEF9751D00D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>H-Index</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>Merge Intetvals</t>
   </si>
 </sst>
 </file>
@@ -781,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -995,6 +998,20 @@
       </c>
       <c r="C20" t="s">
         <v>44</v>
+      </c>
+      <c r="E20" s="5">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFF0DD2-0B93-284A-A1CB-BEF9751D00D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA0FA8-FC25-4944-A238-8C7859F72519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>H-Index</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>Merge Intetvals</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
   </si>
 </sst>
 </file>
@@ -784,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1012,6 +1018,34 @@
       </c>
       <c r="C21" t="s">
         <v>46</v>
+      </c>
+      <c r="E21" s="5">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="5">
+        <v>44621</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA0FA8-FC25-4944-A238-8C7859F72519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9B3036-D0C8-904F-9788-C99B93203719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>H-Index</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Simplify Path</t>
   </si>
 </sst>
 </file>
@@ -790,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1045,6 +1048,20 @@
         <v>44</v>
       </c>
       <c r="E24" s="5">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="5">
         <v>44621</v>
       </c>
     </row>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9B3036-D0C8-904F-9788-C99B93203719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9D603C-121B-4048-93CA-2E364B11FF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>H-Index</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Simplify Path</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
   </si>
 </sst>
 </file>
@@ -793,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1063,6 +1066,31 @@
       </c>
       <c r="E25" s="5">
         <v>44621</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>141</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="5">
+        <v>44986</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9D603C-121B-4048-93CA-2E364B11FF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897E21BD-54C4-2242-B629-F5D82D79143A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>H-Index</t>
   </si>
@@ -236,6 +236,15 @@
   </si>
   <si>
     <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>Include carry</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
   </si>
 </sst>
 </file>
@@ -315,7 +324,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -453,36 +462,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -796,20 +775,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="7"/>
+    <col min="5" max="5" width="64.5" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>47</v>
@@ -818,17 +798,20 @@
       <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>2</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>88</v>
       </c>
@@ -838,11 +821,11 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>80</v>
       </c>
@@ -852,22 +835,23 @@
       <c r="C3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>125</v>
       </c>
@@ -880,11 +864,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>167</v>
       </c>
@@ -897,22 +881,23 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>209</v>
       </c>
@@ -922,22 +907,23 @@
       <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>36</v>
       </c>
@@ -947,22 +933,23 @@
       <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>383</v>
       </c>
@@ -972,11 +959,11 @@
       <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>49</v>
       </c>
@@ -986,22 +973,23 @@
       <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>228</v>
       </c>
@@ -1011,11 +999,11 @@
       <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>56</v>
       </c>
@@ -1025,22 +1013,23 @@
       <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1050,11 +1039,11 @@
       <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>71</v>
       </c>
@@ -1064,22 +1053,23 @@
       <c r="C25" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>141</v>
       </c>
@@ -1089,12 +1079,49 @@
       <c r="C28" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="5">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="5">
         <v>44986</v>
       </c>
     </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>138</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E1048576">
+  <conditionalFormatting sqref="F2:F1048576">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -1110,7 +1137,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897E21BD-54C4-2242-B629-F5D82D79143A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDA5F52-F5F1-6E42-9E0D-857DF9B5F706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>H-Index</t>
   </si>
@@ -245,6 +245,24 @@
   </si>
   <si>
     <t>Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked list is hashable and can be used as key </t>
+  </si>
+  <si>
+    <t>Binary Tree General</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>DFS algorithm</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder</t>
   </si>
 </sst>
 </file>
@@ -310,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -319,12 +337,15 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -372,96 +393,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -775,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,6 +1049,69 @@
       </c>
       <c r="C30" t="s">
         <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>104</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="5">
+        <v>44986</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDA5F52-F5F1-6E42-9E0D-857DF9B5F706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B13925C-E006-634F-B802-08D1577A149D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>H-Index</t>
   </si>
@@ -263,6 +263,21 @@
   </si>
   <si>
     <t>Construct Binary Tree from Preorder and Inorder</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Inorder and Postorder</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>Minimum Absolute Difference in BST</t>
+  </si>
+  <si>
+    <t>Inorder traverse than compare SORTED list</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
   </si>
 </sst>
 </file>
@@ -706,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,7 +1084,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>104</v>
       </c>
@@ -1086,7 +1101,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>100</v>
       </c>
@@ -1100,7 +1115,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>105</v>
       </c>
@@ -1112,6 +1127,57 @@
       </c>
       <c r="F35" s="5">
         <v>44986</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>530</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>230</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B13925C-E006-634F-B802-08D1577A149D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3909358-6743-084A-811A-D653B789B3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>H-Index</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Inorder traverse and use counter</t>
   </si>
 </sst>
 </file>
@@ -724,7 +727,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1178,6 +1181,15 @@
       </c>
       <c r="B40" t="s">
         <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="5">
+        <v>44986</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3909358-6743-084A-811A-D653B789B3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76396B04-C928-2441-B68A-1ABD27E1CE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>H-Index</t>
   </si>
@@ -281,6 +281,15 @@
   </si>
   <si>
     <t>Inorder traverse and use counter</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>BFS/DFS</t>
   </si>
 </sst>
 </file>
@@ -724,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1190,6 +1199,35 @@
       </c>
       <c r="F40" s="5">
         <v>44986</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>200</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="5">
+        <v>45352</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76396B04-C928-2441-B68A-1ABD27E1CE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA5E018-3B91-F042-BFA4-0A032026F99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
   <si>
     <t>H-Index</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>BFS/DFS</t>
+  </si>
+  <si>
+    <t>Surrounded Regions</t>
+  </si>
+  <si>
+    <t>Understand the question better.</t>
   </si>
 </sst>
 </file>
@@ -733,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1228,6 +1234,23 @@
       </c>
       <c r="F43" s="5">
         <v>45352</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>130</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="5">
+        <v>45717</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA5E018-3B91-F042-BFA4-0A032026F99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FA3F2E-1BDC-A444-BF67-E73DD5CCF47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>H-Index</t>
   </si>
@@ -175,6 +175,9 @@
     <t>Easy</t>
   </si>
   <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
     <t>Remove Duplicates from Sorted Array II</t>
   </si>
   <si>
@@ -296,6 +299,15 @@
   </si>
   <si>
     <t>Understand the question better.</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Hashmap and search.</t>
+  </si>
+  <si>
+    <t>Two pointer</t>
   </si>
 </sst>
 </file>
@@ -739,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -756,17 +768,17 @@
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1">
         <v>2</v>
@@ -794,53 +806,53 @@
         <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>125</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>44256</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>167</v>
-      </c>
-      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -849,225 +861,222 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>167</v>
+      </c>
+      <c r="B8" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>44256</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>209</v>
       </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>383</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="5">
-        <v>44256</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>49</v>
+        <v>383</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="5">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>228</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="5">
-        <v>44621</v>
-      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="5">
+        <v>44621</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="5">
-        <v>44621</v>
-      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
         <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F25" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="5">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>141</v>
-      </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="5">
-        <v>44986</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F29" s="5">
         <v>44986</v>
@@ -1075,73 +1084,79 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
         <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" t="s">
-        <v>69</v>
       </c>
       <c r="F30" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="F31" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>104</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="B34" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="F33" s="5">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>100</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
       </c>
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
       <c r="F34" s="5">
         <v>44986</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
         <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F35" s="5">
         <v>44986</v>
@@ -1149,107 +1164,138 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
         <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F36" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="5">
+        <v>44986</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>530</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="5">
-        <v>44986</v>
-      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" t="s">
         <v>79</v>
-      </c>
-      <c r="C40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" t="s">
-        <v>80</v>
       </c>
       <c r="F40" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>230</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="F41" s="5">
+        <v>44986</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>200</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" s="5">
-        <v>45352</v>
-      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
+        <v>200</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="5">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>130</v>
       </c>
-      <c r="B44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="B45" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="5">
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" s="5">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="5">
         <v>45717</v>
       </c>
     </row>
@@ -1278,7 +1324,8 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{45809EEC-81DF-6A4E-91D1-93A7E83EA600}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{E8209BAF-E983-F84D-85E9-51122788BE77}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{123BEFC6-385A-644B-AEEF-1E4E98150A90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FA3F2E-1BDC-A444-BF67-E73DD5CCF47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A85ECC-B1A6-C943-9B8E-9154C3B6B3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>H-Index</t>
   </si>
@@ -178,10 +178,16 @@
     <t>Remove Element</t>
   </si>
   <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
     <t>Remove Duplicates from Sorted Array II</t>
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
   </si>
   <si>
     <t>Array / String</t>
@@ -751,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -768,17 +774,17 @@
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1">
         <v>2</v>
@@ -806,10 +812,10 @@
         <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="5">
         <v>44256</v>
@@ -826,351 +832,349 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F4" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>189</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>125</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F9" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>167</v>
       </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F10" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>209</v>
       </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="5">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>383</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="5">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="5">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>228</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="5">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>56</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="5">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>383</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="5">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="5">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="F27" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>228</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="5">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="5">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>71</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="5">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>141</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="5">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="5">
-        <v>44986</v>
-      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F31" s="5">
         <v>44986</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="5">
+        <v>44986</v>
+      </c>
+    </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
+      <c r="A33">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>104</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
         <v>44</v>
       </c>
-      <c r="E34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="5">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>100</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="5">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>105</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="E36" t="s">
         <v>75</v>
-      </c>
-      <c r="C36" t="s">
-        <v>47</v>
       </c>
       <c r="F36" s="5">
         <v>44986</v>
@@ -1178,124 +1182,152 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F37" s="5">
         <v>44986</v>
       </c>
     </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>105</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="5">
+        <v>44986</v>
+      </c>
+    </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A39">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>530</v>
       </c>
-      <c r="B40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
         <v>44</v>
       </c>
-      <c r="E40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="5">
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>230</v>
       </c>
-      <c r="B41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="5">
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>200</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="5">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>130</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="5">
-        <v>45717</v>
-      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
+        <v>200</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="5">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>130</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="5">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>133</v>
       </c>
-      <c r="B46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="5">
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="5">
         <v>45717</v>
       </c>
     </row>
@@ -1324,8 +1356,10 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{45809EEC-81DF-6A4E-91D1-93A7E83EA600}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{E8209BAF-E983-F84D-85E9-51122788BE77}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{123BEFC6-385A-644B-AEEF-1E4E98150A90}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{61620F85-A756-1948-B905-68253DFF6AD5}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{82624FD5-7C76-EB45-9D9D-195B23F4F9DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A85ECC-B1A6-C943-9B8E-9154C3B6B3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D34CDE-752D-2947-87A0-64FDFC014163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
   <si>
     <t>H-Index</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>Two pointer</t>
+  </si>
+  <si>
+    <t>Very unique solution. Reverse and analyze</t>
+  </si>
+  <si>
+    <t>Container with Most Water</t>
   </si>
 </sst>
 </file>
@@ -757,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -862,6 +868,9 @@
       <c r="C6" t="s">
         <v>48</v>
       </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
       <c r="F6" s="5"/>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -910,225 +919,219 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="5">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>209</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F14" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F17" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>383</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="5">
-        <v>44256</v>
-      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>383</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="5">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>49</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>61</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F21" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>228</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="5">
-        <v>44621</v>
-      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F24" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="5">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="5">
-        <v>44621</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F28" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="5">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>141</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="5">
-        <v>44986</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F32" s="5">
         <v>44986</v>
@@ -1136,73 +1139,79 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F33" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>138</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>104</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="5">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>100</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
       </c>
+      <c r="E37" t="s">
+        <v>75</v>
+      </c>
       <c r="F37" s="5">
         <v>44986</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F38" s="5">
         <v>44986</v>
@@ -1210,10 +1219,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
@@ -1222,112 +1231,126 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>530</v>
-      </c>
-      <c r="B42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" s="5">
-        <v>44986</v>
-      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>230</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>200</v>
-      </c>
-      <c r="B46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" t="s">
-        <v>86</v>
-      </c>
-      <c r="F46" s="5">
-        <v>45352</v>
-      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F47" s="5">
-        <v>45717</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
         <v>48</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="5">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>133</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
         <v>90</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F49" s="5">
         <v>45717</v>
       </c>
     </row>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D34CDE-752D-2947-87A0-64FDFC014163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91B4948-F038-DC46-A9C2-9ACA3EE669F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
   <si>
     <t>H-Index</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Summary Ranges</t>
   </si>
   <si>
-    <t>Merge Intetvals</t>
-  </si>
-  <si>
     <t>Stack</t>
   </si>
   <si>
@@ -320,6 +317,24 @@
   </si>
   <si>
     <t>Container with Most Water</t>
+  </si>
+  <si>
+    <t>Longest Substring without Repeating Characters</t>
+  </si>
+  <si>
+    <t>Sliding window… think about using while loop</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Handle the last iteration</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
   </si>
 </sst>
 </file>
@@ -763,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -838,7 +853,7 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="5">
         <v>45717</v>
@@ -869,7 +884,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -924,10 +939,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="F11" s="5">
         <v>45717</v>
@@ -959,398 +977,447 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="5">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="5">
         <v>44256</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
+      <c r="A19">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>383</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F22" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>49</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>228</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F26" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>56</v>
       </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="5">
         <v>44621</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="5">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>20</v>
       </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F31" s="5">
         <v>44621</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>71</v>
-      </c>
-      <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="5">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="5">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>141</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
         <v>68</v>
       </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32">
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>138</v>
+      </c>
+      <c r="B37" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="5">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>138</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" t="s">
         <v>71</v>
-      </c>
-      <c r="C34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="5">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>104</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" t="s">
-        <v>75</v>
       </c>
       <c r="F37" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>100</v>
-      </c>
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>104</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="5">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>105</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="5">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>106</v>
-      </c>
-      <c r="B40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" t="s">
-        <v>48</v>
+      <c r="E40" t="s">
+        <v>74</v>
       </c>
       <c r="F40" s="5">
         <v>44986</v>
       </c>
     </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="5">
+        <v>44986</v>
+      </c>
+    </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="A42">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="5">
+        <v>44986</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>530</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="F43" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>230</v>
-      </c>
-      <c r="B44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" t="s">
-        <v>83</v>
-      </c>
-      <c r="F44" s="5">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>530</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="5">
         <v>44986</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
+        <v>230</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>200</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
         <v>85</v>
       </c>
-      <c r="C47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F50" s="5">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>130</v>
+      </c>
+      <c r="B51" t="s">
         <v>86</v>
       </c>
-      <c r="F47" s="5">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>130</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" t="s">
         <v>87</v>
       </c>
-      <c r="C48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F51" s="5">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="5">
-        <v>45717</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>133</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" t="s">
         <v>89</v>
       </c>
-      <c r="C49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" s="5">
+      <c r="F52" s="5">
         <v>45717</v>
       </c>
     </row>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91B4948-F038-DC46-A9C2-9ACA3EE669F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5E6D14-2559-4345-B9F2-D2212A3DB446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
   <si>
     <t>H-Index</t>
   </si>
@@ -335,6 +335,18 @@
   </si>
   <si>
     <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Shifting 4 directional pointers</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Consider each node in the stack having a minimum value</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
   </si>
 </sst>
 </file>
@@ -778,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,7 +1042,15 @@
       <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="5">
+        <v>46082</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
@@ -1172,127 +1192,133 @@
         <v>44621</v>
       </c>
     </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="5">
+        <v>46082</v>
+      </c>
+    </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
+      <c r="A34">
+        <v>150</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>141</v>
-      </c>
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="5">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="5">
-        <v>44986</v>
-      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F37" s="5">
         <v>44986</v>
       </c>
     </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="5">
+        <v>44986</v>
+      </c>
+    </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
+      <c r="A39">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>104</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>44</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E42" t="s">
         <v>74</v>
-      </c>
-      <c r="F40" s="5">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>100</v>
-      </c>
-      <c r="B41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="5">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>105</v>
-      </c>
-      <c r="B42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" t="s">
-        <v>48</v>
       </c>
       <c r="F42" s="5">
         <v>44986</v>
@@ -1300,129 +1326,157 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F43" s="5">
         <v>44986</v>
       </c>
     </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="5">
+        <v>44986</v>
+      </c>
+    </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
+      <c r="A45">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>530</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>79</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>44</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E48" t="s">
         <v>80</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F48" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>230</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>81</v>
       </c>
-      <c r="C47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F49" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>200</v>
-      </c>
-      <c r="B50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" t="s">
-        <v>85</v>
-      </c>
-      <c r="F50" s="5">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>130</v>
-      </c>
-      <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" s="5">
-        <v>45717</v>
-      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
+        <v>200</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="5">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>130</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" s="5">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>133</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>88</v>
       </c>
-      <c r="C52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="C54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F54" s="5">
         <v>45717</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F1048576">
+  <conditionalFormatting sqref="F36:F1048576 F2:F34">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -1438,7 +1492,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:E1048576">
+  <conditionalFormatting sqref="D36:E1048576 D1:E31 E32 E35 D32:D35">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5E6D14-2559-4345-B9F2-D2212A3DB446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C3F5B9-CCA4-384B-8BE6-625038F7A7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
   <si>
     <t>H-Index</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>Reverse Linked List II</t>
+  </si>
+  <si>
+    <t>Find left start then reverse only x amount. Understand how reverse LL works</t>
   </si>
 </sst>
 </file>
@@ -790,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1295,58 +1301,61 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="5">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>104</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="C42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="5">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>100</v>
-      </c>
-      <c r="B43" t="s">
-        <v>75</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
       <c r="F43" s="5">
         <v>44986</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F44" s="5">
         <v>44986</v>
@@ -1354,10 +1363,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
         <v>48</v>
@@ -1366,112 +1375,126 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>530</v>
-      </c>
-      <c r="B48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" s="5">
-        <v>44986</v>
-      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F49" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>230</v>
+      </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>200</v>
-      </c>
-      <c r="B52" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="5">
-        <v>45352</v>
-      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
         <v>48</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F53" s="5">
-        <v>45717</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
+        <v>130</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" s="5">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>133</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>88</v>
       </c>
-      <c r="C54" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" t="s">
         <v>89</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F55" s="5">
         <v>45717</v>
       </c>
     </row>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C3F5B9-CCA4-384B-8BE6-625038F7A7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7EDCAA-14BD-C146-9670-96BEA543F54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
   <si>
     <t>H-Index</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>Find left start then reverse only x amount. Understand how reverse LL works</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>Delay</t>
   </si>
 </sst>
 </file>
@@ -796,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1318,58 +1324,61 @@
         <v>46082</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="5">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>104</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="C43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="5">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>100</v>
-      </c>
-      <c r="B44" t="s">
-        <v>75</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
       </c>
+      <c r="E44" t="s">
+        <v>74</v>
+      </c>
       <c r="F44" s="5">
         <v>44986</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F45" s="5">
         <v>44986</v>
@@ -1377,10 +1386,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
@@ -1389,112 +1398,126 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>530</v>
-      </c>
-      <c r="B49" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" s="5">
-        <v>44986</v>
-      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F50" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>230</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>200</v>
-      </c>
-      <c r="B53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53" s="5">
-        <v>45352</v>
-      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
         <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F54" s="5">
-        <v>45717</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" s="5">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>133</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>88</v>
       </c>
-      <c r="C55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" t="s">
         <v>89</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F56" s="5">
         <v>45717</v>
       </c>
     </row>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7EDCAA-14BD-C146-9670-96BEA543F54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF77484-F38D-2949-96B0-AFDCB0684AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
   <si>
     <t>H-Index</t>
   </si>
@@ -359,6 +359,15 @@
   </si>
   <si>
     <t>Delay</t>
+  </si>
+  <si>
+    <t>Path Sum</t>
+  </si>
+  <si>
+    <t>Recursion is hard. Look at how base case will eventually bubble up</t>
+  </si>
+  <si>
+    <t>Snakes and Ladders</t>
   </si>
 </sst>
 </file>
@@ -424,15 +433,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -442,6 +449,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -479,16 +496,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -802,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -813,7 +820,6 @@
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="5" max="5" width="64.5" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -828,7 +834,7 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="1">
@@ -920,7 +926,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -983,7 +989,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
@@ -1026,7 +1032,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
@@ -1072,7 +1078,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
@@ -1112,7 +1118,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -1172,7 +1178,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -1246,7 +1252,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="6"/>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -1349,7 +1355,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="6"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
@@ -1357,7 +1363,7 @@
       <c r="A44">
         <v>104</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C44" t="s">
@@ -1412,134 +1418,162 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>112</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="5">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>530</v>
-      </c>
-      <c r="B50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F50" s="5">
-        <v>44986</v>
-      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F51" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>230</v>
+      </c>
+      <c r="B52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="5">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>200</v>
-      </c>
-      <c r="B54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" t="s">
-        <v>85</v>
-      </c>
-      <c r="F54" s="5">
-        <v>45352</v>
-      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
         <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F55" s="5">
-        <v>45717</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
         <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F56" s="5">
         <v>45717</v>
       </c>
     </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>133</v>
+      </c>
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="5">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>909</v>
+      </c>
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F36:F1048576 F2:F34">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:E31 E32 D32:D35 E35 D36:E1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36:E1048576 D1:E31 E32 E35 D32:D35">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F34 F36:F1048576">
+    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF77484-F38D-2949-96B0-AFDCB0684AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7C513D-EBDD-DA4E-A257-772CC0DB927A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
   <si>
     <t>H-Index</t>
   </si>
@@ -368,6 +368,18 @@
   </si>
   <si>
     <t>Snakes and Ladders</t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
+    <t>BFS, optimized with hashset. How to convert square# to r,c?</t>
+  </si>
+  <si>
+    <t>Need to review… this is crazy</t>
+  </si>
+  <si>
+    <t>No Idea</t>
   </si>
 </sst>
 </file>
@@ -809,20 +821,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="5" max="5" width="64.5" customWidth="1"/>
+    <col min="6" max="6" width="64.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>50</v>
@@ -832,19 +844,22 @@
         <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>2</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>88</v>
       </c>
@@ -854,11 +869,11 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>80</v>
       </c>
@@ -868,11 +883,11 @@
       <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>27</v>
       </c>
@@ -882,14 +897,14 @@
       <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>26</v>
       </c>
@@ -899,11 +914,11 @@
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>189</v>
       </c>
@@ -913,12 +928,12 @@
       <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>53</v>
@@ -929,8 +944,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>125</v>
       </c>
@@ -943,11 +959,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>167</v>
       </c>
@@ -960,11 +976,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -977,11 +993,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>56</v>
@@ -992,8 +1008,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>209</v>
       </c>
@@ -1003,11 +1020,11 @@
       <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1017,14 +1034,14 @@
       <c r="C15" t="s">
         <v>48</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>58</v>
@@ -1035,8 +1052,9 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>36</v>
       </c>
@@ -1046,11 +1064,11 @@
       <c r="C18" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>54</v>
       </c>
@@ -1063,14 +1081,14 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>46082</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>25</v>
@@ -1081,8 +1099,9 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>383</v>
       </c>
@@ -1092,11 +1111,11 @@
       <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>44256</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>49</v>
       </c>
@@ -1106,11 +1125,11 @@
       <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>62</v>
@@ -1121,8 +1140,9 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>228</v>
       </c>
@@ -1132,11 +1152,11 @@
       <c r="C26" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>56</v>
       </c>
@@ -1146,14 +1166,14 @@
       <c r="C27" t="s">
         <v>48</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>57</v>
       </c>
@@ -1163,14 +1183,14 @@
       <c r="C28" t="s">
         <v>48</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <v>46082</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>64</v>
@@ -1181,8 +1201,9 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>20</v>
       </c>
@@ -1192,11 +1213,11 @@
       <c r="C31" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G31" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>71</v>
       </c>
@@ -1206,11 +1227,11 @@
       <c r="C32" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G32" s="5">
         <v>44621</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>155</v>
       </c>
@@ -1220,14 +1241,14 @@
       <c r="C33" t="s">
         <v>48</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G33" s="5">
         <v>46082</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>150</v>
       </c>
@@ -1240,11 +1261,11 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="5">
         <v>46082</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>40</v>
@@ -1255,8 +1276,9 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>141</v>
       </c>
@@ -1269,14 +1291,14 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="5">
+      <c r="G37" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1289,14 +1311,14 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>138</v>
       </c>
@@ -1306,14 +1328,14 @@
       <c r="C39" t="s">
         <v>48</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="5">
+      <c r="G39" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>92</v>
       </c>
@@ -1323,14 +1345,14 @@
       <c r="C40" t="s">
         <v>48</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>104</v>
       </c>
-      <c r="F40" s="5">
+      <c r="G40" s="5">
         <v>46082</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>19</v>
       </c>
@@ -1340,14 +1362,14 @@
       <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>106</v>
       </c>
-      <c r="F41" s="5">
+      <c r="G41" s="5">
         <v>46082</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>72</v>
@@ -1358,8 +1380,9 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>104</v>
       </c>
@@ -1369,14 +1392,14 @@
       <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="5">
+      <c r="G44" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>100</v>
       </c>
@@ -1386,11 +1409,11 @@
       <c r="C45" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="5">
+      <c r="G45" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>105</v>
       </c>
@@ -1400,11 +1423,11 @@
       <c r="C46" t="s">
         <v>48</v>
       </c>
-      <c r="F46" s="5">
+      <c r="G46" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>106</v>
       </c>
@@ -1414,11 +1437,11 @@
       <c r="C47" t="s">
         <v>48</v>
       </c>
-      <c r="F47" s="5">
+      <c r="G47" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>112</v>
       </c>
@@ -1428,14 +1451,14 @@
       <c r="C48" t="s">
         <v>44</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="5">
+      <c r="G48" s="5">
         <v>46082</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>78</v>
@@ -1446,8 +1469,9 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>530</v>
       </c>
@@ -1457,14 +1481,14 @@
       <c r="C51" t="s">
         <v>44</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="5">
+      <c r="G51" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>230</v>
       </c>
@@ -1474,14 +1498,14 @@
       <c r="C52" t="s">
         <v>48</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>82</v>
       </c>
-      <c r="F52" s="5">
+      <c r="G52" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>83</v>
@@ -1492,8 +1516,9 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>200</v>
       </c>
@@ -1503,14 +1528,14 @@
       <c r="C55" t="s">
         <v>48</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>85</v>
       </c>
-      <c r="F55" s="5">
+      <c r="G55" s="5">
         <v>45352</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>130</v>
       </c>
@@ -1520,14 +1545,14 @@
       <c r="C56" t="s">
         <v>48</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>87</v>
       </c>
-      <c r="F56" s="5">
+      <c r="G56" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>133</v>
       </c>
@@ -1537,14 +1562,14 @@
       <c r="C57" t="s">
         <v>48</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>89</v>
       </c>
-      <c r="F57" s="5">
+      <c r="G57" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>909</v>
       </c>
@@ -1553,6 +1578,32 @@
       </c>
       <c r="C58" t="s">
         <v>48</v>
+      </c>
+      <c r="F58" t="s">
+        <v>111</v>
+      </c>
+      <c r="G58" s="5">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>399</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" s="5">
+        <v>46447</v>
       </c>
     </row>
   </sheetData>
@@ -1567,12 +1618,12 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:E31 E32 D32:D35 E35 D36:E1048576">
+  <conditionalFormatting sqref="F35:F1048576 F1:F32 D1:E1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F34 F36:F1048576">
+  <conditionalFormatting sqref="G2:G34 G36:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7C513D-EBDD-DA4E-A257-772CC0DB927A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B6DB8B-BB82-5944-BD40-124220BB033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="117">
   <si>
     <t>H-Index</t>
   </si>
@@ -380,6 +380,15 @@
   </si>
   <si>
     <t>No Idea</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node II</t>
+  </si>
+  <si>
+    <t>BFS level detection then iterate through the list</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
   </si>
 </sst>
 </file>
@@ -821,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1458,151 +1467,183 @@
         <v>46082</v>
       </c>
     </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49" s="5">
+        <v>46447</v>
+      </c>
+    </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
+      <c r="A50">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>530</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>79</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>44</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F53" t="s">
         <v>80</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G53" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>230</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>81</v>
       </c>
-      <c r="C52" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="C54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
         <v>82</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G54" s="5">
         <v>44986</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>200</v>
-      </c>
-      <c r="B55" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" t="s">
-        <v>48</v>
-      </c>
-      <c r="F55" t="s">
-        <v>85</v>
-      </c>
-      <c r="G55" s="5">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>130</v>
-      </c>
-      <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" t="s">
-        <v>48</v>
-      </c>
-      <c r="F56" t="s">
-        <v>87</v>
-      </c>
-      <c r="G56" s="5">
-        <v>45717</v>
-      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
         <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G57" s="5">
-        <v>45717</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>909</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
         <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="G58" s="5">
-        <v>46447</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
+        <v>133</v>
+      </c>
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" t="s">
+        <v>89</v>
+      </c>
+      <c r="G59" s="5">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>909</v>
+      </c>
+      <c r="B60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" t="s">
+        <v>111</v>
+      </c>
+      <c r="G60" s="5">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>399</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>110</v>
       </c>
-      <c r="C59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59">
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61">
         <v>1</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F61" t="s">
         <v>112</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G61" s="5">
         <v>46447</v>
       </c>
     </row>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B6DB8B-BB82-5944-BD40-124220BB033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02786F31-0C83-5C41-95C6-E531B14E6A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="LeetCode" sheetId="1" r:id="rId2"/>
     <sheet name="Data Structure" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
   <si>
     <t>H-Index</t>
   </si>
@@ -389,6 +390,42 @@
   </si>
   <si>
     <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Memorize BFS level detection algo</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>Validate Binary Searh Tree</t>
+  </si>
+  <si>
+    <t>Techniques</t>
+  </si>
+  <si>
+    <t>BFS Traversal</t>
+  </si>
+  <si>
+    <t>DFS Traversal</t>
+  </si>
+  <si>
+    <t>Propping down the L and R to compare curr node value</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Level detection with toggle True/False</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>Recursive. Think about how to persist and accumulate value through recursive</t>
   </si>
 </sst>
 </file>
@@ -830,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1497,153 +1534,245 @@
       <c r="C50" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G50" s="5">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51" s="5">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>530</v>
-      </c>
-      <c r="B53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" t="s">
-        <v>80</v>
-      </c>
-      <c r="G53" s="5">
-        <v>44986</v>
-      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G54" s="5">
         <v>44986</v>
       </c>
     </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>230</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" s="5">
+        <v>44986</v>
+      </c>
+    </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
+      <c r="A56">
+        <v>98</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" s="5">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>200</v>
-      </c>
-      <c r="B57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" t="s">
-        <v>48</v>
-      </c>
-      <c r="F57" t="s">
-        <v>85</v>
-      </c>
-      <c r="G57" s="5">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>130</v>
-      </c>
-      <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" t="s">
-        <v>87</v>
-      </c>
-      <c r="G58" s="5">
-        <v>45717</v>
-      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
         <v>48</v>
       </c>
       <c r="F59" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G59" s="5">
-        <v>45717</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>909</v>
+        <v>130</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
         <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="G60" s="5">
-        <v>46447</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G61" s="5">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>909</v>
+      </c>
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" t="s">
+        <v>111</v>
+      </c>
+      <c r="G62" s="5">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>399</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>110</v>
       </c>
-      <c r="C61" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61">
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63">
         <v>1</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F63" t="s">
         <v>112</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G63" s="5">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>207</v>
+      </c>
+      <c r="B64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="G64" s="5">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67" s="5">
         <v>46447</v>
       </c>
     </row>
@@ -1659,7 +1788,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F1048576 F1:F32 D1:E1048576">
+  <conditionalFormatting sqref="F35:F65 F1:F32 D1:E65 D66:F1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1950,4 +2079,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B765CAE0-430B-0048-A6D1-3E8F8EC69097}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02786F31-0C83-5C41-95C6-E531B14E6A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D979F919-48A4-1C4C-9F83-EA81E0FB7FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="131">
   <si>
     <t>H-Index</t>
   </si>
@@ -426,6 +426,12 @@
   </si>
   <si>
     <t>Recursive. Think about how to persist and accumulate value through recursive</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>Permutations</t>
   </si>
 </sst>
 </file>
@@ -867,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1774,6 +1780,37 @@
       </c>
       <c r="G67" s="5">
         <v>46447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" t="s">
+        <v>128</v>
+      </c>
+      <c r="G68" s="5">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>46</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+      <c r="G69" s="5">
+        <v>46813</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D979F919-48A4-1C4C-9F83-EA81E0FB7FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F09081-E206-EB48-B3AD-4A08A4D3C489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="136">
   <si>
     <t>H-Index</t>
   </si>
@@ -432,6 +432,21 @@
   </si>
   <si>
     <t>Permutations</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>DFS, work on the decision tree</t>
+  </si>
+  <si>
+    <t>Divide and Conquer</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to BST</t>
   </si>
 </sst>
 </file>
@@ -873,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1809,7 +1824,60 @@
       <c r="C69" t="s">
         <v>48</v>
       </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
       <c r="G69" s="5">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" s="5">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>108</v>
+      </c>
+      <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" s="5">
         <v>46813</v>
       </c>
     </row>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F09081-E206-EB48-B3AD-4A08A4D3C489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3579788-C180-3049-9997-38920FC69AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="139">
   <si>
     <t>H-Index</t>
   </si>
@@ -447,6 +447,15 @@
   </si>
   <si>
     <t>Convert Sorted Array to BST</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>Think about what to return when there is no found</t>
   </si>
 </sst>
 </file>
@@ -888,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1878,6 +1887,33 @@
         <v>132</v>
       </c>
       <c r="G73" s="5">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>138</v>
+      </c>
+      <c r="G76" s="5">
         <v>46813</v>
       </c>
     </row>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3579788-C180-3049-9997-38920FC69AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3746E81-7149-2344-8F1E-0948004C1863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="142">
   <si>
     <t>H-Index</t>
   </si>
@@ -456,6 +456,15 @@
   </si>
   <si>
     <t>Think about what to return when there is no found</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>Two-dimensional b-search. Row then find column</t>
+  </si>
+  <si>
+    <t>Find a Peak Element</t>
   </si>
 </sst>
 </file>
@@ -897,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1904,6 +1913,9 @@
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>35</v>
+      </c>
       <c r="B76" t="s">
         <v>137</v>
       </c>
@@ -1914,6 +1926,37 @@
         <v>138</v>
       </c>
       <c r="G76" s="5">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" s="5">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G78" s="5">
         <v>46813</v>
       </c>
     </row>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3746E81-7149-2344-8F1E-0948004C1863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467242D2-AFED-A144-A364-75B48214DD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="144">
   <si>
     <t>H-Index</t>
   </si>
@@ -465,6 +465,12 @@
   </si>
   <si>
     <t>Find a Peak Element</t>
+  </si>
+  <si>
+    <t>Binary search than compare with l and r. Start new search on larger side</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -906,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1956,7 +1962,24 @@
       <c r="C78" t="s">
         <v>48</v>
       </c>
+      <c r="F78" t="s">
+        <v>142</v>
+      </c>
       <c r="G78" s="5">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>33</v>
+      </c>
+      <c r="B79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" t="s">
+        <v>48</v>
+      </c>
+      <c r="G79" s="5">
         <v>46813</v>
       </c>
     </row>
@@ -1972,7 +1995,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F65 F1:F32 D1:E65 D66:F1048576">
+  <conditionalFormatting sqref="F35:F65 F1:F32 D1:E65 D80:F1048576 D79:E79 D66:F78">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467242D2-AFED-A144-A364-75B48214DD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB114B24-B749-E14C-B117-752EB675CA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="145">
   <si>
     <t>H-Index</t>
   </si>
@@ -471,6 +471,9 @@
   </si>
   <si>
     <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Investigate cases</t>
   </si>
 </sst>
 </file>
@@ -915,7 +918,7 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1979,6 +1982,9 @@
       <c r="C79" t="s">
         <v>48</v>
       </c>
+      <c r="F79" t="s">
+        <v>144</v>
+      </c>
       <c r="G79" s="5">
         <v>46813</v>
       </c>
@@ -1995,7 +2001,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F65 F1:F32 D1:E65 D80:F1048576 D79:E79 D66:F78">
+  <conditionalFormatting sqref="F35:F65 F1:F32 D1:E65 D66:F1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB114B24-B749-E14C-B117-752EB675CA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533E30C3-C583-CA4D-8750-CE71F3672BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="156">
   <si>
     <t>H-Index</t>
   </si>
@@ -474,6 +474,39 @@
   </si>
   <si>
     <t>Investigate cases</t>
+  </si>
+  <si>
+    <t>Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>Case table helps a lot</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Heapify(). Create a k size heap then pushpop</t>
+  </si>
+  <si>
+    <t>Find K Pairs with Smallest Sums</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Add Binary</t>
+  </si>
+  <si>
+    <t>Mod it by 2 for binary</t>
+  </si>
+  <si>
+    <t>Reverse Bits</t>
+  </si>
+  <si>
+    <t>Memorize the equation</t>
   </si>
 </sst>
 </file>
@@ -915,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1987,6 +2020,117 @@
       </c>
       <c r="G79" s="5">
         <v>46813</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" t="s">
+        <v>146</v>
+      </c>
+      <c r="G80" s="5">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>215</v>
+      </c>
+      <c r="B83" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" t="s">
+        <v>48</v>
+      </c>
+      <c r="F83" t="s">
+        <v>149</v>
+      </c>
+      <c r="G83" s="5">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>373</v>
+      </c>
+      <c r="B84" t="s">
+        <v>150</v>
+      </c>
+      <c r="C84" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="G84" s="5">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>67</v>
+      </c>
+      <c r="B87" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>153</v>
+      </c>
+      <c r="G87" s="5">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>190</v>
+      </c>
+      <c r="B88" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>155</v>
+      </c>
+      <c r="G88" s="5">
+        <v>11018</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533E30C3-C583-CA4D-8750-CE71F3672BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E74968A-F1C9-BE47-A731-603B1C29769E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>H-Index</t>
   </si>
@@ -507,6 +507,18 @@
   </si>
   <si>
     <t>Memorize the equation</t>
+  </si>
+  <si>
+    <t>Single Number</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
   </si>
 </sst>
 </file>
@@ -948,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2130,6 +2142,50 @@
         <v>155</v>
       </c>
       <c r="G88" s="5">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>136</v>
+      </c>
+      <c r="B89" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>157</v>
+      </c>
+      <c r="G89" s="5">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>70</v>
+      </c>
+      <c r="B92" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" t="s">
+        <v>44</v>
+      </c>
+      <c r="G92" s="5">
         <v>11018</v>
       </c>
     </row>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E74968A-F1C9-BE47-A731-603B1C29769E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC59ED13-0D24-C243-86C8-33CA6AC1B2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="166">
   <si>
     <t>H-Index</t>
   </si>
@@ -519,12 +519,33 @@
   </si>
   <si>
     <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>Kinda like sliding window</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>What da..</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>Bottom up</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -584,16 +605,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -960,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -971,6 +993,7 @@
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="6" max="6" width="64.5" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -988,7 +1011,7 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="1">
@@ -1008,7 +1031,7 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="7">
         <v>44256</v>
       </c>
     </row>
@@ -1022,7 +1045,7 @@
       <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="7">
         <v>44256</v>
       </c>
     </row>
@@ -1039,7 +1062,7 @@
       <c r="F4" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="7">
         <v>45717</v>
       </c>
     </row>
@@ -1053,7 +1076,7 @@
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="7">
         <v>45717</v>
       </c>
     </row>
@@ -1070,7 +1093,6 @@
       <c r="F6" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="5"/>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -1081,7 +1103,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -1098,7 +1120,7 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="7">
         <v>44256</v>
       </c>
     </row>
@@ -1115,7 +1137,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="7">
         <v>44256</v>
       </c>
     </row>
@@ -1132,7 +1154,7 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="7">
         <v>45717</v>
       </c>
     </row>
@@ -1145,7 +1167,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
@@ -1159,7 +1181,7 @@
       <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="7">
         <v>44256</v>
       </c>
     </row>
@@ -1176,7 +1198,7 @@
       <c r="F15" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="7">
         <v>45717</v>
       </c>
     </row>
@@ -1189,7 +1211,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -1203,7 +1225,7 @@
       <c r="C18" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="7">
         <v>44256</v>
       </c>
     </row>
@@ -1223,7 +1245,7 @@
       <c r="F19" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="7">
         <v>46082</v>
       </c>
     </row>
@@ -1236,7 +1258,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -1250,7 +1272,7 @@
       <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="7">
         <v>44256</v>
       </c>
     </row>
@@ -1264,7 +1286,7 @@
       <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="7">
         <v>44621</v>
       </c>
     </row>
@@ -1277,7 +1299,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
@@ -1291,7 +1313,7 @@
       <c r="C26" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="7">
         <v>44621</v>
       </c>
     </row>
@@ -1308,7 +1330,7 @@
       <c r="F27" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="7">
         <v>44621</v>
       </c>
     </row>
@@ -1325,7 +1347,7 @@
       <c r="F28" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="7">
         <v>46082</v>
       </c>
     </row>
@@ -1338,7 +1360,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
@@ -1352,7 +1374,7 @@
       <c r="C31" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="7">
         <v>44621</v>
       </c>
     </row>
@@ -1366,7 +1388,7 @@
       <c r="C32" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="7">
         <v>44621</v>
       </c>
     </row>
@@ -1383,7 +1405,7 @@
       <c r="F33" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="7">
         <v>46082</v>
       </c>
     </row>
@@ -1400,7 +1422,7 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="7">
         <v>46082</v>
       </c>
     </row>
@@ -1413,7 +1435,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="6"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
@@ -1433,7 +1455,7 @@
       <c r="F37" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="7">
         <v>44986</v>
       </c>
     </row>
@@ -1453,7 +1475,7 @@
       <c r="F38" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="7">
         <v>44986</v>
       </c>
     </row>
@@ -1470,7 +1492,7 @@
       <c r="F39" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="7">
         <v>44986</v>
       </c>
     </row>
@@ -1487,7 +1509,7 @@
       <c r="F40" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="7">
         <v>46082</v>
       </c>
     </row>
@@ -1504,7 +1526,7 @@
       <c r="F41" t="s">
         <v>106</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="7">
         <v>46082</v>
       </c>
     </row>
@@ -1517,7 +1539,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="6"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
@@ -1525,7 +1547,7 @@
       <c r="A44">
         <v>104</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C44" t="s">
@@ -1534,7 +1556,7 @@
       <c r="F44" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="7">
         <v>44986</v>
       </c>
     </row>
@@ -1548,7 +1570,7 @@
       <c r="C45" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="7">
         <v>44986</v>
       </c>
     </row>
@@ -1562,7 +1584,7 @@
       <c r="C46" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="7">
         <v>44986</v>
       </c>
     </row>
@@ -1576,7 +1598,7 @@
       <c r="C47" t="s">
         <v>48</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="7">
         <v>44986</v>
       </c>
     </row>
@@ -1593,7 +1615,7 @@
       <c r="F48" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="7">
         <v>46082</v>
       </c>
     </row>
@@ -1613,7 +1635,7 @@
       <c r="F49" t="s">
         <v>115</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="7">
         <v>46447</v>
       </c>
     </row>
@@ -1633,7 +1655,7 @@
       <c r="F50" t="s">
         <v>117</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="7">
         <v>46447</v>
       </c>
     </row>
@@ -1653,7 +1675,7 @@
       <c r="F51" t="s">
         <v>125</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="7">
         <v>46447</v>
       </c>
     </row>
@@ -1666,7 +1688,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="6"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
@@ -1683,7 +1705,7 @@
       <c r="F54" t="s">
         <v>80</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="7">
         <v>44986</v>
       </c>
     </row>
@@ -1700,7 +1722,7 @@
       <c r="F55" t="s">
         <v>82</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="7">
         <v>44986</v>
       </c>
     </row>
@@ -1717,7 +1739,7 @@
       <c r="F56" t="s">
         <v>123</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="7">
         <v>46447</v>
       </c>
     </row>
@@ -1730,7 +1752,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="G58" s="6"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
@@ -1747,7 +1769,7 @@
       <c r="F59" t="s">
         <v>85</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="7">
         <v>45352</v>
       </c>
     </row>
@@ -1764,7 +1786,7 @@
       <c r="F60" t="s">
         <v>87</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="7">
         <v>45717</v>
       </c>
     </row>
@@ -1781,7 +1803,7 @@
       <c r="F61" t="s">
         <v>89</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="7">
         <v>45717</v>
       </c>
     </row>
@@ -1798,7 +1820,7 @@
       <c r="F62" t="s">
         <v>111</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="7">
         <v>46447</v>
       </c>
     </row>
@@ -1818,7 +1840,7 @@
       <c r="F63" t="s">
         <v>112</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="7">
         <v>46447</v>
       </c>
     </row>
@@ -1835,7 +1857,7 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="7">
         <v>46447</v>
       </c>
     </row>
@@ -1848,7 +1870,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="G66" s="6"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
@@ -1865,7 +1887,7 @@
       <c r="F67" t="s">
         <v>128</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="7">
         <v>46447</v>
       </c>
     </row>
@@ -1882,7 +1904,7 @@
       <c r="F68" t="s">
         <v>128</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="7">
         <v>46447</v>
       </c>
     </row>
@@ -1899,7 +1921,7 @@
       <c r="E69">
         <v>1</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="7">
         <v>46813</v>
       </c>
     </row>
@@ -1919,7 +1941,7 @@
       <c r="F70" t="s">
         <v>133</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="7">
         <v>46813</v>
       </c>
     </row>
@@ -1932,7 +1954,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="G72" s="6"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
@@ -1949,7 +1971,7 @@
       <c r="F73" t="s">
         <v>132</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="7">
         <v>46813</v>
       </c>
     </row>
@@ -1962,7 +1984,7 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="G75" s="6"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
@@ -1979,7 +2001,7 @@
       <c r="F76" t="s">
         <v>138</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="7">
         <v>46813</v>
       </c>
     </row>
@@ -1996,7 +2018,7 @@
       <c r="F77" t="s">
         <v>140</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="7">
         <v>46813</v>
       </c>
     </row>
@@ -2013,7 +2035,7 @@
       <c r="F78" t="s">
         <v>142</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="7">
         <v>46813</v>
       </c>
     </row>
@@ -2030,7 +2052,7 @@
       <c r="F79" t="s">
         <v>144</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="7">
         <v>46813</v>
       </c>
     </row>
@@ -2047,7 +2069,7 @@
       <c r="F80" t="s">
         <v>146</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="7">
         <v>47178</v>
       </c>
     </row>
@@ -2060,7 +2082,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="G82" s="6"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
@@ -2077,7 +2099,7 @@
       <c r="F83" t="s">
         <v>149</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="7">
         <v>47178</v>
       </c>
     </row>
@@ -2094,7 +2116,7 @@
       <c r="E84">
         <v>1</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="7">
         <v>47178</v>
       </c>
     </row>
@@ -2107,7 +2129,7 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="G86" s="6"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
@@ -2124,7 +2146,7 @@
       <c r="F87" t="s">
         <v>153</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="7">
         <v>47178</v>
       </c>
     </row>
@@ -2141,7 +2163,7 @@
       <c r="F88" t="s">
         <v>155</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88" s="7">
         <v>11018</v>
       </c>
     </row>
@@ -2158,7 +2180,7 @@
       <c r="F89" t="s">
         <v>157</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="7">
         <v>11018</v>
       </c>
     </row>
@@ -2171,7 +2193,7 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="G91" s="6"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
@@ -2185,8 +2207,62 @@
       <c r="C92" t="s">
         <v>44</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="7">
         <v>11018</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>198</v>
+      </c>
+      <c r="B93" t="s">
+        <v>160</v>
+      </c>
+      <c r="C93" t="s">
+        <v>48</v>
+      </c>
+      <c r="F93" t="s">
+        <v>161</v>
+      </c>
+      <c r="G93" s="7">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>139</v>
+      </c>
+      <c r="B94" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" t="s">
+        <v>48</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G94" s="7">
+        <v>11383</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>322</v>
+      </c>
+      <c r="B95" t="s">
+        <v>164</v>
+      </c>
+      <c r="C95" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95" t="s">
+        <v>165</v>
+      </c>
+      <c r="G95" s="7">
+        <v>37347</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC59ED13-0D24-C243-86C8-33CA6AC1B2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B73F7B5-2A36-AA43-8310-41EB1EB53486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="168">
   <si>
     <t>H-Index</t>
   </si>
@@ -537,6 +537,12 @@
   </si>
   <si>
     <t>Bottom up</t>
+  </si>
+  <si>
+    <t>Longest Increasing subsequence</t>
+  </si>
+  <si>
+    <t>Triangle</t>
   </si>
 </sst>
 </file>
@@ -982,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2263,6 +2269,34 @@
       </c>
       <c r="G95" s="7">
         <v>37347</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>300</v>
+      </c>
+      <c r="B96" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" t="s">
+        <v>48</v>
+      </c>
+      <c r="G96" s="7">
+        <v>37347</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>120</v>
+      </c>
+      <c r="B97" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" t="s">
+        <v>48</v>
+      </c>
+      <c r="G97" s="7">
+        <v>37712</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B73F7B5-2A36-AA43-8310-41EB1EB53486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E944AE2-759D-FB45-B0F1-48EE7F287F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="169">
   <si>
     <t>H-Index</t>
   </si>
@@ -543,6 +543,9 @@
   </si>
   <si>
     <t>Triangle</t>
+  </si>
+  <si>
+    <t>Reverse pyramid</t>
   </si>
 </sst>
 </file>
@@ -990,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2294,6 +2297,12 @@
       </c>
       <c r="C97" t="s">
         <v>48</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>168</v>
       </c>
       <c r="G97" s="7">
         <v>37712</v>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E944AE2-759D-FB45-B0F1-48EE7F287F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EDDB00-B2E7-5140-A7AD-03AA6CE54312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="171">
   <si>
     <t>H-Index</t>
   </si>
@@ -546,6 +546,12 @@
   </si>
   <si>
     <t>Reverse pyramid</t>
+  </si>
+  <si>
+    <t>Unique Path II</t>
+  </si>
+  <si>
+    <t>Out of range grid technique</t>
   </si>
 </sst>
 </file>
@@ -991,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2305,6 +2311,23 @@
         <v>168</v>
       </c>
       <c r="G97" s="7">
+        <v>37712</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>63</v>
+      </c>
+      <c r="B98" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" t="s">
+        <v>170</v>
+      </c>
+      <c r="G98" s="7">
         <v>37712</v>
       </c>
     </row>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EDDB00-B2E7-5140-A7AD-03AA6CE54312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A4206E-1984-E240-B016-73AF670A46C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="173">
   <si>
     <t>H-Index</t>
   </si>
@@ -551,7 +551,13 @@
     <t>Unique Path II</t>
   </si>
   <si>
-    <t>Out of range grid technique</t>
+    <t>Think about using only one row for saving up memory</t>
+  </si>
+  <si>
+    <t>Interleaving String</t>
+  </si>
+  <si>
+    <t>Use grid and additional layer technique</t>
   </si>
 </sst>
 </file>
@@ -620,12 +626,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -997,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,7 +1015,7 @@
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="6" max="6" width="64.5" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="7"/>
+    <col min="7" max="7" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1026,7 +1033,7 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="1">
@@ -1046,7 +1053,7 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>44256</v>
       </c>
     </row>
@@ -1060,7 +1067,7 @@
       <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>44256</v>
       </c>
     </row>
@@ -1077,7 +1084,7 @@
       <c r="F4" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>45717</v>
       </c>
     </row>
@@ -1091,7 +1098,7 @@
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>45717</v>
       </c>
     </row>
@@ -1118,7 +1125,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -1135,7 +1142,7 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>44256</v>
       </c>
     </row>
@@ -1152,7 +1159,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>44256</v>
       </c>
     </row>
@@ -1169,7 +1176,7 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>45717</v>
       </c>
     </row>
@@ -1182,7 +1189,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
@@ -1196,7 +1203,7 @@
       <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>44256</v>
       </c>
     </row>
@@ -1213,7 +1220,7 @@
       <c r="F15" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
         <v>45717</v>
       </c>
     </row>
@@ -1226,7 +1233,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -1240,7 +1247,7 @@
       <c r="C18" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="8">
         <v>44256</v>
       </c>
     </row>
@@ -1260,7 +1267,7 @@
       <c r="F19" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="8">
         <v>46082</v>
       </c>
     </row>
@@ -1273,7 +1280,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="6"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -1287,7 +1294,7 @@
       <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="8">
         <v>44256</v>
       </c>
     </row>
@@ -1301,7 +1308,7 @@
       <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="8">
         <v>44621</v>
       </c>
     </row>
@@ -1314,7 +1321,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
@@ -1328,7 +1335,7 @@
       <c r="C26" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="8">
         <v>44621</v>
       </c>
     </row>
@@ -1345,7 +1352,7 @@
       <c r="F27" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="8">
         <v>44621</v>
       </c>
     </row>
@@ -1362,7 +1369,7 @@
       <c r="F28" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="8">
         <v>46082</v>
       </c>
     </row>
@@ -1375,7 +1382,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="6"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
@@ -1389,7 +1396,7 @@
       <c r="C31" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="8">
         <v>44621</v>
       </c>
     </row>
@@ -1403,7 +1410,7 @@
       <c r="C32" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="8">
         <v>44621</v>
       </c>
     </row>
@@ -1420,7 +1427,7 @@
       <c r="F33" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="8">
         <v>46082</v>
       </c>
     </row>
@@ -1437,7 +1444,7 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="8">
         <v>46082</v>
       </c>
     </row>
@@ -1450,7 +1457,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="6"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
@@ -1470,7 +1477,7 @@
       <c r="F37" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="8">
         <v>44986</v>
       </c>
     </row>
@@ -1490,7 +1497,7 @@
       <c r="F38" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="8">
         <v>44986</v>
       </c>
     </row>
@@ -1507,7 +1514,7 @@
       <c r="F39" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="8">
         <v>44986</v>
       </c>
     </row>
@@ -1524,7 +1531,7 @@
       <c r="F40" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="8">
         <v>46082</v>
       </c>
     </row>
@@ -1541,7 +1548,7 @@
       <c r="F41" t="s">
         <v>106</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="8">
         <v>46082</v>
       </c>
     </row>
@@ -1554,7 +1561,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="6"/>
+      <c r="G43" s="7"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
@@ -1562,7 +1569,7 @@
       <c r="A44">
         <v>104</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C44" t="s">
@@ -1571,7 +1578,7 @@
       <c r="F44" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="8">
         <v>44986</v>
       </c>
     </row>
@@ -1585,7 +1592,7 @@
       <c r="C45" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="8">
         <v>44986</v>
       </c>
     </row>
@@ -1599,7 +1606,7 @@
       <c r="C46" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="8">
         <v>44986</v>
       </c>
     </row>
@@ -1613,7 +1620,7 @@
       <c r="C47" t="s">
         <v>48</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="8">
         <v>44986</v>
       </c>
     </row>
@@ -1630,7 +1637,7 @@
       <c r="F48" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="8">
         <v>46082</v>
       </c>
     </row>
@@ -1650,7 +1657,7 @@
       <c r="F49" t="s">
         <v>115</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="8">
         <v>46447</v>
       </c>
     </row>
@@ -1670,7 +1677,7 @@
       <c r="F50" t="s">
         <v>117</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="8">
         <v>46447</v>
       </c>
     </row>
@@ -1690,7 +1697,7 @@
       <c r="F51" t="s">
         <v>125</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="8">
         <v>46447</v>
       </c>
     </row>
@@ -1703,7 +1710,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="6"/>
+      <c r="G53" s="7"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
@@ -1720,7 +1727,7 @@
       <c r="F54" t="s">
         <v>80</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="8">
         <v>44986</v>
       </c>
     </row>
@@ -1737,7 +1744,7 @@
       <c r="F55" t="s">
         <v>82</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="8">
         <v>44986</v>
       </c>
     </row>
@@ -1754,7 +1761,7 @@
       <c r="F56" t="s">
         <v>123</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="8">
         <v>46447</v>
       </c>
     </row>
@@ -1767,7 +1774,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="6"/>
+      <c r="G58" s="7"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
@@ -1784,7 +1791,7 @@
       <c r="F59" t="s">
         <v>85</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="8">
         <v>45352</v>
       </c>
     </row>
@@ -1801,7 +1808,7 @@
       <c r="F60" t="s">
         <v>87</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="8">
         <v>45717</v>
       </c>
     </row>
@@ -1818,7 +1825,7 @@
       <c r="F61" t="s">
         <v>89</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="8">
         <v>45717</v>
       </c>
     </row>
@@ -1835,7 +1842,7 @@
       <c r="F62" t="s">
         <v>111</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="8">
         <v>46447</v>
       </c>
     </row>
@@ -1855,7 +1862,7 @@
       <c r="F63" t="s">
         <v>112</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="8">
         <v>46447</v>
       </c>
     </row>
@@ -1872,7 +1879,7 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="8">
         <v>46447</v>
       </c>
     </row>
@@ -1885,7 +1892,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="6"/>
+      <c r="G66" s="7"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
@@ -1902,7 +1909,7 @@
       <c r="F67" t="s">
         <v>128</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="8">
         <v>46447</v>
       </c>
     </row>
@@ -1919,7 +1926,7 @@
       <c r="F68" t="s">
         <v>128</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="8">
         <v>46447</v>
       </c>
     </row>
@@ -1936,7 +1943,7 @@
       <c r="E69">
         <v>1</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="8">
         <v>46813</v>
       </c>
     </row>
@@ -1956,7 +1963,7 @@
       <c r="F70" t="s">
         <v>133</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="8">
         <v>46813</v>
       </c>
     </row>
@@ -1969,7 +1976,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="6"/>
+      <c r="G72" s="7"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
@@ -1986,7 +1993,7 @@
       <c r="F73" t="s">
         <v>132</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="8">
         <v>46813</v>
       </c>
     </row>
@@ -1999,7 +2006,7 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="6"/>
+      <c r="G75" s="7"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
@@ -2016,7 +2023,7 @@
       <c r="F76" t="s">
         <v>138</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="8">
         <v>46813</v>
       </c>
     </row>
@@ -2033,7 +2040,7 @@
       <c r="F77" t="s">
         <v>140</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="8">
         <v>46813</v>
       </c>
     </row>
@@ -2050,7 +2057,7 @@
       <c r="F78" t="s">
         <v>142</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78" s="8">
         <v>46813</v>
       </c>
     </row>
@@ -2067,7 +2074,7 @@
       <c r="F79" t="s">
         <v>144</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G79" s="8">
         <v>46813</v>
       </c>
     </row>
@@ -2084,7 +2091,7 @@
       <c r="F80" t="s">
         <v>146</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G80" s="8">
         <v>47178</v>
       </c>
     </row>
@@ -2097,7 +2104,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="6"/>
+      <c r="G82" s="7"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
@@ -2114,7 +2121,7 @@
       <c r="F83" t="s">
         <v>149</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G83" s="8">
         <v>47178</v>
       </c>
     </row>
@@ -2131,7 +2138,7 @@
       <c r="E84">
         <v>1</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G84" s="8">
         <v>47178</v>
       </c>
     </row>
@@ -2144,7 +2151,7 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="6"/>
+      <c r="G86" s="7"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
@@ -2161,7 +2168,7 @@
       <c r="F87" t="s">
         <v>153</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G87" s="8">
         <v>47178</v>
       </c>
     </row>
@@ -2178,7 +2185,7 @@
       <c r="F88" t="s">
         <v>155</v>
       </c>
-      <c r="G88" s="7">
+      <c r="G88" s="8">
         <v>11018</v>
       </c>
     </row>
@@ -2195,7 +2202,7 @@
       <c r="F89" t="s">
         <v>157</v>
       </c>
-      <c r="G89" s="7">
+      <c r="G89" s="8">
         <v>11018</v>
       </c>
     </row>
@@ -2208,7 +2215,7 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="6"/>
+      <c r="G91" s="7"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
@@ -2222,7 +2229,7 @@
       <c r="C92" t="s">
         <v>44</v>
       </c>
-      <c r="G92" s="7">
+      <c r="G92" s="8">
         <v>11018</v>
       </c>
     </row>
@@ -2239,7 +2246,7 @@
       <c r="F93" t="s">
         <v>161</v>
       </c>
-      <c r="G93" s="7">
+      <c r="G93" s="8">
         <v>11018</v>
       </c>
     </row>
@@ -2259,7 +2266,7 @@
       <c r="F94" t="s">
         <v>163</v>
       </c>
-      <c r="G94" s="7">
+      <c r="G94" s="8">
         <v>11383</v>
       </c>
     </row>
@@ -2276,7 +2283,7 @@
       <c r="F95" t="s">
         <v>165</v>
       </c>
-      <c r="G95" s="7">
+      <c r="G95" s="8">
         <v>37347</v>
       </c>
     </row>
@@ -2290,11 +2297,11 @@
       <c r="C96" t="s">
         <v>48</v>
       </c>
-      <c r="G96" s="7">
+      <c r="G96" s="8">
         <v>37347</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>120</v>
       </c>
@@ -2310,11 +2317,14 @@
       <c r="F97" t="s">
         <v>168</v>
       </c>
-      <c r="G97" s="7">
+      <c r="G97" s="8">
         <v>37712</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97" s="5">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>63</v>
       </c>
@@ -2327,8 +2337,28 @@
       <c r="F98" t="s">
         <v>170</v>
       </c>
-      <c r="G98" s="7">
+      <c r="G98" s="8">
         <v>37712</v>
+      </c>
+      <c r="H98" s="5">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>171</v>
+      </c>
+      <c r="C99" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99" t="s">
+        <v>172</v>
+      </c>
+      <c r="G99" s="8">
+        <v>38078</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A4206E-1984-E240-B016-73AF670A46C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8399C8A3-FE58-1E4D-8F19-71D3AB492147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8399C8A3-FE58-1E4D-8F19-71D3AB492147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EBA70C-4212-F242-97A8-AD2936C670C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="174">
   <si>
     <t>H-Index</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>Use grid and additional layer technique</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1116,45 +1119,42 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>121</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="8">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>125</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>44256</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>167</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
+        <v>125</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
@@ -1177,180 +1177,180 @@
         <v>1</v>
       </c>
       <c r="G11" s="8">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
         <v>45717</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>209</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="8">
-        <v>44256</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>209</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="8">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>93</v>
       </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <v>45717</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="8">
-        <v>44256</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="8">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>98</v>
       </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19">
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="8">
         <v>46082</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>383</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="8">
-        <v>44256</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
+        <v>383</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="8">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>49</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="8">
         <v>44621</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>228</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="8">
-        <v>44621</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="G27" s="8">
         <v>44621</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
         <v>48</v>
@@ -1370,45 +1370,48 @@
         <v>97</v>
       </c>
       <c r="G28" s="8">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="8">
         <v>46082</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="8">
-        <v>44621</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G32" s="8">
         <v>44621</v>
@@ -1416,86 +1419,80 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
-      <c r="F33" t="s">
-        <v>101</v>
-      </c>
       <c r="G33" s="8">
-        <v>46082</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
         <v>48</v>
       </c>
-      <c r="D34">
-        <v>1</v>
+      <c r="F34" t="s">
+        <v>101</v>
       </c>
       <c r="G34" s="8">
         <v>46082</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>150</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>141</v>
-      </c>
-      <c r="B37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="8">
-        <v>44986</v>
-      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G38" s="8">
         <v>44986</v>
@@ -1503,16 +1500,19 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
       </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G39" s="8">
         <v>44986</v>
@@ -1520,91 +1520,94 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
         <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="G40" s="8">
-        <v>46082</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G41" s="8">
         <v>46082</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="8">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>104</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" t="s">
-        <v>74</v>
-      </c>
-      <c r="G44" s="8">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>100</v>
-      </c>
-      <c r="B45" t="s">
-        <v>75</v>
       </c>
       <c r="C45" t="s">
         <v>44</v>
       </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
       <c r="G45" s="8">
         <v>44986</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G46" s="8">
         <v>44986</v>
@@ -1612,10 +1615,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
@@ -1626,47 +1629,41 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="G48" s="8">
-        <v>46082</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G49" s="8">
-        <v>46447</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
         <v>48</v>
@@ -1675,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G50" s="8">
         <v>46447</v>
@@ -1683,10 +1680,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
         <v>48</v>
@@ -1695,54 +1692,57 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G51" s="8">
         <v>46447</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" s="8">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>530</v>
-      </c>
-      <c r="B54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G54" s="8">
-        <v>44986</v>
-      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G55" s="8">
         <v>44986</v>
@@ -1750,80 +1750,80 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
+        <v>230</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" s="8">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>98</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>119</v>
       </c>
-      <c r="C56" t="s">
-        <v>48</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" t="s">
         <v>123</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G57" s="8">
         <v>46447</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>200</v>
-      </c>
-      <c r="B59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" t="s">
-        <v>85</v>
-      </c>
-      <c r="G59" s="8">
-        <v>45352</v>
-      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
         <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G60" s="8">
-        <v>45717</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
         <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G61" s="8">
         <v>45717</v>
@@ -1831,36 +1831,33 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>909</v>
+        <v>133</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
         <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="G62" s="8">
-        <v>46447</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
         <v>48</v>
       </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
       <c r="F63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G63" s="8">
         <v>46447</v>
@@ -1868,10 +1865,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
         <v>48</v>
@@ -1879,46 +1876,49 @@
       <c r="E64">
         <v>1</v>
       </c>
+      <c r="F64" t="s">
+        <v>112</v>
+      </c>
       <c r="G64" s="8">
         <v>46447</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>207</v>
+      </c>
+      <c r="B65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="G65" s="8">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>17</v>
-      </c>
-      <c r="B67" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
-      </c>
-      <c r="G67" s="8">
-        <v>46447</v>
-      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s">
         <v>48</v>
@@ -1932,27 +1932,27 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C69" t="s">
         <v>48</v>
       </c>
-      <c r="E69">
-        <v>1</v>
+      <c r="F69" t="s">
+        <v>128</v>
       </c>
       <c r="G69" s="8">
-        <v>46813</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C70" t="s">
         <v>48</v>
@@ -1960,85 +1960,85 @@
       <c r="E70">
         <v>1</v>
       </c>
-      <c r="F70" t="s">
-        <v>133</v>
-      </c>
       <c r="G70" s="8">
         <v>46813</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>39</v>
+      </c>
+      <c r="B71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>133</v>
+      </c>
+      <c r="G71" s="8">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>108</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>135</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>44</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F74" t="s">
         <v>132</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G74" s="8">
         <v>46813</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>35</v>
-      </c>
-      <c r="B76" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" t="s">
-        <v>44</v>
-      </c>
-      <c r="F76" t="s">
-        <v>138</v>
-      </c>
-      <c r="G76" s="8">
-        <v>46813</v>
-      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C77" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G77" s="8">
         <v>46813</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C78" t="s">
         <v>48</v>
       </c>
       <c r="F78" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G78" s="8">
         <v>46813</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B79" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C79" t="s">
         <v>48</v>
       </c>
       <c r="F79" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G79" s="8">
         <v>46813</v>
@@ -2080,171 +2080,171 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
+        <v>33</v>
+      </c>
+      <c r="B80" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" t="s">
+        <v>144</v>
+      </c>
+      <c r="G80" s="8">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>34</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>145</v>
       </c>
-      <c r="C80" t="s">
-        <v>48</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="C81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" t="s">
         <v>146</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G81" s="8">
         <v>47178</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>215</v>
-      </c>
-      <c r="B83" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83" t="s">
-        <v>48</v>
-      </c>
-      <c r="F83" t="s">
-        <v>149</v>
-      </c>
-      <c r="G83" s="8">
-        <v>47178</v>
-      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C84" t="s">
         <v>48</v>
       </c>
-      <c r="E84">
-        <v>1</v>
+      <c r="F84" t="s">
+        <v>149</v>
       </c>
       <c r="G84" s="8">
         <v>47178</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>373</v>
+      </c>
+      <c r="B85" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="G85" s="8">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>67</v>
-      </c>
-      <c r="B87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C87" t="s">
-        <v>44</v>
-      </c>
-      <c r="F87" t="s">
-        <v>153</v>
-      </c>
-      <c r="G87" s="8">
-        <v>47178</v>
-      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C88" t="s">
         <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G88" s="8">
-        <v>11018</v>
+        <v>47178</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C89" t="s">
         <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G89" s="8">
         <v>11018</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>136</v>
+      </c>
+      <c r="B90" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>157</v>
+      </c>
+      <c r="G90" s="8">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>70</v>
-      </c>
-      <c r="B92" t="s">
-        <v>159</v>
-      </c>
-      <c r="C92" t="s">
-        <v>44</v>
-      </c>
-      <c r="G92" s="8">
-        <v>11018</v>
-      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C93" t="s">
-        <v>48</v>
-      </c>
-      <c r="F93" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="G93" s="8">
         <v>11018</v>
@@ -2252,50 +2252,53 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C94" t="s">
         <v>48</v>
       </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
       <c r="F94" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G94" s="8">
-        <v>11383</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B95" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C95" t="s">
         <v>48</v>
       </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
       <c r="F95" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G95" s="8">
-        <v>37347</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B96" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C96" t="s">
         <v>48</v>
+      </c>
+      <c r="F96" t="s">
+        <v>165</v>
       </c>
       <c r="G96" s="8">
         <v>37347</v>
@@ -2303,39 +2306,33 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C97" t="s">
         <v>48</v>
       </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97" t="s">
-        <v>168</v>
-      </c>
       <c r="G97" s="8">
-        <v>37712</v>
-      </c>
-      <c r="H97" s="5">
-        <v>38078</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B98" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C98" t="s">
         <v>48</v>
       </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
       <c r="F98" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G98" s="8">
         <v>37712</v>
@@ -2346,18 +2343,38 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
+        <v>63</v>
+      </c>
+      <c r="B99" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99" t="s">
+        <v>170</v>
+      </c>
+      <c r="G99" s="8">
+        <v>37712</v>
+      </c>
+      <c r="H99" s="5">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>171</v>
       </c>
-      <c r="C99" t="s">
-        <v>48</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="C100" t="s">
+        <v>48</v>
+      </c>
+      <c r="F100" t="s">
         <v>172</v>
       </c>
-      <c r="G99" s="8">
+      <c r="G100" s="8">
         <v>38078</v>
       </c>
     </row>
@@ -2373,12 +2390,12 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F65 F1:F32 D1:E65 D66:F1048576">
+  <conditionalFormatting sqref="F36:F66 F1:F33 D1:E66 D67:F1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G34 G36:G1048576">
+  <conditionalFormatting sqref="G2:G35 G37:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -2386,10 +2403,11 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{45809EEC-81DF-6A4E-91D1-93A7E83EA600}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{E8209BAF-E983-F84D-85E9-51122788BE77}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{123BEFC6-385A-644B-AEEF-1E4E98150A90}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{61620F85-A756-1948-B905-68253DFF6AD5}"/>
     <hyperlink ref="B6" r:id="rId6" xr:uid="{82624FD5-7C76-EB45-9D9D-195B23F4F9DA}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{1DA24BCD-8B15-3E41-9087-846CE867B65E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EBA70C-4212-F242-97A8-AD2936C670C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313FC39D-605D-FA45-8CB0-143F84213CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="176">
   <si>
     <t>H-Index</t>
   </si>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>Understand the graph better. Buying then selling is always more profit</t>
   </si>
 </sst>
 </file>
@@ -570,7 +576,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -597,6 +603,12 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -629,7 +641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -641,6 +653,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1007,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1129,49 +1142,52 @@
       <c r="C7" t="s">
         <v>44</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="G7" s="8">
         <v>38078</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>122</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="8">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>125</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>44256</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>167</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
+        <v>125</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1182,10 +1198,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>48</v>
@@ -1194,342 +1210,336 @@
         <v>1</v>
       </c>
       <c r="G12" s="8">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
         <v>45717</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="8">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>209</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="8">
         <v>44256</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>93</v>
       </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G18" s="8">
         <v>45717</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>59</v>
       </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="8">
         <v>44256</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>98</v>
       </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20">
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F22" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G22" s="8">
         <v>46082</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>383</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G25" s="8">
         <v>44256</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="8">
         <v>44621</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>228</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="8">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" s="8">
-        <v>44621</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
+        <v>228</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="8">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="8">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>57</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>95</v>
       </c>
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G31" s="8">
         <v>46082</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="8">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>71</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="8">
-        <v>44621</v>
-      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="G34" s="8">
-        <v>46082</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="8">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="8">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>150</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>102</v>
       </c>
-      <c r="C35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35">
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37">
         <v>1</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G37" s="8">
         <v>46082</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>141</v>
-      </c>
-      <c r="B38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="8">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" s="8">
-        <v>44986</v>
-      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="G40" s="8">
         <v>44986</v>
@@ -1537,91 +1547,100 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
       </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
       <c r="F41" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G41" s="8">
-        <v>46082</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
+        <v>138</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="8">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="8">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>19</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>105</v>
       </c>
-      <c r="C42" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" t="s">
         <v>106</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G44" s="8">
         <v>46082</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>104</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>44</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F47" t="s">
         <v>74</v>
-      </c>
-      <c r="G45" s="8">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>100</v>
-      </c>
-      <c r="B46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="8">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>105</v>
-      </c>
-      <c r="B47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" t="s">
-        <v>48</v>
       </c>
       <c r="G47" s="8">
         <v>44986</v>
@@ -1629,13 +1648,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G48" s="8">
         <v>44986</v>
@@ -1643,67 +1662,55 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="G49" s="8">
-        <v>46082</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
         <v>48</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>115</v>
-      </c>
       <c r="G50" s="8">
-        <v>46447</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G51" s="8">
-        <v>46447</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
         <v>48</v>
@@ -1712,367 +1719,373 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G52" s="8">
         <v>46447</v>
       </c>
     </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>117</v>
+      </c>
+      <c r="G53" s="8">
+        <v>46447</v>
+      </c>
+    </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
+      <c r="A54">
+        <v>103</v>
+      </c>
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="8">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>530</v>
-      </c>
-      <c r="B55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" t="s">
-        <v>80</v>
-      </c>
-      <c r="G55" s="8">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>230</v>
-      </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" t="s">
-        <v>48</v>
-      </c>
-      <c r="F56" t="s">
-        <v>82</v>
-      </c>
-      <c r="G56" s="8">
-        <v>44986</v>
-      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
+        <v>530</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="8">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>230</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="8">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>98</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>119</v>
       </c>
-      <c r="C57" t="s">
-        <v>48</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" t="s">
         <v>123</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G59" s="8">
         <v>46447</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>200</v>
-      </c>
-      <c r="B60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" t="s">
-        <v>48</v>
-      </c>
-      <c r="F60" t="s">
-        <v>85</v>
-      </c>
-      <c r="G60" s="8">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>130</v>
-      </c>
-      <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>48</v>
-      </c>
-      <c r="F61" t="s">
-        <v>87</v>
-      </c>
-      <c r="G61" s="8">
-        <v>45717</v>
-      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
         <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G62" s="8">
-        <v>45717</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>909</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
         <v>48</v>
       </c>
       <c r="F63" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="G63" s="8">
-        <v>46447</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>399</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
         <v>48</v>
       </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
       <c r="F64" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G64" s="8">
-        <v>46447</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>207</v>
+        <v>909</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
         <v>48</v>
       </c>
-      <c r="E65">
-        <v>1</v>
+      <c r="F65" t="s">
+        <v>111</v>
       </c>
       <c r="G65" s="8">
         <v>46447</v>
       </c>
     </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>399</v>
+      </c>
+      <c r="B66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>112</v>
+      </c>
+      <c r="G66" s="8">
+        <v>46447</v>
+      </c>
+    </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1" t="s">
+      <c r="A67">
+        <v>207</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="8">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>17</v>
-      </c>
-      <c r="B68" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" t="s">
-        <v>48</v>
-      </c>
-      <c r="F68" t="s">
-        <v>128</v>
-      </c>
-      <c r="G68" s="8">
-        <v>46447</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>77</v>
-      </c>
-      <c r="B69" t="s">
-        <v>129</v>
-      </c>
-      <c r="C69" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" t="s">
-        <v>128</v>
-      </c>
-      <c r="G69" s="8">
-        <v>46447</v>
-      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
         <v>48</v>
       </c>
-      <c r="E70">
-        <v>1</v>
+      <c r="F70" t="s">
+        <v>128</v>
       </c>
       <c r="G70" s="8">
-        <v>46813</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71" t="s">
+        <v>128</v>
+      </c>
+      <c r="G71" s="8">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>46</v>
+      </c>
+      <c r="B72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="8">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>39</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" t="s">
         <v>131</v>
       </c>
-      <c r="C71" t="s">
-        <v>48</v>
-      </c>
-      <c r="E71">
+      <c r="C73" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73">
         <v>1</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F73" t="s">
         <v>133</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G73" s="8">
         <v>46813</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>108</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B76" t="s">
         <v>135</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C76" t="s">
         <v>44</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F76" t="s">
         <v>132</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G76" s="8">
         <v>46813</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>35</v>
-      </c>
-      <c r="B77" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" t="s">
-        <v>44</v>
-      </c>
-      <c r="F77" t="s">
-        <v>138</v>
-      </c>
-      <c r="G77" s="8">
-        <v>46813</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>74</v>
-      </c>
-      <c r="B78" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" t="s">
-        <v>48</v>
-      </c>
-      <c r="F78" t="s">
-        <v>140</v>
-      </c>
-      <c r="G78" s="8">
-        <v>46813</v>
-      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C79" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G79" s="8">
         <v>46813</v>
@@ -2080,16 +2093,16 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C80" t="s">
         <v>48</v>
       </c>
       <c r="F80" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G80" s="8">
         <v>46813</v>
@@ -2097,284 +2110,318 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" t="s">
+        <v>142</v>
+      </c>
+      <c r="G81" s="8">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>33</v>
+      </c>
+      <c r="B82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" t="s">
+        <v>144</v>
+      </c>
+      <c r="G82" s="8">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>34</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" t="s">
         <v>145</v>
       </c>
-      <c r="C81" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="C83" t="s">
+        <v>48</v>
+      </c>
+      <c r="F83" t="s">
         <v>146</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G83" s="8">
         <v>47178</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>215</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" t="s">
         <v>148</v>
       </c>
-      <c r="C84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="C86" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" t="s">
         <v>149</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G86" s="8">
         <v>47178</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>373</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" t="s">
         <v>150</v>
       </c>
-      <c r="C85" t="s">
-        <v>48</v>
-      </c>
-      <c r="E85">
+      <c r="C87" t="s">
+        <v>48</v>
+      </c>
+      <c r="E87">
         <v>1</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G87" s="8">
         <v>47178</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>67</v>
-      </c>
-      <c r="B88" t="s">
-        <v>152</v>
-      </c>
-      <c r="C88" t="s">
-        <v>44</v>
-      </c>
-      <c r="F88" t="s">
-        <v>153</v>
-      </c>
-      <c r="G88" s="8">
-        <v>47178</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>190</v>
-      </c>
-      <c r="B89" t="s">
-        <v>154</v>
-      </c>
-      <c r="C89" t="s">
-        <v>44</v>
-      </c>
-      <c r="F89" t="s">
-        <v>155</v>
-      </c>
-      <c r="G89" s="8">
-        <v>11018</v>
-      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C90" t="s">
         <v>44</v>
       </c>
       <c r="F90" t="s">
+        <v>153</v>
+      </c>
+      <c r="G90" s="8">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>190</v>
+      </c>
+      <c r="B91" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G91" s="8">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>136</v>
+      </c>
+      <c r="B92" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
         <v>157</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G92" s="8">
         <v>11018</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>70</v>
-      </c>
-      <c r="B93" t="s">
-        <v>159</v>
-      </c>
-      <c r="C93" t="s">
-        <v>44</v>
-      </c>
-      <c r="G93" s="8">
-        <v>11018</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>198</v>
-      </c>
-      <c r="B94" t="s">
-        <v>160</v>
-      </c>
-      <c r="C94" t="s">
-        <v>48</v>
-      </c>
-      <c r="F94" t="s">
-        <v>161</v>
-      </c>
-      <c r="G94" s="8">
-        <v>11018</v>
-      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C95" t="s">
-        <v>48</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="G95" s="8">
-        <v>11383</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>322</v>
+        <v>198</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C96" t="s">
         <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G96" s="8">
-        <v>37347</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>300</v>
+        <v>139</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C97" t="s">
         <v>48</v>
       </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>163</v>
+      </c>
       <c r="G97" s="8">
-        <v>37347</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>120</v>
+        <v>322</v>
       </c>
       <c r="B98" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C98" t="s">
         <v>48</v>
       </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
       <c r="F98" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G98" s="8">
-        <v>37712</v>
-      </c>
-      <c r="H98" s="5">
-        <v>38078</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="B99" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C99" t="s">
         <v>48</v>
       </c>
-      <c r="F99" t="s">
-        <v>170</v>
-      </c>
       <c r="G99" s="8">
-        <v>37712</v>
-      </c>
-      <c r="H99" s="5">
-        <v>38078</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
+        <v>120</v>
+      </c>
+      <c r="B100" t="s">
+        <v>167</v>
+      </c>
+      <c r="C100" t="s">
+        <v>48</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>168</v>
+      </c>
+      <c r="G100" s="8">
+        <v>37712</v>
+      </c>
+      <c r="H100" s="5">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>63</v>
+      </c>
+      <c r="B101" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" t="s">
+        <v>170</v>
+      </c>
+      <c r="G101" s="8">
+        <v>37712</v>
+      </c>
+      <c r="H101" s="5">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>97</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B102" t="s">
         <v>171</v>
       </c>
-      <c r="C100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="C102" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102" t="s">
         <v>172</v>
       </c>
-      <c r="G100" s="8">
+      <c r="G102" s="8">
         <v>38078</v>
       </c>
     </row>
@@ -2390,12 +2437,12 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F66 F1:F33 D1:E66 D67:F1048576">
+  <conditionalFormatting sqref="F38:F68 F1:F35 D1:E68 D69:F1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G35 G37:G1048576">
+  <conditionalFormatting sqref="G2:G37 G39:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -2403,7 +2450,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{45809EEC-81DF-6A4E-91D1-93A7E83EA600}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{E8209BAF-E983-F84D-85E9-51122788BE77}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{123BEFC6-385A-644B-AEEF-1E4E98150A90}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{61620F85-A756-1948-B905-68253DFF6AD5}"/>
     <hyperlink ref="B6" r:id="rId6" xr:uid="{82624FD5-7C76-EB45-9D9D-195B23F4F9DA}"/>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313FC39D-605D-FA45-8CB0-143F84213CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55BB312-6C0B-F24F-BF05-010AE9DBAD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="10600" yWindow="760" windowWidth="23960" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="182">
   <si>
     <t>H-Index</t>
   </si>
@@ -338,9 +338,6 @@
     <t>Spiral Matrix</t>
   </si>
   <si>
-    <t>Shifting 4 directional pointers</t>
-  </si>
-  <si>
     <t>Min Stack</t>
   </si>
   <si>
@@ -567,6 +564,27 @@
   </si>
   <si>
     <t>Understand the graph better. Buying then selling is always more profit</t>
+  </si>
+  <si>
+    <t>One then l,r pointer to match the target</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>Row start &amp; end. Col start &amp; end. Think about when to break out from while loop</t>
+  </si>
+  <si>
+    <t>Only rotate same position along rotation values at a time</t>
+  </si>
+  <si>
+    <t>Two maps and detect for duplicate and mismatch</t>
+  </si>
+  <si>
+    <t>Think about when to move left and right</t>
+  </si>
+  <si>
+    <t>Minimum Number of Arrows to Burst Balloons</t>
   </si>
 </sst>
 </file>
@@ -641,13 +659,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -659,7 +676,37 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1020,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1031,7 +1078,7 @@
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="6" max="6" width="64.5" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="8"/>
+    <col min="7" max="7" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1044,12 +1091,12 @@
         <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="1">
@@ -1069,7 +1116,7 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>44256</v>
       </c>
     </row>
@@ -1083,7 +1130,7 @@
       <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>44256</v>
       </c>
     </row>
@@ -1100,7 +1147,7 @@
       <c r="F4" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>45717</v>
       </c>
     </row>
@@ -1114,7 +1161,7 @@
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>45717</v>
       </c>
     </row>
@@ -1137,7 +1184,7 @@
         <v>121</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -1145,7 +1192,7 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>38078</v>
       </c>
     </row>
@@ -1153,16 +1200,16 @@
       <c r="A8">
         <v>122</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
         <v>174</v>
       </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>38078</v>
       </c>
     </row>
@@ -1175,7 +1222,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -1192,7 +1239,7 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>44256</v>
       </c>
     </row>
@@ -1209,7 +1256,7 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>44256</v>
       </c>
     </row>
@@ -1226,7 +1273,7 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>45717</v>
       </c>
     </row>
@@ -1240,317 +1287,327 @@
       <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="8">
+      <c r="F14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="7">
         <v>38078</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>209</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="8">
-        <v>44256</v>
-      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>209</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="7">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>93</v>
       </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="7">
         <v>45717</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="8">
-        <v>44256</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="7">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>98</v>
       </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22">
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="7">
         <v>46082</v>
       </c>
+      <c r="H23" s="7">
+        <v>38078</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
+      <c r="A24">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" s="7">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>383</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G27" s="7">
         <v>44256</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="7">
         <v>44621</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="8">
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="7">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>228</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="7">
         <v>44621</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G33" s="7">
         <v>44621</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" s="8">
-        <v>46082</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="8">
-        <v>44621</v>
+        <v>48</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="7">
+        <v>46082</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
+        <v>452</v>
+      </c>
+      <c r="B35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="7">
+        <v>38443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="7">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B39" t="s">
         <v>66</v>
       </c>
-      <c r="C35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="8">
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="7">
         <v>44621</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>155</v>
-      </c>
-      <c r="B36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" t="s">
-        <v>101</v>
-      </c>
-      <c r="G36" s="8">
-        <v>46082</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>150</v>
-      </c>
-      <c r="B37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="G37" s="8">
-        <v>46082</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="8">
-        <v>44986</v>
+        <v>100</v>
+      </c>
+      <c r="G40" s="7">
+        <v>46082</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1558,892 +1615,957 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="F41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="8">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>138</v>
-      </c>
-      <c r="B42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42" s="8">
-        <v>44986</v>
+      <c r="G41" s="7">
+        <v>46082</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>92</v>
-      </c>
-      <c r="B43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" s="8">
-        <v>46082</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>106</v>
-      </c>
-      <c r="G44" s="8">
+        <v>42</v>
+      </c>
+      <c r="G44" s="7">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="7">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>138</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="7">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" s="7">
         <v>46082</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>104</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" t="s">
-        <v>74</v>
-      </c>
-      <c r="G47" s="8">
-        <v>44986</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" s="8">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="F48" t="s">
         <v>105</v>
       </c>
-      <c r="B49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" t="s">
-        <v>48</v>
-      </c>
-      <c r="G49" s="8">
-        <v>44986</v>
+      <c r="G48" s="7">
+        <v>46082</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>106</v>
-      </c>
-      <c r="B50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" s="8">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>112</v>
-      </c>
-      <c r="B51" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="C51" t="s">
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>108</v>
-      </c>
-      <c r="G51" s="8">
-        <v>46082</v>
+        <v>74</v>
+      </c>
+      <c r="G51" s="7">
+        <v>44986</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>115</v>
-      </c>
-      <c r="G52" s="8">
-        <v>46447</v>
+        <v>44</v>
+      </c>
+      <c r="G52" s="7">
+        <v>44986</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
         <v>48</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>117</v>
-      </c>
-      <c r="G53" s="8">
-        <v>46447</v>
+      <c r="G53" s="7">
+        <v>44986</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
         <v>48</v>
       </c>
-      <c r="D54">
+      <c r="G54" s="7">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" s="7">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56">
         <v>1</v>
       </c>
-      <c r="F54" t="s">
-        <v>125</v>
-      </c>
-      <c r="G54" s="8">
+      <c r="F56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G56" s="7">
         <v>46447</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>530</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" s="8">
-        <v>44986</v>
+        <v>116</v>
+      </c>
+      <c r="G57" s="7">
+        <v>46447</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>230</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
         <v>48</v>
       </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
       <c r="F58" t="s">
-        <v>82</v>
-      </c>
-      <c r="G58" s="8">
+        <v>124</v>
+      </c>
+      <c r="G58" s="7">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>530</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" s="7">
         <v>44986</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>98</v>
-      </c>
-      <c r="B59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" t="s">
-        <v>123</v>
-      </c>
-      <c r="G59" s="8">
-        <v>46447</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
         <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
-      </c>
-      <c r="G62" s="8">
-        <v>45352</v>
+        <v>82</v>
+      </c>
+      <c r="G62" s="7">
+        <v>44986</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
         <v>48</v>
       </c>
       <c r="F63" t="s">
-        <v>87</v>
-      </c>
-      <c r="G63" s="8">
-        <v>45717</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>133</v>
-      </c>
-      <c r="B64" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" t="s">
-        <v>48</v>
-      </c>
-      <c r="F64" t="s">
-        <v>89</v>
-      </c>
-      <c r="G64" s="8">
-        <v>45717</v>
+        <v>122</v>
+      </c>
+      <c r="G63" s="7">
+        <v>46447</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>909</v>
-      </c>
-      <c r="B65" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" t="s">
-        <v>48</v>
-      </c>
-      <c r="F65" t="s">
-        <v>111</v>
-      </c>
-      <c r="G65" s="8">
-        <v>46447</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>399</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
         <v>48</v>
       </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
       <c r="F66" t="s">
-        <v>112</v>
-      </c>
-      <c r="G66" s="8">
-        <v>46447</v>
+        <v>85</v>
+      </c>
+      <c r="G66" s="7">
+        <v>45352</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
         <v>48</v>
       </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="G67" s="8">
+      <c r="F67" t="s">
+        <v>87</v>
+      </c>
+      <c r="G67" s="7">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" t="s">
+        <v>89</v>
+      </c>
+      <c r="G68" s="7">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>909</v>
+      </c>
+      <c r="B69" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" t="s">
+        <v>110</v>
+      </c>
+      <c r="G69" s="7">
         <v>46447</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>17</v>
+        <v>399</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
         <v>48</v>
       </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
       <c r="F70" t="s">
-        <v>128</v>
-      </c>
-      <c r="G70" s="8">
+        <v>111</v>
+      </c>
+      <c r="G70" s="7">
         <v>46447</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
+        <v>207</v>
+      </c>
+      <c r="B71" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="G71" s="7">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" t="s">
+        <v>127</v>
+      </c>
+      <c r="G74" s="7">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>77</v>
       </c>
-      <c r="B71" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" t="s">
-        <v>48</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="B75" t="s">
         <v>128</v>
       </c>
-      <c r="G71" s="8">
+      <c r="C75" t="s">
+        <v>48</v>
+      </c>
+      <c r="F75" t="s">
+        <v>127</v>
+      </c>
+      <c r="G75" s="7">
         <v>46447</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>46</v>
-      </c>
-      <c r="B72" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" t="s">
-        <v>48</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="G72" s="8">
-        <v>46813</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>39</v>
-      </c>
-      <c r="B73" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" t="s">
-        <v>48</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>133</v>
-      </c>
-      <c r="G73" s="8">
-        <v>46813</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
-      </c>
-      <c r="F76" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
         <v>132</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G77" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-    </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>35</v>
-      </c>
-      <c r="B79" t="s">
-        <v>137</v>
-      </c>
-      <c r="C79" t="s">
-        <v>44</v>
-      </c>
-      <c r="F79" t="s">
-        <v>138</v>
-      </c>
-      <c r="G79" s="8">
-        <v>46813</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>140</v>
-      </c>
-      <c r="G80" s="8">
+        <v>131</v>
+      </c>
+      <c r="G80" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>162</v>
-      </c>
-      <c r="B81" t="s">
-        <v>141</v>
-      </c>
-      <c r="C81" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" t="s">
-        <v>142</v>
-      </c>
-      <c r="G81" s="8">
-        <v>46813</v>
-      </c>
-    </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>33</v>
-      </c>
-      <c r="B82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" t="s">
-        <v>144</v>
-      </c>
-      <c r="G82" s="8">
-        <v>46813</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C83" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>146</v>
-      </c>
-      <c r="G83" s="8">
-        <v>47178</v>
+        <v>137</v>
+      </c>
+      <c r="G83" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" t="s">
+        <v>139</v>
+      </c>
+      <c r="G84" s="7">
+        <v>46813</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
+      <c r="A85">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" t="s">
+        <v>141</v>
+      </c>
+      <c r="G85" s="7">
+        <v>46813</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C86" t="s">
         <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>149</v>
-      </c>
-      <c r="G86" s="8">
-        <v>47178</v>
+        <v>143</v>
+      </c>
+      <c r="G86" s="7">
+        <v>46813</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>373</v>
+        <v>34</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C87" t="s">
         <v>48</v>
       </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="G87" s="8">
+      <c r="F87" t="s">
+        <v>145</v>
+      </c>
+      <c r="G87" s="7">
         <v>47178</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="7"/>
+      <c r="G89" s="6"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="B90" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F90" t="s">
-        <v>153</v>
-      </c>
-      <c r="G90" s="8">
+        <v>148</v>
+      </c>
+      <c r="G90" s="7">
         <v>47178</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>190</v>
+        <v>373</v>
       </c>
       <c r="B91" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="G91" s="7">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>67</v>
+      </c>
+      <c r="B94" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94" t="s">
         <v>44</v>
       </c>
-      <c r="F91" t="s">
-        <v>155</v>
-      </c>
-      <c r="G91" s="8">
-        <v>11018</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>136</v>
-      </c>
-      <c r="B92" t="s">
-        <v>156</v>
-      </c>
-      <c r="C92" t="s">
-        <v>44</v>
-      </c>
-      <c r="F92" t="s">
-        <v>157</v>
-      </c>
-      <c r="G92" s="8">
-        <v>11018</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="F94" t="s">
+        <v>152</v>
+      </c>
+      <c r="G94" s="7">
+        <v>47178</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C95" t="s">
         <v>44</v>
       </c>
-      <c r="G95" s="8">
+      <c r="F95" t="s">
+        <v>154</v>
+      </c>
+      <c r="G95" s="7">
         <v>11018</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
+        <v>136</v>
+      </c>
+      <c r="B96" t="s">
+        <v>155</v>
+      </c>
+      <c r="C96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G96" s="7">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>70</v>
+      </c>
+      <c r="B99" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99" t="s">
+        <v>44</v>
+      </c>
+      <c r="G99" s="7">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>198</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B100" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" t="s">
+        <v>48</v>
+      </c>
+      <c r="F100" t="s">
         <v>160</v>
       </c>
-      <c r="C96" t="s">
-        <v>48</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="G100" s="7">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>139</v>
+      </c>
+      <c r="B101" t="s">
         <v>161</v>
       </c>
-      <c r="G96" s="8">
-        <v>11018</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>139</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="C101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
         <v>162</v>
       </c>
-      <c r="C97" t="s">
-        <v>48</v>
-      </c>
-      <c r="E97">
+      <c r="G101" s="7">
+        <v>11383</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>322</v>
+      </c>
+      <c r="B102" t="s">
+        <v>163</v>
+      </c>
+      <c r="C102" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102" t="s">
+        <v>164</v>
+      </c>
+      <c r="G102" s="7">
+        <v>37347</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>300</v>
+      </c>
+      <c r="B103" t="s">
+        <v>165</v>
+      </c>
+      <c r="C103" t="s">
+        <v>48</v>
+      </c>
+      <c r="G103" s="7">
+        <v>37347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>120</v>
+      </c>
+      <c r="B104" t="s">
+        <v>166</v>
+      </c>
+      <c r="C104" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104">
         <v>1</v>
       </c>
-      <c r="F97" t="s">
-        <v>163</v>
-      </c>
-      <c r="G97" s="8">
-        <v>11383</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>322</v>
-      </c>
-      <c r="B98" t="s">
-        <v>164</v>
-      </c>
-      <c r="C98" t="s">
-        <v>48</v>
-      </c>
-      <c r="F98" t="s">
-        <v>165</v>
-      </c>
-      <c r="G98" s="8">
-        <v>37347</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>300</v>
-      </c>
-      <c r="B99" t="s">
-        <v>166</v>
-      </c>
-      <c r="C99" t="s">
-        <v>48</v>
-      </c>
-      <c r="G99" s="8">
-        <v>37347</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>120</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="F104" t="s">
         <v>167</v>
       </c>
-      <c r="C100" t="s">
-        <v>48</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="G104" s="7">
+        <v>37712</v>
+      </c>
+      <c r="H104" s="7">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>63</v>
+      </c>
+      <c r="B105" t="s">
         <v>168</v>
       </c>
-      <c r="G100" s="8">
+      <c r="C105" t="s">
+        <v>48</v>
+      </c>
+      <c r="F105" t="s">
+        <v>169</v>
+      </c>
+      <c r="G105" s="7">
         <v>37712</v>
       </c>
-      <c r="H100" s="5">
+      <c r="H105" s="7">
         <v>38078</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>63</v>
-      </c>
-      <c r="B101" t="s">
-        <v>169</v>
-      </c>
-      <c r="C101" t="s">
-        <v>48</v>
-      </c>
-      <c r="F101" t="s">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>97</v>
+      </c>
+      <c r="B106" t="s">
         <v>170</v>
       </c>
-      <c r="G101" s="8">
-        <v>37712</v>
-      </c>
-      <c r="H101" s="5">
-        <v>38078</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>97</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="C106" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106" t="s">
         <v>171</v>
       </c>
-      <c r="C102" t="s">
-        <v>48</v>
-      </c>
-      <c r="F102" t="s">
-        <v>172</v>
-      </c>
-      <c r="G102" s="8">
+      <c r="G106" s="7">
         <v>38078</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F68 F1:F35 D1:E68 D69:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="F42:F72 F1:F39 D1:E72 D73:F1048576">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G37 G39:G1048576">
-    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G2:G41 G43:G1048576">
+    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H104">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H105">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2743,17 +2865,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55BB312-6C0B-F24F-BF05-010AE9DBAD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75964D75-1E07-DA42-8F63-3FD4F2775D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10600" yWindow="760" windowWidth="23960" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="183">
   <si>
     <t>H-Index</t>
   </si>
@@ -585,6 +585,9 @@
   </si>
   <si>
     <t>Minimum Number of Arrows to Burst Balloons</t>
+  </si>
+  <si>
+    <t>Last iteration, there is a ballon left to pop</t>
   </si>
 </sst>
 </file>
@@ -676,7 +679,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1067,18 +1080,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="4" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="64.5" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="7"/>
+    <col min="7" max="7" width="8.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1540,6 +1555,12 @@
       <c r="C35" t="s">
         <v>48</v>
       </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>182</v>
+      </c>
       <c r="G35" s="7">
         <v>38443</v>
       </c>
@@ -1584,6 +1605,9 @@
       <c r="G39" s="7">
         <v>44621</v>
       </c>
+      <c r="H39" s="7">
+        <v>38443</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -1619,54 +1643,34 @@
         <v>46082</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>141</v>
-      </c>
-      <c r="B44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" s="7">
-        <v>44986</v>
-      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G45" s="7">
         <v>44986</v>
@@ -1674,16 +1678,19 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
       </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G46" s="7">
         <v>44986</v>
@@ -1691,91 +1698,94 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="G47" s="7">
-        <v>46082</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
         <v>48</v>
       </c>
       <c r="F48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G48" s="7">
         <v>46082</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" s="7">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>104</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B52" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" s="7">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>100</v>
-      </c>
-      <c r="B52" t="s">
-        <v>75</v>
       </c>
       <c r="C52" t="s">
         <v>44</v>
       </c>
+      <c r="F52" t="s">
+        <v>74</v>
+      </c>
       <c r="G52" s="7">
         <v>44986</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G53" s="7">
         <v>44986</v>
@@ -1783,10 +1793,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
         <v>48</v>
@@ -1797,47 +1807,41 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="G55" s="7">
-        <v>46082</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G56" s="7">
-        <v>46447</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s">
         <v>48</v>
@@ -1846,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G57" s="7">
         <v>46447</v>
@@ -1854,10 +1858,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
         <v>48</v>
@@ -1866,54 +1870,57 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G58" s="7">
         <v>46447</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>124</v>
+      </c>
+      <c r="G59" s="7">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>530</v>
-      </c>
-      <c r="B61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" s="7">
-        <v>44986</v>
-      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G62" s="7">
         <v>44986</v>
@@ -1921,80 +1928,80 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
+        <v>230</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" s="7">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>98</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>118</v>
       </c>
-      <c r="C63" t="s">
-        <v>48</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" t="s">
         <v>122</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G64" s="7">
         <v>46447</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>200</v>
-      </c>
-      <c r="B66" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" t="s">
-        <v>48</v>
-      </c>
-      <c r="F66" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" s="7">
-        <v>45352</v>
-      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
         <v>48</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G67" s="7">
-        <v>45717</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
         <v>48</v>
       </c>
       <c r="F68" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G68" s="7">
         <v>45717</v>
@@ -2002,36 +2009,33 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>909</v>
+        <v>133</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
         <v>48</v>
       </c>
       <c r="F69" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="G69" s="7">
-        <v>46447</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
         <v>48</v>
       </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
       <c r="F70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G70" s="7">
         <v>46447</v>
@@ -2039,10 +2043,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
         <v>48</v>
@@ -2050,46 +2054,49 @@
       <c r="E71">
         <v>1</v>
       </c>
+      <c r="F71" t="s">
+        <v>111</v>
+      </c>
       <c r="G71" s="7">
         <v>46447</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>207</v>
+      </c>
+      <c r="B72" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="7">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>17</v>
-      </c>
-      <c r="B74" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" t="s">
-        <v>48</v>
-      </c>
-      <c r="F74" t="s">
-        <v>127</v>
-      </c>
-      <c r="G74" s="7">
-        <v>46447</v>
-      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C75" t="s">
         <v>48</v>
@@ -2103,27 +2110,27 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C76" t="s">
         <v>48</v>
       </c>
-      <c r="E76">
-        <v>1</v>
+      <c r="F76" t="s">
+        <v>127</v>
       </c>
       <c r="G76" s="7">
-        <v>46813</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C77" t="s">
         <v>48</v>
@@ -2131,85 +2138,85 @@
       <c r="E77">
         <v>1</v>
       </c>
-      <c r="F77" t="s">
-        <v>132</v>
-      </c>
       <c r="G77" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>132</v>
+      </c>
+      <c r="G78" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>108</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>134</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>44</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F81" t="s">
         <v>131</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G81" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>35</v>
-      </c>
-      <c r="B83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C83" t="s">
-        <v>44</v>
-      </c>
-      <c r="F83" t="s">
-        <v>137</v>
-      </c>
-      <c r="G83" s="7">
-        <v>46813</v>
-      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C84" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G84" s="7">
         <v>46813</v>
@@ -2217,16 +2224,16 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B85" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C85" t="s">
         <v>48</v>
       </c>
       <c r="F85" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G85" s="7">
         <v>46813</v>
@@ -2234,16 +2241,16 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B86" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C86" t="s">
         <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G86" s="7">
         <v>46813</v>
@@ -2251,171 +2258,171 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
+        <v>33</v>
+      </c>
+      <c r="B87" t="s">
+        <v>142</v>
+      </c>
+      <c r="C87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87" t="s">
+        <v>143</v>
+      </c>
+      <c r="G87" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>34</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>144</v>
       </c>
-      <c r="C87" t="s">
-        <v>48</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="C88" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88" t="s">
         <v>145</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G88" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>215</v>
-      </c>
-      <c r="B90" t="s">
-        <v>147</v>
-      </c>
-      <c r="C90" t="s">
-        <v>48</v>
-      </c>
-      <c r="F90" t="s">
-        <v>148</v>
-      </c>
-      <c r="G90" s="7">
-        <v>47178</v>
-      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C91" t="s">
         <v>48</v>
       </c>
-      <c r="E91">
-        <v>1</v>
+      <c r="F91" t="s">
+        <v>148</v>
       </c>
       <c r="G91" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>373</v>
+      </c>
+      <c r="B92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="G92" s="7">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>67</v>
-      </c>
-      <c r="B94" t="s">
-        <v>151</v>
-      </c>
-      <c r="C94" t="s">
-        <v>44</v>
-      </c>
-      <c r="F94" t="s">
-        <v>152</v>
-      </c>
-      <c r="G94" s="7">
-        <v>47178</v>
-      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B95" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C95" t="s">
         <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G95" s="7">
-        <v>11018</v>
+        <v>47178</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B96" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C96" t="s">
         <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G96" s="7">
         <v>11018</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>136</v>
+      </c>
+      <c r="B97" t="s">
+        <v>155</v>
+      </c>
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>156</v>
+      </c>
+      <c r="G97" s="7">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>70</v>
-      </c>
-      <c r="B99" t="s">
-        <v>158</v>
-      </c>
-      <c r="C99" t="s">
-        <v>44</v>
-      </c>
-      <c r="G99" s="7">
-        <v>11018</v>
-      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F100" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="G100" s="7">
         <v>11018</v>
@@ -2423,50 +2430,53 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B101" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C101" t="s">
         <v>48</v>
       </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
       <c r="F101" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G101" s="7">
-        <v>11383</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C102" t="s">
         <v>48</v>
       </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
       <c r="F102" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G102" s="7">
-        <v>37347</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B103" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C103" t="s">
         <v>48</v>
+      </c>
+      <c r="F103" t="s">
+        <v>164</v>
       </c>
       <c r="G103" s="7">
         <v>37347</v>
@@ -2474,39 +2484,33 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C104" t="s">
         <v>48</v>
       </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-      <c r="F104" t="s">
-        <v>167</v>
-      </c>
       <c r="G104" s="7">
-        <v>37712</v>
-      </c>
-      <c r="H104" s="7">
-        <v>38078</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C105" t="s">
         <v>48</v>
       </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
       <c r="F105" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G105" s="7">
         <v>37712</v>
@@ -2517,54 +2521,79 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
+        <v>63</v>
+      </c>
+      <c r="B106" t="s">
+        <v>168</v>
+      </c>
+      <c r="C106" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106" t="s">
+        <v>169</v>
+      </c>
+      <c r="G106" s="7">
+        <v>37712</v>
+      </c>
+      <c r="H106" s="7">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107">
         <v>97</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>170</v>
       </c>
-      <c r="C106" t="s">
-        <v>48</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="C107" t="s">
+        <v>48</v>
+      </c>
+      <c r="F107" t="s">
         <v>171</v>
       </c>
-      <c r="G106" s="7">
+      <c r="G107" s="7">
         <v>38078</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F72 F1:F39 D1:E72 D73:F1048576">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+  <conditionalFormatting sqref="F43:F73 F1:F39 D1:E73 D74:F1048576">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G41 G43:G1048576">
-    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G2:G42 G44:G1048576">
+    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H105">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H104">
+  <conditionalFormatting sqref="H106">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H105">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75964D75-1E07-DA42-8F63-3FD4F2775D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2853125F-F508-5945-AE38-053531DBE095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10600" yWindow="760" windowWidth="23960" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -679,7 +679,27 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1082,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,6 +1622,9 @@
       <c r="C39" t="s">
         <v>48</v>
       </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
       <c r="G39" s="7">
         <v>44621</v>
       </c>
@@ -1675,6 +1698,9 @@
       <c r="G45" s="7">
         <v>44986</v>
       </c>
+      <c r="H45" s="7">
+        <v>38443</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -1711,6 +1737,9 @@
       </c>
       <c r="G47" s="7">
         <v>44986</v>
+      </c>
+      <c r="H47" s="7">
+        <v>38443</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2558,42 +2587,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F73 F1:F39 D1:E73 D74:F1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G42 G44:G1048576">
-    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H105">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H106">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H105">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H106">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H47">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2853125F-F508-5945-AE38-053531DBE095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F082760A-D035-F048-B783-1816F13CB7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10600" yWindow="760" windowWidth="23960" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -254,9 +254,6 @@
     <t>Copy List with Random Pointer</t>
   </si>
   <si>
-    <t xml:space="preserve">Linked list is hashable and can be used as key </t>
-  </si>
-  <si>
     <t>Binary Tree General</t>
   </si>
   <si>
@@ -588,6 +585,9 @@
   </si>
   <si>
     <t>Last iteration, there is a ballon left to pop</t>
+  </si>
+  <si>
+    <t>Linked list is hashable and can be used as key. None:None technique</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1126,7 +1126,7 @@
         <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -1180,7 +1180,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="7">
         <v>45717</v>
@@ -1211,7 +1211,7 @@
         <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1219,7 +1219,7 @@
         <v>121</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -1236,13 +1236,13 @@
         <v>122</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
         <v>173</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>174</v>
       </c>
       <c r="G8" s="7">
         <v>38078</v>
@@ -1300,7 +1300,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
         <v>48</v>
@@ -1323,7 +1323,7 @@
         <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G14" s="7">
         <v>38078</v>
@@ -1361,13 +1361,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
         <v>93</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" t="s">
-        <v>94</v>
       </c>
       <c r="G19" s="7">
         <v>45717</v>
@@ -1405,7 +1405,7 @@
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
         <v>48</v>
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G23" s="7">
         <v>46082</v>
@@ -1428,13 +1428,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" t="s">
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G24" s="7">
         <v>38078</v>
@@ -1492,7 +1492,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G29" s="7">
         <v>38078</v>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G32" s="7">
         <v>44621</v>
@@ -1536,13 +1536,13 @@
         <v>56</v>
       </c>
       <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" t="s">
         <v>96</v>
-      </c>
-      <c r="C33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" t="s">
-        <v>97</v>
       </c>
       <c r="G33" s="7">
         <v>44621</v>
@@ -1553,13 +1553,13 @@
         <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
         <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G34" s="7">
         <v>46082</v>
@@ -1570,7 +1570,7 @@
         <v>452</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G35" s="7">
         <v>38443</v>
@@ -1637,13 +1637,13 @@
         <v>155</v>
       </c>
       <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" t="s">
         <v>99</v>
-      </c>
-      <c r="C40" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" t="s">
-        <v>100</v>
       </c>
       <c r="G40" s="7">
         <v>46082</v>
@@ -1654,7 +1654,7 @@
         <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1733,7 +1733,7 @@
         <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="G47" s="7">
         <v>44986</v>
@@ -1747,13 +1747,13 @@
         <v>92</v>
       </c>
       <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" t="s">
         <v>102</v>
-      </c>
-      <c r="C48" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" t="s">
-        <v>103</v>
       </c>
       <c r="G48" s="7">
         <v>46082</v>
@@ -1764,13 +1764,13 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" t="s">
         <v>104</v>
-      </c>
-      <c r="C49" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" t="s">
-        <v>105</v>
       </c>
       <c r="G49" s="7">
         <v>46082</v>
@@ -1779,7 +1779,7 @@
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1794,13 +1794,13 @@
         <v>104</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G52" s="7">
         <v>44986</v>
@@ -1811,7 +1811,7 @@
         <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
         <v>44</v>
@@ -1825,7 +1825,7 @@
         <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
         <v>48</v>
@@ -1839,7 +1839,7 @@
         <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
         <v>48</v>
@@ -1853,13 +1853,13 @@
         <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G56" s="7">
         <v>46082</v>
@@ -1870,7 +1870,7 @@
         <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
         <v>48</v>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G57" s="7">
         <v>46447</v>
@@ -1890,7 +1890,7 @@
         <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
         <v>48</v>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G58" s="7">
         <v>46447</v>
@@ -1910,7 +1910,7 @@
         <v>103</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
         <v>48</v>
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G59" s="7">
         <v>46447</v>
@@ -1928,7 +1928,7 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1943,13 +1943,13 @@
         <v>530</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G62" s="7">
         <v>44986</v>
@@ -1960,13 +1960,13 @@
         <v>230</v>
       </c>
       <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" t="s">
         <v>81</v>
-      </c>
-      <c r="C63" t="s">
-        <v>48</v>
-      </c>
-      <c r="F63" t="s">
-        <v>82</v>
       </c>
       <c r="G63" s="7">
         <v>44986</v>
@@ -1977,13 +1977,13 @@
         <v>98</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C64" t="s">
         <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G64" s="7">
         <v>46447</v>
@@ -1992,7 +1992,7 @@
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2007,13 +2007,13 @@
         <v>200</v>
       </c>
       <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" t="s">
         <v>84</v>
-      </c>
-      <c r="C67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F67" t="s">
-        <v>85</v>
       </c>
       <c r="G67" s="7">
         <v>45352</v>
@@ -2024,13 +2024,13 @@
         <v>130</v>
       </c>
       <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" t="s">
         <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>48</v>
-      </c>
-      <c r="F68" t="s">
-        <v>87</v>
       </c>
       <c r="G68" s="7">
         <v>45717</v>
@@ -2041,13 +2041,13 @@
         <v>133</v>
       </c>
       <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" t="s">
         <v>88</v>
-      </c>
-      <c r="C69" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" t="s">
-        <v>89</v>
       </c>
       <c r="G69" s="7">
         <v>45717</v>
@@ -2058,13 +2058,13 @@
         <v>909</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
         <v>48</v>
       </c>
       <c r="F70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G70" s="7">
         <v>46447</v>
@@ -2075,7 +2075,7 @@
         <v>399</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
         <v>48</v>
@@ -2084,7 +2084,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G71" s="7">
         <v>46447</v>
@@ -2095,7 +2095,7 @@
         <v>207</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
         <v>48</v>
@@ -2110,7 +2110,7 @@
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2125,13 +2125,13 @@
         <v>17</v>
       </c>
       <c r="B75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" t="s">
+        <v>48</v>
+      </c>
+      <c r="F75" t="s">
         <v>126</v>
-      </c>
-      <c r="C75" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" t="s">
-        <v>127</v>
       </c>
       <c r="G75" s="7">
         <v>46447</v>
@@ -2142,13 +2142,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C76" t="s">
         <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G76" s="7">
         <v>46447</v>
@@ -2159,7 +2159,7 @@
         <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C77" t="s">
         <v>48</v>
@@ -2176,7 +2176,7 @@
         <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
         <v>48</v>
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G78" s="7">
         <v>46813</v>
@@ -2194,7 +2194,7 @@
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2209,13 +2209,13 @@
         <v>108</v>
       </c>
       <c r="B81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C81" t="s">
         <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G81" s="7">
         <v>46813</v>
@@ -2224,7 +2224,7 @@
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2239,13 +2239,13 @@
         <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C84" t="s">
         <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G84" s="7">
         <v>46813</v>
@@ -2256,13 +2256,13 @@
         <v>74</v>
       </c>
       <c r="B85" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" t="s">
         <v>138</v>
-      </c>
-      <c r="C85" t="s">
-        <v>48</v>
-      </c>
-      <c r="F85" t="s">
-        <v>139</v>
       </c>
       <c r="G85" s="7">
         <v>46813</v>
@@ -2273,13 +2273,13 @@
         <v>162</v>
       </c>
       <c r="B86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" t="s">
         <v>140</v>
-      </c>
-      <c r="C86" t="s">
-        <v>48</v>
-      </c>
-      <c r="F86" t="s">
-        <v>141</v>
       </c>
       <c r="G86" s="7">
         <v>46813</v>
@@ -2290,13 +2290,13 @@
         <v>33</v>
       </c>
       <c r="B87" t="s">
+        <v>141</v>
+      </c>
+      <c r="C87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87" t="s">
         <v>142</v>
-      </c>
-      <c r="C87" t="s">
-        <v>48</v>
-      </c>
-      <c r="F87" t="s">
-        <v>143</v>
       </c>
       <c r="G87" s="7">
         <v>46813</v>
@@ -2307,13 +2307,13 @@
         <v>34</v>
       </c>
       <c r="B88" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88" t="s">
         <v>144</v>
-      </c>
-      <c r="C88" t="s">
-        <v>48</v>
-      </c>
-      <c r="F88" t="s">
-        <v>145</v>
       </c>
       <c r="G88" s="7">
         <v>47178</v>
@@ -2322,7 +2322,7 @@
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2337,13 +2337,13 @@
         <v>215</v>
       </c>
       <c r="B91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" t="s">
         <v>147</v>
-      </c>
-      <c r="C91" t="s">
-        <v>48</v>
-      </c>
-      <c r="F91" t="s">
-        <v>148</v>
       </c>
       <c r="G91" s="7">
         <v>47178</v>
@@ -2354,7 +2354,7 @@
         <v>373</v>
       </c>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" t="s">
         <v>48</v>
@@ -2369,7 +2369,7 @@
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2384,13 +2384,13 @@
         <v>67</v>
       </c>
       <c r="B95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C95" t="s">
         <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G95" s="7">
         <v>47178</v>
@@ -2401,13 +2401,13 @@
         <v>190</v>
       </c>
       <c r="B96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C96" t="s">
         <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G96" s="7">
         <v>11018</v>
@@ -2418,13 +2418,13 @@
         <v>136</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C97" t="s">
         <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G97" s="7">
         <v>11018</v>
@@ -2433,7 +2433,7 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2448,7 +2448,7 @@
         <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C100" t="s">
         <v>44</v>
@@ -2462,13 +2462,13 @@
         <v>198</v>
       </c>
       <c r="B101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" t="s">
         <v>159</v>
-      </c>
-      <c r="C101" t="s">
-        <v>48</v>
-      </c>
-      <c r="F101" t="s">
-        <v>160</v>
       </c>
       <c r="G101" s="7">
         <v>11018</v>
@@ -2479,7 +2479,7 @@
         <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C102" t="s">
         <v>48</v>
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G102" s="7">
         <v>11383</v>
@@ -2499,13 +2499,13 @@
         <v>322</v>
       </c>
       <c r="B103" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" t="s">
         <v>163</v>
-      </c>
-      <c r="C103" t="s">
-        <v>48</v>
-      </c>
-      <c r="F103" t="s">
-        <v>164</v>
       </c>
       <c r="G103" s="7">
         <v>37347</v>
@@ -2516,7 +2516,7 @@
         <v>300</v>
       </c>
       <c r="B104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C104" t="s">
         <v>48</v>
@@ -2530,7 +2530,7 @@
         <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C105" t="s">
         <v>48</v>
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G105" s="7">
         <v>37712</v>
@@ -2553,13 +2553,13 @@
         <v>63</v>
       </c>
       <c r="B106" t="s">
+        <v>167</v>
+      </c>
+      <c r="C106" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106" t="s">
         <v>168</v>
-      </c>
-      <c r="C106" t="s">
-        <v>48</v>
-      </c>
-      <c r="F106" t="s">
-        <v>169</v>
       </c>
       <c r="G106" s="7">
         <v>37712</v>
@@ -2573,13 +2573,13 @@
         <v>97</v>
       </c>
       <c r="B107" t="s">
+        <v>169</v>
+      </c>
+      <c r="C107" t="s">
+        <v>48</v>
+      </c>
+      <c r="F107" t="s">
         <v>170</v>
-      </c>
-      <c r="C107" t="s">
-        <v>48</v>
-      </c>
-      <c r="F107" t="s">
-        <v>171</v>
       </c>
       <c r="G107" s="7">
         <v>38078</v>
@@ -2933,17 +2933,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F082760A-D035-F048-B783-1816F13CB7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B19F77D-18B5-AA4E-B7A7-6B884485EF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10600" yWindow="760" windowWidth="23960" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="186">
   <si>
     <t>H-Index</t>
   </si>
@@ -588,6 +588,15 @@
   </si>
   <si>
     <t>Linked list is hashable and can be used as key. None:None technique</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Memorize the sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Duplicate from Sorted List </t>
   </si>
 </sst>
 </file>
@@ -679,7 +688,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1100,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1752,11 +1771,17 @@
       <c r="C48" t="s">
         <v>48</v>
       </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
       <c r="F48" t="s">
         <v>102</v>
       </c>
       <c r="G48" s="7">
         <v>46082</v>
+      </c>
+      <c r="H48" s="7">
+        <v>38443</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -1776,59 +1801,62 @@
         <v>46082</v>
       </c>
     </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>206</v>
+      </c>
+      <c r="B50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>184</v>
+      </c>
+      <c r="G50" s="7">
+        <v>38443</v>
+      </c>
+    </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
+      <c r="A51">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="7">
+        <v>38443</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>104</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>44</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F54" t="s">
         <v>73</v>
-      </c>
-      <c r="G52" s="7">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>100</v>
-      </c>
-      <c r="B53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" s="7">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>105</v>
-      </c>
-      <c r="B54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" t="s">
-        <v>48</v>
       </c>
       <c r="G54" s="7">
         <v>44986</v>
@@ -1836,13 +1864,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G55" s="7">
         <v>44986</v>
@@ -1850,67 +1878,55 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="G56" s="7">
-        <v>46082</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
         <v>48</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="F57" t="s">
-        <v>113</v>
-      </c>
       <c r="G57" s="7">
-        <v>46447</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G58" s="7">
-        <v>46447</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
         <v>48</v>
@@ -1919,367 +1935,373 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G59" s="7">
         <v>46447</v>
       </c>
     </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>102</v>
+      </c>
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>115</v>
+      </c>
+      <c r="G60" s="7">
+        <v>46447</v>
+      </c>
+    </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
+      <c r="A61">
+        <v>103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="7">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>530</v>
-      </c>
-      <c r="B62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G62" s="7">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>230</v>
-      </c>
-      <c r="B63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" t="s">
-        <v>48</v>
-      </c>
-      <c r="F63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G63" s="7">
-        <v>44986</v>
-      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
+        <v>530</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>79</v>
+      </c>
+      <c r="G64" s="7">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>230</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" s="7">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>98</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>117</v>
       </c>
-      <c r="C64" t="s">
-        <v>48</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" t="s">
         <v>121</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G66" s="7">
         <v>46447</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>200</v>
-      </c>
-      <c r="B67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F67" t="s">
-        <v>84</v>
-      </c>
-      <c r="G67" s="7">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>130</v>
-      </c>
-      <c r="B68" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" t="s">
-        <v>48</v>
-      </c>
-      <c r="F68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G68" s="7">
-        <v>45717</v>
-      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
         <v>48</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G69" s="7">
-        <v>45717</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>909</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
         <v>48</v>
       </c>
       <c r="F70" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G70" s="7">
-        <v>46447</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>399</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
         <v>48</v>
       </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
       <c r="F71" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G71" s="7">
-        <v>46447</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>207</v>
+        <v>909</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C72" t="s">
         <v>48</v>
       </c>
-      <c r="E72">
-        <v>1</v>
+      <c r="F72" t="s">
+        <v>109</v>
       </c>
       <c r="G72" s="7">
         <v>46447</v>
       </c>
     </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>399</v>
+      </c>
+      <c r="B73" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>110</v>
+      </c>
+      <c r="G73" s="7">
+        <v>46447</v>
+      </c>
+    </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
+      <c r="A74">
+        <v>207</v>
+      </c>
+      <c r="B74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="G74" s="7">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>17</v>
-      </c>
-      <c r="B75" t="s">
-        <v>125</v>
-      </c>
-      <c r="C75" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" t="s">
-        <v>126</v>
-      </c>
-      <c r="G75" s="7">
-        <v>46447</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>77</v>
-      </c>
-      <c r="B76" t="s">
-        <v>127</v>
-      </c>
-      <c r="C76" t="s">
-        <v>48</v>
-      </c>
-      <c r="F76" t="s">
-        <v>126</v>
-      </c>
-      <c r="G76" s="7">
-        <v>46447</v>
-      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
         <v>48</v>
       </c>
-      <c r="E77">
-        <v>1</v>
+      <c r="F77" t="s">
+        <v>126</v>
       </c>
       <c r="G77" s="7">
-        <v>46813</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" t="s">
+        <v>126</v>
+      </c>
+      <c r="G78" s="7">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>46</v>
+      </c>
+      <c r="B79" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" t="s">
+        <v>48</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="G79" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>39</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>129</v>
       </c>
-      <c r="C78" t="s">
-        <v>48</v>
-      </c>
-      <c r="E78">
+      <c r="C80" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80">
         <v>1</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F80" t="s">
         <v>131</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G80" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>108</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" t="s">
         <v>133</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" t="s">
         <v>44</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F83" t="s">
         <v>130</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G83" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>35</v>
-      </c>
-      <c r="B84" t="s">
-        <v>135</v>
-      </c>
-      <c r="C84" t="s">
-        <v>44</v>
-      </c>
-      <c r="F84" t="s">
-        <v>136</v>
-      </c>
-      <c r="G84" s="7">
-        <v>46813</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>74</v>
-      </c>
-      <c r="B85" t="s">
-        <v>137</v>
-      </c>
-      <c r="C85" t="s">
-        <v>48</v>
-      </c>
-      <c r="F85" t="s">
-        <v>138</v>
-      </c>
-      <c r="G85" s="7">
-        <v>46813</v>
-      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G86" s="7">
         <v>46813</v>
@@ -2287,16 +2309,16 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B87" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C87" t="s">
         <v>48</v>
       </c>
       <c r="F87" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G87" s="7">
         <v>46813</v>
@@ -2304,335 +2326,374 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
+        <v>162</v>
+      </c>
+      <c r="B88" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88" t="s">
+        <v>140</v>
+      </c>
+      <c r="G88" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>33</v>
+      </c>
+      <c r="B89" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F89" t="s">
+        <v>142</v>
+      </c>
+      <c r="G89" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>34</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B90" t="s">
         <v>143</v>
       </c>
-      <c r="C88" t="s">
-        <v>48</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="C90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" t="s">
         <v>144</v>
       </c>
-      <c r="G88" s="7">
+      <c r="G90" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>215</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B93" t="s">
         <v>146</v>
       </c>
-      <c r="C91" t="s">
-        <v>48</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="C93" t="s">
+        <v>48</v>
+      </c>
+      <c r="F93" t="s">
         <v>147</v>
       </c>
-      <c r="G91" s="7">
+      <c r="G93" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>373</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" t="s">
         <v>148</v>
       </c>
-      <c r="C92" t="s">
-        <v>48</v>
-      </c>
-      <c r="E92">
+      <c r="C94" t="s">
+        <v>48</v>
+      </c>
+      <c r="E94">
         <v>1</v>
       </c>
-      <c r="G92" s="7">
+      <c r="G94" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>67</v>
-      </c>
-      <c r="B95" t="s">
-        <v>150</v>
-      </c>
-      <c r="C95" t="s">
-        <v>44</v>
-      </c>
-      <c r="F95" t="s">
-        <v>151</v>
-      </c>
-      <c r="G95" s="7">
-        <v>47178</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>190</v>
-      </c>
-      <c r="B96" t="s">
-        <v>152</v>
-      </c>
-      <c r="C96" t="s">
-        <v>44</v>
-      </c>
-      <c r="F96" t="s">
-        <v>153</v>
-      </c>
-      <c r="G96" s="7">
-        <v>11018</v>
-      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C97" t="s">
         <v>44</v>
       </c>
       <c r="F97" t="s">
+        <v>151</v>
+      </c>
+      <c r="G97" s="7">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>190</v>
+      </c>
+      <c r="B98" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>153</v>
+      </c>
+      <c r="G98" s="7">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>136</v>
+      </c>
+      <c r="B99" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
         <v>155</v>
       </c>
-      <c r="G97" s="7">
+      <c r="G99" s="7">
         <v>11018</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>70</v>
-      </c>
-      <c r="B100" t="s">
-        <v>157</v>
-      </c>
-      <c r="C100" t="s">
-        <v>44</v>
-      </c>
-      <c r="G100" s="7">
-        <v>11018</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>198</v>
-      </c>
-      <c r="B101" t="s">
-        <v>158</v>
-      </c>
-      <c r="C101" t="s">
-        <v>48</v>
-      </c>
-      <c r="F101" t="s">
-        <v>159</v>
-      </c>
-      <c r="G101" s="7">
-        <v>11018</v>
-      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="B102" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C102" t="s">
-        <v>48</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="G102" s="7">
-        <v>11383</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>322</v>
+        <v>198</v>
       </c>
       <c r="B103" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C103" t="s">
         <v>48</v>
       </c>
       <c r="F103" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G103" s="7">
-        <v>37347</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>300</v>
+        <v>139</v>
       </c>
       <c r="B104" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C104" t="s">
         <v>48</v>
       </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>161</v>
+      </c>
       <c r="G104" s="7">
-        <v>37347</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>120</v>
+        <v>322</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C105" t="s">
         <v>48</v>
       </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
       <c r="F105" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G105" s="7">
-        <v>37712</v>
-      </c>
-      <c r="H105" s="7">
-        <v>38078</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="B106" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C106" t="s">
         <v>48</v>
       </c>
-      <c r="F106" t="s">
-        <v>168</v>
-      </c>
       <c r="G106" s="7">
-        <v>37712</v>
-      </c>
-      <c r="H106" s="7">
-        <v>38078</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
+        <v>120</v>
+      </c>
+      <c r="B107" t="s">
+        <v>165</v>
+      </c>
+      <c r="C107" t="s">
+        <v>48</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>166</v>
+      </c>
+      <c r="G107" s="7">
+        <v>37712</v>
+      </c>
+      <c r="H107" s="7">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>63</v>
+      </c>
+      <c r="B108" t="s">
+        <v>167</v>
+      </c>
+      <c r="C108" t="s">
+        <v>48</v>
+      </c>
+      <c r="F108" t="s">
+        <v>168</v>
+      </c>
+      <c r="G108" s="7">
+        <v>37712</v>
+      </c>
+      <c r="H108" s="7">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109">
         <v>97</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" t="s">
         <v>169</v>
       </c>
-      <c r="C107" t="s">
-        <v>48</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="C109" t="s">
+        <v>48</v>
+      </c>
+      <c r="F109" t="s">
         <v>170</v>
       </c>
-      <c r="G107" s="7">
+      <c r="G109" s="7">
         <v>38078</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F73 F1:F39 D1:E73 D74:F1048576">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="F43:F75 F1:F39 D1:E75 D76:F1048576">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G42 G44:G1048576">
-    <cfRule type="cellIs" dxfId="6" priority="11" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G2:G42 G44:G49 G52:G1048576">
+    <cfRule type="cellIs" dxfId="7" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H107">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H105">
+  <conditionalFormatting sqref="H108">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H106">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H47:H48">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="G50:G51">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B19F77D-18B5-AA4E-B7A7-6B884485EF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECF1446-D466-814B-93AD-030A6A14D75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10600" yWindow="760" windowWidth="23960" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="187">
   <si>
     <t>H-Index</t>
   </si>
@@ -594,6 +594,9 @@
   </si>
   <si>
     <t>Memorize the sequence</t>
+  </si>
+  <si>
+    <t>Remove Duplicate from Sorted List II</t>
   </si>
   <si>
     <t xml:space="preserve">Remove Duplicate from Sorted List </t>
@@ -1119,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1823,68 +1826,74 @@
         <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C51" t="s">
         <v>44</v>
       </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
       <c r="G51" s="7">
         <v>38443</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>82</v>
+      </c>
+      <c r="B52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="7">
+        <v>38443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>104</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" s="7">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>100</v>
-      </c>
-      <c r="B55" t="s">
-        <v>74</v>
       </c>
       <c r="C55" t="s">
         <v>44</v>
       </c>
+      <c r="F55" t="s">
+        <v>73</v>
+      </c>
       <c r="G55" s="7">
         <v>44986</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G56" s="7">
         <v>44986</v>
@@ -1892,10 +1901,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
         <v>48</v>
@@ -1906,47 +1915,41 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="G58" s="7">
-        <v>46082</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G59" s="7">
-        <v>46447</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C60" t="s">
         <v>48</v>
@@ -1955,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G60" s="7">
         <v>46447</v>
@@ -1963,10 +1966,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
         <v>48</v>
@@ -1975,54 +1978,57 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G61" s="7">
         <v>46447</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>103</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" s="7">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>530</v>
-      </c>
-      <c r="B64" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" t="s">
-        <v>44</v>
-      </c>
-      <c r="F64" t="s">
-        <v>79</v>
-      </c>
-      <c r="G64" s="7">
-        <v>44986</v>
-      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G65" s="7">
         <v>44986</v>
@@ -2030,80 +2036,80 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
+        <v>230</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="7">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>98</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>117</v>
       </c>
-      <c r="C66" t="s">
-        <v>48</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" t="s">
         <v>121</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G67" s="7">
         <v>46447</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>200</v>
-      </c>
-      <c r="B69" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" t="s">
-        <v>84</v>
-      </c>
-      <c r="G69" s="7">
-        <v>45352</v>
-      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
         <v>48</v>
       </c>
       <c r="F70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G70" s="7">
-        <v>45717</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
         <v>48</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G71" s="7">
         <v>45717</v>
@@ -2111,36 +2117,33 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>909</v>
+        <v>133</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
         <v>48</v>
       </c>
       <c r="F72" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G72" s="7">
-        <v>46447</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C73" t="s">
         <v>48</v>
       </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
       <c r="F73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G73" s="7">
         <v>46447</v>
@@ -2148,10 +2151,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C74" t="s">
         <v>48</v>
@@ -2159,46 +2162,49 @@
       <c r="E74">
         <v>1</v>
       </c>
+      <c r="F74" t="s">
+        <v>110</v>
+      </c>
       <c r="G74" s="7">
         <v>46447</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>207</v>
+      </c>
+      <c r="B75" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="G75" s="7">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>17</v>
-      </c>
-      <c r="B77" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" t="s">
-        <v>48</v>
-      </c>
-      <c r="F77" t="s">
-        <v>126</v>
-      </c>
-      <c r="G77" s="7">
-        <v>46447</v>
-      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C78" t="s">
         <v>48</v>
@@ -2212,27 +2218,27 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C79" t="s">
         <v>48</v>
       </c>
-      <c r="E79">
-        <v>1</v>
+      <c r="F79" t="s">
+        <v>126</v>
       </c>
       <c r="G79" s="7">
-        <v>46813</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C80" t="s">
         <v>48</v>
@@ -2240,85 +2246,85 @@
       <c r="E80">
         <v>1</v>
       </c>
-      <c r="F80" t="s">
-        <v>131</v>
-      </c>
       <c r="G80" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>131</v>
+      </c>
+      <c r="G81" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>108</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>133</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>44</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F84" t="s">
         <v>130</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G84" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>35</v>
-      </c>
-      <c r="B86" t="s">
-        <v>135</v>
-      </c>
-      <c r="C86" t="s">
-        <v>44</v>
-      </c>
-      <c r="F86" t="s">
-        <v>136</v>
-      </c>
-      <c r="G86" s="7">
-        <v>46813</v>
-      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B87" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C87" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G87" s="7">
         <v>46813</v>
@@ -2326,16 +2332,16 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B88" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C88" t="s">
         <v>48</v>
       </c>
       <c r="F88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G88" s="7">
         <v>46813</v>
@@ -2343,16 +2349,16 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
         <v>48</v>
       </c>
       <c r="F89" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G89" s="7">
         <v>46813</v>
@@ -2360,171 +2366,171 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
+        <v>33</v>
+      </c>
+      <c r="B90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" t="s">
+        <v>142</v>
+      </c>
+      <c r="G90" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>34</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>143</v>
       </c>
-      <c r="C90" t="s">
-        <v>48</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="C91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" t="s">
         <v>144</v>
       </c>
-      <c r="G90" s="7">
+      <c r="G91" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>215</v>
-      </c>
-      <c r="B93" t="s">
-        <v>146</v>
-      </c>
-      <c r="C93" t="s">
-        <v>48</v>
-      </c>
-      <c r="F93" t="s">
-        <v>147</v>
-      </c>
-      <c r="G93" s="7">
-        <v>47178</v>
-      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s">
         <v>48</v>
       </c>
-      <c r="E94">
-        <v>1</v>
+      <c r="F94" t="s">
+        <v>147</v>
       </c>
       <c r="G94" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>373</v>
+      </c>
+      <c r="B95" t="s">
+        <v>148</v>
+      </c>
+      <c r="C95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="G95" s="7">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>67</v>
-      </c>
-      <c r="B97" t="s">
-        <v>150</v>
-      </c>
-      <c r="C97" t="s">
-        <v>44</v>
-      </c>
-      <c r="F97" t="s">
-        <v>151</v>
-      </c>
-      <c r="G97" s="7">
-        <v>47178</v>
-      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C98" t="s">
         <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G98" s="7">
-        <v>11018</v>
+        <v>47178</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B99" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C99" t="s">
         <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G99" s="7">
         <v>11018</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>136</v>
+      </c>
+      <c r="B100" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>155</v>
+      </c>
+      <c r="G100" s="7">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>70</v>
-      </c>
-      <c r="B102" t="s">
-        <v>157</v>
-      </c>
-      <c r="C102" t="s">
-        <v>44</v>
-      </c>
-      <c r="G102" s="7">
-        <v>11018</v>
-      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C103" t="s">
-        <v>48</v>
-      </c>
-      <c r="F103" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="G103" s="7">
         <v>11018</v>
@@ -2532,50 +2538,53 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B104" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C104" t="s">
         <v>48</v>
       </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
       <c r="F104" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G104" s="7">
-        <v>11383</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B105" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C105" t="s">
         <v>48</v>
       </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
       <c r="F105" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G105" s="7">
-        <v>37347</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B106" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C106" t="s">
         <v>48</v>
+      </c>
+      <c r="F106" t="s">
+        <v>163</v>
       </c>
       <c r="G106" s="7">
         <v>37347</v>
@@ -2583,39 +2592,33 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C107" t="s">
         <v>48</v>
       </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107" t="s">
-        <v>166</v>
-      </c>
       <c r="G107" s="7">
-        <v>37712</v>
-      </c>
-      <c r="H107" s="7">
-        <v>38078</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B108" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
         <v>48</v>
       </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
       <c r="F108" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G108" s="7">
         <v>37712</v>
@@ -2626,18 +2629,38 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
+        <v>63</v>
+      </c>
+      <c r="B109" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" t="s">
+        <v>48</v>
+      </c>
+      <c r="F109" t="s">
+        <v>168</v>
+      </c>
+      <c r="G109" s="7">
+        <v>37712</v>
+      </c>
+      <c r="H109" s="7">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110">
         <v>97</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>169</v>
       </c>
-      <c r="C109" t="s">
-        <v>48</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="C110" t="s">
+        <v>48</v>
+      </c>
+      <c r="F110" t="s">
         <v>170</v>
       </c>
-      <c r="G109" s="7">
+      <c r="G110" s="7">
         <v>38078</v>
       </c>
     </row>
@@ -2653,12 +2676,12 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F75 F1:F39 D1:E75 D76:F1048576">
+  <conditionalFormatting sqref="F43:F76 F1:F39 D1:E76 D77:F1048576">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G42 G44:G49 G52:G1048576">
+  <conditionalFormatting sqref="G2:G42 G44:G49 G53:G1048576">
     <cfRule type="cellIs" dxfId="7" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -2668,12 +2691,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107">
+  <conditionalFormatting sqref="H108">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H108">
+  <conditionalFormatting sqref="H109">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -2693,7 +2716,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G51">
+  <conditionalFormatting sqref="G50:G52">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECF1446-D466-814B-93AD-030A6A14D75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF3F863-851B-3244-B997-528B8FB8FA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10600" yWindow="760" windowWidth="23960" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="189">
   <si>
     <t>H-Index</t>
   </si>
@@ -600,6 +600,12 @@
   </si>
   <si>
     <t xml:space="preserve">Remove Duplicate from Sorted List </t>
+  </si>
+  <si>
+    <t>Hashmap and Two iterations</t>
+  </si>
+  <si>
+    <t>Flatten Binary Tree to Linked List</t>
   </si>
 </sst>
 </file>
@@ -691,7 +697,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1122,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1851,6 +1867,12 @@
       <c r="C52" t="s">
         <v>48</v>
       </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>187</v>
+      </c>
       <c r="G52" s="7">
         <v>38443</v>
       </c>
@@ -1937,11 +1959,17 @@
       <c r="C59" t="s">
         <v>44</v>
       </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
       <c r="F59" t="s">
         <v>106</v>
       </c>
       <c r="G59" s="7">
         <v>46082</v>
+      </c>
+      <c r="H59" s="7">
+        <v>38443</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2004,48 +2032,39 @@
         <v>46447</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>114</v>
+      </c>
+      <c r="B63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>530</v>
-      </c>
-      <c r="B65" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" t="s">
-        <v>44</v>
-      </c>
-      <c r="F65" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" s="7">
-        <v>44986</v>
-      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G66" s="7">
         <v>44986</v>
@@ -2053,80 +2072,80 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
+        <v>230</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" s="7">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>98</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>117</v>
       </c>
-      <c r="C67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="C68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" t="s">
         <v>121</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G68" s="7">
         <v>46447</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>200</v>
-      </c>
-      <c r="B70" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" t="s">
-        <v>48</v>
-      </c>
-      <c r="F70" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" s="7">
-        <v>45352</v>
-      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
         <v>48</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G71" s="7">
-        <v>45717</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
         <v>48</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G72" s="7">
         <v>45717</v>
@@ -2134,36 +2153,33 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>909</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
         <v>48</v>
       </c>
       <c r="F73" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G73" s="7">
-        <v>46447</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="B74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C74" t="s">
         <v>48</v>
       </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
       <c r="F74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G74" s="7">
         <v>46447</v>
@@ -2171,10 +2187,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C75" t="s">
         <v>48</v>
@@ -2182,46 +2198,49 @@
       <c r="E75">
         <v>1</v>
       </c>
+      <c r="F75" t="s">
+        <v>110</v>
+      </c>
       <c r="G75" s="7">
         <v>46447</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>207</v>
+      </c>
+      <c r="B76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="7">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>17</v>
-      </c>
-      <c r="B78" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" t="s">
-        <v>48</v>
-      </c>
-      <c r="F78" t="s">
-        <v>126</v>
-      </c>
-      <c r="G78" s="7">
-        <v>46447</v>
-      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
         <v>48</v>
@@ -2235,27 +2254,27 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C80" t="s">
         <v>48</v>
       </c>
-      <c r="E80">
-        <v>1</v>
+      <c r="F80" t="s">
+        <v>126</v>
       </c>
       <c r="G80" s="7">
-        <v>46813</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C81" t="s">
         <v>48</v>
@@ -2263,85 +2282,85 @@
       <c r="E81">
         <v>1</v>
       </c>
-      <c r="F81" t="s">
-        <v>131</v>
-      </c>
       <c r="G81" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>39</v>
+      </c>
+      <c r="B82" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>131</v>
+      </c>
+      <c r="G82" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>108</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>133</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>44</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>130</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G85" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>35</v>
-      </c>
-      <c r="B87" t="s">
-        <v>135</v>
-      </c>
-      <c r="C87" t="s">
-        <v>44</v>
-      </c>
-      <c r="F87" t="s">
-        <v>136</v>
-      </c>
-      <c r="G87" s="7">
-        <v>46813</v>
-      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C88" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G88" s="7">
         <v>46813</v>
@@ -2349,16 +2368,16 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C89" t="s">
         <v>48</v>
       </c>
       <c r="F89" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G89" s="7">
         <v>46813</v>
@@ -2366,16 +2385,16 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B90" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C90" t="s">
         <v>48</v>
       </c>
       <c r="F90" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G90" s="7">
         <v>46813</v>
@@ -2383,171 +2402,171 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
+        <v>33</v>
+      </c>
+      <c r="B91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" t="s">
+        <v>142</v>
+      </c>
+      <c r="G91" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>34</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>143</v>
       </c>
-      <c r="C91" t="s">
-        <v>48</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="C92" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" t="s">
         <v>144</v>
       </c>
-      <c r="G91" s="7">
+      <c r="G92" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>215</v>
-      </c>
-      <c r="B94" t="s">
-        <v>146</v>
-      </c>
-      <c r="C94" t="s">
-        <v>48</v>
-      </c>
-      <c r="F94" t="s">
-        <v>147</v>
-      </c>
-      <c r="G94" s="7">
-        <v>47178</v>
-      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C95" t="s">
         <v>48</v>
       </c>
-      <c r="E95">
-        <v>1</v>
+      <c r="F95" t="s">
+        <v>147</v>
       </c>
       <c r="G95" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>373</v>
+      </c>
+      <c r="B96" t="s">
+        <v>148</v>
+      </c>
+      <c r="C96" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="G96" s="7">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>67</v>
-      </c>
-      <c r="B98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C98" t="s">
-        <v>44</v>
-      </c>
-      <c r="F98" t="s">
-        <v>151</v>
-      </c>
-      <c r="G98" s="7">
-        <v>47178</v>
-      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C99" t="s">
         <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G99" s="7">
-        <v>11018</v>
+        <v>47178</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B100" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C100" t="s">
         <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G100" s="7">
         <v>11018</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>136</v>
+      </c>
+      <c r="B101" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>155</v>
+      </c>
+      <c r="G101" s="7">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>70</v>
-      </c>
-      <c r="B103" t="s">
-        <v>157</v>
-      </c>
-      <c r="C103" t="s">
-        <v>44</v>
-      </c>
-      <c r="G103" s="7">
-        <v>11018</v>
-      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C104" t="s">
-        <v>48</v>
-      </c>
-      <c r="F104" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="G104" s="7">
         <v>11018</v>
@@ -2555,50 +2574,53 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B105" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C105" t="s">
         <v>48</v>
       </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
       <c r="F105" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G105" s="7">
-        <v>11383</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B106" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C106" t="s">
         <v>48</v>
       </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
       <c r="F106" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G106" s="7">
-        <v>37347</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C107" t="s">
         <v>48</v>
+      </c>
+      <c r="F107" t="s">
+        <v>163</v>
       </c>
       <c r="G107" s="7">
         <v>37347</v>
@@ -2606,39 +2628,33 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C108" t="s">
         <v>48</v>
       </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108" t="s">
-        <v>166</v>
-      </c>
       <c r="G108" s="7">
-        <v>37712</v>
-      </c>
-      <c r="H108" s="7">
-        <v>38078</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C109" t="s">
         <v>48</v>
       </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
       <c r="F109" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G109" s="7">
         <v>37712</v>
@@ -2649,74 +2665,99 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
+        <v>63</v>
+      </c>
+      <c r="B110" t="s">
+        <v>167</v>
+      </c>
+      <c r="C110" t="s">
+        <v>48</v>
+      </c>
+      <c r="F110" t="s">
+        <v>168</v>
+      </c>
+      <c r="G110" s="7">
+        <v>37712</v>
+      </c>
+      <c r="H110" s="7">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111">
         <v>97</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>169</v>
       </c>
-      <c r="C110" t="s">
-        <v>48</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="C111" t="s">
+        <v>48</v>
+      </c>
+      <c r="F111" t="s">
         <v>170</v>
       </c>
-      <c r="G110" s="7">
+      <c r="G111" s="7">
         <v>38078</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F76 F1:F39 D1:E76 D77:F1048576">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+  <conditionalFormatting sqref="F43:F77 F1:F39 D1:E77 D78:F1048576">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G42 G44:G49 G53:G1048576">
-    <cfRule type="cellIs" dxfId="7" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H108">
+  <conditionalFormatting sqref="H110">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H47:H48">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
+  <conditionalFormatting sqref="G50:G52">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G52">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF3F863-851B-3244-B997-528B8FB8FA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28A6FD5-EEB0-4B49-BBDF-181EDB6E563D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10600" yWindow="760" windowWidth="23960" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="189">
   <si>
     <t>H-Index</t>
   </si>
@@ -1138,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2039,49 +2039,38 @@
       <c r="B63" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="G63" s="7">
+        <v>38808</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>530</v>
-      </c>
-      <c r="B66" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" t="s">
-        <v>44</v>
-      </c>
-      <c r="F66" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" s="7">
-        <v>44986</v>
-      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G67" s="7">
         <v>44986</v>
@@ -2089,80 +2078,80 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
+        <v>230</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" s="7">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>98</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>117</v>
       </c>
-      <c r="C68" t="s">
-        <v>48</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" t="s">
         <v>121</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G69" s="7">
         <v>46447</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>200</v>
-      </c>
-      <c r="B71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" t="s">
-        <v>48</v>
-      </c>
-      <c r="F71" t="s">
-        <v>84</v>
-      </c>
-      <c r="G71" s="7">
-        <v>45352</v>
-      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
         <v>48</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G72" s="7">
-        <v>45717</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
         <v>48</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G73" s="7">
         <v>45717</v>
@@ -2170,36 +2159,33 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>909</v>
+        <v>133</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
         <v>48</v>
       </c>
       <c r="F74" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G74" s="7">
-        <v>46447</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
         <v>48</v>
       </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
       <c r="F75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G75" s="7">
         <v>46447</v>
@@ -2207,10 +2193,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
         <v>48</v>
@@ -2218,46 +2204,49 @@
       <c r="E76">
         <v>1</v>
       </c>
+      <c r="F76" t="s">
+        <v>110</v>
+      </c>
       <c r="G76" s="7">
         <v>46447</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>207</v>
+      </c>
+      <c r="B77" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="G77" s="7">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>17</v>
-      </c>
-      <c r="B79" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" t="s">
-        <v>48</v>
-      </c>
-      <c r="F79" t="s">
-        <v>126</v>
-      </c>
-      <c r="G79" s="7">
-        <v>46447</v>
-      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
         <v>48</v>
@@ -2271,27 +2260,27 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C81" t="s">
         <v>48</v>
       </c>
-      <c r="E81">
-        <v>1</v>
+      <c r="F81" t="s">
+        <v>126</v>
       </c>
       <c r="G81" s="7">
-        <v>46813</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
         <v>48</v>
@@ -2299,85 +2288,85 @@
       <c r="E82">
         <v>1</v>
       </c>
-      <c r="F82" t="s">
-        <v>131</v>
-      </c>
       <c r="G82" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>39</v>
+      </c>
+      <c r="B83" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G83" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>108</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>133</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>44</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F86" t="s">
         <v>130</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G86" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>35</v>
-      </c>
-      <c r="B88" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88" t="s">
-        <v>44</v>
-      </c>
-      <c r="F88" t="s">
-        <v>136</v>
-      </c>
-      <c r="G88" s="7">
-        <v>46813</v>
-      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B89" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C89" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G89" s="7">
         <v>46813</v>
@@ -2385,16 +2374,16 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C90" t="s">
         <v>48</v>
       </c>
       <c r="F90" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G90" s="7">
         <v>46813</v>
@@ -2402,16 +2391,16 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C91" t="s">
         <v>48</v>
       </c>
       <c r="F91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G91" s="7">
         <v>46813</v>
@@ -2419,171 +2408,171 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
+        <v>33</v>
+      </c>
+      <c r="B92" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" t="s">
+        <v>142</v>
+      </c>
+      <c r="G92" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>34</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>143</v>
       </c>
-      <c r="C92" t="s">
-        <v>48</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="C93" t="s">
+        <v>48</v>
+      </c>
+      <c r="F93" t="s">
         <v>144</v>
       </c>
-      <c r="G92" s="7">
+      <c r="G93" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>215</v>
-      </c>
-      <c r="B95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C95" t="s">
-        <v>48</v>
-      </c>
-      <c r="F95" t="s">
-        <v>147</v>
-      </c>
-      <c r="G95" s="7">
-        <v>47178</v>
-      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B96" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C96" t="s">
         <v>48</v>
       </c>
-      <c r="E96">
-        <v>1</v>
+      <c r="F96" t="s">
+        <v>147</v>
       </c>
       <c r="G96" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>373</v>
+      </c>
+      <c r="B97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C97" t="s">
+        <v>48</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="G97" s="7">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>67</v>
-      </c>
-      <c r="B99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C99" t="s">
-        <v>44</v>
-      </c>
-      <c r="F99" t="s">
-        <v>151</v>
-      </c>
-      <c r="G99" s="7">
-        <v>47178</v>
-      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B100" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C100" t="s">
         <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G100" s="7">
-        <v>11018</v>
+        <v>47178</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B101" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C101" t="s">
         <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G101" s="7">
         <v>11018</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>136</v>
+      </c>
+      <c r="B102" t="s">
+        <v>154</v>
+      </c>
+      <c r="C102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>155</v>
+      </c>
+      <c r="G102" s="7">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>70</v>
-      </c>
-      <c r="B104" t="s">
-        <v>157</v>
-      </c>
-      <c r="C104" t="s">
-        <v>44</v>
-      </c>
-      <c r="G104" s="7">
-        <v>11018</v>
-      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C105" t="s">
-        <v>48</v>
-      </c>
-      <c r="F105" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="G105" s="7">
         <v>11018</v>
@@ -2591,50 +2580,53 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B106" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C106" t="s">
         <v>48</v>
       </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
       <c r="F106" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G106" s="7">
-        <v>11383</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B107" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C107" t="s">
         <v>48</v>
       </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
       <c r="F107" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G107" s="7">
-        <v>37347</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B108" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C108" t="s">
         <v>48</v>
+      </c>
+      <c r="F108" t="s">
+        <v>163</v>
       </c>
       <c r="G108" s="7">
         <v>37347</v>
@@ -2642,39 +2634,33 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C109" t="s">
         <v>48</v>
       </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109" t="s">
-        <v>166</v>
-      </c>
       <c r="G109" s="7">
-        <v>37712</v>
-      </c>
-      <c r="H109" s="7">
-        <v>38078</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B110" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C110" t="s">
         <v>48</v>
       </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
       <c r="F110" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G110" s="7">
         <v>37712</v>
@@ -2685,18 +2671,38 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
+        <v>63</v>
+      </c>
+      <c r="B111" t="s">
+        <v>167</v>
+      </c>
+      <c r="C111" t="s">
+        <v>48</v>
+      </c>
+      <c r="F111" t="s">
+        <v>168</v>
+      </c>
+      <c r="G111" s="7">
+        <v>37712</v>
+      </c>
+      <c r="H111" s="7">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112">
         <v>97</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>169</v>
       </c>
-      <c r="C111" t="s">
-        <v>48</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="C112" t="s">
+        <v>48</v>
+      </c>
+      <c r="F112" t="s">
         <v>170</v>
       </c>
-      <c r="G111" s="7">
+      <c r="G112" s="7">
         <v>38078</v>
       </c>
     </row>
@@ -2712,7 +2718,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F77 F1:F39 D1:E77 D78:F1048576">
+  <conditionalFormatting sqref="F43:F78 F1:F39 D1:E78 D79:F1048576">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2727,12 +2733,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109">
+  <conditionalFormatting sqref="H110">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H110">
+  <conditionalFormatting sqref="H111">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28A6FD5-EEB0-4B49-BBDF-181EDB6E563D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88E93D5-8AE2-5A44-BD94-078ABB0804A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10600" yWindow="760" windowWidth="23960" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="190">
   <si>
     <t>H-Index</t>
   </si>
@@ -606,6 +606,9 @@
   </si>
   <si>
     <t>Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t>Stick it in then return the tail.</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2041,6 +2044,9 @@
       </c>
       <c r="C63" t="s">
         <v>48</v>
+      </c>
+      <c r="F63" t="s">
+        <v>189</v>
       </c>
       <c r="G63" s="7">
         <v>38808</v>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88E93D5-8AE2-5A44-BD94-078ABB0804A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8ECA27-4C6B-7344-B9A5-87A8D7C22F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10600" yWindow="760" windowWidth="23960" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="191">
   <si>
     <t>H-Index</t>
   </si>
@@ -609,6 +609,9 @@
   </si>
   <si>
     <t>Stick it in then return the tail.</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1147,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2049,6 +2052,20 @@
         <v>189</v>
       </c>
       <c r="G63" s="7">
+        <v>38808</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>199</v>
+      </c>
+      <c r="B64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G64" s="7">
         <v>38808</v>
       </c>
     </row>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8ECA27-4C6B-7344-B9A5-87A8D7C22F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4C1B1C-7C9D-EB42-A2CF-0674347A58C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10600" yWindow="760" windowWidth="23960" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="193">
   <si>
     <t>H-Index</t>
   </si>
@@ -612,6 +612,12 @@
   </si>
   <si>
     <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>BFS level detection then only save right-most value</t>
+  </si>
+  <si>
+    <t>Average of Levels in Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2065,52 +2071,52 @@
       <c r="C64" t="s">
         <v>48</v>
       </c>
+      <c r="F64" t="s">
+        <v>191</v>
+      </c>
       <c r="G64" s="7">
         <v>38808</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>637</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65" s="7">
+        <v>38808</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>530</v>
-      </c>
-      <c r="B67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" s="7">
-        <v>44986</v>
-      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G68" s="7">
         <v>44986</v>
@@ -2118,80 +2124,80 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
+        <v>230</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" s="7">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>98</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>117</v>
       </c>
-      <c r="C69" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="C70" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" t="s">
         <v>121</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G70" s="7">
         <v>46447</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>200</v>
-      </c>
-      <c r="B72" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" t="s">
-        <v>48</v>
-      </c>
-      <c r="F72" t="s">
-        <v>84</v>
-      </c>
-      <c r="G72" s="7">
-        <v>45352</v>
-      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
         <v>48</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G73" s="7">
-        <v>45717</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
         <v>48</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G74" s="7">
         <v>45717</v>
@@ -2199,36 +2205,33 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>909</v>
+        <v>133</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
         <v>48</v>
       </c>
       <c r="F75" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G75" s="7">
-        <v>46447</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
         <v>48</v>
       </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
       <c r="F76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G76" s="7">
         <v>46447</v>
@@ -2236,10 +2239,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
         <v>48</v>
@@ -2247,46 +2250,49 @@
       <c r="E77">
         <v>1</v>
       </c>
+      <c r="F77" t="s">
+        <v>110</v>
+      </c>
       <c r="G77" s="7">
         <v>46447</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>207</v>
+      </c>
+      <c r="B78" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="G78" s="7">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>17</v>
-      </c>
-      <c r="B80" t="s">
-        <v>125</v>
-      </c>
-      <c r="C80" t="s">
-        <v>48</v>
-      </c>
-      <c r="F80" t="s">
-        <v>126</v>
-      </c>
-      <c r="G80" s="7">
-        <v>46447</v>
-      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s">
         <v>48</v>
@@ -2300,27 +2306,27 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
         <v>48</v>
       </c>
-      <c r="E82">
-        <v>1</v>
+      <c r="F82" t="s">
+        <v>126</v>
       </c>
       <c r="G82" s="7">
-        <v>46813</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C83" t="s">
         <v>48</v>
@@ -2328,85 +2334,85 @@
       <c r="E83">
         <v>1</v>
       </c>
-      <c r="F83" t="s">
-        <v>131</v>
-      </c>
       <c r="G83" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>131</v>
+      </c>
+      <c r="G84" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>108</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>133</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>44</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F87" t="s">
         <v>130</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G87" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>35</v>
-      </c>
-      <c r="B89" t="s">
-        <v>135</v>
-      </c>
-      <c r="C89" t="s">
-        <v>44</v>
-      </c>
-      <c r="F89" t="s">
-        <v>136</v>
-      </c>
-      <c r="G89" s="7">
-        <v>46813</v>
-      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G90" s="7">
         <v>46813</v>
@@ -2414,16 +2420,16 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C91" t="s">
         <v>48</v>
       </c>
       <c r="F91" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G91" s="7">
         <v>46813</v>
@@ -2431,16 +2437,16 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C92" t="s">
         <v>48</v>
       </c>
       <c r="F92" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G92" s="7">
         <v>46813</v>
@@ -2448,171 +2454,171 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
+        <v>33</v>
+      </c>
+      <c r="B93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" t="s">
+        <v>48</v>
+      </c>
+      <c r="F93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G93" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>34</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>143</v>
       </c>
-      <c r="C93" t="s">
-        <v>48</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="C94" t="s">
+        <v>48</v>
+      </c>
+      <c r="F94" t="s">
         <v>144</v>
       </c>
-      <c r="G93" s="7">
+      <c r="G94" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>215</v>
-      </c>
-      <c r="B96" t="s">
-        <v>146</v>
-      </c>
-      <c r="C96" t="s">
-        <v>48</v>
-      </c>
-      <c r="F96" t="s">
-        <v>147</v>
-      </c>
-      <c r="G96" s="7">
-        <v>47178</v>
-      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C97" t="s">
         <v>48</v>
       </c>
-      <c r="E97">
-        <v>1</v>
+      <c r="F97" t="s">
+        <v>147</v>
       </c>
       <c r="G97" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>373</v>
+      </c>
+      <c r="B98" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="G98" s="7">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>67</v>
-      </c>
-      <c r="B100" t="s">
-        <v>150</v>
-      </c>
-      <c r="C100" t="s">
-        <v>44</v>
-      </c>
-      <c r="F100" t="s">
-        <v>151</v>
-      </c>
-      <c r="G100" s="7">
-        <v>47178</v>
-      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B101" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C101" t="s">
         <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G101" s="7">
-        <v>11018</v>
+        <v>47178</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B102" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C102" t="s">
         <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G102" s="7">
         <v>11018</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>136</v>
+      </c>
+      <c r="B103" t="s">
+        <v>154</v>
+      </c>
+      <c r="C103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>155</v>
+      </c>
+      <c r="G103" s="7">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>70</v>
-      </c>
-      <c r="B105" t="s">
-        <v>157</v>
-      </c>
-      <c r="C105" t="s">
-        <v>44</v>
-      </c>
-      <c r="G105" s="7">
-        <v>11018</v>
-      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B106" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C106" t="s">
-        <v>48</v>
-      </c>
-      <c r="F106" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="G106" s="7">
         <v>11018</v>
@@ -2620,50 +2626,53 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C107" t="s">
         <v>48</v>
       </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
       <c r="F107" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G107" s="7">
-        <v>11383</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B108" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C108" t="s">
         <v>48</v>
       </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
       <c r="F108" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G108" s="7">
-        <v>37347</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B109" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C109" t="s">
         <v>48</v>
+      </c>
+      <c r="F109" t="s">
+        <v>163</v>
       </c>
       <c r="G109" s="7">
         <v>37347</v>
@@ -2671,39 +2680,33 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C110" t="s">
         <v>48</v>
       </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-      <c r="F110" t="s">
-        <v>166</v>
-      </c>
       <c r="G110" s="7">
-        <v>37712</v>
-      </c>
-      <c r="H110" s="7">
-        <v>38078</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C111" t="s">
         <v>48</v>
       </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
       <c r="F111" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G111" s="7">
         <v>37712</v>
@@ -2714,18 +2717,38 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
+        <v>63</v>
+      </c>
+      <c r="B112" t="s">
+        <v>167</v>
+      </c>
+      <c r="C112" t="s">
+        <v>48</v>
+      </c>
+      <c r="F112" t="s">
+        <v>168</v>
+      </c>
+      <c r="G112" s="7">
+        <v>37712</v>
+      </c>
+      <c r="H112" s="7">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>97</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>169</v>
       </c>
-      <c r="C112" t="s">
-        <v>48</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="C113" t="s">
+        <v>48</v>
+      </c>
+      <c r="F113" t="s">
         <v>170</v>
       </c>
-      <c r="G112" s="7">
+      <c r="G113" s="7">
         <v>38078</v>
       </c>
     </row>
@@ -2741,7 +2764,7 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F78 F1:F39 D1:E78 D79:F1048576">
+  <conditionalFormatting sqref="F1:F39 F43:F65 D1:E65 D64:F1048576">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2756,12 +2779,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H110">
+  <conditionalFormatting sqref="H111">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H111">
+  <conditionalFormatting sqref="H112">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -2799,6 +2822,7 @@
     <hyperlink ref="B5" r:id="rId5" xr:uid="{61620F85-A756-1948-B905-68253DFF6AD5}"/>
     <hyperlink ref="B6" r:id="rId6" xr:uid="{82624FD5-7C76-EB45-9D9D-195B23F4F9DA}"/>
     <hyperlink ref="B7" r:id="rId7" xr:uid="{1DA24BCD-8B15-3E41-9087-846CE867B65E}"/>
+    <hyperlink ref="B65" r:id="rId8" display="https://leetcode.com/problems/average-of-levels-in-binary-tree/" xr:uid="{CF7ACCDB-130B-6449-BEA9-B7A71C85179B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4C1B1C-7C9D-EB42-A2CF-0674347A58C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DAD08E-C32A-9540-93FC-72C948CA4FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10600" yWindow="760" windowWidth="23960" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2087,6 +2087,9 @@
       </c>
       <c r="C65" t="s">
         <v>44</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
       </c>
       <c r="G65" s="7">
         <v>38808</v>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DAD08E-C32A-9540-93FC-72C948CA4FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864F936-9D3C-6C41-9135-46918B835345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10600" yWindow="760" windowWidth="23960" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -709,7 +709,27 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1152,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2124,6 +2144,9 @@
       <c r="G68" s="7">
         <v>44986</v>
       </c>
+      <c r="H68" s="7">
+        <v>38808</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
@@ -2135,11 +2158,17 @@
       <c r="C69" t="s">
         <v>48</v>
       </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
       <c r="F69" t="s">
         <v>81</v>
       </c>
       <c r="G69" s="7">
         <v>44986</v>
+      </c>
+      <c r="H69" s="7">
+        <v>38808</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -2757,62 +2786,72 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 F43:F65 D1:E65 D64:F1048576">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G42 G44:G49 G53:G1048576">
-    <cfRule type="cellIs" dxfId="8" priority="13" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H111">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H112">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H111">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H112">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H47:H48">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="G50:G52">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G52">
+  <conditionalFormatting sqref="H68">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H69">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864F936-9D3C-6C41-9135-46918B835345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6532EF8C-28EB-C04A-AA4E-F91DA9DC610C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10600" yWindow="760" windowWidth="23960" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -709,7 +709,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1173,7 +1183,7 @@
   <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2187,6 +2197,9 @@
       <c r="G70" s="7">
         <v>46447</v>
       </c>
+      <c r="H70" s="7">
+        <v>38808</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
@@ -2217,6 +2230,9 @@
       <c r="G73" s="7">
         <v>45352</v>
       </c>
+      <c r="H73" s="7">
+        <v>38808</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -2786,72 +2802,77 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 F43:F65 D1:E65 D64:F1048576">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G42 G44:G49 G53:G1048576">
-    <cfRule type="cellIs" dxfId="10" priority="15" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H111">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H111">
+  <conditionalFormatting sqref="H112">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H112">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H47:H48">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
+  <conditionalFormatting sqref="G50:G52">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G52">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H68">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H69:H70">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
+  <conditionalFormatting sqref="H73">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6532EF8C-28EB-C04A-AA4E-F91DA9DC610C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F639892E-B3CB-1A4C-8D22-92F013367481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10600" yWindow="760" windowWidth="23960" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="196">
   <si>
     <t>H-Index</t>
   </si>
@@ -618,6 +618,15 @@
   </si>
   <si>
     <t>Average of Levels in Binary Tree</t>
+  </si>
+  <si>
+    <t>Use hashset to detect loop. Then update the adj list to empty array</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>Topological Sort. Using set is faster than looking up in a list</t>
   </si>
 </sst>
 </file>
@@ -709,7 +718,47 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1180,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2267,6 +2316,9 @@
       <c r="G75" s="7">
         <v>45717</v>
       </c>
+      <c r="H75" s="7">
+        <v>38808</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -2284,6 +2336,9 @@
       <c r="G76" s="7">
         <v>46447</v>
       </c>
+      <c r="H76" s="7">
+        <v>39173</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -2318,183 +2373,182 @@
       <c r="E78">
         <v>1</v>
       </c>
+      <c r="F78" t="s">
+        <v>193</v>
+      </c>
       <c r="G78" s="7">
         <v>46447</v>
       </c>
+      <c r="H78" s="7">
+        <v>38808</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>323</v>
+      </c>
+      <c r="H79" s="7"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
+      <c r="A80">
+        <v>210</v>
+      </c>
+      <c r="B80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>195</v>
+      </c>
+      <c r="G80" s="7">
+        <v>39173</v>
+      </c>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>17</v>
-      </c>
-      <c r="B81" t="s">
-        <v>125</v>
-      </c>
-      <c r="C81" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" t="s">
-        <v>126</v>
-      </c>
-      <c r="G81" s="7">
-        <v>46447</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>77</v>
-      </c>
-      <c r="B82" t="s">
-        <v>127</v>
-      </c>
-      <c r="C82" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" t="s">
-        <v>126</v>
-      </c>
-      <c r="G82" s="7">
-        <v>46447</v>
-      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C83" t="s">
         <v>48</v>
       </c>
-      <c r="E83">
-        <v>1</v>
+      <c r="F83" t="s">
+        <v>126</v>
       </c>
       <c r="G83" s="7">
-        <v>46813</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
+        <v>77</v>
+      </c>
+      <c r="B84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" t="s">
+        <v>126</v>
+      </c>
+      <c r="G84" s="7">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>46</v>
+      </c>
+      <c r="B85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="G85" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>39</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" t="s">
         <v>129</v>
       </c>
-      <c r="C84" t="s">
-        <v>48</v>
-      </c>
-      <c r="E84">
+      <c r="C86" t="s">
+        <v>48</v>
+      </c>
+      <c r="E86">
         <v>1</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F86" t="s">
         <v>131</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G86" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>108</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" t="s">
         <v>133</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>44</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F89" t="s">
         <v>130</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G89" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>35</v>
-      </c>
-      <c r="B90" t="s">
-        <v>135</v>
-      </c>
-      <c r="C90" t="s">
-        <v>44</v>
-      </c>
-      <c r="F90" t="s">
-        <v>136</v>
-      </c>
-      <c r="G90" s="7">
-        <v>46813</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>74</v>
-      </c>
-      <c r="B91" t="s">
-        <v>137</v>
-      </c>
-      <c r="C91" t="s">
-        <v>48</v>
-      </c>
-      <c r="F91" t="s">
-        <v>138</v>
-      </c>
-      <c r="G91" s="7">
-        <v>46813</v>
-      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G92" s="7">
         <v>46813</v>
@@ -2502,16 +2556,16 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B93" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C93" t="s">
         <v>48</v>
       </c>
       <c r="F93" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G93" s="7">
         <v>46813</v>
@@ -2519,360 +2573,414 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
+        <v>162</v>
+      </c>
+      <c r="B94" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" t="s">
+        <v>48</v>
+      </c>
+      <c r="F94" t="s">
+        <v>140</v>
+      </c>
+      <c r="G94" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>33</v>
+      </c>
+      <c r="B95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95" t="s">
+        <v>142</v>
+      </c>
+      <c r="G95" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>34</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B96" t="s">
         <v>143</v>
       </c>
-      <c r="C94" t="s">
-        <v>48</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="C96" t="s">
+        <v>48</v>
+      </c>
+      <c r="F96" t="s">
         <v>144</v>
       </c>
-      <c r="G94" s="7">
+      <c r="G96" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>215</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B99" t="s">
         <v>146</v>
       </c>
-      <c r="C97" t="s">
-        <v>48</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="C99" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99" t="s">
         <v>147</v>
       </c>
-      <c r="G97" s="7">
+      <c r="G99" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>373</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B100" t="s">
         <v>148</v>
       </c>
-      <c r="C98" t="s">
-        <v>48</v>
-      </c>
-      <c r="E98">
+      <c r="C100" t="s">
+        <v>48</v>
+      </c>
+      <c r="E100">
         <v>1</v>
       </c>
-      <c r="G98" s="7">
+      <c r="G100" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>67</v>
-      </c>
-      <c r="B101" t="s">
-        <v>150</v>
-      </c>
-      <c r="C101" t="s">
-        <v>44</v>
-      </c>
-      <c r="F101" t="s">
-        <v>151</v>
-      </c>
-      <c r="G101" s="7">
-        <v>47178</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>190</v>
-      </c>
-      <c r="B102" t="s">
-        <v>152</v>
-      </c>
-      <c r="C102" t="s">
-        <v>44</v>
-      </c>
-      <c r="F102" t="s">
-        <v>153</v>
-      </c>
-      <c r="G102" s="7">
-        <v>11018</v>
-      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="B103" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C103" t="s">
         <v>44</v>
       </c>
       <c r="F103" t="s">
+        <v>151</v>
+      </c>
+      <c r="G103" s="7">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>190</v>
+      </c>
+      <c r="B104" t="s">
+        <v>152</v>
+      </c>
+      <c r="C104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>153</v>
+      </c>
+      <c r="G104" s="7">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>136</v>
+      </c>
+      <c r="B105" t="s">
+        <v>154</v>
+      </c>
+      <c r="C105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
         <v>155</v>
       </c>
-      <c r="G103" s="7">
+      <c r="G105" s="7">
         <v>11018</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>70</v>
-      </c>
-      <c r="B106" t="s">
-        <v>157</v>
-      </c>
-      <c r="C106" t="s">
-        <v>44</v>
-      </c>
-      <c r="G106" s="7">
-        <v>11018</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>198</v>
-      </c>
-      <c r="B107" t="s">
-        <v>158</v>
-      </c>
-      <c r="C107" t="s">
-        <v>48</v>
-      </c>
-      <c r="F107" t="s">
-        <v>159</v>
-      </c>
-      <c r="G107" s="7">
-        <v>11018</v>
-      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="B108" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C108" t="s">
-        <v>48</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="G108" s="7">
-        <v>11383</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>322</v>
+        <v>198</v>
       </c>
       <c r="B109" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C109" t="s">
         <v>48</v>
       </c>
       <c r="F109" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G109" s="7">
-        <v>37347</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>300</v>
+        <v>139</v>
       </c>
       <c r="B110" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C110" t="s">
         <v>48</v>
       </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>161</v>
+      </c>
       <c r="G110" s="7">
-        <v>37347</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>120</v>
+        <v>322</v>
       </c>
       <c r="B111" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C111" t="s">
         <v>48</v>
       </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
       <c r="F111" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G111" s="7">
-        <v>37712</v>
-      </c>
-      <c r="H111" s="7">
-        <v>38078</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
+        <v>300</v>
+      </c>
+      <c r="B112" t="s">
+        <v>164</v>
+      </c>
+      <c r="C112" t="s">
+        <v>48</v>
+      </c>
+      <c r="G112" s="7">
+        <v>37347</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>120</v>
+      </c>
+      <c r="B113" t="s">
+        <v>165</v>
+      </c>
+      <c r="C113" t="s">
+        <v>48</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>166</v>
+      </c>
+      <c r="G113" s="7">
+        <v>37712</v>
+      </c>
+      <c r="H113" s="7">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114">
         <v>63</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B114" t="s">
         <v>167</v>
       </c>
-      <c r="C112" t="s">
-        <v>48</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="C114" t="s">
+        <v>48</v>
+      </c>
+      <c r="F114" t="s">
         <v>168</v>
       </c>
-      <c r="G112" s="7">
+      <c r="G114" s="7">
         <v>37712</v>
       </c>
-      <c r="H112" s="7">
+      <c r="H114" s="7">
         <v>38078</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115">
         <v>97</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B115" t="s">
         <v>169</v>
       </c>
-      <c r="C113" t="s">
-        <v>48</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="C115" t="s">
+        <v>48</v>
+      </c>
+      <c r="F115" t="s">
         <v>170</v>
       </c>
-      <c r="G113" s="7">
+      <c r="G115" s="7">
         <v>38078</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 F43:F65 D1:E65 D64:F1048576">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G42 G44:G49 G53:G1048576">
-    <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G2:G42 G44:G49 G53:G79 G81:G1048576">
+    <cfRule type="cellIs" dxfId="15" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H113">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H111">
+  <conditionalFormatting sqref="H47:H48">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H112">
+  <conditionalFormatting sqref="G50:G52">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H68">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
+  <conditionalFormatting sqref="H69:H70">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G52">
+  <conditionalFormatting sqref="H73">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H78:H80">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69:H70">
+  <conditionalFormatting sqref="G80">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H76">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F639892E-B3CB-1A4C-8D22-92F013367481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1052A4-2EFB-E94A-B7D7-8529F01FDB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="197">
   <si>
     <t>H-Index</t>
   </si>
@@ -368,9 +368,6 @@
     <t>Evaluate Division</t>
   </si>
   <si>
-    <t>BFS, optimized with hashset. How to convert square# to r,c?</t>
-  </si>
-  <si>
     <t>Need to review… this is crazy</t>
   </si>
   <si>
@@ -627,6 +624,12 @@
   </si>
   <si>
     <t>Topological Sort. Using set is faster than looking up in a list</t>
+  </si>
+  <si>
+    <t>BFS, optimized with hashset. How to convert square# to r,c?, Accumulator</t>
+  </si>
+  <si>
+    <t>Minimum Genetic Mutation</t>
   </si>
 </sst>
 </file>
@@ -1229,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1255,7 +1258,7 @@
         <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -1348,7 +1351,7 @@
         <v>121</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -1365,13 +1368,13 @@
         <v>122</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
         <v>172</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>173</v>
       </c>
       <c r="G8" s="7">
         <v>38078</v>
@@ -1452,7 +1455,7 @@
         <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7">
         <v>38078</v>
@@ -1543,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="7">
         <v>46082</v>
@@ -1557,13 +1560,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G24" s="7">
         <v>38078</v>
@@ -1621,7 +1624,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G29" s="7">
         <v>38078</v>
@@ -1654,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G32" s="7">
         <v>44621</v>
@@ -1699,7 +1702,7 @@
         <v>452</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
@@ -1708,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G35" s="7">
         <v>38443</v>
@@ -1862,7 +1865,7 @@
         <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G47" s="7">
         <v>44986</v>
@@ -1916,13 +1919,13 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s">
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G50" s="7">
         <v>38443</v>
@@ -1933,7 +1936,7 @@
         <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C51" t="s">
         <v>44</v>
@@ -1953,7 +1956,7 @@
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C52" t="s">
         <v>48</v>
@@ -1962,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G52" s="7">
         <v>38443</v>
@@ -2068,7 +2071,7 @@
         <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
         <v>48</v>
@@ -2077,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G60" s="7">
         <v>46447</v>
@@ -2088,7 +2091,7 @@
         <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" t="s">
         <v>48</v>
@@ -2097,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G61" s="7">
         <v>46447</v>
@@ -2108,7 +2111,7 @@
         <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
         <v>48</v>
@@ -2117,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G62" s="7">
         <v>46447</v>
@@ -2128,13 +2131,13 @@
         <v>114</v>
       </c>
       <c r="B63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" t="s">
         <v>188</v>
-      </c>
-      <c r="C63" t="s">
-        <v>48</v>
-      </c>
-      <c r="F63" t="s">
-        <v>189</v>
       </c>
       <c r="G63" s="7">
         <v>38808</v>
@@ -2145,13 +2148,13 @@
         <v>199</v>
       </c>
       <c r="B64" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" t="s">
         <v>190</v>
-      </c>
-      <c r="C64" t="s">
-        <v>48</v>
-      </c>
-      <c r="F64" t="s">
-        <v>191</v>
       </c>
       <c r="G64" s="7">
         <v>38808</v>
@@ -2162,7 +2165,7 @@
         <v>637</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C65" t="s">
         <v>44</v>
@@ -2235,13 +2238,13 @@
         <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
         <v>48</v>
       </c>
       <c r="F70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G70" s="7">
         <v>46447</v>
@@ -2331,7 +2334,7 @@
         <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="G76" s="7">
         <v>46447</v>
@@ -2354,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G77" s="7">
         <v>46447</v>
@@ -2365,7 +2368,7 @@
         <v>207</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C78" t="s">
         <v>48</v>
@@ -2374,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G78" s="7">
         <v>46447</v>
@@ -2394,7 +2397,7 @@
         <v>210</v>
       </c>
       <c r="B80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C80" t="s">
         <v>48</v>
@@ -2403,55 +2406,53 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G80" s="7">
         <v>39173</v>
       </c>
       <c r="H80" s="7"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>433</v>
+      </c>
+      <c r="B81" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" t="s">
+        <v>48</v>
+      </c>
+      <c r="G81" s="7">
+        <v>39539</v>
+      </c>
+      <c r="H81" s="7"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>17</v>
-      </c>
-      <c r="B83" t="s">
-        <v>125</v>
-      </c>
-      <c r="C83" t="s">
-        <v>48</v>
-      </c>
-      <c r="F83" t="s">
-        <v>126</v>
-      </c>
-      <c r="G83" s="7">
-        <v>46447</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C84" t="s">
         <v>48</v>
       </c>
       <c r="F84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G84" s="7">
         <v>46447</v>
@@ -2459,27 +2460,27 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C85" t="s">
         <v>48</v>
       </c>
-      <c r="E85">
-        <v>1</v>
+      <c r="F85" t="s">
+        <v>125</v>
       </c>
       <c r="G85" s="7">
-        <v>46813</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C86" t="s">
         <v>48</v>
@@ -2487,85 +2488,85 @@
       <c r="E86">
         <v>1</v>
       </c>
-      <c r="F86" t="s">
-        <v>131</v>
-      </c>
       <c r="G86" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" t="s">
+        <v>48</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>130</v>
+      </c>
+      <c r="G87" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>108</v>
+      </c>
+      <c r="B90" t="s">
         <v>132</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>108</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>129</v>
+      </c>
+      <c r="G90" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C89" t="s">
-        <v>44</v>
-      </c>
-      <c r="F89" t="s">
-        <v>130</v>
-      </c>
-      <c r="G89" s="7">
-        <v>46813</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>35</v>
-      </c>
-      <c r="B92" t="s">
-        <v>135</v>
-      </c>
-      <c r="C92" t="s">
-        <v>44</v>
-      </c>
-      <c r="F92" t="s">
-        <v>136</v>
-      </c>
-      <c r="G92" s="7">
-        <v>46813</v>
-      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C93" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G93" s="7">
         <v>46813</v>
@@ -2573,16 +2574,16 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B94" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C94" t="s">
         <v>48</v>
       </c>
       <c r="F94" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G94" s="7">
         <v>46813</v>
@@ -2590,16 +2591,16 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C95" t="s">
         <v>48</v>
       </c>
       <c r="F95" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G95" s="7">
         <v>46813</v>
@@ -2607,171 +2608,171 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
+        <v>33</v>
+      </c>
+      <c r="B96" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" t="s">
+        <v>48</v>
+      </c>
+      <c r="F96" t="s">
+        <v>141</v>
+      </c>
+      <c r="G96" s="7">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>34</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" t="s">
+        <v>48</v>
+      </c>
+      <c r="F97" t="s">
         <v>143</v>
       </c>
-      <c r="C96" t="s">
-        <v>48</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="G97" s="7">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G96" s="7">
-        <v>47178</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>215</v>
-      </c>
-      <c r="B99" t="s">
-        <v>146</v>
-      </c>
-      <c r="C99" t="s">
-        <v>48</v>
-      </c>
-      <c r="F99" t="s">
-        <v>147</v>
-      </c>
-      <c r="G99" s="7">
-        <v>47178</v>
-      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B100" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C100" t="s">
         <v>48</v>
       </c>
-      <c r="E100">
-        <v>1</v>
+      <c r="F100" t="s">
+        <v>146</v>
       </c>
       <c r="G100" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>373</v>
+      </c>
+      <c r="B101" t="s">
+        <v>147</v>
+      </c>
+      <c r="C101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="G101" s="7">
+        <v>47178</v>
+      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>67</v>
-      </c>
-      <c r="B103" t="s">
-        <v>150</v>
-      </c>
-      <c r="C103" t="s">
-        <v>44</v>
-      </c>
-      <c r="F103" t="s">
-        <v>151</v>
-      </c>
-      <c r="G103" s="7">
-        <v>47178</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B104" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C104" t="s">
         <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G104" s="7">
-        <v>11018</v>
+        <v>47178</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B105" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C105" t="s">
         <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G105" s="7">
         <v>11018</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>136</v>
+      </c>
+      <c r="B106" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>154</v>
+      </c>
+      <c r="G106" s="7">
+        <v>11018</v>
+      </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>70</v>
-      </c>
-      <c r="B108" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" t="s">
-        <v>44</v>
-      </c>
-      <c r="G108" s="7">
-        <v>11018</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B109" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C109" t="s">
-        <v>48</v>
-      </c>
-      <c r="F109" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="G109" s="7">
         <v>11018</v>
@@ -2779,50 +2780,53 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C110" t="s">
         <v>48</v>
       </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
       <c r="F110" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G110" s="7">
-        <v>11383</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C111" t="s">
         <v>48</v>
       </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
       <c r="F111" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G111" s="7">
-        <v>37347</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B112" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C112" t="s">
         <v>48</v>
+      </c>
+      <c r="F112" t="s">
+        <v>162</v>
       </c>
       <c r="G112" s="7">
         <v>37347</v>
@@ -2830,39 +2834,33 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B113" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C113" t="s">
         <v>48</v>
       </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
-      <c r="F113" t="s">
-        <v>166</v>
-      </c>
       <c r="G113" s="7">
-        <v>37712</v>
-      </c>
-      <c r="H113" s="7">
-        <v>38078</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C114" t="s">
         <v>48</v>
       </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
       <c r="F114" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G114" s="7">
         <v>37712</v>
@@ -2873,18 +2871,38 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
+        <v>63</v>
+      </c>
+      <c r="B115" t="s">
+        <v>166</v>
+      </c>
+      <c r="C115" t="s">
+        <v>48</v>
+      </c>
+      <c r="F115" t="s">
+        <v>167</v>
+      </c>
+      <c r="G115" s="7">
+        <v>37712</v>
+      </c>
+      <c r="H115" s="7">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116">
         <v>97</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" t="s">
+        <v>48</v>
+      </c>
+      <c r="F116" t="s">
         <v>169</v>
       </c>
-      <c r="C115" t="s">
-        <v>48</v>
-      </c>
-      <c r="F115" t="s">
-        <v>170</v>
-      </c>
-      <c r="G115" s="7">
+      <c r="G116" s="7">
         <v>38078</v>
       </c>
     </row>
@@ -2905,7 +2923,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G42 G44:G49 G53:G79 G81:G1048576">
+  <conditionalFormatting sqref="G2:G42 G44:G49 G53:G79 G82:G1048576">
     <cfRule type="cellIs" dxfId="15" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -2915,12 +2933,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H113">
+  <conditionalFormatting sqref="H114">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H114">
+  <conditionalFormatting sqref="H115">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -2970,12 +2988,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78:H80">
+  <conditionalFormatting sqref="H78:H81">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
+  <conditionalFormatting sqref="G80:G81">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -3282,17 +3300,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1052A4-2EFB-E94A-B7D7-8529F01FDB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4AFEC3-5FEB-F641-B70A-BFF25E2CB3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="11400" yWindow="760" windowWidth="23160" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="201">
   <si>
     <t>H-Index</t>
   </si>
@@ -630,6 +630,18 @@
   </si>
   <si>
     <t>Minimum Genetic Mutation</t>
+  </si>
+  <si>
+    <t>BFS mutation by mutation</t>
+  </si>
+  <si>
+    <t>Implement Trie</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Understand the data structure</t>
   </si>
 </sst>
 </file>
@@ -721,7 +733,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1232,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2423,15 +2445,21 @@
       <c r="C81" t="s">
         <v>48</v>
       </c>
+      <c r="F81" t="s">
+        <v>197</v>
+      </c>
       <c r="G81" s="7">
         <v>39539</v>
       </c>
       <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2443,100 +2471,103 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="C84" t="s">
         <v>48</v>
       </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
       <c r="F84" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="G84" s="7">
-        <v>46447</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>77</v>
-      </c>
-      <c r="B85" t="s">
-        <v>126</v>
-      </c>
-      <c r="C85" t="s">
-        <v>48</v>
-      </c>
-      <c r="F85" t="s">
-        <v>125</v>
-      </c>
-      <c r="G85" s="7">
-        <v>46447</v>
+        <v>39539</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>46</v>
-      </c>
-      <c r="B86" t="s">
-        <v>127</v>
-      </c>
-      <c r="C86" t="s">
-        <v>48</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="G86" s="7">
-        <v>46813</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C87" t="s">
         <v>48</v>
       </c>
-      <c r="E87">
+      <c r="F87" t="s">
+        <v>125</v>
+      </c>
+      <c r="G87" s="7">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>77</v>
+      </c>
+      <c r="B88" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88" t="s">
+        <v>125</v>
+      </c>
+      <c r="G88" s="7">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>46</v>
+      </c>
+      <c r="B89" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" t="s">
+        <v>48</v>
+      </c>
+      <c r="E89">
         <v>1</v>
       </c>
-      <c r="F87" t="s">
-        <v>130</v>
-      </c>
-      <c r="G87" s="7">
+      <c r="G89" s="7">
         <v>46813</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G90" s="7">
         <v>46813</v>
@@ -2545,7 +2576,7 @@
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2557,67 +2588,46 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C93" t="s">
         <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G93" s="7">
         <v>46813</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>74</v>
-      </c>
-      <c r="B94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" t="s">
-        <v>48</v>
-      </c>
-      <c r="F94" t="s">
-        <v>137</v>
-      </c>
-      <c r="G94" s="7">
-        <v>46813</v>
-      </c>
-    </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>162</v>
-      </c>
-      <c r="B95" t="s">
-        <v>138</v>
-      </c>
-      <c r="C95" t="s">
-        <v>48</v>
-      </c>
-      <c r="F95" t="s">
-        <v>139</v>
-      </c>
-      <c r="G95" s="7">
-        <v>46813</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C96" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G96" s="7">
         <v>46813</v>
@@ -2625,233 +2635,233 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C97" t="s">
         <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G97" s="7">
-        <v>47178</v>
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>162</v>
+      </c>
+      <c r="B98" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" t="s">
+        <v>139</v>
+      </c>
+      <c r="G98" s="7">
+        <v>46813</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
+      <c r="A99">
+        <v>33</v>
+      </c>
+      <c r="B99" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99" t="s">
+        <v>141</v>
+      </c>
+      <c r="G99" s="7">
+        <v>46813</v>
+      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C100" t="s">
         <v>48</v>
       </c>
       <c r="F100" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G100" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>373</v>
-      </c>
-      <c r="B101" t="s">
-        <v>147</v>
-      </c>
-      <c r="C101" t="s">
-        <v>48</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="G101" s="7">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>215</v>
+      </c>
+      <c r="B103" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" t="s">
+        <v>146</v>
+      </c>
+      <c r="G103" s="7">
         <v>47178</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>67</v>
+        <v>373</v>
       </c>
       <c r="B104" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F104" t="s">
-        <v>150</v>
+        <v>48</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
       </c>
       <c r="G104" s="7">
         <v>47178</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>67</v>
+      </c>
+      <c r="B107" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>150</v>
+      </c>
+      <c r="G107" s="7">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108">
         <v>190</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B108" t="s">
         <v>151</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C108" t="s">
         <v>44</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F108" t="s">
         <v>152</v>
       </c>
-      <c r="G105" s="7">
+      <c r="G108" s="7">
         <v>11018</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>136</v>
-      </c>
-      <c r="B106" t="s">
-        <v>153</v>
-      </c>
-      <c r="C106" t="s">
-        <v>44</v>
-      </c>
-      <c r="F106" t="s">
-        <v>154</v>
-      </c>
-      <c r="G106" s="7">
-        <v>11018</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C109" t="s">
         <v>44</v>
       </c>
+      <c r="F109" t="s">
+        <v>154</v>
+      </c>
       <c r="G109" s="7">
         <v>11018</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>198</v>
-      </c>
-      <c r="B110" t="s">
-        <v>157</v>
-      </c>
-      <c r="C110" t="s">
-        <v>48</v>
-      </c>
-      <c r="F110" t="s">
-        <v>158</v>
-      </c>
-      <c r="G110" s="7">
-        <v>11018</v>
-      </c>
-    </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>139</v>
-      </c>
-      <c r="B111" t="s">
-        <v>159</v>
-      </c>
-      <c r="C111" t="s">
-        <v>48</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-      <c r="F111" t="s">
-        <v>160</v>
-      </c>
-      <c r="G111" s="7">
-        <v>11383</v>
-      </c>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>322</v>
+        <v>70</v>
       </c>
       <c r="B112" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C112" t="s">
-        <v>48</v>
-      </c>
-      <c r="F112" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="G112" s="7">
-        <v>37347</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="B113" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C113" t="s">
         <v>48</v>
       </c>
+      <c r="F113" t="s">
+        <v>158</v>
+      </c>
       <c r="G113" s="7">
-        <v>37347</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="B114" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
         <v>48</v>
@@ -2860,145 +2870,201 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G114" s="7">
-        <v>37712</v>
-      </c>
-      <c r="H114" s="7">
-        <v>38078</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>63</v>
+        <v>322</v>
       </c>
       <c r="B115" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C115" t="s">
         <v>48</v>
       </c>
       <c r="F115" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G115" s="7">
-        <v>37712</v>
-      </c>
-      <c r="H115" s="7">
-        <v>38078</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
+        <v>300</v>
+      </c>
+      <c r="B116" t="s">
+        <v>163</v>
+      </c>
+      <c r="C116" t="s">
+        <v>48</v>
+      </c>
+      <c r="G116" s="7">
+        <v>37347</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>164</v>
+      </c>
+      <c r="C117" t="s">
+        <v>48</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>165</v>
+      </c>
+      <c r="G117" s="7">
+        <v>37712</v>
+      </c>
+      <c r="H117" s="7">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>63</v>
+      </c>
+      <c r="B118" t="s">
+        <v>166</v>
+      </c>
+      <c r="C118" t="s">
+        <v>48</v>
+      </c>
+      <c r="F118" t="s">
+        <v>167</v>
+      </c>
+      <c r="G118" s="7">
+        <v>37712</v>
+      </c>
+      <c r="H118" s="7">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119">
         <v>97</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B119" t="s">
         <v>168</v>
       </c>
-      <c r="C116" t="s">
-        <v>48</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="C119" t="s">
+        <v>48</v>
+      </c>
+      <c r="F119" t="s">
         <v>169</v>
       </c>
-      <c r="G116" s="7">
+      <c r="G119" s="7">
         <v>38078</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 F43:F65 D1:E65 D64:F1048576">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G42 G44:G49 G53:G79 G82:G1048576">
-    <cfRule type="cellIs" dxfId="15" priority="20" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G2:G42 G44:G49 G53:G79 G83 G85:G1048576">
+    <cfRule type="cellIs" dxfId="16" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H114">
+  <conditionalFormatting sqref="H118">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H115">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H47:H48">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
+  <conditionalFormatting sqref="G50:G52">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G52">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H68">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H69:H70">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69:H70">
+  <conditionalFormatting sqref="H73">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H78:H82">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78:H81">
+  <conditionalFormatting sqref="G80:G82">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80:G81">
+  <conditionalFormatting sqref="H76">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="G84">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4AFEC3-5FEB-F641-B70A-BFF25E2CB3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9699C7CD-3129-B64E-A99E-2E913AEDFE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11400" yWindow="760" windowWidth="23160" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -733,7 +733,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1256,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2518,6 +2528,9 @@
       <c r="G87" s="7">
         <v>46447</v>
       </c>
+      <c r="H87" s="7">
+        <v>39539</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
@@ -2969,102 +2982,107 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 F43:F65 D1:E65 D64:F1048576">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G42 G44:G49 G53:G79 G83 G85:G1048576">
-    <cfRule type="cellIs" dxfId="16" priority="21" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H117">
+  <conditionalFormatting sqref="H118">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H47:H48">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
+  <conditionalFormatting sqref="G50:G52">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G52">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H68">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H69:H70">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69:H70">
+  <conditionalFormatting sqref="H73">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H78:H82">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78:H82">
+  <conditionalFormatting sqref="G80:G82">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80:G82">
+  <conditionalFormatting sqref="H76">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="G84">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
+  <conditionalFormatting sqref="H87">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9699C7CD-3129-B64E-A99E-2E913AEDFE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB82BA05-33FA-E04C-8AB9-C8AD8A5CB5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11400" yWindow="760" windowWidth="23160" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="202">
   <si>
     <t>H-Index</t>
   </si>
@@ -431,9 +431,6 @@
     <t>DFS</t>
   </si>
   <si>
-    <t>DFS, work on the decision tree</t>
-  </si>
-  <si>
     <t>Divide and Conquer</t>
   </si>
   <si>
@@ -642,6 +639,12 @@
   </si>
   <si>
     <t>Understand the data structure</t>
+  </si>
+  <si>
+    <t>Just memorize it</t>
+  </si>
+  <si>
+    <t>DFS, work on the decision tree. With or without</t>
   </si>
 </sst>
 </file>
@@ -733,7 +736,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1266,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1383,7 +1396,7 @@
         <v>121</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -1400,13 +1413,13 @@
         <v>122</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
         <v>171</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>172</v>
       </c>
       <c r="G8" s="7">
         <v>38078</v>
@@ -1487,7 +1500,7 @@
         <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7">
         <v>38078</v>
@@ -1578,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G23" s="7">
         <v>46082</v>
@@ -1592,13 +1605,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G24" s="7">
         <v>38078</v>
@@ -1656,7 +1669,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G29" s="7">
         <v>38078</v>
@@ -1689,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G32" s="7">
         <v>44621</v>
@@ -1734,7 +1747,7 @@
         <v>452</v>
       </c>
       <c r="B35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
@@ -1743,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G35" s="7">
         <v>38443</v>
@@ -1897,7 +1910,7 @@
         <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G47" s="7">
         <v>44986</v>
@@ -1951,13 +1964,13 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C50" t="s">
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G50" s="7">
         <v>38443</v>
@@ -1968,7 +1981,7 @@
         <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C51" t="s">
         <v>44</v>
@@ -1988,7 +2001,7 @@
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s">
         <v>48</v>
@@ -1997,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G52" s="7">
         <v>38443</v>
@@ -2163,13 +2176,13 @@
         <v>114</v>
       </c>
       <c r="B63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" t="s">
         <v>187</v>
-      </c>
-      <c r="C63" t="s">
-        <v>48</v>
-      </c>
-      <c r="F63" t="s">
-        <v>188</v>
       </c>
       <c r="G63" s="7">
         <v>38808</v>
@@ -2180,13 +2193,13 @@
         <v>199</v>
       </c>
       <c r="B64" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" t="s">
         <v>189</v>
-      </c>
-      <c r="C64" t="s">
-        <v>48</v>
-      </c>
-      <c r="F64" t="s">
-        <v>190</v>
       </c>
       <c r="G64" s="7">
         <v>38808</v>
@@ -2197,7 +2210,7 @@
         <v>637</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s">
         <v>44</v>
@@ -2366,7 +2379,7 @@
         <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G76" s="7">
         <v>46447</v>
@@ -2409,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G78" s="7">
         <v>46447</v>
@@ -2429,7 +2442,7 @@
         <v>210</v>
       </c>
       <c r="B80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C80" t="s">
         <v>48</v>
@@ -2438,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G80" s="7">
         <v>39173</v>
@@ -2450,13 +2463,13 @@
         <v>433</v>
       </c>
       <c r="B81" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" t="s">
         <v>196</v>
-      </c>
-      <c r="C81" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" t="s">
-        <v>197</v>
       </c>
       <c r="G81" s="7">
         <v>39539</v>
@@ -2469,7 +2482,7 @@
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2484,7 +2497,7 @@
         <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C84" t="s">
         <v>48</v>
@@ -2493,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G84" s="7">
         <v>39539</v>
@@ -2562,8 +2575,14 @@
       <c r="E89">
         <v>1</v>
       </c>
+      <c r="F89" t="s">
+        <v>200</v>
+      </c>
       <c r="G89" s="7">
         <v>46813</v>
+      </c>
+      <c r="H89" s="7">
+        <v>39539</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -2580,16 +2599,19 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="G90" s="7">
         <v>46813</v>
+      </c>
+      <c r="H90" s="7">
+        <v>39539</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2604,7 +2626,7 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
         <v>44</v>
@@ -2619,7 +2641,7 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2634,13 +2656,13 @@
         <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C96" t="s">
         <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G96" s="7">
         <v>46813</v>
@@ -2651,13 +2673,13 @@
         <v>74</v>
       </c>
       <c r="B97" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" t="s">
+        <v>48</v>
+      </c>
+      <c r="F97" t="s">
         <v>136</v>
-      </c>
-      <c r="C97" t="s">
-        <v>48</v>
-      </c>
-      <c r="F97" t="s">
-        <v>137</v>
       </c>
       <c r="G97" s="7">
         <v>46813</v>
@@ -2668,13 +2690,13 @@
         <v>162</v>
       </c>
       <c r="B98" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" t="s">
         <v>138</v>
-      </c>
-      <c r="C98" t="s">
-        <v>48</v>
-      </c>
-      <c r="F98" t="s">
-        <v>139</v>
       </c>
       <c r="G98" s="7">
         <v>46813</v>
@@ -2685,13 +2707,13 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99" t="s">
         <v>140</v>
-      </c>
-      <c r="C99" t="s">
-        <v>48</v>
-      </c>
-      <c r="F99" t="s">
-        <v>141</v>
       </c>
       <c r="G99" s="7">
         <v>46813</v>
@@ -2702,13 +2724,13 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" t="s">
+        <v>48</v>
+      </c>
+      <c r="F100" t="s">
         <v>142</v>
-      </c>
-      <c r="C100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F100" t="s">
-        <v>143</v>
       </c>
       <c r="G100" s="7">
         <v>47178</v>
@@ -2717,7 +2739,7 @@
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2732,13 +2754,13 @@
         <v>215</v>
       </c>
       <c r="B103" t="s">
+        <v>144</v>
+      </c>
+      <c r="C103" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" t="s">
         <v>145</v>
-      </c>
-      <c r="C103" t="s">
-        <v>48</v>
-      </c>
-      <c r="F103" t="s">
-        <v>146</v>
       </c>
       <c r="G103" s="7">
         <v>47178</v>
@@ -2749,7 +2771,7 @@
         <v>373</v>
       </c>
       <c r="B104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C104" t="s">
         <v>48</v>
@@ -2764,7 +2786,7 @@
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2779,13 +2801,13 @@
         <v>67</v>
       </c>
       <c r="B107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C107" t="s">
         <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G107" s="7">
         <v>47178</v>
@@ -2796,13 +2818,13 @@
         <v>190</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C108" t="s">
         <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G108" s="7">
         <v>11018</v>
@@ -2813,13 +2835,13 @@
         <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C109" t="s">
         <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G109" s="7">
         <v>11018</v>
@@ -2828,7 +2850,7 @@
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2843,7 +2865,7 @@
         <v>70</v>
       </c>
       <c r="B112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C112" t="s">
         <v>44</v>
@@ -2857,13 +2879,13 @@
         <v>198</v>
       </c>
       <c r="B113" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113" t="s">
+        <v>48</v>
+      </c>
+      <c r="F113" t="s">
         <v>157</v>
-      </c>
-      <c r="C113" t="s">
-        <v>48</v>
-      </c>
-      <c r="F113" t="s">
-        <v>158</v>
       </c>
       <c r="G113" s="7">
         <v>11018</v>
@@ -2874,7 +2896,7 @@
         <v>139</v>
       </c>
       <c r="B114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C114" t="s">
         <v>48</v>
@@ -2883,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G114" s="7">
         <v>11383</v>
@@ -2894,13 +2916,13 @@
         <v>322</v>
       </c>
       <c r="B115" t="s">
+        <v>160</v>
+      </c>
+      <c r="C115" t="s">
+        <v>48</v>
+      </c>
+      <c r="F115" t="s">
         <v>161</v>
-      </c>
-      <c r="C115" t="s">
-        <v>48</v>
-      </c>
-      <c r="F115" t="s">
-        <v>162</v>
       </c>
       <c r="G115" s="7">
         <v>37347</v>
@@ -2911,7 +2933,7 @@
         <v>300</v>
       </c>
       <c r="B116" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C116" t="s">
         <v>48</v>
@@ -2925,7 +2947,7 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C117" t="s">
         <v>48</v>
@@ -2934,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G117" s="7">
         <v>37712</v>
@@ -2948,13 +2970,13 @@
         <v>63</v>
       </c>
       <c r="B118" t="s">
+        <v>165</v>
+      </c>
+      <c r="C118" t="s">
+        <v>48</v>
+      </c>
+      <c r="F118" t="s">
         <v>166</v>
-      </c>
-      <c r="C118" t="s">
-        <v>48</v>
-      </c>
-      <c r="F118" t="s">
-        <v>167</v>
       </c>
       <c r="G118" s="7">
         <v>37712</v>
@@ -2968,13 +2990,13 @@
         <v>97</v>
       </c>
       <c r="B119" t="s">
+        <v>167</v>
+      </c>
+      <c r="C119" t="s">
+        <v>48</v>
+      </c>
+      <c r="F119" t="s">
         <v>168</v>
-      </c>
-      <c r="C119" t="s">
-        <v>48</v>
-      </c>
-      <c r="F119" t="s">
-        <v>169</v>
       </c>
       <c r="G119" s="7">
         <v>38078</v>
@@ -2982,107 +3004,112 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 F43:F65 D1:E65 D64:F1048576">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G42 G44:G49 G53:G79 G83 G85:G1048576">
-    <cfRule type="cellIs" dxfId="17" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H117">
+  <conditionalFormatting sqref="H118">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H47:H48">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
+  <conditionalFormatting sqref="G50:G52">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G52">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H68">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H69:H70">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69:H70">
+  <conditionalFormatting sqref="H73">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H78:H82">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78:H82">
+  <conditionalFormatting sqref="G80:G82">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80:G82">
+  <conditionalFormatting sqref="H76">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="G84">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
+  <conditionalFormatting sqref="H87">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H89:H90">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB82BA05-33FA-E04C-8AB9-C8AD8A5CB5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A89E04-A77D-B241-9571-ECACBC1BF921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11400" yWindow="760" windowWidth="23160" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="LeetCode" sheetId="1" r:id="rId2"/>
-    <sheet name="Data Structure" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,134 +37,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="202">
-  <si>
-    <t>H-Index</t>
-  </si>
-  <si>
-    <t>O(log n)</t>
-  </si>
-  <si>
-    <t>O(n)</t>
-  </si>
-  <si>
-    <t>Binary Search: Sort and binary search to find the middle</t>
-  </si>
-  <si>
-    <t>Brute Force: Decreasing sort and check el &gt;= index</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="168">
   <si>
     <t>Note</t>
   </si>
   <si>
-    <t>Space</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Insert Delete GetRandom O(1)</t>
-  </si>
-  <si>
-    <t>Hashmap with array methods such as array_rand(), isset(), unset()</t>
-  </si>
-  <si>
-    <t>Product of Array Except Self O(n)</t>
-  </si>
-  <si>
-    <t>Postfix and prefix</t>
-  </si>
-  <si>
-    <t>Gas Station</t>
-  </si>
-  <si>
-    <t>Roman to Interger</t>
-  </si>
-  <si>
-    <t>Always think reverse!</t>
-  </si>
-  <si>
-    <t>Greedy algorithm (DIFFICULT)</t>
-  </si>
-  <si>
-    <t>Reverse Words in a String</t>
-  </si>
-  <si>
-    <t>preg_replace. Trim() does not clean in-betweens</t>
-  </si>
-  <si>
-    <t>Candy</t>
-  </si>
-  <si>
-    <t>Going right then left. Always think about using two passes instead of one go</t>
-  </si>
-  <si>
-    <t>Trapping Rain Water</t>
-  </si>
-  <si>
-    <t>When comparing left and right, think about going back &amp; forth strategy. Similar to 135 Candy.</t>
-  </si>
-  <si>
-    <t>Two Sum</t>
-  </si>
-  <si>
     <t>Hashmap</t>
   </si>
   <si>
-    <t>Container With Most Water</t>
-  </si>
-  <si>
-    <t>Two pointer from left and right then reduce down</t>
-  </si>
-  <si>
     <t>3Sum</t>
   </si>
   <si>
-    <t>Unique + non = always Unique. Two pointer on sorted array.</t>
-  </si>
-  <si>
-    <t>Substring with Concatenation of All Words</t>
-  </si>
-  <si>
-    <t>1. Sort and sliding window. Permutation * sort = 1 possibility</t>
-  </si>
-  <si>
-    <t>2. Hashmap and check… more difficult to understand</t>
-  </si>
-  <si>
-    <t>Minimum Window Substring</t>
-  </si>
-  <si>
-    <t>Hashmap &amp; sliding window. Compare HAVE vs NEED</t>
-  </si>
-  <si>
-    <t>Game of Life</t>
-  </si>
-  <si>
-    <t>Truth Table.</t>
-  </si>
-  <si>
     <t>Isomorphic Strings</t>
   </si>
   <si>
-    <t>Two maps mapping each char to other char and compare it through iteration</t>
-  </si>
-  <si>
-    <t>LRU Cache</t>
-  </si>
-  <si>
     <t>Linked List</t>
   </si>
   <si>
-    <t>Dummy and two pointer</t>
-  </si>
-  <si>
     <t>Floyd Cycle Detection</t>
   </si>
   <si>
@@ -645,6 +532,15 @@
   </si>
   <si>
     <t>DFS, work on the decision tree. With or without</t>
+  </si>
+  <si>
+    <t>Permutation</t>
+  </si>
+  <si>
+    <t>Combination</t>
+  </si>
+  <si>
+    <t>Sorts</t>
   </si>
 </sst>
 </file>
@@ -654,7 +550,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -666,13 +562,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -717,20 +606,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1279,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1289,27 +1177,27 @@
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="4" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="64.5" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="6" customWidth="1"/>
     <col min="8" max="8" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="H1" s="1">
         <v>2</v>
@@ -1322,13 +1210,13 @@
       <c r="A2">
         <v>88</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>43</v>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="7">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6">
         <v>44256</v>
       </c>
     </row>
@@ -1336,13 +1224,13 @@
       <c r="A3">
         <v>80</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="7">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6">
         <v>44256</v>
       </c>
     </row>
@@ -1350,16 +1238,16 @@
       <c r="A4">
         <v>27</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="7">
+        <v>52</v>
+      </c>
+      <c r="G4" s="6">
         <v>45717</v>
       </c>
     </row>
@@ -1367,13 +1255,13 @@
       <c r="A5">
         <v>26</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="7">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6">
         <v>45717</v>
       </c>
     </row>
@@ -1381,30 +1269,30 @@
       <c r="A6">
         <v>189</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>121</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>169</v>
+      <c r="B7" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>38078</v>
       </c>
     </row>
@@ -1412,29 +1300,29 @@
       <c r="A8">
         <v>122</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>170</v>
+      <c r="B8" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="7">
+        <v>134</v>
+      </c>
+      <c r="G8" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -1442,16 +1330,16 @@
       <c r="A11">
         <v>125</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>54</v>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>44256</v>
       </c>
     </row>
@@ -1460,15 +1348,15 @@
         <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>44256</v>
       </c>
     </row>
@@ -1477,15 +1365,15 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>45717</v>
       </c>
     </row>
@@ -1494,28 +1382,28 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="7">
+        <v>135</v>
+      </c>
+      <c r="G14" s="6">
         <v>38078</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -1524,12 +1412,12 @@
         <v>209</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="7">
+        <v>11</v>
+      </c>
+      <c r="G18" s="6">
         <v>44256</v>
       </c>
     </row>
@@ -1538,28 +1426,28 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="7">
+        <v>56</v>
+      </c>
+      <c r="G19" s="6">
         <v>45717</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="6"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -1568,12 +1456,12 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="7">
+        <v>11</v>
+      </c>
+      <c r="G22" s="6">
         <v>44256</v>
       </c>
     </row>
@@ -1582,21 +1470,21 @@
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
-      </c>
-      <c r="G23" s="7">
+        <v>137</v>
+      </c>
+      <c r="G23" s="6">
         <v>46082</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <v>38078</v>
       </c>
     </row>
@@ -1605,28 +1493,28 @@
         <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="7">
+        <v>138</v>
+      </c>
+      <c r="G24" s="6">
         <v>38078</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
@@ -1635,12 +1523,12 @@
         <v>383</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="7">
+        <v>7</v>
+      </c>
+      <c r="G27" s="6">
         <v>44256</v>
       </c>
     </row>
@@ -1649,12 +1537,12 @@
         <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="7">
+        <v>11</v>
+      </c>
+      <c r="G28" s="6">
         <v>44621</v>
       </c>
     </row>
@@ -1663,28 +1551,28 @@
         <v>205</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="7">
+        <v>139</v>
+      </c>
+      <c r="G29" s="6">
         <v>38078</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
@@ -1693,18 +1581,18 @@
         <v>228</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>177</v>
-      </c>
-      <c r="G32" s="7">
+        <v>140</v>
+      </c>
+      <c r="G32" s="6">
         <v>44621</v>
       </c>
     </row>
@@ -1713,15 +1601,15 @@
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" s="7">
+        <v>59</v>
+      </c>
+      <c r="G33" s="6">
         <v>44621</v>
       </c>
     </row>
@@ -1730,15 +1618,15 @@
         <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" s="7">
+        <v>59</v>
+      </c>
+      <c r="G34" s="6">
         <v>46082</v>
       </c>
     </row>
@@ -1747,31 +1635,31 @@
         <v>452</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>179</v>
-      </c>
-      <c r="G35" s="7">
+        <v>142</v>
+      </c>
+      <c r="G35" s="6">
         <v>38443</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="6"/>
+      <c r="G37" s="5"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
@@ -1780,12 +1668,12 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" s="7">
+        <v>7</v>
+      </c>
+      <c r="G38" s="6">
         <v>44621</v>
       </c>
     </row>
@@ -1794,18 +1682,18 @@
         <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <v>44621</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <v>38443</v>
       </c>
     </row>
@@ -1814,15 +1702,15 @@
         <v>155</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="7">
+        <v>62</v>
+      </c>
+      <c r="G40" s="6">
         <v>46082</v>
       </c>
     </row>
@@ -1831,28 +1719,28 @@
         <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <v>46082</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="6"/>
+      <c r="G44" s="5"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
@@ -1861,21 +1749,21 @@
         <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="7">
+        <v>5</v>
+      </c>
+      <c r="G45" s="6">
         <v>44986</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="6">
         <v>38443</v>
       </c>
     </row>
@@ -1884,18 +1772,18 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="7">
+        <v>32</v>
+      </c>
+      <c r="G46" s="6">
         <v>44986</v>
       </c>
     </row>
@@ -1904,18 +1792,18 @@
         <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>180</v>
-      </c>
-      <c r="G47" s="7">
+        <v>143</v>
+      </c>
+      <c r="G47" s="6">
         <v>44986</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="6">
         <v>38443</v>
       </c>
     </row>
@@ -1924,21 +1812,21 @@
         <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
-      </c>
-      <c r="G48" s="7">
+        <v>65</v>
+      </c>
+      <c r="G48" s="6">
         <v>46082</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="6">
         <v>38443</v>
       </c>
     </row>
@@ -1947,15 +1835,15 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>104</v>
-      </c>
-      <c r="G49" s="7">
+        <v>67</v>
+      </c>
+      <c r="G49" s="6">
         <v>46082</v>
       </c>
     </row>
@@ -1964,15 +1852,15 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>182</v>
-      </c>
-      <c r="G50" s="7">
+        <v>145</v>
+      </c>
+      <c r="G50" s="6">
         <v>38443</v>
       </c>
     </row>
@@ -1981,18 +1869,18 @@
         <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" s="7">
+        <v>1</v>
+      </c>
+      <c r="G51" s="6">
         <v>38443</v>
       </c>
     </row>
@@ -2001,31 +1889,31 @@
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>185</v>
-      </c>
-      <c r="G52" s="7">
+        <v>148</v>
+      </c>
+      <c r="G52" s="6">
         <v>38443</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="6"/>
+      <c r="G54" s="5"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
@@ -2033,16 +1921,16 @@
       <c r="A55">
         <v>104</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>72</v>
+      <c r="B55" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" s="7">
+        <v>36</v>
+      </c>
+      <c r="G55" s="6">
         <v>44986</v>
       </c>
     </row>
@@ -2051,12 +1939,12 @@
         <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
-      </c>
-      <c r="G56" s="7">
+        <v>7</v>
+      </c>
+      <c r="G56" s="6">
         <v>44986</v>
       </c>
     </row>
@@ -2065,12 +1953,12 @@
         <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
-      </c>
-      <c r="G57" s="7">
+        <v>11</v>
+      </c>
+      <c r="G57" s="6">
         <v>44986</v>
       </c>
     </row>
@@ -2079,12 +1967,12 @@
         <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
-      </c>
-      <c r="G58" s="7">
+        <v>11</v>
+      </c>
+      <c r="G58" s="6">
         <v>44986</v>
       </c>
     </row>
@@ -2093,21 +1981,21 @@
         <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>106</v>
-      </c>
-      <c r="G59" s="7">
+        <v>69</v>
+      </c>
+      <c r="G59" s="6">
         <v>46082</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="6">
         <v>38443</v>
       </c>
     </row>
@@ -2116,18 +2004,18 @@
         <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
-      </c>
-      <c r="G60" s="7">
+        <v>75</v>
+      </c>
+      <c r="G60" s="6">
         <v>46447</v>
       </c>
     </row>
@@ -2136,18 +2024,18 @@
         <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
-      </c>
-      <c r="G61" s="7">
+        <v>77</v>
+      </c>
+      <c r="G61" s="6">
         <v>46447</v>
       </c>
     </row>
@@ -2156,18 +2044,18 @@
         <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
-      </c>
-      <c r="G62" s="7">
+        <v>85</v>
+      </c>
+      <c r="G62" s="6">
         <v>46447</v>
       </c>
     </row>
@@ -2176,15 +2064,15 @@
         <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>187</v>
-      </c>
-      <c r="G63" s="7">
+        <v>150</v>
+      </c>
+      <c r="G63" s="6">
         <v>38808</v>
       </c>
     </row>
@@ -2193,15 +2081,15 @@
         <v>199</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>189</v>
-      </c>
-      <c r="G64" s="7">
+        <v>152</v>
+      </c>
+      <c r="G64" s="6">
         <v>38808</v>
       </c>
     </row>
@@ -2209,29 +2097,29 @@
       <c r="A65">
         <v>637</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>190</v>
+      <c r="B65" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="6">
         <v>38808</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="6"/>
+      <c r="G67" s="5"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
@@ -2240,18 +2128,18 @@
         <v>530</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" s="7">
+        <v>42</v>
+      </c>
+      <c r="G68" s="6">
         <v>44986</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="6">
         <v>38808</v>
       </c>
     </row>
@@ -2260,21 +2148,21 @@
         <v>230</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" s="7">
+        <v>44</v>
+      </c>
+      <c r="G69" s="6">
         <v>44986</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="6">
         <v>38808</v>
       </c>
     </row>
@@ -2283,31 +2171,31 @@
         <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>120</v>
-      </c>
-      <c r="G70" s="7">
+        <v>83</v>
+      </c>
+      <c r="G70" s="6">
         <v>46447</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="6">
         <v>38808</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="6"/>
+      <c r="G72" s="5"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
@@ -2316,18 +2204,18 @@
         <v>200</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>84</v>
-      </c>
-      <c r="G73" s="7">
+        <v>47</v>
+      </c>
+      <c r="G73" s="6">
         <v>45352</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="6">
         <v>38808</v>
       </c>
     </row>
@@ -2336,15 +2224,15 @@
         <v>130</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
-      </c>
-      <c r="G74" s="7">
+        <v>49</v>
+      </c>
+      <c r="G74" s="6">
         <v>45717</v>
       </c>
     </row>
@@ -2353,18 +2241,18 @@
         <v>133</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" s="7">
+        <v>51</v>
+      </c>
+      <c r="G75" s="6">
         <v>45717</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="6">
         <v>38808</v>
       </c>
     </row>
@@ -2373,18 +2261,18 @@
         <v>909</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>194</v>
-      </c>
-      <c r="G76" s="7">
+        <v>157</v>
+      </c>
+      <c r="G76" s="6">
         <v>46447</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76" s="6">
         <v>39173</v>
       </c>
     </row>
@@ -2393,18 +2281,18 @@
         <v>399</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C77" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>109</v>
-      </c>
-      <c r="G77" s="7">
+        <v>72</v>
+      </c>
+      <c r="G77" s="6">
         <v>46447</v>
       </c>
     </row>
@@ -2413,21 +2301,21 @@
         <v>207</v>
       </c>
       <c r="B78" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>191</v>
-      </c>
-      <c r="G78" s="7">
+        <v>154</v>
+      </c>
+      <c r="G78" s="6">
         <v>46447</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H78" s="6">
         <v>38808</v>
       </c>
     </row>
@@ -2435,60 +2323,60 @@
       <c r="A79">
         <v>323</v>
       </c>
-      <c r="H79" s="7"/>
+      <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>210</v>
       </c>
       <c r="B80" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>193</v>
-      </c>
-      <c r="G80" s="7">
+        <v>156</v>
+      </c>
+      <c r="G80" s="6">
         <v>39173</v>
       </c>
-      <c r="H80" s="7"/>
+      <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>433</v>
       </c>
       <c r="B81" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="C81" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>196</v>
-      </c>
-      <c r="G81" s="7">
+        <v>159</v>
+      </c>
+      <c r="G81" s="6">
         <v>39539</v>
       </c>
-      <c r="H81" s="7"/>
+      <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H82" s="7"/>
+      <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="6"/>
+      <c r="G83" s="5"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
@@ -2497,31 +2385,31 @@
         <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="C84" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>199</v>
-      </c>
-      <c r="G84" s="7">
+        <v>162</v>
+      </c>
+      <c r="G84" s="6">
         <v>39539</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="6"/>
+      <c r="G86" s="5"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
@@ -2530,18 +2418,18 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>125</v>
-      </c>
-      <c r="G87" s="7">
+        <v>88</v>
+      </c>
+      <c r="G87" s="6">
         <v>46447</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H87" s="6">
         <v>39539</v>
       </c>
     </row>
@@ -2550,15 +2438,15 @@
         <v>77</v>
       </c>
       <c r="B88" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>125</v>
-      </c>
-      <c r="G88" s="7">
+        <v>88</v>
+      </c>
+      <c r="G88" s="6">
         <v>46447</v>
       </c>
     </row>
@@ -2567,21 +2455,21 @@
         <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>200</v>
-      </c>
-      <c r="G89" s="7">
+        <v>163</v>
+      </c>
+      <c r="G89" s="6">
         <v>46813</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H89" s="6">
         <v>39539</v>
       </c>
     </row>
@@ -2590,34 +2478,34 @@
         <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>201</v>
-      </c>
-      <c r="G90" s="7">
+        <v>164</v>
+      </c>
+      <c r="G90" s="6">
         <v>46813</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H90" s="6">
         <v>39539</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="6"/>
+      <c r="G92" s="5"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
@@ -2626,28 +2514,28 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>129</v>
-      </c>
-      <c r="G93" s="7">
+        <v>92</v>
+      </c>
+      <c r="G93" s="6">
         <v>46813</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="6"/>
+      <c r="G95" s="5"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
@@ -2656,15 +2544,15 @@
         <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>134</v>
-      </c>
-      <c r="G96" s="7">
+        <v>97</v>
+      </c>
+      <c r="G96" s="6">
         <v>46813</v>
       </c>
     </row>
@@ -2673,15 +2561,15 @@
         <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>136</v>
-      </c>
-      <c r="G97" s="7">
+        <v>99</v>
+      </c>
+      <c r="G97" s="6">
         <v>46813</v>
       </c>
     </row>
@@ -2690,15 +2578,15 @@
         <v>162</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>138</v>
-      </c>
-      <c r="G98" s="7">
+        <v>101</v>
+      </c>
+      <c r="G98" s="6">
         <v>46813</v>
       </c>
     </row>
@@ -2707,15 +2595,15 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>140</v>
-      </c>
-      <c r="G99" s="7">
+        <v>103</v>
+      </c>
+      <c r="G99" s="6">
         <v>46813</v>
       </c>
     </row>
@@ -2724,28 +2612,28 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>142</v>
-      </c>
-      <c r="G100" s="7">
+        <v>105</v>
+      </c>
+      <c r="G100" s="6">
         <v>47178</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="6"/>
+      <c r="G102" s="5"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
@@ -2754,15 +2642,15 @@
         <v>215</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>145</v>
-      </c>
-      <c r="G103" s="7">
+        <v>108</v>
+      </c>
+      <c r="G103" s="6">
         <v>47178</v>
       </c>
     </row>
@@ -2771,28 +2659,28 @@
         <v>373</v>
       </c>
       <c r="B104" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
-      <c r="G104" s="7">
+      <c r="G104" s="6">
         <v>47178</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="6"/>
+      <c r="G106" s="5"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
@@ -2801,15 +2689,15 @@
         <v>67</v>
       </c>
       <c r="B107" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="F107" t="s">
-        <v>149</v>
-      </c>
-      <c r="G107" s="7">
+        <v>112</v>
+      </c>
+      <c r="G107" s="6">
         <v>47178</v>
       </c>
     </row>
@@ -2818,15 +2706,15 @@
         <v>190</v>
       </c>
       <c r="B108" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="F108" t="s">
-        <v>151</v>
-      </c>
-      <c r="G108" s="7">
+        <v>114</v>
+      </c>
+      <c r="G108" s="6">
         <v>11018</v>
       </c>
     </row>
@@ -2835,28 +2723,28 @@
         <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="F109" t="s">
-        <v>153</v>
-      </c>
-      <c r="G109" s="7">
+        <v>116</v>
+      </c>
+      <c r="G109" s="6">
         <v>11018</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="6"/>
+      <c r="G111" s="5"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
@@ -2865,12 +2753,12 @@
         <v>70</v>
       </c>
       <c r="B112" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>44</v>
-      </c>
-      <c r="G112" s="7">
+        <v>7</v>
+      </c>
+      <c r="G112" s="6">
         <v>11018</v>
       </c>
     </row>
@@ -2879,15 +2767,15 @@
         <v>198</v>
       </c>
       <c r="B113" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>157</v>
-      </c>
-      <c r="G113" s="7">
+        <v>120</v>
+      </c>
+      <c r="G113" s="6">
         <v>11018</v>
       </c>
     </row>
@@ -2896,18 +2784,18 @@
         <v>139</v>
       </c>
       <c r="B114" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>159</v>
-      </c>
-      <c r="G114" s="7">
+        <v>122</v>
+      </c>
+      <c r="G114" s="6">
         <v>11383</v>
       </c>
     </row>
@@ -2916,15 +2804,15 @@
         <v>322</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="C115" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>161</v>
-      </c>
-      <c r="G115" s="7">
+        <v>124</v>
+      </c>
+      <c r="G115" s="6">
         <v>37347</v>
       </c>
     </row>
@@ -2933,12 +2821,12 @@
         <v>300</v>
       </c>
       <c r="B116" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C116" t="s">
-        <v>48</v>
-      </c>
-      <c r="G116" s="7">
+        <v>11</v>
+      </c>
+      <c r="G116" s="6">
         <v>37347</v>
       </c>
     </row>
@@ -2947,21 +2835,21 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="C117" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>164</v>
-      </c>
-      <c r="G117" s="7">
+        <v>127</v>
+      </c>
+      <c r="G117" s="6">
         <v>37712</v>
       </c>
-      <c r="H117" s="7">
+      <c r="H117" s="6">
         <v>38078</v>
       </c>
     </row>
@@ -2970,18 +2858,18 @@
         <v>63</v>
       </c>
       <c r="B118" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="C118" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>166</v>
-      </c>
-      <c r="G118" s="7">
+        <v>129</v>
+      </c>
+      <c r="G118" s="6">
         <v>37712</v>
       </c>
-      <c r="H118" s="7">
+      <c r="H118" s="6">
         <v>38078</v>
       </c>
     </row>
@@ -2990,15 +2878,15 @@
         <v>97</v>
       </c>
       <c r="B119" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C119" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>168</v>
-      </c>
-      <c r="G119" s="7">
+        <v>131</v>
+      </c>
+      <c r="G119" s="6">
         <v>38078</v>
       </c>
     </row>
@@ -3129,299 +3017,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297833B-B28F-3140-BD70-E3D664D3F8B2}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B765CAE0-430B-0048-A6D1-3E8F8EC69097}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>274</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>380</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>238</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>134</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>151</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>135</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>42</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>167</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>72</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>289</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>205</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>146</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" display="https://leetcode.com/problems/reverse-words-in-a-string/" xr:uid="{C2D68F3B-EC44-C746-B6E6-3A50D3518045}"/>
-    <hyperlink ref="B9" r:id="rId2" display="https://leetcode.com/problems/candy/" xr:uid="{98599FC9-2AC8-CC44-AB4B-2CAA994B5395}"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{D7072EB0-E7EC-FF43-814F-9E4C259B399E}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words/" xr:uid="{4808337D-8166-D64F-AB17-B4900C322D77}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D196E9A6-494B-B84E-BE8D-483208DB9428}">
-  <dimension ref="A2:A3"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B765CAE0-430B-0048-A6D1-3E8F8EC69097}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A89E04-A77D-B241-9571-ECACBC1BF921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765BBBCA-7126-3948-A451-E501D69C628F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11400" yWindow="760" windowWidth="23160" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -624,7 +624,27 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1167,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2555,6 +2575,9 @@
       <c r="G96" s="6">
         <v>46813</v>
       </c>
+      <c r="H96" s="6">
+        <v>39539</v>
+      </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
@@ -2566,11 +2589,17 @@
       <c r="C97" t="s">
         <v>11</v>
       </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
       <c r="F97" t="s">
         <v>99</v>
       </c>
       <c r="G97" s="6">
         <v>46813</v>
+      </c>
+      <c r="H97" s="6">
+        <v>39539</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -2588,6 +2617,9 @@
       </c>
       <c r="G98" s="6">
         <v>46813</v>
+      </c>
+      <c r="H98" s="6">
+        <v>39539</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -2892,112 +2924,122 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 F43:F65 D1:E65 D64:F1048576">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G42 G44:G49 G53:G79 G83 G85:G1048576">
-    <cfRule type="cellIs" dxfId="18" priority="23" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117">
+    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H118">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H117">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H47:H48">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="G50:G52">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G52">
+  <conditionalFormatting sqref="H68">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H69:H70">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H73">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69:H70">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H78:H82">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="G80:G82">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78:H82">
+  <conditionalFormatting sqref="H76">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80:G82">
+  <conditionalFormatting sqref="G84">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H87">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
+  <conditionalFormatting sqref="H89:H90">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H96">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89:H90">
+  <conditionalFormatting sqref="H97:H98">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765BBBCA-7126-3948-A451-E501D69C628F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF276F8-13CC-C44E-9F56-D3D308A52AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11400" yWindow="760" windowWidth="23160" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -624,7 +624,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1188,7 +1198,7 @@
   <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2685,6 +2695,9 @@
       <c r="G103" s="6">
         <v>47178</v>
       </c>
+      <c r="H103" s="6">
+        <v>39539</v>
+      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
@@ -2924,122 +2937,127 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 F43:F65 D1:E65 D64:F1048576">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G42 G44:G49 G53:G79 G83 G85:G1048576">
-    <cfRule type="cellIs" dxfId="20" priority="25" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117">
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H117">
+  <conditionalFormatting sqref="H118">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H47:H48">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
+  <conditionalFormatting sqref="G50:G52">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G52">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H68">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H69:H70">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69:H70">
+  <conditionalFormatting sqref="H73">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H78:H82">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78:H82">
+  <conditionalFormatting sqref="G80:G82">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80:G82">
+  <conditionalFormatting sqref="H76">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="G84">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
+  <conditionalFormatting sqref="H87">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H89:H90">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89:H90">
+  <conditionalFormatting sqref="H96">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
+  <conditionalFormatting sqref="H97:H98">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97:H98">
+  <conditionalFormatting sqref="H103">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF276F8-13CC-C44E-9F56-D3D308A52AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148B0391-F91F-8A42-A3DE-9CD698CEFBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="760" windowWidth="23160" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="167">
   <si>
     <t>Note</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Array / String</t>
-  </si>
-  <si>
-    <t>Revise 1</t>
   </si>
   <si>
     <t>Master</t>
@@ -608,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -619,6 +616,7 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1197,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1218,23 +1216,20 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1">
-        <v>3</v>
-      </c>
+      <c r="G1" s="8">
+        <f>COUNTA(G2:I173)</f>
+        <v>102</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -1275,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="6">
         <v>45717</v>
@@ -1306,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1314,7 +1309,7 @@
         <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1331,13 +1326,13 @@
         <v>122</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>133</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>134</v>
       </c>
       <c r="G8" s="6">
         <v>38078</v>
@@ -1346,7 +1341,7 @@
     <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1361,7 +1356,7 @@
         <v>125</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1378,7 +1373,7 @@
         <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1395,7 +1390,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1418,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G14" s="6">
         <v>38078</v>
@@ -1427,7 +1422,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1442,7 +1437,7 @@
         <v>209</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1456,13 +1451,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
       </c>
       <c r="G19" s="6">
         <v>45717</v>
@@ -1471,7 +1466,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1486,7 +1481,7 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1500,7 +1495,7 @@
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1509,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G23" s="6">
         <v>46082</v>
@@ -1523,13 +1518,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G24" s="6">
         <v>38078</v>
@@ -1553,7 +1548,7 @@
         <v>383</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1567,7 +1562,7 @@
         <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -1587,7 +1582,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G29" s="6">
         <v>38078</v>
@@ -1596,7 +1591,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1611,7 +1606,7 @@
         <v>228</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1620,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G32" s="6">
         <v>44621</v>
@@ -1631,13 +1626,13 @@
         <v>56</v>
       </c>
       <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
         <v>58</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>59</v>
       </c>
       <c r="G33" s="6">
         <v>44621</v>
@@ -1648,13 +1643,13 @@
         <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" s="6">
         <v>46082</v>
@@ -1665,7 +1660,7 @@
         <v>452</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1674,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G35" s="6">
         <v>38443</v>
@@ -1683,7 +1678,7 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1698,7 +1693,7 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1712,7 +1707,7 @@
         <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -1732,13 +1727,13 @@
         <v>155</v>
       </c>
       <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
         <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>62</v>
       </c>
       <c r="G40" s="6">
         <v>46082</v>
@@ -1749,7 +1744,7 @@
         <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -1779,7 +1774,7 @@
         <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1802,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -1811,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G46" s="6">
         <v>44986</v>
@@ -1822,13 +1817,13 @@
         <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G47" s="6">
         <v>44986</v>
@@ -1842,7 +1837,7 @@
         <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -1851,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" s="6">
         <v>46082</v>
@@ -1865,13 +1860,13 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
         <v>66</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" t="s">
-        <v>67</v>
       </c>
       <c r="G49" s="6">
         <v>46082</v>
@@ -1882,13 +1877,13 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G50" s="6">
         <v>38443</v>
@@ -1899,7 +1894,7 @@
         <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1919,7 +1914,7 @@
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -1928,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G52" s="6">
         <v>38443</v>
@@ -1937,7 +1932,7 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1952,13 +1947,13 @@
         <v>104</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" s="6">
         <v>44986</v>
@@ -1969,7 +1964,7 @@
         <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -1983,7 +1978,7 @@
         <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
@@ -1997,7 +1992,7 @@
         <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
@@ -2011,7 +2006,7 @@
         <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -2020,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G59" s="6">
         <v>46082</v>
@@ -2034,7 +2029,7 @@
         <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -2043,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G60" s="6">
         <v>46447</v>
@@ -2054,7 +2049,7 @@
         <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -2063,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G61" s="6">
         <v>46447</v>
@@ -2074,7 +2069,7 @@
         <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -2083,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G62" s="6">
         <v>46447</v>
@@ -2094,13 +2089,13 @@
         <v>114</v>
       </c>
       <c r="B63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
         <v>149</v>
-      </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" t="s">
-        <v>150</v>
       </c>
       <c r="G63" s="6">
         <v>38808</v>
@@ -2111,13 +2106,13 @@
         <v>199</v>
       </c>
       <c r="B64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
         <v>151</v>
-      </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" t="s">
-        <v>152</v>
       </c>
       <c r="G64" s="6">
         <v>38808</v>
@@ -2128,7 +2123,7 @@
         <v>637</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -2143,7 +2138,7 @@
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2158,13 +2153,13 @@
         <v>530</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G68" s="6">
         <v>44986</v>
@@ -2178,7 +2173,7 @@
         <v>230</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
@@ -2187,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G69" s="6">
         <v>44986</v>
@@ -2201,13 +2196,13 @@
         <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G70" s="6">
         <v>46447</v>
@@ -2219,7 +2214,7 @@
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2234,13 +2229,13 @@
         <v>200</v>
       </c>
       <c r="B73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
         <v>46</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" t="s">
-        <v>47</v>
       </c>
       <c r="G73" s="6">
         <v>45352</v>
@@ -2254,13 +2249,13 @@
         <v>130</v>
       </c>
       <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
         <v>48</v>
-      </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" t="s">
-        <v>49</v>
       </c>
       <c r="G74" s="6">
         <v>45717</v>
@@ -2271,13 +2266,13 @@
         <v>133</v>
       </c>
       <c r="B75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
         <v>50</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" t="s">
-        <v>51</v>
       </c>
       <c r="G75" s="6">
         <v>45717</v>
@@ -2291,13 +2286,13 @@
         <v>909</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G76" s="6">
         <v>46447</v>
@@ -2311,7 +2306,7 @@
         <v>399</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
@@ -2320,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G77" s="6">
         <v>46447</v>
@@ -2331,7 +2326,7 @@
         <v>207</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
@@ -2340,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G78" s="6">
         <v>46447</v>
@@ -2360,7 +2355,7 @@
         <v>210</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
@@ -2369,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G80" s="6">
         <v>39173</v>
@@ -2381,13 +2376,13 @@
         <v>433</v>
       </c>
       <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
         <v>158</v>
-      </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" t="s">
-        <v>159</v>
       </c>
       <c r="G81" s="6">
         <v>39539</v>
@@ -2400,7 +2395,7 @@
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2415,7 +2410,7 @@
         <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
@@ -2424,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G84" s="6">
         <v>39539</v>
@@ -2433,7 +2428,7 @@
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2448,13 +2443,13 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
         <v>87</v>
-      </c>
-      <c r="C87" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" t="s">
-        <v>88</v>
       </c>
       <c r="G87" s="6">
         <v>46447</v>
@@ -2468,13 +2463,13 @@
         <v>77</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G88" s="6">
         <v>46447</v>
@@ -2485,7 +2480,7 @@
         <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
@@ -2494,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G89" s="6">
         <v>46813</v>
@@ -2508,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -2517,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G90" s="6">
         <v>46813</v>
@@ -2529,7 +2524,7 @@
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2544,13 +2539,13 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" s="6">
         <v>46813</v>
@@ -2559,7 +2554,7 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2574,13 +2569,13 @@
         <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G96" s="6">
         <v>46813</v>
@@ -2594,7 +2589,7 @@
         <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
@@ -2603,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G97" s="6">
         <v>46813</v>
@@ -2617,13 +2612,13 @@
         <v>162</v>
       </c>
       <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s">
         <v>100</v>
-      </c>
-      <c r="C98" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" t="s">
-        <v>101</v>
       </c>
       <c r="G98" s="6">
         <v>46813</v>
@@ -2637,13 +2632,13 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s">
         <v>102</v>
-      </c>
-      <c r="C99" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" t="s">
-        <v>103</v>
       </c>
       <c r="G99" s="6">
         <v>46813</v>
@@ -2654,13 +2649,13 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" t="s">
         <v>104</v>
-      </c>
-      <c r="C100" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" t="s">
-        <v>105</v>
       </c>
       <c r="G100" s="6">
         <v>47178</v>
@@ -2669,7 +2664,7 @@
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2684,13 +2679,13 @@
         <v>215</v>
       </c>
       <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
         <v>107</v>
-      </c>
-      <c r="C103" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" t="s">
-        <v>108</v>
       </c>
       <c r="G103" s="6">
         <v>47178</v>
@@ -2704,7 +2699,7 @@
         <v>373</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
         <v>11</v>
@@ -2719,7 +2714,7 @@
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2734,13 +2729,13 @@
         <v>67</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
       </c>
       <c r="F107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G107" s="6">
         <v>47178</v>
@@ -2751,13 +2746,13 @@
         <v>190</v>
       </c>
       <c r="B108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
       <c r="F108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G108" s="6">
         <v>11018</v>
@@ -2768,13 +2763,13 @@
         <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
       </c>
       <c r="F109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G109" s="6">
         <v>11018</v>
@@ -2783,7 +2778,7 @@
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2798,7 +2793,7 @@
         <v>70</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
@@ -2812,13 +2807,13 @@
         <v>198</v>
       </c>
       <c r="B113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" t="s">
         <v>119</v>
-      </c>
-      <c r="C113" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" t="s">
-        <v>120</v>
       </c>
       <c r="G113" s="6">
         <v>11018</v>
@@ -2829,7 +2824,7 @@
         <v>139</v>
       </c>
       <c r="B114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
@@ -2838,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G114" s="6">
         <v>11383</v>
@@ -2849,13 +2844,13 @@
         <v>322</v>
       </c>
       <c r="B115" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" t="s">
         <v>123</v>
-      </c>
-      <c r="C115" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" t="s">
-        <v>124</v>
       </c>
       <c r="G115" s="6">
         <v>37347</v>
@@ -2866,7 +2861,7 @@
         <v>300</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
@@ -2880,7 +2875,7 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C117" t="s">
         <v>11</v>
@@ -2889,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G117" s="6">
         <v>37712</v>
@@ -2903,13 +2898,13 @@
         <v>63</v>
       </c>
       <c r="B118" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" t="s">
         <v>128</v>
-      </c>
-      <c r="C118" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" t="s">
-        <v>129</v>
       </c>
       <c r="G118" s="6">
         <v>37712</v>
@@ -2923,13 +2918,13 @@
         <v>97</v>
       </c>
       <c r="B119" t="s">
+        <v>129</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" t="s">
         <v>130</v>
-      </c>
-      <c r="C119" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" t="s">
-        <v>131</v>
       </c>
       <c r="G119" s="6">
         <v>38078</v>
@@ -3091,32 +3086,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148B0391-F91F-8A42-A3DE-9CD698CEFBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2077248B-E267-FB44-A4FC-D1924139335B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="170">
   <si>
     <t>Note</t>
   </si>
@@ -538,6 +538,15 @@
   </si>
   <si>
     <t>Sorts</t>
+  </si>
+  <si>
+    <t>You can pop smallest tuple from heap. If you add it will auto sort</t>
+  </si>
+  <si>
+    <t>IPO</t>
+  </si>
+  <si>
+    <t>Hard</t>
   </si>
 </sst>
 </file>
@@ -622,7 +631,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1193,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1225,8 +1244,8 @@
         <v>0</v>
       </c>
       <c r="G1" s="8">
-        <f>COUNTA(G2:I173)</f>
-        <v>102</v>
+        <f>COUNTA(G2:I174)</f>
+        <v>104</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2707,113 +2726,117 @@
       <c r="E104">
         <v>1</v>
       </c>
+      <c r="F104" t="s">
+        <v>167</v>
+      </c>
       <c r="G104" s="6">
         <v>47178</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1" t="s">
+      <c r="H104" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>502</v>
+      </c>
+      <c r="B105" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" t="s">
+        <v>169</v>
+      </c>
+      <c r="G105" s="6">
+        <v>39539</v>
+      </c>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>67</v>
-      </c>
-      <c r="B107" t="s">
-        <v>110</v>
-      </c>
-      <c r="C107" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" t="s">
-        <v>111</v>
-      </c>
-      <c r="G107" s="6">
-        <v>47178</v>
-      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
       <c r="F108" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G108" s="6">
-        <v>11018</v>
+        <v>47178</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B109" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
       </c>
       <c r="F109" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G109" s="6">
         <v>11018</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1" t="s">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>136</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s">
+        <v>115</v>
+      </c>
+      <c r="G110" s="6">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>70</v>
-      </c>
-      <c r="B112" t="s">
-        <v>117</v>
-      </c>
-      <c r="C112" t="s">
-        <v>7</v>
-      </c>
-      <c r="G112" s="6">
-        <v>11018</v>
-      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="G113" s="6">
         <v>11018</v>
@@ -2821,50 +2844,53 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
       </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
       <c r="F114" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G114" s="6">
-        <v>11383</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
         <v>11</v>
       </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
       <c r="F115" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G115" s="6">
-        <v>37347</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
+      </c>
+      <c r="F116" t="s">
+        <v>123</v>
       </c>
       <c r="G116" s="6">
         <v>37347</v>
@@ -2872,39 +2898,33 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
         <v>11</v>
       </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-      <c r="F117" t="s">
-        <v>126</v>
-      </c>
       <c r="G117" s="6">
-        <v>37712</v>
-      </c>
-      <c r="H117" s="6">
-        <v>38078</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C118" t="s">
         <v>11</v>
       </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
       <c r="F118" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G118" s="6">
         <v>37712</v>
@@ -2915,144 +2935,169 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
+        <v>63</v>
+      </c>
+      <c r="B119" t="s">
+        <v>127</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" t="s">
+        <v>128</v>
+      </c>
+      <c r="G119" s="6">
+        <v>37712</v>
+      </c>
+      <c r="H119" s="6">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120">
         <v>97</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>129</v>
       </c>
-      <c r="C119" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" t="s">
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" t="s">
         <v>130</v>
       </c>
-      <c r="G119" s="6">
+      <c r="G120" s="6">
         <v>38078</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 F43:F65 D1:E65 D64:F1048576">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G42 G44:G49 G53:G79 G83 G85:G1048576">
-    <cfRule type="cellIs" dxfId="21" priority="26" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G2:G42 G44:G49 G53:G79 G83 G85:G104 G106:G1048576">
+    <cfRule type="cellIs" dxfId="22" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H118">
     <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H117">
+  <conditionalFormatting sqref="H119">
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H47:H48">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
+  <conditionalFormatting sqref="G50:G52">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G52">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H68">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H69:H70">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69:H70">
+  <conditionalFormatting sqref="H73">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H78:H82">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78:H82">
+  <conditionalFormatting sqref="G80:G82">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80:G82">
+  <conditionalFormatting sqref="H76">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="G84">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
+  <conditionalFormatting sqref="H87">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H89:H90">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89:H90">
+  <conditionalFormatting sqref="H96">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
+  <conditionalFormatting sqref="H97:H98">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97:H98">
+  <conditionalFormatting sqref="H103:H105">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103">
+  <conditionalFormatting sqref="G105">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2077248B-E267-FB44-A4FC-D1924139335B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C77B0B0-5D47-C448-935D-CC1A89EC164C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="175">
   <si>
     <t>Note</t>
   </si>
@@ -372,9 +372,6 @@
     <t>Add Binary</t>
   </si>
   <si>
-    <t>Mod it by 2 for binary</t>
-  </si>
-  <si>
     <t>Reverse Bits</t>
   </si>
   <si>
@@ -547,6 +544,24 @@
   </si>
   <si>
     <t>Hard</t>
+  </si>
+  <si>
+    <t>Two Heaps, min and max</t>
+  </si>
+  <si>
+    <t>Mod it by 2 for binary. Ord() - ord("0") to convert</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>Single Number II</t>
+  </si>
+  <si>
+    <t>Increment res each time it is dividable by 2</t>
+  </si>
+  <si>
+    <t>What da fuck…?</t>
   </si>
 </sst>
 </file>
@@ -631,7 +646,37 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1212,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1244,8 +1289,8 @@
         <v>0</v>
       </c>
       <c r="G1" s="8">
-        <f>COUNTA(G2:I174)</f>
-        <v>104</v>
+        <f>COUNTA(G2:I176)</f>
+        <v>109</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1328,7 +1373,7 @@
         <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1345,13 +1390,13 @@
         <v>122</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>132</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>133</v>
       </c>
       <c r="G8" s="6">
         <v>38078</v>
@@ -1432,7 +1477,7 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" s="6">
         <v>38078</v>
@@ -1523,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" s="6">
         <v>46082</v>
@@ -1537,13 +1582,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G24" s="6">
         <v>38078</v>
@@ -1601,7 +1646,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G29" s="6">
         <v>38078</v>
@@ -1634,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G32" s="6">
         <v>44621</v>
@@ -1679,16 +1724,16 @@
         <v>452</v>
       </c>
       <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
         <v>140</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>141</v>
       </c>
       <c r="G35" s="6">
         <v>38443</v>
@@ -1842,7 +1887,7 @@
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G47" s="6">
         <v>44986</v>
@@ -1896,13 +1941,13 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G50" s="6">
         <v>38443</v>
@@ -1913,7 +1958,7 @@
         <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1933,7 +1978,7 @@
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -1942,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G52" s="6">
         <v>38443</v>
@@ -2108,13 +2153,13 @@
         <v>114</v>
       </c>
       <c r="B63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
         <v>148</v>
-      </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" t="s">
-        <v>149</v>
       </c>
       <c r="G63" s="6">
         <v>38808</v>
@@ -2125,13 +2170,13 @@
         <v>199</v>
       </c>
       <c r="B64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
         <v>150</v>
-      </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" t="s">
-        <v>151</v>
       </c>
       <c r="G64" s="6">
         <v>38808</v>
@@ -2142,7 +2187,7 @@
         <v>637</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -2311,7 +2356,7 @@
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G76" s="6">
         <v>46447</v>
@@ -2354,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G78" s="6">
         <v>46447</v>
@@ -2374,16 +2419,16 @@
         <v>210</v>
       </c>
       <c r="B80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
         <v>154</v>
-      </c>
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" t="s">
-        <v>155</v>
       </c>
       <c r="G80" s="6">
         <v>39173</v>
@@ -2395,13 +2440,13 @@
         <v>433</v>
       </c>
       <c r="B81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" s="6">
         <v>39539</v>
@@ -2414,7 +2459,7 @@
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2429,7 +2474,7 @@
         <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
@@ -2438,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G84" s="6">
         <v>39539</v>
@@ -2508,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G89" s="6">
         <v>46813</v>
@@ -2531,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G90" s="6">
         <v>46813</v>
@@ -2727,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G104" s="6">
         <v>47178</v>
@@ -2741,9 +2786,15 @@
         <v>502</v>
       </c>
       <c r="B105" t="s">
+        <v>167</v>
+      </c>
+      <c r="C105" t="s">
         <v>168</v>
       </c>
-      <c r="C105" t="s">
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
         <v>169</v>
       </c>
       <c r="G105" s="6">
@@ -2775,10 +2826,13 @@
         <v>7</v>
       </c>
       <c r="F108" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="G108" s="6">
         <v>47178</v>
+      </c>
+      <c r="H108" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -2786,16 +2840,19 @@
         <v>190</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
       </c>
       <c r="F109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G109" s="6">
         <v>11018</v>
+      </c>
+      <c r="H109" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -2803,301 +2860,356 @@
         <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G110" s="6">
         <v>11018</v>
       </c>
+      <c r="H110" s="6">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>191</v>
+      </c>
+      <c r="B111" t="s">
+        <v>171</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" t="s">
+        <v>173</v>
+      </c>
+      <c r="G111" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1" t="s">
+      <c r="A112">
+        <v>137</v>
+      </c>
+      <c r="B112" t="s">
+        <v>172</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>174</v>
+      </c>
+      <c r="G112" s="6">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>70</v>
+      </c>
+      <c r="B115" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>70</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" s="6">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>198</v>
+      </c>
+      <c r="B116" t="s">
         <v>117</v>
       </c>
-      <c r="C113" t="s">
-        <v>7</v>
-      </c>
-      <c r="G113" s="6">
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" t="s">
+        <v>118</v>
+      </c>
+      <c r="G116" s="6">
         <v>11018</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>198</v>
-      </c>
-      <c r="B114" t="s">
-        <v>118</v>
-      </c>
-      <c r="C114" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>139</v>
+      </c>
+      <c r="B117" t="s">
         <v>119</v>
       </c>
-      <c r="G114" s="6">
-        <v>11018</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>139</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
         <v>120</v>
       </c>
-      <c r="C115" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="G117" s="6">
+        <v>11383</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>322</v>
+      </c>
+      <c r="B118" t="s">
         <v>121</v>
       </c>
-      <c r="G115" s="6">
-        <v>11383</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>322</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" t="s">
         <v>122</v>
       </c>
-      <c r="C116" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="G118" s="6">
+        <v>37347</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>300</v>
+      </c>
+      <c r="B119" t="s">
         <v>123</v>
       </c>
-      <c r="G116" s="6">
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="6">
         <v>37347</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>300</v>
-      </c>
-      <c r="B117" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
         <v>124</v>
       </c>
-      <c r="C117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" s="6">
-        <v>37347</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>120</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
         <v>125</v>
       </c>
-      <c r="C118" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="G120" s="6">
+        <v>37712</v>
+      </c>
+      <c r="H120" s="6">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>63</v>
+      </c>
+      <c r="B121" t="s">
         <v>126</v>
       </c>
-      <c r="G118" s="6">
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" t="s">
+        <v>127</v>
+      </c>
+      <c r="G121" s="6">
         <v>37712</v>
       </c>
-      <c r="H118" s="6">
+      <c r="H121" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>63</v>
-      </c>
-      <c r="B119" t="s">
-        <v>127</v>
-      </c>
-      <c r="C119" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>97</v>
+      </c>
+      <c r="B122" t="s">
         <v>128</v>
       </c>
-      <c r="G119" s="6">
-        <v>37712</v>
-      </c>
-      <c r="H119" s="6">
-        <v>38078</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>97</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" t="s">
         <v>129</v>
       </c>
-      <c r="C120" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" t="s">
-        <v>130</v>
-      </c>
-      <c r="G120" s="6">
+      <c r="G122" s="6">
         <v>38078</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 F43:F65 D1:E65 D64:F1048576">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G42 G44:G49 G53:G79 G83 G85:G104 G106:G1048576">
-    <cfRule type="cellIs" dxfId="22" priority="27" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G2:G42 G44:G49 G53:G79 G83 G85:G104 G106:G110 G113:G1048576">
+    <cfRule type="cellIs" dxfId="25" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H120">
+    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H121">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H119">
+  <conditionalFormatting sqref="H47:H48">
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="G50:G52">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
+  <conditionalFormatting sqref="H68">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G52">
+  <conditionalFormatting sqref="H69:H70">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H73">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69:H70">
+  <conditionalFormatting sqref="H78:H82">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="G80:G82">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H76">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78:H82">
+  <conditionalFormatting sqref="G84">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80:G82">
+  <conditionalFormatting sqref="H87">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H89:H90">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
+  <conditionalFormatting sqref="H96">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H97:H98">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89:H90">
+  <conditionalFormatting sqref="H103:H105">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
+  <conditionalFormatting sqref="G105">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97:H98">
+  <conditionalFormatting sqref="H108">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103:H105">
+  <conditionalFormatting sqref="H109:H110">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G105">
+  <conditionalFormatting sqref="G111:G112">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -3146,17 +3258,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C77B0B0-5D47-C448-935D-CC1A89EC164C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E5EEA2-52A8-D04B-BEC8-56CF6640086F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -646,7 +646,27 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1260,7 +1280,7 @@
   <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1290,7 +1310,7 @@
       </c>
       <c r="G1" s="8">
         <f>COUNTA(G2:I176)</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2938,6 +2958,9 @@
       <c r="G115" s="6">
         <v>11018</v>
       </c>
+      <c r="H115" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
@@ -2955,6 +2978,9 @@
       <c r="G116" s="6">
         <v>11018</v>
       </c>
+      <c r="H116" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
@@ -3069,147 +3095,157 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 F43:F65 D1:E65 D64:F1048576">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G42 G44:G49 G53:G79 G83 G85:G104 G106:G110 G113:G1048576">
-    <cfRule type="cellIs" dxfId="25" priority="30" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H120">
+    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H121">
     <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H120">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H121">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H47:H48">
     <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="G50:G52">
     <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G52">
+  <conditionalFormatting sqref="H68">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H69:H70">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H73">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69:H70">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H78:H82">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="G80:G82">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78:H82">
+  <conditionalFormatting sqref="H76">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80:G82">
+  <conditionalFormatting sqref="G84">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H87">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
+  <conditionalFormatting sqref="H89:H90">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H96">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89:H90">
+  <conditionalFormatting sqref="H97:H98">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
+  <conditionalFormatting sqref="H103:H105">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97:H98">
+  <conditionalFormatting sqref="G105">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103:H105">
+  <conditionalFormatting sqref="H108">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G105">
+  <conditionalFormatting sqref="H109:H110">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H108">
+  <conditionalFormatting sqref="G111:G112">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109:H110">
+  <conditionalFormatting sqref="H115">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G111:G112">
+  <conditionalFormatting sqref="H116">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E5EEA2-52A8-D04B-BEC8-56CF6640086F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5694E354-73FC-C041-BB27-945D9FECF0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -399,9 +399,6 @@
     <t>Word Break</t>
   </si>
   <si>
-    <t>What da..</t>
-  </si>
-  <si>
     <t>Coin Change</t>
   </si>
   <si>
@@ -562,6 +559,9 @@
   </si>
   <si>
     <t>What da fuck…?</t>
+  </si>
+  <si>
+    <t>Bottom up, find the base case and work from there on dp table</t>
   </si>
 </sst>
 </file>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="G1" s="8">
         <f>COUNTA(G2:I176)</f>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1393,7 +1393,7 @@
         <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1410,13 +1410,13 @@
         <v>122</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>131</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>132</v>
       </c>
       <c r="G8" s="6">
         <v>38078</v>
@@ -1497,7 +1497,7 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G14" s="6">
         <v>38078</v>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G23" s="6">
         <v>46082</v>
@@ -1602,13 +1602,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G24" s="6">
         <v>38078</v>
@@ -1666,7 +1666,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G29" s="6">
         <v>38078</v>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G32" s="6">
         <v>44621</v>
@@ -1744,7 +1744,7 @@
         <v>452</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G35" s="6">
         <v>38443</v>
@@ -1907,7 +1907,7 @@
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G47" s="6">
         <v>44986</v>
@@ -1961,13 +1961,13 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G50" s="6">
         <v>38443</v>
@@ -1978,7 +1978,7 @@
         <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1998,7 +1998,7 @@
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G52" s="6">
         <v>38443</v>
@@ -2173,13 +2173,13 @@
         <v>114</v>
       </c>
       <c r="B63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
         <v>147</v>
-      </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" t="s">
-        <v>148</v>
       </c>
       <c r="G63" s="6">
         <v>38808</v>
@@ -2190,13 +2190,13 @@
         <v>199</v>
       </c>
       <c r="B64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
         <v>149</v>
-      </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" t="s">
-        <v>150</v>
       </c>
       <c r="G64" s="6">
         <v>38808</v>
@@ -2207,7 +2207,7 @@
         <v>637</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -2376,7 +2376,7 @@
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G76" s="6">
         <v>46447</v>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G78" s="6">
         <v>46447</v>
@@ -2439,7 +2439,7 @@
         <v>210</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G80" s="6">
         <v>39173</v>
@@ -2460,13 +2460,13 @@
         <v>433</v>
       </c>
       <c r="B81" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
         <v>156</v>
-      </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" t="s">
-        <v>157</v>
       </c>
       <c r="G81" s="6">
         <v>39539</v>
@@ -2479,7 +2479,7 @@
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2494,7 +2494,7 @@
         <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G84" s="6">
         <v>39539</v>
@@ -2573,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G89" s="6">
         <v>46813</v>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G90" s="6">
         <v>46813</v>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G104" s="6">
         <v>47178</v>
@@ -2806,16 +2806,16 @@
         <v>502</v>
       </c>
       <c r="B105" t="s">
+        <v>166</v>
+      </c>
+      <c r="C105" t="s">
         <v>167</v>
-      </c>
-      <c r="C105" t="s">
-        <v>168</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G105" s="6">
         <v>39539</v>
@@ -2846,7 +2846,7 @@
         <v>7</v>
       </c>
       <c r="F108" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G108" s="6">
         <v>47178</v>
@@ -2900,13 +2900,13 @@
         <v>191</v>
       </c>
       <c r="B111" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G111" s="6">
         <v>39904</v>
@@ -2917,7 +2917,7 @@
         <v>137</v>
       </c>
       <c r="B112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G112" s="6">
         <v>39904</v>
@@ -2996,10 +2996,13 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="G117" s="6">
         <v>11383</v>
+      </c>
+      <c r="H117" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -3007,16 +3010,19 @@
         <v>322</v>
       </c>
       <c r="B118" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" t="s">
         <v>121</v>
-      </c>
-      <c r="C118" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" t="s">
-        <v>122</v>
       </c>
       <c r="G118" s="6">
         <v>37347</v>
+      </c>
+      <c r="H118" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -3024,7 +3030,7 @@
         <v>300</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
@@ -3038,7 +3044,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
@@ -3047,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G120" s="6">
         <v>37712</v>
@@ -3061,13 +3067,13 @@
         <v>63</v>
       </c>
       <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" t="s">
         <v>126</v>
-      </c>
-      <c r="C121" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" t="s">
-        <v>127</v>
       </c>
       <c r="G121" s="6">
         <v>37712</v>
@@ -3081,13 +3087,13 @@
         <v>97</v>
       </c>
       <c r="B122" t="s">
+        <v>127</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" t="s">
         <v>128</v>
-      </c>
-      <c r="C122" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" t="s">
-        <v>129</v>
       </c>
       <c r="G122" s="6">
         <v>38078</v>
@@ -3245,7 +3251,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H116">
+  <conditionalFormatting sqref="H116:H118">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -3294,17 +3300,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5694E354-73FC-C041-BB27-945D9FECF0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52885B7-1130-0B4A-9D2A-5D80949661ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="177">
   <si>
     <t>Note</t>
   </si>
@@ -562,6 +562,12 @@
   </si>
   <si>
     <t>Bottom up, find the base case and work from there on dp table</t>
+  </si>
+  <si>
+    <t>Sum Root to Leaf Numbers</t>
+  </si>
+  <si>
+    <t>DFS accumulator</t>
   </si>
 </sst>
 </file>
@@ -646,7 +652,27 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1277,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1309,8 +1335,8 @@
         <v>0</v>
       </c>
       <c r="G1" s="8">
-        <f>COUNTA(G2:I176)</f>
-        <v>113</v>
+        <f>COUNTA(G2:I177)</f>
+        <v>115</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1451,6 +1477,9 @@
       <c r="G11" s="6">
         <v>44256</v>
       </c>
+      <c r="H11" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -2206,7 +2235,7 @@
       <c r="A65">
         <v>637</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C65" t="s">
@@ -2219,54 +2248,51 @@
         <v>38808</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>129</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>176</v>
+      </c>
+      <c r="G66" s="6">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>530</v>
-      </c>
-      <c r="B68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" t="s">
-        <v>41</v>
-      </c>
-      <c r="G68" s="6">
-        <v>44986</v>
-      </c>
-      <c r="H68" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G69" s="6">
         <v>44986</v>
@@ -2277,140 +2303,143 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
       </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
       <c r="F70" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G70" s="6">
-        <v>46447</v>
+        <v>44986</v>
       </c>
       <c r="H70" s="6">
         <v>38808</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>98</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>82</v>
+      </c>
+      <c r="G71" s="6">
+        <v>46447</v>
+      </c>
+      <c r="H71" s="6">
+        <v>38808</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>200</v>
-      </c>
-      <c r="B73" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" t="s">
-        <v>46</v>
-      </c>
-      <c r="G73" s="6">
-        <v>45352</v>
-      </c>
-      <c r="H73" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G74" s="6">
-        <v>45717</v>
+        <v>45352</v>
+      </c>
+      <c r="H74" s="6">
+        <v>38808</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G75" s="6">
         <v>45717</v>
       </c>
-      <c r="H75" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>909</v>
+        <v>133</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="G76" s="6">
-        <v>46447</v>
+        <v>45717</v>
       </c>
       <c r="H76" s="6">
-        <v>39173</v>
+        <v>38808</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="B77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
       </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
       <c r="F77" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="G77" s="6">
         <v>46447</v>
       </c>
+      <c r="H77" s="6">
+        <v>39173</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
@@ -2419,135 +2448,135 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="G78" s="6">
         <v>46447</v>
       </c>
-      <c r="H78" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>323</v>
-      </c>
-      <c r="H79" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>151</v>
+      </c>
+      <c r="G79" s="6">
+        <v>46447</v>
+      </c>
+      <c r="H79" s="6">
+        <v>38808</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>210</v>
-      </c>
-      <c r="B80" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" t="s">
-        <v>153</v>
-      </c>
-      <c r="G80" s="6">
-        <v>39173</v>
+        <v>323</v>
       </c>
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
+        <v>210</v>
+      </c>
+      <c r="B81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>153</v>
+      </c>
+      <c r="G81" s="6">
+        <v>39173</v>
+      </c>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>433</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>155</v>
       </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
         <v>156</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G82" s="6">
         <v>39539</v>
       </c>
-      <c r="H81" s="6"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1" t="s">
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>208</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>157</v>
       </c>
-      <c r="C84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
         <v>159</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G85" s="6">
         <v>39539</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>17</v>
-      </c>
-      <c r="B87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C87" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" t="s">
-        <v>87</v>
-      </c>
-      <c r="G87" s="6">
-        <v>46447</v>
-      </c>
-      <c r="H87" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
@@ -2558,36 +2587,33 @@
       <c r="G88" s="6">
         <v>46447</v>
       </c>
+      <c r="H88" s="6">
+        <v>39539</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
       </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
       <c r="F89" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="G89" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H89" s="6">
-        <v>39539</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -2596,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G90" s="6">
         <v>46813</v>
@@ -2605,84 +2631,84 @@
         <v>39539</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>39</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>161</v>
+      </c>
+      <c r="G91" s="6">
+        <v>46813</v>
+      </c>
+      <c r="H91" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>108</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>93</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>7</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F94" t="s">
         <v>91</v>
       </c>
-      <c r="G93" s="6">
+      <c r="G94" s="6">
         <v>46813</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>35</v>
-      </c>
-      <c r="B96" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" t="s">
-        <v>96</v>
-      </c>
-      <c r="G96" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H96" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G97" s="6">
         <v>46813</v>
@@ -2693,16 +2719,19 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
         <v>11</v>
       </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
       <c r="F98" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G98" s="6">
         <v>46813</v>
@@ -2713,86 +2742,83 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
         <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G99" s="6">
         <v>46813</v>
       </c>
+      <c r="H99" s="6">
+        <v>39539</v>
+      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
+        <v>33</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" t="s">
+        <v>102</v>
+      </c>
+      <c r="G100" s="6">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>34</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>103</v>
       </c>
-      <c r="C100" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s">
         <v>104</v>
       </c>
-      <c r="G100" s="6">
+      <c r="G101" s="6">
         <v>47178</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>215</v>
-      </c>
-      <c r="B103" t="s">
-        <v>106</v>
-      </c>
-      <c r="C103" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" t="s">
-        <v>107</v>
-      </c>
-      <c r="G103" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H103" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
         <v>11</v>
       </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
       <c r="F104" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="G104" s="6">
         <v>47178</v>
@@ -2803,73 +2829,76 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
+        <v>373</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>165</v>
+      </c>
+      <c r="G105" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H105" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106">
         <v>502</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>166</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>167</v>
       </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
         <v>168</v>
       </c>
-      <c r="G105" s="6">
+      <c r="G106" s="6">
         <v>39539</v>
       </c>
-      <c r="H105" s="6"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1" t="s">
+      <c r="H106" s="6"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>67</v>
-      </c>
-      <c r="B108" t="s">
-        <v>110</v>
-      </c>
-      <c r="C108" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" t="s">
-        <v>169</v>
-      </c>
-      <c r="G108" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H108" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
       </c>
       <c r="F109" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="G109" s="6">
-        <v>11018</v>
+        <v>47178</v>
       </c>
       <c r="H109" s="6">
         <v>39904</v>
@@ -2877,16 +2906,16 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G110" s="6">
         <v>11018</v>
@@ -2897,83 +2926,83 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B111" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="G111" s="6">
+        <v>11018</v>
+      </c>
+      <c r="H111" s="6">
         <v>39904</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B112" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G112" s="6">
         <v>39904</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1" t="s">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>137</v>
+      </c>
+      <c r="B113" t="s">
+        <v>171</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>173</v>
+      </c>
+      <c r="G113" s="6">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>70</v>
-      </c>
-      <c r="B115" t="s">
-        <v>116</v>
-      </c>
-      <c r="C115" t="s">
-        <v>7</v>
-      </c>
-      <c r="G115" s="6">
-        <v>11018</v>
-      </c>
-      <c r="H115" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="G116" s="6">
         <v>11018</v>
@@ -2984,22 +3013,19 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C117" t="s">
         <v>11</v>
       </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
       <c r="F117" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="G117" s="6">
-        <v>11383</v>
+        <v>11018</v>
       </c>
       <c r="H117" s="6">
         <v>39904</v>
@@ -3007,19 +3033,22 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118" t="s">
         <v>11</v>
       </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
       <c r="F118" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="G118" s="6">
-        <v>37347</v>
+        <v>11383</v>
       </c>
       <c r="H118" s="6">
         <v>39904</v>
@@ -3027,53 +3056,53 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
+      </c>
+      <c r="F119" t="s">
+        <v>121</v>
       </c>
       <c r="G119" s="6">
         <v>37347</v>
       </c>
+      <c r="H119" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
       </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120" t="s">
-        <v>124</v>
-      </c>
       <c r="G120" s="6">
-        <v>37712</v>
-      </c>
-      <c r="H120" s="6">
-        <v>38078</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C121" t="s">
         <v>11</v>
       </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
       <c r="F121" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G121" s="6">
         <v>37712</v>
@@ -3084,174 +3113,204 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
+        <v>63</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" t="s">
+        <v>126</v>
+      </c>
+      <c r="G122" s="6">
+        <v>37712</v>
+      </c>
+      <c r="H122" s="6">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123">
         <v>97</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>127</v>
       </c>
-      <c r="C122" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" t="s">
         <v>128</v>
       </c>
-      <c r="G122" s="6">
+      <c r="G123" s="6">
         <v>38078</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F39 F43:F65 D1:E65 D64:F1048576">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+  <conditionalFormatting sqref="F1:F39 F43:F66 D1:E66 D64:F1048576">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G42 G44:G49 G53:G79 G83 G85:G104 G106:G110 G113:G1048576">
-    <cfRule type="cellIs" dxfId="27" priority="32" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G2:G42 G44:G49 G53:G65 G84 G86:G105 G107:G111 G114:G1048576 G67:G80">
+    <cfRule type="cellIs" dxfId="29" priority="34" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H121">
+    <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122">
     <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H120">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H121">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H47:H48">
     <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="G50:G52">
     <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G52">
+  <conditionalFormatting sqref="H69">
     <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H70:H71">
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H74">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69:H70">
+  <conditionalFormatting sqref="H76">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H79:H83">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="G81:G83">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78:H82">
+  <conditionalFormatting sqref="H77">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80:G82">
+  <conditionalFormatting sqref="G85">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H88">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
+  <conditionalFormatting sqref="H90:H91">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H97">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89:H90">
+  <conditionalFormatting sqref="H98:H99">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
+  <conditionalFormatting sqref="H104:H106">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97:H98">
+  <conditionalFormatting sqref="G106">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103:H105">
+  <conditionalFormatting sqref="H109">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G105">
+  <conditionalFormatting sqref="H110:H111">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H108">
+  <conditionalFormatting sqref="G112:G113">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109:H110">
+  <conditionalFormatting sqref="H116">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G111:G112">
+  <conditionalFormatting sqref="H117:H119">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H115">
+  <conditionalFormatting sqref="G66">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H116:H118">
+  <conditionalFormatting sqref="H11">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52885B7-1130-0B4A-9D2A-5D80949661ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6725AC-A299-734D-8735-58E63046F696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -652,7 +652,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1305,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1336,7 +1346,7 @@
       </c>
       <c r="G1" s="8">
         <f>COUNTA(G2:I177)</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1669,6 +1679,9 @@
       <c r="G27" s="6">
         <v>44256</v>
       </c>
+      <c r="H27" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -3150,167 +3163,172 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 F43:F66 D1:E66 D64:F1048576">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G42 G44:G49 G53:G65 G84 G86:G105 G107:G111 G114:G1048576 G67:G80">
-    <cfRule type="cellIs" dxfId="29" priority="34" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="35" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H121">
     <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H121">
+  <conditionalFormatting sqref="H122">
     <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H47:H48">
     <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
+  <conditionalFormatting sqref="G50:G52">
     <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G52">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H69">
     <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
+  <conditionalFormatting sqref="H70:H71">
     <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70:H71">
+  <conditionalFormatting sqref="H74">
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H76">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H79:H83">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79:H83">
+  <conditionalFormatting sqref="G81:G83">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G81:G83">
+  <conditionalFormatting sqref="H77">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
+  <conditionalFormatting sqref="G85">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G85">
+  <conditionalFormatting sqref="H88">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
+  <conditionalFormatting sqref="H90:H91">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90:H91">
+  <conditionalFormatting sqref="H97">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
+  <conditionalFormatting sqref="H98:H99">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98:H99">
+  <conditionalFormatting sqref="H104:H106">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H104:H106">
+  <conditionalFormatting sqref="G106">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G106">
+  <conditionalFormatting sqref="H109">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109">
+  <conditionalFormatting sqref="H110:H111">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H110:H111">
+  <conditionalFormatting sqref="G112:G113">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G112:G113">
+  <conditionalFormatting sqref="H116">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H116">
+  <conditionalFormatting sqref="H117:H119">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H117:H119">
+  <conditionalFormatting sqref="G66">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="H11">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6725AC-A299-734D-8735-58E63046F696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A67B14-D2B1-6D42-9EAF-0573800CE32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -652,7 +652,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1315,7 +1325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -1346,7 +1356,7 @@
       </c>
       <c r="G1" s="8">
         <f>COUNTA(G2:I177)</f>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1676,6 +1686,9 @@
       <c r="C27" t="s">
         <v>7</v>
       </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
       <c r="G27" s="6">
         <v>44256</v>
       </c>
@@ -1763,6 +1776,9 @@
       <c r="G33" s="6">
         <v>44621</v>
       </c>
+      <c r="H33" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -3163,172 +3179,177 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 F43:F66 D1:E66 D64:F1048576">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G42 G44:G49 G53:G65 G84 G86:G105 G107:G111 G114:G1048576 G67:G80">
-    <cfRule type="cellIs" dxfId="30" priority="35" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H121">
     <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H121">
+  <conditionalFormatting sqref="H122">
     <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H47:H48">
     <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
+  <conditionalFormatting sqref="G50:G52">
     <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G52">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H69">
     <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
+  <conditionalFormatting sqref="H70:H71">
     <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70:H71">
+  <conditionalFormatting sqref="H74">
     <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H76">
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H79:H83">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79:H83">
+  <conditionalFormatting sqref="G81:G83">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G81:G83">
+  <conditionalFormatting sqref="H77">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
+  <conditionalFormatting sqref="G85">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G85">
+  <conditionalFormatting sqref="H88">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
+  <conditionalFormatting sqref="H90:H91">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90:H91">
+  <conditionalFormatting sqref="H97">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
+  <conditionalFormatting sqref="H98:H99">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98:H99">
+  <conditionalFormatting sqref="H104:H106">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H104:H106">
+  <conditionalFormatting sqref="G106">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G106">
+  <conditionalFormatting sqref="H109">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109">
+  <conditionalFormatting sqref="H110:H111">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H110:H111">
+  <conditionalFormatting sqref="G112:G113">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G112:G113">
+  <conditionalFormatting sqref="H116">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H116">
+  <conditionalFormatting sqref="H117:H119">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H117:H119">
+  <conditionalFormatting sqref="G66">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="H11">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H33">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A67B14-D2B1-6D42-9EAF-0573800CE32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1258600D-7DB4-5446-9CA9-40991121DDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="182">
   <si>
     <t>Note</t>
   </si>
@@ -568,6 +568,21 @@
   </si>
   <si>
     <t>DFS accumulator</t>
+  </si>
+  <si>
+    <t>Tower Breakers</t>
+  </si>
+  <si>
+    <t>Math, rather than mimic the game</t>
+  </si>
+  <si>
+    <t>HackerRank</t>
+  </si>
+  <si>
+    <t>Case Cipher</t>
+  </si>
+  <si>
+    <t>What if it goes over 26?</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1356,7 +1371,7 @@
       </c>
       <c r="G1" s="8">
         <f>COUNTA(G2:I177)</f>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3177,6 +3192,47 @@
         <v>38078</v>
       </c>
     </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>177</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" t="s">
+        <v>178</v>
+      </c>
+      <c r="G126" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>180</v>
+      </c>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" t="s">
+        <v>181</v>
+      </c>
+      <c r="G127" s="6">
+        <v>41365</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
@@ -3194,7 +3250,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G42 G44:G49 G53:G65 G84 G86:G105 G107:G111 G114:G1048576 G67:G80">
+  <conditionalFormatting sqref="G2:G42 G44:G49 G53:G65 G84 G86:G105 G107:G111 G67:G80 G114:G1048576">
     <cfRule type="cellIs" dxfId="31" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1258600D-7DB4-5446-9CA9-40991121DDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC9DCCC-4602-3145-84C2-F28F1A820E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="187">
   <si>
     <t>Note</t>
   </si>
@@ -583,6 +583,21 @@
   </si>
   <si>
     <t>What if it goes over 26?</t>
+  </si>
+  <si>
+    <t>Grid Challenge</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>Palindrome Index</t>
+  </si>
+  <si>
+    <t>There is only one element. Not mentioned in the question</t>
+  </si>
+  <si>
+    <t>New Year Chaos</t>
   </si>
 </sst>
 </file>
@@ -1338,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1371,7 +1386,7 @@
       </c>
       <c r="G1" s="8">
         <f>COUNTA(G2:I177)</f>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3231,6 +3246,39 @@
       </c>
       <c r="G127" s="6">
         <v>41365</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>182</v>
+      </c>
+      <c r="C128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" t="s">
+        <v>183</v>
+      </c>
+      <c r="G128" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>184</v>
+      </c>
+      <c r="C129" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" t="s">
+        <v>185</v>
+      </c>
+      <c r="G129" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC9DCCC-4602-3145-84C2-F28F1A820E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B4A245-A118-4F4E-ACB0-4318578C40CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="188">
   <si>
     <t>Note</t>
   </si>
@@ -598,6 +598,9 @@
   </si>
   <si>
     <t>New Year Chaos</t>
+  </si>
+  <si>
+    <t>Merge Sorted Linked List</t>
   </si>
 </sst>
 </file>
@@ -1353,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1386,7 +1389,7 @@
       </c>
       <c r="G1" s="8">
         <f>COUNTA(G2:I177)</f>
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3279,6 +3282,17 @@
     <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>186</v>
+      </c>
+      <c r="G130" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>187</v>
+      </c>
+      <c r="G131" s="6">
+        <v>41365</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B4A245-A118-4F4E-ACB0-4318578C40CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44796324-C3A0-0B47-B8AF-EA6B84771E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="190">
   <si>
     <t>Note</t>
   </si>
@@ -601,6 +601,12 @@
   </si>
   <si>
     <t>Merge Sorted Linked List</t>
+  </si>
+  <si>
+    <t>Can Jump</t>
+  </si>
+  <si>
+    <t>Setting new goals each iteration</t>
   </si>
 </sst>
 </file>
@@ -1356,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G132" sqref="G132"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1388,8 +1394,8 @@
         <v>0</v>
       </c>
       <c r="G1" s="8">
-        <f>COUNTA(G2:I177)</f>
-        <v>123</v>
+        <f>COUNTA(G2:I178)</f>
+        <v>124</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1501,48 +1507,45 @@
         <v>38078</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>52</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="6">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>125</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>44256</v>
-      </c>
-      <c r="H11" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>167</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
+        <v>125</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1550,13 +1553,16 @@
       <c r="G12" s="6">
         <v>44256</v>
       </c>
+      <c r="H12" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1565,260 +1571,257 @@
         <v>1</v>
       </c>
       <c r="G13" s="6">
-        <v>45717</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G15" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>209</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="6">
-        <v>44256</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>209</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="6">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G20" s="6">
         <v>45717</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="6">
-        <v>44256</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>134</v>
-      </c>
       <c r="G23" s="6">
-        <v>46082</v>
-      </c>
-      <c r="H23" s="6">
-        <v>38078</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="6">
+        <v>46082</v>
+      </c>
+      <c r="H24" s="6">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>133</v>
       </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G25" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>383</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
-        <v>44256</v>
-      </c>
-      <c r="H27" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>49</v>
+        <v>383</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="G28" s="6">
-        <v>44621</v>
+        <v>44256</v>
+      </c>
+      <c r="H28" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="6">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>205</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>136</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G30" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>228</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="6">
-        <v>44621</v>
-      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="G33" s="6">
         <v>44621</v>
       </c>
-      <c r="H33" s="6">
-        <v>39904</v>
-      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
         <v>57</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1827,204 +1830,201 @@
         <v>58</v>
       </c>
       <c r="G34" s="6">
-        <v>46082</v>
+        <v>44621</v>
+      </c>
+      <c r="H34" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="6">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>452</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>138</v>
       </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35">
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>139</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G36" s="6">
         <v>38443</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>20</v>
-      </c>
-      <c r="B38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="6">
-        <v>44621</v>
-      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G39" s="6">
         <v>44621</v>
       </c>
-      <c r="H39" s="6">
-        <v>38443</v>
-      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
-      <c r="F40" t="s">
-        <v>61</v>
+      <c r="D40">
+        <v>1</v>
       </c>
       <c r="G40" s="6">
-        <v>46082</v>
+        <v>44621</v>
+      </c>
+      <c r="H40" s="6">
+        <v>38443</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
-      <c r="D41">
-        <v>1</v>
+      <c r="F41" t="s">
+        <v>61</v>
       </c>
       <c r="G41" s="6">
         <v>46082</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>150</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>141</v>
-      </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="6">
-        <v>44986</v>
-      </c>
-      <c r="H45" s="6">
-        <v>38443</v>
-      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G46" s="6">
         <v>44986</v>
       </c>
+      <c r="H46" s="6">
+        <v>38443</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
       </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
       <c r="F47" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="G47" s="6">
         <v>44986</v>
       </c>
-      <c r="H47" s="6">
-        <v>38443</v>
-      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="G48" s="6">
-        <v>46082</v>
+        <v>44986</v>
       </c>
       <c r="H48" s="6">
         <v>38443</v>
@@ -2032,53 +2032,56 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
       </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G49" s="6">
         <v>46082</v>
       </c>
+      <c r="H49" s="6">
+        <v>38443</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="G50" s="6">
-        <v>38443</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
       <c r="F51" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="G51" s="6">
         <v>38443</v>
@@ -2086,77 +2089,83 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="G52" s="6">
         <v>38443</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>145</v>
+      </c>
+      <c r="G53" s="6">
+        <v>38443</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>104</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" s="6">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>100</v>
-      </c>
-      <c r="B56" t="s">
-        <v>36</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
+      <c r="F56" t="s">
+        <v>35</v>
+      </c>
       <c r="G56" s="6">
         <v>44986</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G57" s="6">
         <v>44986</v>
@@ -2164,10 +2173,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
@@ -2178,53 +2187,47 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G59" s="6">
-        <v>46082</v>
-      </c>
-      <c r="H59" s="6">
-        <v>38443</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60">
+        <v>7</v>
+      </c>
+      <c r="E60">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G60" s="6">
-        <v>46447</v>
+        <v>46082</v>
+      </c>
+      <c r="H60" s="6">
+        <v>38443</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -2233,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G61" s="6">
         <v>46447</v>
@@ -2241,10 +2244,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -2253,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G62" s="6">
         <v>46447</v>
@@ -2261,33 +2264,36 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
       </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
       <c r="F63" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="G63" s="6">
-        <v>38808</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G64" s="6">
         <v>38808</v>
@@ -2295,16 +2301,16 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>637</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>150</v>
+        <v>199</v>
+      </c>
+      <c r="B65" t="s">
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>149</v>
       </c>
       <c r="G65" s="6">
         <v>38808</v>
@@ -2312,72 +2318,66 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>129</v>
+        <v>637</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" s="6">
+        <v>38808</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>129</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
         <v>176</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G67" s="6">
         <v>39904</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>530</v>
-      </c>
-      <c r="B69" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>41</v>
-      </c>
-      <c r="G69" s="6">
-        <v>44986</v>
-      </c>
-      <c r="H69" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G70" s="6">
         <v>44986</v>
@@ -2388,140 +2388,143 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
       </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
       <c r="F71" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G71" s="6">
-        <v>46447</v>
+        <v>44986</v>
       </c>
       <c r="H71" s="6">
         <v>38808</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>98</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>82</v>
+      </c>
+      <c r="G72" s="6">
+        <v>46447</v>
+      </c>
+      <c r="H72" s="6">
+        <v>38808</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>200</v>
-      </c>
-      <c r="B74" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" t="s">
-        <v>46</v>
-      </c>
-      <c r="G74" s="6">
-        <v>45352</v>
-      </c>
-      <c r="H74" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G75" s="6">
-        <v>45717</v>
+        <v>45352</v>
+      </c>
+      <c r="H75" s="6">
+        <v>38808</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G76" s="6">
         <v>45717</v>
       </c>
-      <c r="H76" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>909</v>
+        <v>133</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="G77" s="6">
-        <v>46447</v>
+        <v>45717</v>
       </c>
       <c r="H77" s="6">
-        <v>39173</v>
+        <v>38808</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
       </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
       <c r="F78" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="G78" s="6">
         <v>46447</v>
       </c>
+      <c r="H78" s="6">
+        <v>39173</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
         <v>11</v>
@@ -2530,135 +2533,135 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="G79" s="6">
         <v>46447</v>
       </c>
-      <c r="H79" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>323</v>
-      </c>
-      <c r="H80" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B80" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>151</v>
+      </c>
+      <c r="G80" s="6">
+        <v>46447</v>
+      </c>
+      <c r="H80" s="6">
+        <v>38808</v>
+      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>210</v>
-      </c>
-      <c r="B81" t="s">
-        <v>152</v>
-      </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>153</v>
-      </c>
-      <c r="G81" s="6">
-        <v>39173</v>
+        <v>323</v>
       </c>
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
+        <v>210</v>
+      </c>
+      <c r="B82" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>153</v>
+      </c>
+      <c r="G82" s="6">
+        <v>39173</v>
+      </c>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>433</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>155</v>
       </c>
-      <c r="C82" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
         <v>156</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G83" s="6">
         <v>39539</v>
       </c>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1" t="s">
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>208</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>157</v>
       </c>
-      <c r="C85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85">
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86">
         <v>1</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F86" t="s">
         <v>159</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G86" s="6">
         <v>39539</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>17</v>
-      </c>
-      <c r="B88" t="s">
-        <v>86</v>
-      </c>
-      <c r="C88" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" t="s">
-        <v>87</v>
-      </c>
-      <c r="G88" s="6">
-        <v>46447</v>
-      </c>
-      <c r="H88" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
@@ -2669,36 +2672,33 @@
       <c r="G89" s="6">
         <v>46447</v>
       </c>
+      <c r="H89" s="6">
+        <v>39539</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
       </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
       <c r="F90" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="G90" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H90" s="6">
-        <v>39539</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
@@ -2707,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G91" s="6">
         <v>46813</v>
@@ -2716,84 +2716,84 @@
         <v>39539</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>39</v>
+      </c>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>161</v>
+      </c>
+      <c r="G92" s="6">
+        <v>46813</v>
+      </c>
+      <c r="H92" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>108</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>93</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>7</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F95" t="s">
         <v>91</v>
       </c>
-      <c r="G94" s="6">
+      <c r="G95" s="6">
         <v>46813</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>35</v>
-      </c>
-      <c r="B97" t="s">
-        <v>95</v>
-      </c>
-      <c r="C97" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" t="s">
-        <v>96</v>
-      </c>
-      <c r="G97" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H97" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G98" s="6">
         <v>46813</v>
@@ -2804,16 +2804,19 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C99" t="s">
         <v>11</v>
       </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
       <c r="F99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G99" s="6">
         <v>46813</v>
@@ -2824,86 +2827,83 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C100" t="s">
         <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G100" s="6">
         <v>46813</v>
       </c>
+      <c r="H100" s="6">
+        <v>39539</v>
+      </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
+        <v>33</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s">
+        <v>102</v>
+      </c>
+      <c r="G101" s="6">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>34</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>103</v>
       </c>
-      <c r="C101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" t="s">
         <v>104</v>
       </c>
-      <c r="G101" s="6">
+      <c r="G102" s="6">
         <v>47178</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>215</v>
-      </c>
-      <c r="B104" t="s">
-        <v>106</v>
-      </c>
-      <c r="C104" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" t="s">
-        <v>107</v>
-      </c>
-      <c r="G104" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H104" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
         <v>11</v>
       </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
       <c r="F105" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="G105" s="6">
         <v>47178</v>
@@ -2914,73 +2914,76 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>502</v>
+        <v>373</v>
       </c>
       <c r="B106" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106" t="s">
+        <v>165</v>
+      </c>
+      <c r="G106" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H106" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>502</v>
+      </c>
+      <c r="B107" t="s">
+        <v>166</v>
+      </c>
+      <c r="C107" t="s">
+        <v>167</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
         <v>168</v>
       </c>
-      <c r="G106" s="6">
+      <c r="G107" s="6">
         <v>39539</v>
       </c>
-      <c r="H106" s="6"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1" t="s">
+      <c r="H107" s="6"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>67</v>
-      </c>
-      <c r="B109" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" t="s">
-        <v>169</v>
-      </c>
-      <c r="G109" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H109" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="G110" s="6">
-        <v>11018</v>
+        <v>47178</v>
       </c>
       <c r="H110" s="6">
         <v>39904</v>
@@ -2988,16 +2991,16 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G111" s="6">
         <v>11018</v>
@@ -3008,83 +3011,83 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B112" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="G112" s="6">
+        <v>11018</v>
+      </c>
+      <c r="H112" s="6">
         <v>39904</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G113" s="6">
         <v>39904</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>137</v>
+      </c>
+      <c r="B114" t="s">
+        <v>171</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>173</v>
+      </c>
+      <c r="G114" s="6">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>70</v>
-      </c>
-      <c r="B116" t="s">
-        <v>116</v>
-      </c>
-      <c r="C116" t="s">
-        <v>7</v>
-      </c>
-      <c r="G116" s="6">
-        <v>11018</v>
-      </c>
-      <c r="H116" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="G117" s="6">
         <v>11018</v>
@@ -3095,22 +3098,19 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C118" t="s">
         <v>11</v>
       </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
       <c r="F118" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="G118" s="6">
-        <v>11383</v>
+        <v>11018</v>
       </c>
       <c r="H118" s="6">
         <v>39904</v>
@@ -3118,19 +3118,22 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
       </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
       <c r="F119" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="G119" s="6">
-        <v>37347</v>
+        <v>11383</v>
       </c>
       <c r="H119" s="6">
         <v>39904</v>
@@ -3138,53 +3141,53 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
+      </c>
+      <c r="F120" t="s">
+        <v>121</v>
       </c>
       <c r="G120" s="6">
         <v>37347</v>
       </c>
+      <c r="H120" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C121" t="s">
         <v>11</v>
       </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121" t="s">
-        <v>124</v>
-      </c>
       <c r="G121" s="6">
-        <v>37712</v>
-      </c>
-      <c r="H121" s="6">
-        <v>38078</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C122" t="s">
         <v>11</v>
       </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
       <c r="F122" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G122" s="6">
         <v>37712</v>
@@ -3195,57 +3198,63 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
+        <v>63</v>
+      </c>
+      <c r="B123" t="s">
+        <v>125</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" t="s">
+        <v>126</v>
+      </c>
+      <c r="G123" s="6">
+        <v>37712</v>
+      </c>
+      <c r="H123" s="6">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124">
         <v>97</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>127</v>
       </c>
-      <c r="C123" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" t="s">
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" t="s">
         <v>128</v>
       </c>
-      <c r="G123" s="6">
+      <c r="G124" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1" t="s">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>177</v>
-      </c>
-      <c r="C126" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" t="s">
-        <v>178</v>
-      </c>
-      <c r="G126" s="6">
-        <v>41365</v>
-      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C127" t="s">
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G127" s="6">
         <v>41365</v>
@@ -3253,13 +3262,13 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G128" s="6">
         <v>41365</v>
@@ -3267,13 +3276,13 @@
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
       </c>
       <c r="F129" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G129" s="6">
         <v>41365</v>
@@ -3281,7 +3290,13 @@
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" t="s">
+        <v>185</v>
       </c>
       <c r="G130" s="6">
         <v>41365</v>
@@ -3289,9 +3304,17 @@
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
+        <v>186</v>
+      </c>
+      <c r="G131" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
         <v>187</v>
       </c>
-      <c r="G131" s="6">
+      <c r="G132" s="6">
         <v>41365</v>
       </c>
     </row>
@@ -3307,167 +3330,167 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F39 F43:F66 D1:E66 D64:F1048576">
+  <conditionalFormatting sqref="F1:F40 F44:F67 D1:E67 D65:F1048576">
     <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G42 G44:G49 G53:G65 G84 G86:G105 G107:G111 G67:G80 G114:G1048576">
+  <conditionalFormatting sqref="G2:G43 G45:G50 G54:G66 G85 G87:G106 G108:G112 G68:G81 G115:G1048576">
     <cfRule type="cellIs" dxfId="31" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H24">
     <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H121">
+  <conditionalFormatting sqref="H122">
     <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122">
+  <conditionalFormatting sqref="H123">
     <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H40">
     <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H46">
     <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
+  <conditionalFormatting sqref="H48:H49">
     <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G52">
+  <conditionalFormatting sqref="G51:G53">
     <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H60">
     <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
+  <conditionalFormatting sqref="H70">
     <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70:H71">
+  <conditionalFormatting sqref="H71:H72">
     <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H77">
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79:H83">
+  <conditionalFormatting sqref="H80:H84">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G81:G83">
+  <conditionalFormatting sqref="G82:G84">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
+  <conditionalFormatting sqref="H78">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G85">
+  <conditionalFormatting sqref="G86">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
+  <conditionalFormatting sqref="H89">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90:H91">
+  <conditionalFormatting sqref="H91:H92">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
+  <conditionalFormatting sqref="H98">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98:H99">
+  <conditionalFormatting sqref="H99:H100">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H104:H106">
+  <conditionalFormatting sqref="H105:H107">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G106">
+  <conditionalFormatting sqref="G107">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109">
+  <conditionalFormatting sqref="H110">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H110:H111">
+  <conditionalFormatting sqref="H111:H112">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G112:G113">
+  <conditionalFormatting sqref="G113:G114">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H116">
+  <conditionalFormatting sqref="H117">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H117:H119">
+  <conditionalFormatting sqref="H118:H120">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="G67">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H12">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H28">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H34">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -3475,12 +3498,12 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{45809EEC-81DF-6A4E-91D1-93A7E83EA600}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{E8209BAF-E983-F84D-85E9-51122788BE77}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{123BEFC6-385A-644B-AEEF-1E4E98150A90}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{61620F85-A756-1948-B905-68253DFF6AD5}"/>
     <hyperlink ref="B6" r:id="rId6" xr:uid="{82624FD5-7C76-EB45-9D9D-195B23F4F9DA}"/>
     <hyperlink ref="B7" r:id="rId7" xr:uid="{1DA24BCD-8B15-3E41-9087-846CE867B65E}"/>
-    <hyperlink ref="B65" r:id="rId8" display="https://leetcode.com/problems/average-of-levels-in-binary-tree/" xr:uid="{CF7ACCDB-130B-6449-BEA9-B7A71C85179B}"/>
+    <hyperlink ref="B66" r:id="rId8" display="https://leetcode.com/problems/average-of-levels-in-binary-tree/" xr:uid="{CF7ACCDB-130B-6449-BEA9-B7A71C85179B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44796324-C3A0-0B47-B8AF-EA6B84771E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F95BA9-2FE6-B945-B054-CECFF26D1DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="192">
   <si>
     <t>Note</t>
   </si>
@@ -603,10 +603,16 @@
     <t>Merge Sorted Linked List</t>
   </si>
   <si>
-    <t>Can Jump</t>
-  </si>
-  <si>
     <t>Setting new goals each iteration</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>Getting possible furtherest jump</t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1394,8 +1400,8 @@
         <v>0</v>
       </c>
       <c r="G1" s="8">
-        <f>COUNTA(G2:I178)</f>
-        <v>124</v>
+        <f>COUNTA(G2:I179)</f>
+        <v>125</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1512,60 +1518,57 @@
         <v>52</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
         <v>188</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>189</v>
       </c>
       <c r="G9" s="6">
         <v>42461</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>47</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="6">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>125</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>44256</v>
-      </c>
-      <c r="H12" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>167</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
+        <v>125</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1573,13 +1576,16 @@
       <c r="G13" s="6">
         <v>44256</v>
       </c>
+      <c r="H13" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1588,260 +1594,257 @@
         <v>1</v>
       </c>
       <c r="G14" s="6">
-        <v>45717</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>209</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="6">
-        <v>44256</v>
-      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>209</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="6">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="6">
         <v>45717</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="6">
-        <v>44256</v>
-      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>134</v>
-      </c>
       <c r="G24" s="6">
-        <v>46082</v>
-      </c>
-      <c r="H24" s="6">
-        <v>38078</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="6">
+        <v>46082</v>
+      </c>
+      <c r="H25" s="6">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>133</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>383</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6">
-        <v>44256</v>
-      </c>
-      <c r="H28" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>49</v>
+        <v>383</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
       </c>
       <c r="G29" s="6">
-        <v>44621</v>
+        <v>44256</v>
+      </c>
+      <c r="H29" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="6">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>205</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G31" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>228</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="6">
-        <v>44621</v>
-      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="G34" s="6">
         <v>44621</v>
       </c>
-      <c r="H34" s="6">
-        <v>39904</v>
-      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
         <v>57</v>
-      </c>
-      <c r="B35" t="s">
-        <v>56</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1850,204 +1853,201 @@
         <v>58</v>
       </c>
       <c r="G35" s="6">
-        <v>46082</v>
+        <v>44621</v>
+      </c>
+      <c r="H35" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="6">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>452</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>138</v>
       </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36">
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
         <v>1</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>139</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G37" s="6">
         <v>38443</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>20</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="6">
-        <v>44621</v>
-      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G40" s="6">
         <v>44621</v>
       </c>
-      <c r="H40" s="6">
-        <v>38443</v>
-      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
-      <c r="F41" t="s">
-        <v>61</v>
+      <c r="D41">
+        <v>1</v>
       </c>
       <c r="G41" s="6">
-        <v>46082</v>
+        <v>44621</v>
+      </c>
+      <c r="H41" s="6">
+        <v>38443</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
-      <c r="D42">
-        <v>1</v>
+      <c r="F42" t="s">
+        <v>61</v>
       </c>
       <c r="G42" s="6">
         <v>46082</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>150</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>141</v>
-      </c>
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="6">
-        <v>44986</v>
-      </c>
-      <c r="H46" s="6">
-        <v>38443</v>
-      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G47" s="6">
         <v>44986</v>
       </c>
+      <c r="H47" s="6">
+        <v>38443</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
       </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
       <c r="F48" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="G48" s="6">
         <v>44986</v>
       </c>
-      <c r="H48" s="6">
-        <v>38443</v>
-      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="G49" s="6">
-        <v>46082</v>
+        <v>44986</v>
       </c>
       <c r="H49" s="6">
         <v>38443</v>
@@ -2055,53 +2055,56 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
       </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G50" s="6">
         <v>46082</v>
       </c>
+      <c r="H50" s="6">
+        <v>38443</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="G51" s="6">
-        <v>38443</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
       <c r="F52" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="G52" s="6">
         <v>38443</v>
@@ -2109,77 +2112,83 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="G53" s="6">
         <v>38443</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G54" s="6">
+        <v>38443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>104</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" t="s">
-        <v>35</v>
-      </c>
-      <c r="G56" s="6">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>100</v>
-      </c>
-      <c r="B57" t="s">
-        <v>36</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
+      <c r="F57" t="s">
+        <v>35</v>
+      </c>
       <c r="G57" s="6">
         <v>44986</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G58" s="6">
         <v>44986</v>
@@ -2187,10 +2196,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -2201,53 +2210,47 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G60" s="6">
-        <v>46082</v>
-      </c>
-      <c r="H60" s="6">
-        <v>38443</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G61" s="6">
-        <v>46447</v>
+        <v>46082</v>
+      </c>
+      <c r="H61" s="6">
+        <v>38443</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -2256,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G62" s="6">
         <v>46447</v>
@@ -2264,10 +2267,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -2276,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G63" s="6">
         <v>46447</v>
@@ -2284,33 +2287,36 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
       </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
       <c r="F64" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="G64" s="6">
-        <v>38808</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G65" s="6">
         <v>38808</v>
@@ -2318,16 +2324,16 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>637</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>150</v>
+        <v>199</v>
+      </c>
+      <c r="B66" t="s">
+        <v>148</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>149</v>
       </c>
       <c r="G66" s="6">
         <v>38808</v>
@@ -2335,72 +2341,66 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>129</v>
+        <v>637</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" s="6">
+        <v>38808</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>129</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
         <v>176</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G68" s="6">
         <v>39904</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>530</v>
-      </c>
-      <c r="B70" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>41</v>
-      </c>
-      <c r="G70" s="6">
-        <v>44986</v>
-      </c>
-      <c r="H70" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G71" s="6">
         <v>44986</v>
@@ -2411,140 +2411,143 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
       </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
       <c r="F72" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G72" s="6">
-        <v>46447</v>
+        <v>44986</v>
       </c>
       <c r="H72" s="6">
         <v>38808</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>98</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>82</v>
+      </c>
+      <c r="G73" s="6">
+        <v>46447</v>
+      </c>
+      <c r="H73" s="6">
+        <v>38808</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>200</v>
-      </c>
-      <c r="B75" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" t="s">
-        <v>46</v>
-      </c>
-      <c r="G75" s="6">
-        <v>45352</v>
-      </c>
-      <c r="H75" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G76" s="6">
-        <v>45717</v>
+        <v>45352</v>
+      </c>
+      <c r="H76" s="6">
+        <v>38808</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G77" s="6">
         <v>45717</v>
       </c>
-      <c r="H77" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>909</v>
+        <v>133</v>
       </c>
       <c r="B78" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="G78" s="6">
-        <v>46447</v>
+        <v>45717</v>
       </c>
       <c r="H78" s="6">
-        <v>39173</v>
+        <v>38808</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s">
         <v>11</v>
       </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
       <c r="F79" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="G79" s="6">
         <v>46447</v>
       </c>
+      <c r="H79" s="6">
+        <v>39173</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
@@ -2553,135 +2556,135 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="G80" s="6">
         <v>46447</v>
       </c>
-      <c r="H80" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>323</v>
-      </c>
-      <c r="H81" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>151</v>
+      </c>
+      <c r="G81" s="6">
+        <v>46447</v>
+      </c>
+      <c r="H81" s="6">
+        <v>38808</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>210</v>
-      </c>
-      <c r="B82" t="s">
-        <v>152</v>
-      </c>
-      <c r="C82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>153</v>
-      </c>
-      <c r="G82" s="6">
-        <v>39173</v>
+        <v>323</v>
       </c>
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
+        <v>210</v>
+      </c>
+      <c r="B83" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>153</v>
+      </c>
+      <c r="G83" s="6">
+        <v>39173</v>
+      </c>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>433</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>155</v>
       </c>
-      <c r="C83" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
         <v>156</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G84" s="6">
         <v>39539</v>
       </c>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1" t="s">
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>208</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>157</v>
       </c>
-      <c r="C86" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86">
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87">
         <v>1</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F87" t="s">
         <v>159</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G87" s="6">
         <v>39539</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>17</v>
-      </c>
-      <c r="B89" t="s">
-        <v>86</v>
-      </c>
-      <c r="C89" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" t="s">
-        <v>87</v>
-      </c>
-      <c r="G89" s="6">
-        <v>46447</v>
-      </c>
-      <c r="H89" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -2692,36 +2695,33 @@
       <c r="G90" s="6">
         <v>46447</v>
       </c>
+      <c r="H90" s="6">
+        <v>39539</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
       </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
       <c r="F91" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="G91" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H91" s="6">
-        <v>39539</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G92" s="6">
         <v>46813</v>
@@ -2739,84 +2739,84 @@
         <v>39539</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>39</v>
+      </c>
+      <c r="B93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>161</v>
+      </c>
+      <c r="G93" s="6">
+        <v>46813</v>
+      </c>
+      <c r="H93" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>108</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>93</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>7</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
         <v>91</v>
       </c>
-      <c r="G95" s="6">
+      <c r="G96" s="6">
         <v>46813</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>35</v>
-      </c>
-      <c r="B98" t="s">
-        <v>95</v>
-      </c>
-      <c r="C98" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" t="s">
-        <v>96</v>
-      </c>
-      <c r="G98" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H98" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G99" s="6">
         <v>46813</v>
@@ -2827,16 +2827,19 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C100" t="s">
         <v>11</v>
       </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
       <c r="F100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G100" s="6">
         <v>46813</v>
@@ -2847,86 +2850,83 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G101" s="6">
         <v>46813</v>
       </c>
+      <c r="H101" s="6">
+        <v>39539</v>
+      </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
+        <v>33</v>
+      </c>
+      <c r="B102" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" t="s">
+        <v>102</v>
+      </c>
+      <c r="G102" s="6">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103">
         <v>34</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>103</v>
       </c>
-      <c r="C102" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
         <v>104</v>
       </c>
-      <c r="G102" s="6">
+      <c r="G103" s="6">
         <v>47178</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>215</v>
-      </c>
-      <c r="B105" t="s">
-        <v>106</v>
-      </c>
-      <c r="C105" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" t="s">
-        <v>107</v>
-      </c>
-      <c r="G105" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H105" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C106" t="s">
         <v>11</v>
       </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
       <c r="F106" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="G106" s="6">
         <v>47178</v>
@@ -2937,73 +2937,76 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>502</v>
+        <v>373</v>
       </c>
       <c r="B107" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107" t="s">
+        <v>165</v>
+      </c>
+      <c r="G107" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H107" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>502</v>
+      </c>
+      <c r="B108" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" t="s">
+        <v>167</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
         <v>168</v>
       </c>
-      <c r="G107" s="6">
+      <c r="G108" s="6">
         <v>39539</v>
       </c>
-      <c r="H107" s="6"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1" t="s">
+      <c r="H108" s="6"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>67</v>
-      </c>
-      <c r="B110" t="s">
-        <v>110</v>
-      </c>
-      <c r="C110" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" t="s">
-        <v>169</v>
-      </c>
-      <c r="G110" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H110" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="G111" s="6">
-        <v>11018</v>
+        <v>47178</v>
       </c>
       <c r="H111" s="6">
         <v>39904</v>
@@ -3011,16 +3014,16 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G112" s="6">
         <v>11018</v>
@@ -3031,83 +3034,83 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B113" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="G113" s="6">
+        <v>11018</v>
+      </c>
+      <c r="H113" s="6">
         <v>39904</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F114" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G114" s="6">
         <v>39904</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>137</v>
+      </c>
+      <c r="B115" t="s">
+        <v>171</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>173</v>
+      </c>
+      <c r="G115" s="6">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>70</v>
-      </c>
-      <c r="B117" t="s">
-        <v>116</v>
-      </c>
-      <c r="C117" t="s">
-        <v>7</v>
-      </c>
-      <c r="G117" s="6">
-        <v>11018</v>
-      </c>
-      <c r="H117" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="G118" s="6">
         <v>11018</v>
@@ -3118,22 +3121,19 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
       </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
       <c r="F119" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="G119" s="6">
-        <v>11383</v>
+        <v>11018</v>
       </c>
       <c r="H119" s="6">
         <v>39904</v>
@@ -3141,19 +3141,22 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
       </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
       <c r="F120" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="G120" s="6">
-        <v>37347</v>
+        <v>11383</v>
       </c>
       <c r="H120" s="6">
         <v>39904</v>
@@ -3161,53 +3164,53 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C121" t="s">
         <v>11</v>
+      </c>
+      <c r="F121" t="s">
+        <v>121</v>
       </c>
       <c r="G121" s="6">
         <v>37347</v>
       </c>
+      <c r="H121" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C122" t="s">
         <v>11</v>
       </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122" t="s">
-        <v>124</v>
-      </c>
       <c r="G122" s="6">
-        <v>37712</v>
-      </c>
-      <c r="H122" s="6">
-        <v>38078</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C123" t="s">
         <v>11</v>
       </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
       <c r="F123" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G123" s="6">
         <v>37712</v>
@@ -3218,57 +3221,63 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
+        <v>63</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" t="s">
+        <v>126</v>
+      </c>
+      <c r="G124" s="6">
+        <v>37712</v>
+      </c>
+      <c r="H124" s="6">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125">
         <v>97</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>127</v>
       </c>
-      <c r="C124" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" t="s">
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" t="s">
         <v>128</v>
       </c>
-      <c r="G124" s="6">
+      <c r="G125" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>177</v>
-      </c>
-      <c r="C127" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" t="s">
-        <v>178</v>
-      </c>
-      <c r="G127" s="6">
-        <v>41365</v>
-      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G128" s="6">
         <v>41365</v>
@@ -3276,13 +3285,13 @@
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G129" s="6">
         <v>41365</v>
@@ -3290,13 +3299,13 @@
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
       </c>
       <c r="F130" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G130" s="6">
         <v>41365</v>
@@ -3304,7 +3313,13 @@
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" t="s">
+        <v>185</v>
       </c>
       <c r="G131" s="6">
         <v>41365</v>
@@ -3312,9 +3327,17 @@
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
+        <v>186</v>
+      </c>
+      <c r="G132" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
         <v>187</v>
       </c>
-      <c r="G132" s="6">
+      <c r="G133" s="6">
         <v>41365</v>
       </c>
     </row>
@@ -3330,167 +3353,167 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F40 F44:F67 D1:E67 D65:F1048576">
+  <conditionalFormatting sqref="F1:F41 F45:F68 D1:E68 D66:F1048576">
     <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G43 G45:G50 G54:G66 G85 G87:G106 G108:G112 G68:G81 G115:G1048576">
+  <conditionalFormatting sqref="G2:G44 G46:G51 G55:G67 G86 G88:G107 G109:G113 G69:G82 G116:G1048576">
     <cfRule type="cellIs" dxfId="31" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H25">
     <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122">
+  <conditionalFormatting sqref="H123">
     <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H123">
+  <conditionalFormatting sqref="H124">
     <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
+  <conditionalFormatting sqref="H41">
     <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+  <conditionalFormatting sqref="H47">
     <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H49">
+  <conditionalFormatting sqref="H49:H50">
     <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G53">
+  <conditionalFormatting sqref="G52:G54">
     <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
+  <conditionalFormatting sqref="H61">
     <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
+  <conditionalFormatting sqref="H71">
     <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71:H72">
+  <conditionalFormatting sqref="H72:H73">
     <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H76">
     <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
+  <conditionalFormatting sqref="H78">
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80:H84">
+  <conditionalFormatting sqref="H81:H85">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82:G84">
+  <conditionalFormatting sqref="G83:G85">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
+  <conditionalFormatting sqref="H79">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86">
+  <conditionalFormatting sqref="G87">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
+  <conditionalFormatting sqref="H90">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91:H92">
+  <conditionalFormatting sqref="H92:H93">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
+  <conditionalFormatting sqref="H99">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H99:H100">
+  <conditionalFormatting sqref="H100:H101">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H105:H107">
+  <conditionalFormatting sqref="H106:H108">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G107">
+  <conditionalFormatting sqref="G108">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H110">
+  <conditionalFormatting sqref="H111">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H111:H112">
+  <conditionalFormatting sqref="H112:H113">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G113:G114">
+  <conditionalFormatting sqref="G114:G115">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H117">
+  <conditionalFormatting sqref="H118">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H118:H120">
+  <conditionalFormatting sqref="H119:H121">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
+  <conditionalFormatting sqref="G68">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="H13">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H29">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
+  <conditionalFormatting sqref="H35">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -3498,12 +3521,12 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{45809EEC-81DF-6A4E-91D1-93A7E83EA600}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{E8209BAF-E983-F84D-85E9-51122788BE77}"/>
-    <hyperlink ref="B12" r:id="rId3" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{123BEFC6-385A-644B-AEEF-1E4E98150A90}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{61620F85-A756-1948-B905-68253DFF6AD5}"/>
     <hyperlink ref="B6" r:id="rId6" xr:uid="{82624FD5-7C76-EB45-9D9D-195B23F4F9DA}"/>
     <hyperlink ref="B7" r:id="rId7" xr:uid="{1DA24BCD-8B15-3E41-9087-846CE867B65E}"/>
-    <hyperlink ref="B66" r:id="rId8" display="https://leetcode.com/problems/average-of-levels-in-binary-tree/" xr:uid="{CF7ACCDB-130B-6449-BEA9-B7A71C85179B}"/>
+    <hyperlink ref="B67" r:id="rId8" display="https://leetcode.com/problems/average-of-levels-in-binary-tree/" xr:uid="{CF7ACCDB-130B-6449-BEA9-B7A71C85179B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F95BA9-2FE6-B945-B054-CECFF26D1DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7342B2E-1D64-B240-B24F-59EE1AD3C21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="193">
   <si>
     <t>Note</t>
   </si>
@@ -613,6 +613,9 @@
   </si>
   <si>
     <t>Getting possible furtherest jump</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -680,7 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -692,6 +695,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1370,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1401,7 +1405,7 @@
       </c>
       <c r="G1" s="8">
         <f>COUNTA(G2:I179)</f>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3206,9 +3210,6 @@
       <c r="C123" t="s">
         <v>11</v>
       </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
       <c r="F123" t="s">
         <v>124</v>
       </c>
@@ -3217,6 +3218,9 @@
       </c>
       <c r="H123" s="6">
         <v>38078</v>
+      </c>
+      <c r="I123" s="6">
+        <v>43191</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -3237,6 +3241,9 @@
       </c>
       <c r="H124" s="6">
         <v>38078</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -3368,7 +3375,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H123">
+  <conditionalFormatting sqref="H123:I123">
     <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7342B2E-1D64-B240-B24F-59EE1AD3C21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CA014C-1327-EA4A-9F34-D90F9E21A3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -1374,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="G1" s="8">
         <f>COUNTA(G2:I179)</f>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2888,6 +2888,9 @@
       <c r="G102" s="6">
         <v>46813</v>
       </c>
+      <c r="H102" s="6">
+        <v>43191</v>
+      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
@@ -2904,6 +2907,9 @@
       </c>
       <c r="G103" s="6">
         <v>47178</v>
+      </c>
+      <c r="H103" s="6">
+        <v>43191</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -3465,7 +3471,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100:H101">
+  <conditionalFormatting sqref="H100:H103">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CA014C-1327-EA4A-9F34-D90F9E21A3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297254C8-FC1A-2043-9B6E-EB9FC13FE08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="194">
   <si>
     <t>Note</t>
   </si>
@@ -616,6 +616,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>H Index</t>
   </si>
 </sst>
 </file>
@@ -1372,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1404,8 +1407,8 @@
         <v>0</v>
       </c>
       <c r="G1" s="8">
-        <f>COUNTA(G2:I179)</f>
-        <v>129</v>
+        <f>COUNTA(G2:I180)</f>
+        <v>130</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1551,48 +1554,42 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>274</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>125</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>44256</v>
-      </c>
-      <c r="H13" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>167</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
+        <v>125</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1600,13 +1597,16 @@
       <c r="G14" s="6">
         <v>44256</v>
       </c>
+      <c r="H14" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1615,260 +1615,257 @@
         <v>1</v>
       </c>
       <c r="G15" s="6">
-        <v>45717</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>209</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="6">
-        <v>44256</v>
-      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
+        <v>209</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="6">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G22" s="6">
         <v>45717</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="6">
-        <v>44256</v>
-      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>134</v>
-      </c>
       <c r="G25" s="6">
-        <v>46082</v>
-      </c>
-      <c r="H25" s="6">
-        <v>38078</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="6">
+        <v>46082</v>
+      </c>
+      <c r="H26" s="6">
+        <v>38078</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>48</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>133</v>
       </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
         <v>135</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>383</v>
-      </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>44256</v>
-      </c>
-      <c r="H29" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>49</v>
+        <v>383</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
       </c>
       <c r="G30" s="6">
-        <v>44621</v>
+        <v>44256</v>
+      </c>
+      <c r="H30" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="6">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>205</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>3</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>136</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G32" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>228</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="6">
-        <v>44621</v>
-      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="G35" s="6">
         <v>44621</v>
       </c>
-      <c r="H35" s="6">
-        <v>39904</v>
-      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
         <v>57</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1877,204 +1874,201 @@
         <v>58</v>
       </c>
       <c r="G36" s="6">
-        <v>46082</v>
+        <v>44621</v>
+      </c>
+      <c r="H36" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="6">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>452</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>138</v>
       </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37">
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>139</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G38" s="6">
         <v>38443</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>20</v>
-      </c>
-      <c r="B40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="6">
-        <v>44621</v>
-      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G41" s="6">
         <v>44621</v>
       </c>
-      <c r="H41" s="6">
-        <v>38443</v>
-      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
-      <c r="F42" t="s">
-        <v>61</v>
+      <c r="D42">
+        <v>1</v>
       </c>
       <c r="G42" s="6">
-        <v>46082</v>
+        <v>44621</v>
+      </c>
+      <c r="H42" s="6">
+        <v>38443</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
-      <c r="D43">
-        <v>1</v>
+      <c r="F43" t="s">
+        <v>61</v>
       </c>
       <c r="G43" s="6">
         <v>46082</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>150</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>141</v>
-      </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="6">
-        <v>44986</v>
-      </c>
-      <c r="H47" s="6">
-        <v>38443</v>
-      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G48" s="6">
         <v>44986</v>
       </c>
+      <c r="H48" s="6">
+        <v>38443</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
       </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
       <c r="F49" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="G49" s="6">
         <v>44986</v>
       </c>
-      <c r="H49" s="6">
-        <v>38443</v>
-      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="G50" s="6">
-        <v>46082</v>
+        <v>44986</v>
       </c>
       <c r="H50" s="6">
         <v>38443</v>
@@ -2082,53 +2076,56 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
       </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G51" s="6">
         <v>46082</v>
       </c>
+      <c r="H51" s="6">
+        <v>38443</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="G52" s="6">
-        <v>38443</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
       <c r="F53" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="G53" s="6">
         <v>38443</v>
@@ -2136,77 +2133,83 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="G54" s="6">
         <v>38443</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>82</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="6">
+        <v>38443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>104</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" s="6">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>100</v>
-      </c>
-      <c r="B58" t="s">
-        <v>36</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
+      <c r="F58" t="s">
+        <v>35</v>
+      </c>
       <c r="G58" s="6">
         <v>44986</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G59" s="6">
         <v>44986</v>
@@ -2214,10 +2217,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -2228,53 +2231,47 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G61" s="6">
-        <v>46082</v>
-      </c>
-      <c r="H61" s="6">
-        <v>38443</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G62" s="6">
-        <v>46447</v>
+        <v>46082</v>
+      </c>
+      <c r="H62" s="6">
+        <v>38443</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -2283,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G63" s="6">
         <v>46447</v>
@@ -2291,10 +2288,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -2303,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G64" s="6">
         <v>46447</v>
@@ -2311,33 +2308,36 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
       </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
       <c r="F65" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="G65" s="6">
-        <v>38808</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G66" s="6">
         <v>38808</v>
@@ -2345,16 +2345,16 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>637</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>150</v>
+        <v>199</v>
+      </c>
+      <c r="B67" t="s">
+        <v>148</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>149</v>
       </c>
       <c r="G67" s="6">
         <v>38808</v>
@@ -2362,72 +2362,66 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>129</v>
+        <v>637</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" s="6">
+        <v>38808</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>129</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
         <v>176</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G69" s="6">
         <v>39904</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>530</v>
-      </c>
-      <c r="B71" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
-        <v>41</v>
-      </c>
-      <c r="G71" s="6">
-        <v>44986</v>
-      </c>
-      <c r="H71" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G72" s="6">
         <v>44986</v>
@@ -2438,140 +2432,143 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
       </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
       <c r="F73" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G73" s="6">
-        <v>46447</v>
+        <v>44986</v>
       </c>
       <c r="H73" s="6">
         <v>38808</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>98</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>82</v>
+      </c>
+      <c r="G74" s="6">
+        <v>46447</v>
+      </c>
+      <c r="H74" s="6">
+        <v>38808</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>200</v>
-      </c>
-      <c r="B76" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" t="s">
-        <v>46</v>
-      </c>
-      <c r="G76" s="6">
-        <v>45352</v>
-      </c>
-      <c r="H76" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G77" s="6">
-        <v>45717</v>
+        <v>45352</v>
+      </c>
+      <c r="H77" s="6">
+        <v>38808</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G78" s="6">
         <v>45717</v>
       </c>
-      <c r="H78" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>909</v>
+        <v>133</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C79" t="s">
         <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="G79" s="6">
-        <v>46447</v>
+        <v>45717</v>
       </c>
       <c r="H79" s="6">
-        <v>39173</v>
+        <v>38808</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
       <c r="F80" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="G80" s="6">
         <v>46447</v>
       </c>
+      <c r="H80" s="6">
+        <v>39173</v>
+      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
@@ -2580,135 +2577,135 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="G81" s="6">
         <v>46447</v>
       </c>
-      <c r="H81" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>323</v>
-      </c>
-      <c r="H82" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>151</v>
+      </c>
+      <c r="G82" s="6">
+        <v>46447</v>
+      </c>
+      <c r="H82" s="6">
+        <v>38808</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>210</v>
-      </c>
-      <c r="B83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83" t="s">
-        <v>153</v>
-      </c>
-      <c r="G83" s="6">
-        <v>39173</v>
+        <v>323</v>
       </c>
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
+        <v>210</v>
+      </c>
+      <c r="B84" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>153</v>
+      </c>
+      <c r="G84" s="6">
+        <v>39173</v>
+      </c>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>433</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>155</v>
       </c>
-      <c r="C84" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
         <v>156</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G85" s="6">
         <v>39539</v>
       </c>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1" t="s">
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>208</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>157</v>
       </c>
-      <c r="C87" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87">
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88">
         <v>1</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F88" t="s">
         <v>159</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G88" s="6">
         <v>39539</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>17</v>
-      </c>
-      <c r="B90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" t="s">
-        <v>87</v>
-      </c>
-      <c r="G90" s="6">
-        <v>46447</v>
-      </c>
-      <c r="H90" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
@@ -2719,36 +2716,33 @@
       <c r="G91" s="6">
         <v>46447</v>
       </c>
+      <c r="H91" s="6">
+        <v>39539</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
       </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
       <c r="F92" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="G92" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H92" s="6">
-        <v>39539</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
@@ -2757,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G93" s="6">
         <v>46813</v>
@@ -2766,84 +2760,84 @@
         <v>39539</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>39</v>
+      </c>
+      <c r="B94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>161</v>
+      </c>
+      <c r="G94" s="6">
+        <v>46813</v>
+      </c>
+      <c r="H94" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>108</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>93</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>7</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F97" t="s">
         <v>91</v>
       </c>
-      <c r="G96" s="6">
+      <c r="G97" s="6">
         <v>46813</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>35</v>
-      </c>
-      <c r="B99" t="s">
-        <v>95</v>
-      </c>
-      <c r="C99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>96</v>
-      </c>
-      <c r="G99" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H99" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G100" s="6">
         <v>46813</v>
@@ -2854,16 +2848,19 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
       </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
       <c r="F101" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G101" s="6">
         <v>46813</v>
@@ -2874,92 +2871,89 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G102" s="6">
         <v>46813</v>
       </c>
       <c r="H102" s="6">
-        <v>43191</v>
+        <v>39539</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G103" s="6">
-        <v>47178</v>
+        <v>46813</v>
       </c>
       <c r="H103" s="6">
         <v>43191</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>34</v>
+      </c>
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G104" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H104" s="6">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>215</v>
-      </c>
-      <c r="B106" t="s">
-        <v>106</v>
-      </c>
-      <c r="C106" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" t="s">
-        <v>107</v>
-      </c>
-      <c r="G106" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H106" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C107" t="s">
         <v>11</v>
       </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
       <c r="F107" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="G107" s="6">
         <v>47178</v>
@@ -2970,73 +2964,76 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>502</v>
+        <v>373</v>
       </c>
       <c r="B108" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" t="s">
+        <v>165</v>
+      </c>
+      <c r="G108" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H108" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>502</v>
+      </c>
+      <c r="B109" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" t="s">
+        <v>167</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
         <v>168</v>
       </c>
-      <c r="G108" s="6">
+      <c r="G109" s="6">
         <v>39539</v>
       </c>
-      <c r="H108" s="6"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1" t="s">
+      <c r="H109" s="6"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>67</v>
-      </c>
-      <c r="B111" t="s">
-        <v>110</v>
-      </c>
-      <c r="C111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>169</v>
-      </c>
-      <c r="G111" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H111" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="G112" s="6">
-        <v>11018</v>
+        <v>47178</v>
       </c>
       <c r="H112" s="6">
         <v>39904</v>
@@ -3044,16 +3041,16 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G113" s="6">
         <v>11018</v>
@@ -3064,83 +3061,83 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
       <c r="F114" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="G114" s="6">
+        <v>11018</v>
+      </c>
+      <c r="H114" s="6">
         <v>39904</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F115" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G115" s="6">
         <v>39904</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>137</v>
+      </c>
+      <c r="B116" t="s">
+        <v>171</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>173</v>
+      </c>
+      <c r="G116" s="6">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>70</v>
-      </c>
-      <c r="B118" t="s">
-        <v>116</v>
-      </c>
-      <c r="C118" t="s">
-        <v>7</v>
-      </c>
-      <c r="G118" s="6">
-        <v>11018</v>
-      </c>
-      <c r="H118" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="G119" s="6">
         <v>11018</v>
@@ -3151,22 +3148,19 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
       </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
       <c r="F120" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="G120" s="6">
-        <v>11383</v>
+        <v>11018</v>
       </c>
       <c r="H120" s="6">
         <v>39904</v>
@@ -3174,19 +3168,22 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C121" t="s">
         <v>11</v>
       </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
       <c r="F121" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="G121" s="6">
-        <v>37347</v>
+        <v>11383</v>
       </c>
       <c r="H121" s="6">
         <v>39904</v>
@@ -3194,53 +3191,50 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C122" t="s">
         <v>11</v>
+      </c>
+      <c r="F122" t="s">
+        <v>121</v>
       </c>
       <c r="G122" s="6">
         <v>37347</v>
       </c>
+      <c r="H122" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C123" t="s">
         <v>11</v>
       </c>
-      <c r="F123" t="s">
-        <v>124</v>
-      </c>
       <c r="G123" s="6">
-        <v>37712</v>
-      </c>
-      <c r="H123" s="6">
-        <v>38078</v>
-      </c>
-      <c r="I123" s="6">
-        <v>43191</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G124" s="6">
         <v>37712</v>
@@ -3248,63 +3242,72 @@
       <c r="H124" s="6">
         <v>38078</v>
       </c>
-      <c r="I124" s="9" t="s">
-        <v>192</v>
+      <c r="I124" s="6">
+        <v>43191</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
+        <v>63</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" t="s">
+        <v>126</v>
+      </c>
+      <c r="G125" s="6">
+        <v>37712</v>
+      </c>
+      <c r="H125" s="6">
+        <v>38078</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126">
         <v>97</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>127</v>
       </c>
-      <c r="C125" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" t="s">
         <v>128</v>
       </c>
-      <c r="G125" s="6">
+      <c r="G126" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>177</v>
-      </c>
-      <c r="C128" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" t="s">
-        <v>178</v>
-      </c>
-      <c r="G128" s="6">
-        <v>41365</v>
-      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G129" s="6">
         <v>41365</v>
@@ -3312,13 +3315,13 @@
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G130" s="6">
         <v>41365</v>
@@ -3326,13 +3329,13 @@
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
       </c>
       <c r="F131" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G131" s="6">
         <v>41365</v>
@@ -3340,7 +3343,13 @@
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" t="s">
+        <v>185</v>
       </c>
       <c r="G132" s="6">
         <v>41365</v>
@@ -3348,9 +3357,17 @@
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
+        <v>186</v>
+      </c>
+      <c r="G133" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
         <v>187</v>
       </c>
-      <c r="G133" s="6">
+      <c r="G134" s="6">
         <v>41365</v>
       </c>
     </row>
@@ -3366,167 +3383,167 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F41 F45:F68 D1:E68 D66:F1048576">
+  <conditionalFormatting sqref="F1:F42 F46:F69 D1:E69 D67:F1048576">
     <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G44 G46:G51 G55:G67 G86 G88:G107 G109:G113 G69:G82 G116:G1048576">
+  <conditionalFormatting sqref="G47:G52 G56:G68 G87 G89:G108 G110:G114 G70:G83 G117:G1048576 G2:G45">
     <cfRule type="cellIs" dxfId="31" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="H26">
     <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H123:I123">
+  <conditionalFormatting sqref="H124:I124">
     <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H124">
+  <conditionalFormatting sqref="H125">
     <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="H42">
     <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H48">
     <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49:H50">
+  <conditionalFormatting sqref="H50:H51">
     <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G52:G54">
+  <conditionalFormatting sqref="G53:G55">
     <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
+  <conditionalFormatting sqref="H62">
     <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
+  <conditionalFormatting sqref="H72">
     <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72:H73">
+  <conditionalFormatting sqref="H73:H74">
     <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H77">
     <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
+  <conditionalFormatting sqref="H79">
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81:H85">
+  <conditionalFormatting sqref="H82:H86">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G83:G85">
+  <conditionalFormatting sqref="G84:G86">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
+  <conditionalFormatting sqref="H80">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87">
+  <conditionalFormatting sqref="G88">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
+  <conditionalFormatting sqref="H91">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92:H93">
+  <conditionalFormatting sqref="H93:H94">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H99">
+  <conditionalFormatting sqref="H100">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100:H103">
+  <conditionalFormatting sqref="H101:H104">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H106:H108">
+  <conditionalFormatting sqref="H107:H109">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G108">
+  <conditionalFormatting sqref="G109">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H111">
+  <conditionalFormatting sqref="H112">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H112:H113">
+  <conditionalFormatting sqref="H113:H114">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G114:G115">
+  <conditionalFormatting sqref="G115:G116">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
+  <conditionalFormatting sqref="H119">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H119:H121">
+  <conditionalFormatting sqref="H120:H122">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G68">
+  <conditionalFormatting sqref="G69">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="H14">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="H30">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H36">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -3534,12 +3551,12 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{45809EEC-81DF-6A4E-91D1-93A7E83EA600}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{E8209BAF-E983-F84D-85E9-51122788BE77}"/>
-    <hyperlink ref="B13" r:id="rId3" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{123BEFC6-385A-644B-AEEF-1E4E98150A90}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{61620F85-A756-1948-B905-68253DFF6AD5}"/>
     <hyperlink ref="B6" r:id="rId6" xr:uid="{82624FD5-7C76-EB45-9D9D-195B23F4F9DA}"/>
     <hyperlink ref="B7" r:id="rId7" xr:uid="{1DA24BCD-8B15-3E41-9087-846CE867B65E}"/>
-    <hyperlink ref="B67" r:id="rId8" display="https://leetcode.com/problems/average-of-levels-in-binary-tree/" xr:uid="{CF7ACCDB-130B-6449-BEA9-B7A71C85179B}"/>
+    <hyperlink ref="B68" r:id="rId8" display="https://leetcode.com/problems/average-of-levels-in-binary-tree/" xr:uid="{CF7ACCDB-130B-6449-BEA9-B7A71C85179B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297254C8-FC1A-2043-9B6E-EB9FC13FE08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F5C972-A465-7244-AAC6-141F7E0322EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -37,11 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="196">
   <si>
     <t>Note</t>
   </si>
   <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
     <t>Hashmap</t>
   </si>
   <si>
@@ -619,6 +622,9 @@
   </si>
   <si>
     <t>H Index</t>
+  </si>
+  <si>
+    <t>When array is sorted, always think about log(N)</t>
   </si>
 </sst>
 </file>
@@ -1375,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1394,21 +1400,21 @@
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="8">
-        <f>COUNTA(G2:I180)</f>
-        <v>130</v>
+        <f>COUNTA(G2:I181)</f>
+        <v>131</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1418,10 +1424,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="6">
         <v>44256</v>
@@ -1432,10 +1438,10 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="6">
         <v>44256</v>
@@ -1446,13 +1452,13 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" s="6">
         <v>45717</v>
@@ -1463,10 +1469,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="6">
         <v>45717</v>
@@ -1477,13 +1483,13 @@
         <v>189</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1491,10 +1497,10 @@
         <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1508,13 +1514,13 @@
         <v>122</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G8" s="6">
         <v>38078</v>
@@ -1525,13 +1531,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
         <v>189</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>188</v>
       </c>
       <c r="G9" s="6">
         <v>42461</v>
@@ -1542,13 +1548,13 @@
         <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G10" s="6">
         <v>42461</v>
@@ -1559,57 +1565,54 @@
         <v>274</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>195</v>
       </c>
       <c r="G11" s="6">
         <v>43191</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>125</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>380</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>44256</v>
-      </c>
-      <c r="H14" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>167</v>
-      </c>
-      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1617,481 +1620,478 @@
       <c r="G15" s="6">
         <v>44256</v>
       </c>
+      <c r="H15" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="G16" s="6">
-        <v>45717</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>209</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="6">
-        <v>44256</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
+        <v>209</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="6">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="6">
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="6">
         <v>45717</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="6">
-        <v>44256</v>
-      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="G26" s="6">
-        <v>46082</v>
-      </c>
-      <c r="H26" s="6">
-        <v>38078</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>135</v>
       </c>
       <c r="G27" s="6">
+        <v>46082</v>
+      </c>
+      <c r="H27" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="6">
+        <v>38078</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>383</v>
-      </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
-        <v>44256</v>
-      </c>
-      <c r="H30" s="6">
-        <v>39904</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>49</v>
+        <v>383</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
       </c>
       <c r="G31" s="6">
-        <v>44621</v>
+        <v>44256</v>
+      </c>
+      <c r="H31" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="6">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>205</v>
       </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>228</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" s="6">
-        <v>44621</v>
-      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="G36" s="6">
         <v>44621</v>
       </c>
-      <c r="H36" s="6">
-        <v>39904</v>
-      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G37" s="6">
-        <v>46082</v>
+        <v>44621</v>
+      </c>
+      <c r="H37" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="6">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>452</v>
       </c>
-      <c r="B38" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38">
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
         <v>1</v>
       </c>
-      <c r="F38" t="s">
-        <v>139</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="F39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="6">
         <v>38443</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>20</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="6">
-        <v>44621</v>
-      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G42" s="6">
         <v>44621</v>
       </c>
-      <c r="H42" s="6">
-        <v>38443</v>
-      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" t="s">
-        <v>61</v>
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
       </c>
       <c r="G43" s="6">
-        <v>46082</v>
+        <v>44621</v>
+      </c>
+      <c r="H43" s="6">
+        <v>38443</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
         <v>62</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
       </c>
       <c r="G44" s="6">
         <v>46082</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>150</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="6">
+        <v>46082</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>141</v>
-      </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="6">
-        <v>44986</v>
-      </c>
-      <c r="H48" s="6">
-        <v>38443</v>
-      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
         <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G49" s="6">
         <v>44986</v>
       </c>
+      <c r="H49" s="6">
+        <v>38443</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
         <v>32</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" t="s">
-        <v>140</v>
       </c>
       <c r="G50" s="6">
         <v>44986</v>
       </c>
-      <c r="H50" s="6">
-        <v>38443</v>
-      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="G51" s="6">
-        <v>46082</v>
+        <v>44986</v>
       </c>
       <c r="H51" s="6">
         <v>38443</v>
@@ -2099,53 +2099,56 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
         <v>65</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" t="s">
-        <v>66</v>
       </c>
       <c r="G52" s="6">
         <v>46082</v>
       </c>
+      <c r="H52" s="6">
+        <v>38443</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="G53" s="6">
-        <v>38443</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="G54" s="6">
         <v>38443</v>
@@ -2153,63 +2156,69 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="G55" s="6">
         <v>38443</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>82</v>
+      </c>
+      <c r="B56" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>146</v>
+      </c>
+      <c r="G56" s="6">
+        <v>38443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>104</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="B59" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G58" s="6">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>100</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
         <v>36</v>
-      </c>
-      <c r="C59" t="s">
-        <v>7</v>
       </c>
       <c r="G59" s="6">
         <v>44986</v>
@@ -2217,13 +2226,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G60" s="6">
         <v>44986</v>
@@ -2231,13 +2240,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
         <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G61" s="6">
         <v>44986</v>
@@ -2245,62 +2254,56 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G62" s="6">
-        <v>46082</v>
-      </c>
-      <c r="H62" s="6">
-        <v>38443</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G63" s="6">
-        <v>46447</v>
+        <v>46082</v>
+      </c>
+      <c r="H63" s="6">
+        <v>38443</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G64" s="6">
         <v>46447</v>
@@ -2308,19 +2311,19 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G65" s="6">
         <v>46447</v>
@@ -2328,33 +2331,36 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="G66" s="6">
-        <v>38808</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
         <v>148</v>
-      </c>
-      <c r="C67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" t="s">
-        <v>149</v>
       </c>
       <c r="G67" s="6">
         <v>38808</v>
@@ -2362,16 +2368,16 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>637</v>
-      </c>
-      <c r="B68" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
         <v>150</v>
-      </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
       </c>
       <c r="G68" s="6">
         <v>38808</v>
@@ -2379,72 +2385,66 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>129</v>
+        <v>637</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" s="6">
+        <v>38808</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>129</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G69" s="6">
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>177</v>
+      </c>
+      <c r="G70" s="6">
         <v>39904</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-    </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>530</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G72" s="6">
-        <v>44986</v>
-      </c>
-      <c r="H72" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
         <v>42</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>43</v>
       </c>
       <c r="G73" s="6">
         <v>44986</v>
@@ -2455,320 +2455,320 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G74" s="6">
-        <v>46447</v>
+        <v>44986</v>
       </c>
       <c r="H74" s="6">
         <v>38808</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>98</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>83</v>
+      </c>
+      <c r="G75" s="6">
+        <v>46447</v>
+      </c>
+      <c r="H75" s="6">
+        <v>38808</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>200</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" t="s">
-        <v>46</v>
-      </c>
-      <c r="G77" s="6">
-        <v>45352</v>
-      </c>
-      <c r="H77" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
         <v>47</v>
       </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" t="s">
-        <v>48</v>
-      </c>
       <c r="G78" s="6">
-        <v>45717</v>
+        <v>45352</v>
+      </c>
+      <c r="H78" s="6">
+        <v>38808</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
         <v>49</v>
-      </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" t="s">
-        <v>50</v>
       </c>
       <c r="G79" s="6">
         <v>45717</v>
       </c>
-      <c r="H79" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>909</v>
+        <v>133</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="G80" s="6">
-        <v>46447</v>
+        <v>45717</v>
       </c>
       <c r="H80" s="6">
-        <v>39173</v>
+        <v>38808</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="B81" t="s">
         <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G81" s="6">
         <v>46447</v>
       </c>
+      <c r="H81" s="6">
+        <v>39173</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="G82" s="6">
         <v>46447</v>
       </c>
-      <c r="H82" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>323</v>
-      </c>
-      <c r="H83" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>152</v>
+      </c>
+      <c r="G83" s="6">
+        <v>46447</v>
+      </c>
+      <c r="H83" s="6">
+        <v>38808</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>210</v>
-      </c>
-      <c r="B84" t="s">
-        <v>152</v>
-      </c>
-      <c r="C84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84" t="s">
-        <v>153</v>
-      </c>
-      <c r="G84" s="6">
-        <v>39173</v>
+        <v>323</v>
       </c>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
+        <v>210</v>
+      </c>
+      <c r="B85" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>154</v>
+      </c>
+      <c r="G85" s="6">
+        <v>39173</v>
+      </c>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>433</v>
       </c>
-      <c r="B85" t="s">
-        <v>155</v>
-      </c>
-      <c r="C85" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="B86" t="s">
         <v>156</v>
       </c>
-      <c r="G85" s="6">
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>157</v>
+      </c>
+      <c r="G86" s="6">
         <v>39539</v>
       </c>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1" t="s">
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>208</v>
+      </c>
+      <c r="B89" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>208</v>
-      </c>
-      <c r="B88" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88">
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89">
         <v>1</v>
       </c>
-      <c r="F88" t="s">
-        <v>159</v>
-      </c>
-      <c r="G88" s="6">
+      <c r="F89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G89" s="6">
         <v>39539</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-    </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>17</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C91" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" t="s">
-        <v>87</v>
-      </c>
-      <c r="G91" s="6">
-        <v>46447</v>
-      </c>
-      <c r="H91" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
         <v>88</v>
-      </c>
-      <c r="C92" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" t="s">
-        <v>87</v>
       </c>
       <c r="G92" s="6">
         <v>46447</v>
       </c>
+      <c r="H92" s="6">
+        <v>39539</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B93" t="s">
         <v>89</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="G93" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H93" s="6">
-        <v>39539</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B94" t="s">
         <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -2783,84 +2783,84 @@
         <v>39539</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>39</v>
+      </c>
+      <c r="B95" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>162</v>
+      </c>
+      <c r="G95" s="6">
+        <v>46813</v>
+      </c>
+      <c r="H95" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>108</v>
+      </c>
+      <c r="B98" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
         <v>92</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>108</v>
-      </c>
-      <c r="B97" t="s">
-        <v>93</v>
-      </c>
-      <c r="C97" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" t="s">
-        <v>91</v>
-      </c>
-      <c r="G97" s="6">
+      <c r="G98" s="6">
         <v>46813</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-    </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>35</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C100" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100" t="s">
-        <v>96</v>
-      </c>
-      <c r="G100" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H100" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
         <v>97</v>
-      </c>
-      <c r="C101" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="F101" t="s">
-        <v>98</v>
       </c>
       <c r="G101" s="6">
         <v>46813</v>
@@ -2871,16 +2871,19 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B102" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
         <v>99</v>
-      </c>
-      <c r="C102" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" t="s">
-        <v>100</v>
       </c>
       <c r="G102" s="6">
         <v>46813</v>
@@ -2891,92 +2894,89 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B103" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" t="s">
         <v>101</v>
-      </c>
-      <c r="C103" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" t="s">
-        <v>102</v>
       </c>
       <c r="G103" s="6">
         <v>46813</v>
       </c>
       <c r="H103" s="6">
-        <v>43191</v>
+        <v>39539</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
         <v>103</v>
       </c>
-      <c r="C104" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" t="s">
-        <v>104</v>
-      </c>
       <c r="G104" s="6">
-        <v>47178</v>
+        <v>46813</v>
       </c>
       <c r="H104" s="6">
         <v>43191</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>34</v>
+      </c>
+      <c r="B105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
+      <c r="G105" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H105" s="6">
+        <v>43191</v>
+      </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>215</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C107" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" t="s">
-        <v>107</v>
-      </c>
-      <c r="G107" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H107" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B108" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" t="s">
         <v>108</v>
-      </c>
-      <c r="C108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108" t="s">
-        <v>165</v>
       </c>
       <c r="G108" s="6">
         <v>47178</v>
@@ -2987,73 +2987,76 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>502</v>
+        <v>373</v>
       </c>
       <c r="B109" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109" t="s">
+        <v>166</v>
+      </c>
+      <c r="G109" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H109" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>502</v>
+      </c>
+      <c r="B110" t="s">
+        <v>167</v>
+      </c>
+      <c r="C110" t="s">
         <v>168</v>
       </c>
-      <c r="G109" s="6">
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>169</v>
+      </c>
+      <c r="G110" s="6">
         <v>39539</v>
       </c>
-      <c r="H109" s="6"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
+      <c r="H110" s="6"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>67</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C112" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" t="s">
-        <v>169</v>
-      </c>
-      <c r="G112" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H112" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B113" t="s">
         <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F113" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="G113" s="6">
-        <v>11018</v>
+        <v>47178</v>
       </c>
       <c r="H113" s="6">
         <v>39904</v>
@@ -3061,16 +3064,16 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B114" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
         <v>113</v>
-      </c>
-      <c r="C114" t="s">
-        <v>7</v>
-      </c>
-      <c r="F114" t="s">
-        <v>114</v>
       </c>
       <c r="G114" s="6">
         <v>11018</v>
@@ -3081,33 +3084,33 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B115" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F115" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="G115" s="6">
+        <v>11018</v>
+      </c>
+      <c r="H115" s="6">
         <v>39904</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B116" t="s">
         <v>171</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F116" t="s">
         <v>173</v>
@@ -3116,48 +3119,48 @@
         <v>39904</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>137</v>
+      </c>
+      <c r="B117" t="s">
+        <v>172</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>174</v>
+      </c>
+      <c r="G117" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>70</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C119" t="s">
-        <v>7</v>
-      </c>
-      <c r="G119" s="6">
-        <v>11018</v>
-      </c>
-      <c r="H119" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B120" t="s">
         <v>117</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="G120" s="6">
         <v>11018</v>
@@ -3168,22 +3171,19 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B121" t="s">
+        <v>118</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" t="s">
         <v>119</v>
       </c>
-      <c r="C121" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121" t="s">
-        <v>174</v>
-      </c>
       <c r="G121" s="6">
-        <v>11383</v>
+        <v>11018</v>
       </c>
       <c r="H121" s="6">
         <v>39904</v>
@@ -3191,19 +3191,22 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="G122" s="6">
-        <v>37347</v>
+        <v>11383</v>
       </c>
       <c r="H122" s="6">
         <v>39904</v>
@@ -3211,53 +3214,50 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B123" t="s">
+        <v>121</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" t="s">
         <v>122</v>
-      </c>
-      <c r="C123" t="s">
-        <v>11</v>
       </c>
       <c r="G123" s="6">
         <v>37347</v>
       </c>
+      <c r="H123" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B124" t="s">
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="G124" s="6">
-        <v>37712</v>
-      </c>
-      <c r="H124" s="6">
-        <v>38078</v>
-      </c>
-      <c r="I124" s="6">
-        <v>43191</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B125" t="s">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" t="s">
         <v>125</v>
-      </c>
-      <c r="C125" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" t="s">
-        <v>126</v>
       </c>
       <c r="G125" s="6">
         <v>37712</v>
@@ -3265,109 +3265,132 @@
       <c r="H125" s="6">
         <v>38078</v>
       </c>
-      <c r="I125" s="9" t="s">
-        <v>192</v>
+      <c r="I125" s="6">
+        <v>43191</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
+        <v>63</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" t="s">
+        <v>127</v>
+      </c>
+      <c r="G126" s="6">
+        <v>37712</v>
+      </c>
+      <c r="H126" s="6">
+        <v>38078</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127">
         <v>97</v>
       </c>
-      <c r="B126" t="s">
-        <v>127</v>
-      </c>
-      <c r="C126" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="B127" t="s">
         <v>128</v>
       </c>
-      <c r="G126" s="6">
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" t="s">
+        <v>129</v>
+      </c>
+      <c r="G127" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1" t="s">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>178</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" t="s">
         <v>179</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
-        <v>177</v>
-      </c>
-      <c r="C129" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" t="s">
-        <v>178</v>
-      </c>
-      <c r="G129" s="6">
-        <v>41365</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
-        <v>180</v>
-      </c>
-      <c r="C130" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" t="s">
-        <v>181</v>
       </c>
       <c r="G130" s="6">
         <v>41365</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
+        <v>181</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" t="s">
         <v>182</v>
-      </c>
-      <c r="C131" t="s">
-        <v>7</v>
-      </c>
-      <c r="F131" t="s">
-        <v>183</v>
       </c>
       <c r="G131" s="6">
         <v>41365</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
+        <v>183</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" t="s">
         <v>184</v>
-      </c>
-      <c r="C132" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" t="s">
-        <v>185</v>
       </c>
       <c r="G132" s="6">
         <v>41365</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
+        <v>185</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="s">
         <v>186</v>
       </c>
       <c r="G133" s="6">
         <v>41365</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>187</v>
       </c>
       <c r="G134" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>188</v>
+      </c>
+      <c r="G135" s="6">
         <v>41365</v>
       </c>
     </row>
@@ -3383,167 +3406,167 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F42 F46:F69 D1:E69 D67:F1048576">
+  <conditionalFormatting sqref="F1:F43 F47:F70 D1:E70 D68:F1048576">
     <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47:G52 G56:G68 G87 G89:G108 G110:G114 G70:G83 G117:G1048576 G2:G45">
+  <conditionalFormatting sqref="G48:G53 G57:G69 G88 G90:G109 G111:G115 G71:G84 G118:G1048576 G2:G46">
     <cfRule type="cellIs" dxfId="31" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H124:I124">
+  <conditionalFormatting sqref="H125:I125">
     <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125">
+  <conditionalFormatting sqref="H126">
     <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+  <conditionalFormatting sqref="H49">
     <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50:H51">
+  <conditionalFormatting sqref="H51:H52">
     <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G53:G55">
+  <conditionalFormatting sqref="G54:G56">
     <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
+  <conditionalFormatting sqref="H63">
     <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="H73">
     <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73:H74">
+  <conditionalFormatting sqref="H74:H75">
     <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
+  <conditionalFormatting sqref="H78">
     <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
+  <conditionalFormatting sqref="H80">
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82:H86">
+  <conditionalFormatting sqref="H83:H87">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84:G86">
+  <conditionalFormatting sqref="G85:G87">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H81">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
+  <conditionalFormatting sqref="G89">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
+  <conditionalFormatting sqref="H92">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H93:H94">
+  <conditionalFormatting sqref="H94:H95">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100">
+  <conditionalFormatting sqref="H101">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H101:H104">
+  <conditionalFormatting sqref="H102:H105">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107:H109">
+  <conditionalFormatting sqref="H108:H110">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G109">
+  <conditionalFormatting sqref="G110">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H112">
+  <conditionalFormatting sqref="H113">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H113:H114">
+  <conditionalFormatting sqref="H114:H115">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G115:G116">
+  <conditionalFormatting sqref="G116:G117">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H119">
+  <conditionalFormatting sqref="H120">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H120:H122">
+  <conditionalFormatting sqref="H121:H123">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G69">
+  <conditionalFormatting sqref="G70">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="H15">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
+  <conditionalFormatting sqref="H37">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -3551,12 +3574,12 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{45809EEC-81DF-6A4E-91D1-93A7E83EA600}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{E8209BAF-E983-F84D-85E9-51122788BE77}"/>
-    <hyperlink ref="B14" r:id="rId3" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
+    <hyperlink ref="B15" r:id="rId3" xr:uid="{9D51CCC3-C920-5246-9214-4E41C6EAE383}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{123BEFC6-385A-644B-AEEF-1E4E98150A90}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{61620F85-A756-1948-B905-68253DFF6AD5}"/>
     <hyperlink ref="B6" r:id="rId6" xr:uid="{82624FD5-7C76-EB45-9D9D-195B23F4F9DA}"/>
     <hyperlink ref="B7" r:id="rId7" xr:uid="{1DA24BCD-8B15-3E41-9087-846CE867B65E}"/>
-    <hyperlink ref="B68" r:id="rId8" display="https://leetcode.com/problems/average-of-levels-in-binary-tree/" xr:uid="{CF7ACCDB-130B-6449-BEA9-B7A71C85179B}"/>
+    <hyperlink ref="B69" r:id="rId8" display="https://leetcode.com/problems/average-of-levels-in-binary-tree/" xr:uid="{CF7ACCDB-130B-6449-BEA9-B7A71C85179B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3577,32 +3600,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F5C972-A465-7244-AAC6-141F7E0322EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DAA1AA-7292-C54A-AF3C-BA770A7A95A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="197">
   <si>
     <t>Note</t>
   </si>
@@ -625,6 +625,9 @@
   </si>
   <si>
     <t>When array is sorted, always think about log(N)</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
   </si>
 </sst>
 </file>
@@ -1381,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1413,8 +1416,8 @@
         <v>0</v>
       </c>
       <c r="G1" s="8">
-        <f>COUNTA(G2:I181)</f>
-        <v>131</v>
+        <f>COUNTA(G2:I182)</f>
+        <v>132</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3309,42 +3312,42 @@
         <v>38078</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1143</v>
+      </c>
+      <c r="B128" t="s">
+        <v>196</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="6">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
-        <v>178</v>
-      </c>
-      <c r="C130" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130" t="s">
-        <v>179</v>
-      </c>
-      <c r="G130" s="6">
-        <v>41365</v>
-      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G131" s="6">
         <v>41365</v>
@@ -3352,13 +3355,13 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G132" s="6">
         <v>41365</v>
@@ -3366,13 +3369,13 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C133" t="s">
         <v>8</v>
       </c>
       <c r="F133" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G133" s="6">
         <v>41365</v>
@@ -3380,7 +3383,13 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" t="s">
+        <v>186</v>
       </c>
       <c r="G134" s="6">
         <v>41365</v>
@@ -3388,9 +3397,17 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
+        <v>187</v>
+      </c>
+      <c r="G135" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
         <v>188</v>
       </c>
-      <c r="G135" s="6">
+      <c r="G136" s="6">
         <v>41365</v>
       </c>
     </row>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DAA1AA-7292-C54A-AF3C-BA770A7A95A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AA7A25-5E80-2B47-BE4B-DD63466C0DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="201">
   <si>
     <t>Note</t>
   </si>
@@ -628,6 +628,18 @@
   </si>
   <si>
     <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Evalutate position change for the three cases</t>
+  </si>
+  <si>
+    <t>Evaluate how position change on matrix. Build matrix with two words</t>
+  </si>
+  <si>
+    <t>Maximal Square</t>
   </si>
 </sst>
 </file>
@@ -1384,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1416,8 +1428,8 @@
         <v>0</v>
       </c>
       <c r="G1" s="8">
-        <f>COUNTA(G2:I182)</f>
-        <v>132</v>
+        <f>COUNTA(G2:I184)</f>
+        <v>134</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3322,60 +3334,72 @@
       <c r="C128" t="s">
         <v>12</v>
       </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>199</v>
+      </c>
       <c r="G128" s="6">
         <v>43556</v>
       </c>
     </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>72</v>
+      </c>
+      <c r="B129" t="s">
+        <v>197</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>198</v>
+      </c>
+      <c r="G129" s="6">
+        <v>43556</v>
+      </c>
+    </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1" t="s">
+      <c r="A130">
+        <v>221</v>
+      </c>
+      <c r="B130" t="s">
+        <v>200</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="6">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>178</v>
-      </c>
-      <c r="C131" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" t="s">
-        <v>179</v>
-      </c>
-      <c r="G131" s="6">
-        <v>41365</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>181</v>
-      </c>
-      <c r="C132" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" t="s">
-        <v>182</v>
-      </c>
-      <c r="G132" s="6">
-        <v>41365</v>
-      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G133" s="6">
         <v>41365</v>
@@ -3383,13 +3407,13 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G134" s="6">
         <v>41365</v>
@@ -3397,7 +3421,13 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>187</v>
+        <v>183</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" t="s">
+        <v>184</v>
       </c>
       <c r="G135" s="6">
         <v>41365</v>
@@ -3405,9 +3435,31 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
+        <v>185</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" t="s">
+        <v>186</v>
+      </c>
+      <c r="G136" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>187</v>
+      </c>
+      <c r="G137" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
         <v>188</v>
       </c>
-      <c r="G136" s="6">
+      <c r="G138" s="6">
         <v>41365</v>
       </c>
     </row>
@@ -3428,7 +3480,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48:G53 G57:G69 G88 G90:G109 G111:G115 G71:G84 G118:G1048576 G2:G46">
+  <conditionalFormatting sqref="G48:G53 G57:G69 G88 G90:G109 G111:G115 G71:G84 G2:G46 G118:G1048576">
     <cfRule type="cellIs" dxfId="31" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AA7A25-5E80-2B47-BE4B-DD63466C0DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E26B199-8406-374C-9539-A842FBC5A7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="203">
   <si>
     <t>Note</t>
   </si>
@@ -640,6 +640,12 @@
   </si>
   <si>
     <t>Maximal Square</t>
+  </si>
+  <si>
+    <t>Evalutate what to put in each block and case table</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
   </si>
 </sst>
 </file>
@@ -1396,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1428,8 +1434,8 @@
         <v>0</v>
       </c>
       <c r="G1" s="8">
-        <f>COUNTA(G2:I184)</f>
-        <v>134</v>
+        <f>COUNTA(G2:I185)</f>
+        <v>135</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2511,122 +2517,117 @@
         <v>38808</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>173</v>
+      </c>
+      <c r="B76" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="6">
+        <v>43922</v>
+      </c>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>200</v>
-      </c>
-      <c r="B78" t="s">
-        <v>46</v>
-      </c>
-      <c r="C78" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G78" s="6">
-        <v>45352</v>
-      </c>
-      <c r="H78" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G79" s="6">
-        <v>45717</v>
+        <v>45352</v>
+      </c>
+      <c r="H79" s="6">
+        <v>38808</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G80" s="6">
         <v>45717</v>
       </c>
-      <c r="H80" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>909</v>
+        <v>133</v>
       </c>
       <c r="B81" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="G81" s="6">
-        <v>46447</v>
+        <v>45717</v>
       </c>
       <c r="H81" s="6">
-        <v>39173</v>
+        <v>38808</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
       </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
       <c r="F82" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="G82" s="6">
         <v>46447</v>
       </c>
+      <c r="H82" s="6">
+        <v>39173</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
@@ -2635,135 +2636,135 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="G83" s="6">
         <v>46447</v>
       </c>
-      <c r="H83" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>323</v>
-      </c>
-      <c r="H84" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B84" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>152</v>
+      </c>
+      <c r="G84" s="6">
+        <v>46447</v>
+      </c>
+      <c r="H84" s="6">
+        <v>38808</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>210</v>
-      </c>
-      <c r="B85" t="s">
-        <v>153</v>
-      </c>
-      <c r="C85" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85" t="s">
-        <v>154</v>
-      </c>
-      <c r="G85" s="6">
-        <v>39173</v>
+        <v>323</v>
       </c>
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
+        <v>210</v>
+      </c>
+      <c r="B86" t="s">
+        <v>153</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>154</v>
+      </c>
+      <c r="G86" s="6">
+        <v>39173</v>
+      </c>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>433</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>156</v>
       </c>
-      <c r="C86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" t="s">
         <v>157</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G87" s="6">
         <v>39539</v>
       </c>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1" t="s">
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>208</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>158</v>
       </c>
-      <c r="C89" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89">
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90">
         <v>1</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F90" t="s">
         <v>160</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G90" s="6">
         <v>39539</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>17</v>
-      </c>
-      <c r="B92" t="s">
-        <v>87</v>
-      </c>
-      <c r="C92" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" t="s">
-        <v>88</v>
-      </c>
-      <c r="G92" s="6">
-        <v>46447</v>
-      </c>
-      <c r="H92" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
@@ -2774,36 +2775,33 @@
       <c r="G93" s="6">
         <v>46447</v>
       </c>
+      <c r="H93" s="6">
+        <v>39539</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
       </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
       <c r="F94" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="G94" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H94" s="6">
-        <v>39539</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -2812,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G95" s="6">
         <v>46813</v>
@@ -2821,84 +2819,84 @@
         <v>39539</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>39</v>
+      </c>
+      <c r="B96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>162</v>
+      </c>
+      <c r="G96" s="6">
+        <v>46813</v>
+      </c>
+      <c r="H96" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>108</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>94</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>8</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F99" t="s">
         <v>92</v>
       </c>
-      <c r="G98" s="6">
+      <c r="G99" s="6">
         <v>46813</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>35</v>
-      </c>
-      <c r="B101" t="s">
-        <v>96</v>
-      </c>
-      <c r="C101" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" t="s">
-        <v>97</v>
-      </c>
-      <c r="G101" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H101" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B102" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F102" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G102" s="6">
         <v>46813</v>
@@ -2909,16 +2907,19 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C103" t="s">
         <v>12</v>
       </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
       <c r="F103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G103" s="6">
         <v>46813</v>
@@ -2929,92 +2930,89 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G104" s="6">
         <v>46813</v>
       </c>
       <c r="H104" s="6">
-        <v>43191</v>
+        <v>39539</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G105" s="6">
-        <v>47178</v>
+        <v>46813</v>
       </c>
       <c r="H105" s="6">
         <v>43191</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1" t="s">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>34</v>
+      </c>
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>105</v>
+      </c>
+      <c r="G106" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H106" s="6">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>215</v>
-      </c>
-      <c r="B108" t="s">
-        <v>107</v>
-      </c>
-      <c r="C108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>108</v>
-      </c>
-      <c r="G108" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H108" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
       </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
       <c r="F109" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="G109" s="6">
         <v>47178</v>
@@ -3025,73 +3023,76 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>502</v>
+        <v>373</v>
       </c>
       <c r="B110" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110" t="s">
+        <v>166</v>
+      </c>
+      <c r="G110" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H110" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>502</v>
+      </c>
+      <c r="B111" t="s">
+        <v>167</v>
+      </c>
+      <c r="C111" t="s">
+        <v>168</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
         <v>169</v>
       </c>
-      <c r="G110" s="6">
+      <c r="G111" s="6">
         <v>39539</v>
       </c>
-      <c r="H110" s="6"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1" t="s">
+      <c r="H111" s="6"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>67</v>
-      </c>
-      <c r="B113" t="s">
-        <v>111</v>
-      </c>
-      <c r="C113" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113" t="s">
-        <v>170</v>
-      </c>
-      <c r="G113" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H113" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
       </c>
       <c r="F114" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="G114" s="6">
-        <v>11018</v>
+        <v>47178</v>
       </c>
       <c r="H114" s="6">
         <v>39904</v>
@@ -3099,16 +3100,16 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
       <c r="F115" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G115" s="6">
         <v>11018</v>
@@ -3119,83 +3120,83 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B116" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="G116" s="6">
+        <v>11018</v>
+      </c>
+      <c r="H116" s="6">
         <v>39904</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B117" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F117" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G117" s="6">
         <v>39904</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>137</v>
+      </c>
+      <c r="B118" t="s">
+        <v>172</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>174</v>
+      </c>
+      <c r="G118" s="6">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>70</v>
-      </c>
-      <c r="B120" t="s">
-        <v>117</v>
-      </c>
-      <c r="C120" t="s">
-        <v>8</v>
-      </c>
-      <c r="G120" s="6">
-        <v>11018</v>
-      </c>
-      <c r="H120" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="G121" s="6">
         <v>11018</v>
@@ -3206,22 +3207,19 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C122" t="s">
         <v>12</v>
       </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
       <c r="F122" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="G122" s="6">
-        <v>11383</v>
+        <v>11018</v>
       </c>
       <c r="H122" s="6">
         <v>39904</v>
@@ -3229,19 +3227,22 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C123" t="s">
         <v>12</v>
       </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
       <c r="F123" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="G123" s="6">
-        <v>37347</v>
+        <v>11383</v>
       </c>
       <c r="H123" s="6">
         <v>39904</v>
@@ -3249,53 +3250,50 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
+      </c>
+      <c r="F124" t="s">
+        <v>122</v>
       </c>
       <c r="G124" s="6">
         <v>37347</v>
       </c>
+      <c r="H124" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C125" t="s">
         <v>12</v>
       </c>
-      <c r="F125" t="s">
-        <v>125</v>
-      </c>
       <c r="G125" s="6">
-        <v>37712</v>
-      </c>
-      <c r="H125" s="6">
-        <v>38078</v>
-      </c>
-      <c r="I125" s="6">
-        <v>43191</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C126" t="s">
         <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G126" s="6">
         <v>37712</v>
@@ -3303,53 +3301,56 @@
       <c r="H126" s="6">
         <v>38078</v>
       </c>
-      <c r="I126" s="9" t="s">
-        <v>193</v>
+      <c r="I126" s="6">
+        <v>43191</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G127" s="6">
+        <v>37712</v>
+      </c>
+      <c r="H127" s="6">
         <v>38078</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>1143</v>
+        <v>97</v>
       </c>
       <c r="B128" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
       </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
       <c r="F128" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="G128" s="6">
-        <v>43556</v>
+        <v>38078</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>72</v>
+        <v>1143</v>
       </c>
       <c r="B129" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
@@ -3358,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G129" s="6">
         <v>43556</v>
@@ -3366,54 +3367,63 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
+        <v>72</v>
+      </c>
+      <c r="B130" t="s">
+        <v>197</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>198</v>
+      </c>
+      <c r="G130" s="6">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131">
         <v>221</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>200</v>
       </c>
-      <c r="C130" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" s="6">
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" t="s">
+        <v>201</v>
+      </c>
+      <c r="G131" s="6">
         <v>43922</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>178</v>
-      </c>
-      <c r="C133" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" t="s">
-        <v>179</v>
-      </c>
-      <c r="G133" s="6">
-        <v>41365</v>
-      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G134" s="6">
         <v>41365</v>
@@ -3421,13 +3431,13 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G135" s="6">
         <v>41365</v>
@@ -3435,13 +3445,13 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C136" t="s">
         <v>8</v>
       </c>
       <c r="F136" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G136" s="6">
         <v>41365</v>
@@ -3449,7 +3459,13 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" t="s">
+        <v>186</v>
       </c>
       <c r="G137" s="6">
         <v>41365</v>
@@ -3457,9 +3473,17 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
+        <v>187</v>
+      </c>
+      <c r="G138" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
         <v>188</v>
       </c>
-      <c r="G138" s="6">
+      <c r="G139" s="6">
         <v>41365</v>
       </c>
     </row>
@@ -3480,7 +3504,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48:G53 G57:G69 G88 G90:G109 G111:G115 G71:G84 G2:G46 G118:G1048576">
+  <conditionalFormatting sqref="G48:G53 G57:G69 G89 G91:G110 G112:G116 G71:G85 G2:G46 G119:G1048576">
     <cfRule type="cellIs" dxfId="31" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -3490,12 +3514,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125:I125">
+  <conditionalFormatting sqref="H126:I126">
     <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H126">
+  <conditionalFormatting sqref="H127">
     <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -3530,92 +3554,92 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74:H75">
+  <conditionalFormatting sqref="H74:H76">
     <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
+  <conditionalFormatting sqref="H79">
     <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H81">
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83:H87">
+  <conditionalFormatting sqref="H84:H88">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G85:G87">
+  <conditionalFormatting sqref="G86:G88">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
+  <conditionalFormatting sqref="H82">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
+  <conditionalFormatting sqref="G90">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
+  <conditionalFormatting sqref="H93">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H94:H95">
+  <conditionalFormatting sqref="H95:H96">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H101">
+  <conditionalFormatting sqref="H102">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H102:H105">
+  <conditionalFormatting sqref="H103:H106">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H108:H110">
+  <conditionalFormatting sqref="H109:H111">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G110">
+  <conditionalFormatting sqref="G111">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H113">
+  <conditionalFormatting sqref="H114">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H114:H115">
+  <conditionalFormatting sqref="H115:H116">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G116:G117">
+  <conditionalFormatting sqref="G117:G118">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H120">
+  <conditionalFormatting sqref="H121">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H121:H123">
+  <conditionalFormatting sqref="H122:H124">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E26B199-8406-374C-9539-A842FBC5A7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B663BF3-F53A-4E4F-902F-DA0212C92209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="205">
   <si>
     <t>Note</t>
   </si>
@@ -646,6 +646,12 @@
   </si>
   <si>
     <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Iterative Apporach</t>
   </si>
 </sst>
 </file>
@@ -1402,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1434,8 +1440,8 @@
         <v>0</v>
       </c>
       <c r="G1" s="8">
-        <f>COUNTA(G2:I185)</f>
-        <v>135</v>
+        <f>COUNTA(G2:I186)</f>
+        <v>136</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2441,54 +2447,48 @@
         <v>39904</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>94</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>204</v>
+      </c>
+      <c r="G71" s="6">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>530</v>
-      </c>
-      <c r="B73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" t="s">
-        <v>42</v>
-      </c>
-      <c r="G73" s="6">
-        <v>44986</v>
-      </c>
-      <c r="H73" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G74" s="6">
         <v>44986</v>
@@ -2499,19 +2499,22 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
       </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
       <c r="F75" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="G75" s="6">
-        <v>46447</v>
+        <v>44986</v>
       </c>
       <c r="H75" s="6">
         <v>38808</v>
@@ -2519,135 +2522,135 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
+        <v>98</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>83</v>
+      </c>
+      <c r="G76" s="6">
+        <v>46447</v>
+      </c>
+      <c r="H76" s="6">
+        <v>38808</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>173</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>202</v>
       </c>
-      <c r="C76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="6">
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="6">
         <v>43922</v>
       </c>
-      <c r="H76" s="6"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1" t="s">
+      <c r="H77" s="6"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>200</v>
-      </c>
-      <c r="B79" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" t="s">
-        <v>47</v>
-      </c>
-      <c r="G79" s="6">
-        <v>45352</v>
-      </c>
-      <c r="H79" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G80" s="6">
-        <v>45717</v>
+        <v>45352</v>
+      </c>
+      <c r="H80" s="6">
+        <v>38808</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G81" s="6">
         <v>45717</v>
       </c>
-      <c r="H81" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>909</v>
+        <v>133</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="G82" s="6">
-        <v>46447</v>
+        <v>45717</v>
       </c>
       <c r="H82" s="6">
-        <v>39173</v>
+        <v>38808</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
       </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
       <c r="F83" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="G83" s="6">
         <v>46447</v>
       </c>
+      <c r="H83" s="6">
+        <v>39173</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
@@ -2656,135 +2659,135 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="G84" s="6">
         <v>46447</v>
       </c>
-      <c r="H84" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>323</v>
-      </c>
-      <c r="H85" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B85" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>152</v>
+      </c>
+      <c r="G85" s="6">
+        <v>46447</v>
+      </c>
+      <c r="H85" s="6">
+        <v>38808</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>210</v>
-      </c>
-      <c r="B86" t="s">
-        <v>153</v>
-      </c>
-      <c r="C86" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86" t="s">
-        <v>154</v>
-      </c>
-      <c r="G86" s="6">
-        <v>39173</v>
+        <v>323</v>
       </c>
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
+        <v>210</v>
+      </c>
+      <c r="B87" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>154</v>
+      </c>
+      <c r="G87" s="6">
+        <v>39173</v>
+      </c>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>433</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>156</v>
       </c>
-      <c r="C87" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" t="s">
         <v>157</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G88" s="6">
         <v>39539</v>
       </c>
-      <c r="H87" s="6"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1" t="s">
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>208</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>158</v>
       </c>
-      <c r="C90" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90">
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91">
         <v>1</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F91" t="s">
         <v>160</v>
       </c>
-      <c r="G90" s="6">
+      <c r="G91" s="6">
         <v>39539</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>17</v>
-      </c>
-      <c r="B93" t="s">
-        <v>87</v>
-      </c>
-      <c r="C93" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" t="s">
-        <v>88</v>
-      </c>
-      <c r="G93" s="6">
-        <v>46447</v>
-      </c>
-      <c r="H93" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
@@ -2795,36 +2798,33 @@
       <c r="G94" s="6">
         <v>46447</v>
       </c>
+      <c r="H94" s="6">
+        <v>39539</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
       </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
       <c r="F95" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="G95" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H95" s="6">
-        <v>39539</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
@@ -2833,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G96" s="6">
         <v>46813</v>
@@ -2842,84 +2842,84 @@
         <v>39539</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>39</v>
+      </c>
+      <c r="B97" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>162</v>
+      </c>
+      <c r="G97" s="6">
+        <v>46813</v>
+      </c>
+      <c r="H97" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>108</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>94</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>8</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F100" t="s">
         <v>92</v>
       </c>
-      <c r="G99" s="6">
+      <c r="G100" s="6">
         <v>46813</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>35</v>
-      </c>
-      <c r="B102" t="s">
-        <v>96</v>
-      </c>
-      <c r="C102" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" t="s">
-        <v>97</v>
-      </c>
-      <c r="G102" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H102" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G103" s="6">
         <v>46813</v>
@@ -2930,16 +2930,19 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
       </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
       <c r="F104" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G104" s="6">
         <v>46813</v>
@@ -2950,92 +2953,89 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G105" s="6">
         <v>46813</v>
       </c>
       <c r="H105" s="6">
-        <v>43191</v>
+        <v>39539</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G106" s="6">
-        <v>47178</v>
+        <v>46813</v>
       </c>
       <c r="H106" s="6">
         <v>43191</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>34</v>
+      </c>
+      <c r="B107" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" t="s">
+        <v>105</v>
+      </c>
+      <c r="G107" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H107" s="6">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>215</v>
-      </c>
-      <c r="B109" t="s">
-        <v>107</v>
-      </c>
-      <c r="C109" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" t="s">
-        <v>108</v>
-      </c>
-      <c r="G109" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H109" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C110" t="s">
         <v>12</v>
       </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
       <c r="F110" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="G110" s="6">
         <v>47178</v>
@@ -3046,73 +3046,76 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>502</v>
+        <v>373</v>
       </c>
       <c r="B111" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111" t="s">
+        <v>166</v>
+      </c>
+      <c r="G111" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H111" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>502</v>
+      </c>
+      <c r="B112" t="s">
+        <v>167</v>
+      </c>
+      <c r="C112" t="s">
+        <v>168</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
         <v>169</v>
       </c>
-      <c r="G111" s="6">
+      <c r="G112" s="6">
         <v>39539</v>
       </c>
-      <c r="H111" s="6"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1" t="s">
+      <c r="H112" s="6"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>67</v>
-      </c>
-      <c r="B114" t="s">
-        <v>111</v>
-      </c>
-      <c r="C114" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" t="s">
-        <v>170</v>
-      </c>
-      <c r="G114" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H114" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
       <c r="F115" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="G115" s="6">
-        <v>11018</v>
+        <v>47178</v>
       </c>
       <c r="H115" s="6">
         <v>39904</v>
@@ -3120,16 +3123,16 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G116" s="6">
         <v>11018</v>
@@ -3140,83 +3143,83 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B117" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
       </c>
       <c r="F117" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="G117" s="6">
+        <v>11018</v>
+      </c>
+      <c r="H117" s="6">
         <v>39904</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B118" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F118" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G118" s="6">
         <v>39904</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>137</v>
+      </c>
+      <c r="B119" t="s">
+        <v>172</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>174</v>
+      </c>
+      <c r="G119" s="6">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>70</v>
-      </c>
-      <c r="B121" t="s">
-        <v>117</v>
-      </c>
-      <c r="C121" t="s">
-        <v>8</v>
-      </c>
-      <c r="G121" s="6">
-        <v>11018</v>
-      </c>
-      <c r="H121" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B122" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="G122" s="6">
         <v>11018</v>
@@ -3227,22 +3230,19 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B123" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C123" t="s">
         <v>12</v>
       </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
       <c r="F123" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="G123" s="6">
-        <v>11383</v>
+        <v>11018</v>
       </c>
       <c r="H123" s="6">
         <v>39904</v>
@@ -3250,19 +3250,22 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
       </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
       <c r="F124" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="G124" s="6">
-        <v>37347</v>
+        <v>11383</v>
       </c>
       <c r="H124" s="6">
         <v>39904</v>
@@ -3270,53 +3273,50 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C125" t="s">
         <v>12</v>
+      </c>
+      <c r="F125" t="s">
+        <v>122</v>
       </c>
       <c r="G125" s="6">
         <v>37347</v>
       </c>
+      <c r="H125" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126" t="s">
         <v>12</v>
       </c>
-      <c r="F126" t="s">
-        <v>125</v>
-      </c>
       <c r="G126" s="6">
-        <v>37712</v>
-      </c>
-      <c r="H126" s="6">
-        <v>38078</v>
-      </c>
-      <c r="I126" s="6">
-        <v>43191</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G127" s="6">
         <v>37712</v>
@@ -3324,53 +3324,56 @@
       <c r="H127" s="6">
         <v>38078</v>
       </c>
-      <c r="I127" s="9" t="s">
-        <v>193</v>
+      <c r="I127" s="6">
+        <v>43191</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G128" s="6">
+        <v>37712</v>
+      </c>
+      <c r="H128" s="6">
         <v>38078</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>1143</v>
+        <v>97</v>
       </c>
       <c r="B129" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
       </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
       <c r="F129" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="G129" s="6">
-        <v>43556</v>
+        <v>38078</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>72</v>
+        <v>1143</v>
       </c>
       <c r="B130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
@@ -3379,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G130" s="6">
         <v>43556</v>
@@ -3387,57 +3390,63 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
+        <v>72</v>
+      </c>
+      <c r="B131" t="s">
+        <v>197</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>198</v>
+      </c>
+      <c r="G131" s="6">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132">
         <v>221</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>200</v>
       </c>
-      <c r="C131" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" t="s">
         <v>201</v>
       </c>
-      <c r="G131" s="6">
+      <c r="G132" s="6">
         <v>43922</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>178</v>
-      </c>
-      <c r="C134" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" t="s">
-        <v>179</v>
-      </c>
-      <c r="G134" s="6">
-        <v>41365</v>
-      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C135" t="s">
         <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G135" s="6">
         <v>41365</v>
@@ -3445,13 +3454,13 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G136" s="6">
         <v>41365</v>
@@ -3459,13 +3468,13 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C137" t="s">
         <v>8</v>
       </c>
       <c r="F137" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G137" s="6">
         <v>41365</v>
@@ -3473,7 +3482,13 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" t="s">
+        <v>186</v>
       </c>
       <c r="G138" s="6">
         <v>41365</v>
@@ -3481,9 +3496,17 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
+        <v>187</v>
+      </c>
+      <c r="G139" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
         <v>188</v>
       </c>
-      <c r="G139" s="6">
+      <c r="G140" s="6">
         <v>41365</v>
       </c>
     </row>
@@ -3499,12 +3522,12 @@
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F43 F47:F70 D1:E70 D68:F1048576">
+  <conditionalFormatting sqref="F1:F43 F47:F71 D1:E71 D68:F1048576">
     <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48:G53 G57:G69 G89 G91:G110 G112:G116 G71:G85 G2:G46 G119:G1048576">
+  <conditionalFormatting sqref="G48:G53 G57:G69 G90 G92:G111 G113:G117 G72:G86 G2:G46 G120:G1048576">
     <cfRule type="cellIs" dxfId="31" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -3514,12 +3537,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H126:I126">
+  <conditionalFormatting sqref="H127:I127">
     <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H127">
+  <conditionalFormatting sqref="H128">
     <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -3549,102 +3572,102 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H74">
     <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74:H76">
+  <conditionalFormatting sqref="H75:H77">
     <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
+  <conditionalFormatting sqref="H80">
     <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
+  <conditionalFormatting sqref="H82">
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84:H88">
+  <conditionalFormatting sqref="H85:H89">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86:G88">
+  <conditionalFormatting sqref="G87:G89">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G90">
+  <conditionalFormatting sqref="G91">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
+  <conditionalFormatting sqref="H94">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95:H96">
+  <conditionalFormatting sqref="H96:H97">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H102">
+  <conditionalFormatting sqref="H103">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103:H106">
+  <conditionalFormatting sqref="H104:H107">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109:H111">
+  <conditionalFormatting sqref="H110:H112">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G111">
+  <conditionalFormatting sqref="G112">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H114">
+  <conditionalFormatting sqref="H115">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H115:H116">
+  <conditionalFormatting sqref="H116:H117">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G117:G118">
+  <conditionalFormatting sqref="G118:G119">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H121">
+  <conditionalFormatting sqref="H122">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H124">
+  <conditionalFormatting sqref="H123:H125">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
+  <conditionalFormatting sqref="G70:G71">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B663BF3-F53A-4E4F-902F-DA0212C92209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393B71A8-7142-D04D-B1A8-179C8F4A45C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -737,7 +737,27 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1410,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1441,7 +1461,7 @@
       </c>
       <c r="G1" s="8">
         <f>COUNTA(G2:I186)</f>
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2278,6 +2298,9 @@
       <c r="G61" s="6">
         <v>44986</v>
       </c>
+      <c r="H61" s="6">
+        <v>44652</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -2291,6 +2314,9 @@
       </c>
       <c r="G62" s="6">
         <v>44986</v>
+      </c>
+      <c r="H62" s="6">
+        <v>44652</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -3407,6 +3433,9 @@
       <c r="G131" s="6">
         <v>43556</v>
       </c>
+      <c r="H131" s="6">
+        <v>44652</v>
+      </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
@@ -3512,177 +3541,187 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F43 F47:F71 D1:E71 D68:F1048576">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:G53 G57:G69 G90 G92:G111 G113:G117 G72:G86 G2:G46 G120:G1048576">
-    <cfRule type="cellIs" dxfId="31" priority="36" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="38" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H127:I127">
+    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H128">
     <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H127:I127">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H128">
+  <conditionalFormatting sqref="H49">
     <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H51:H52">
     <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
+  <conditionalFormatting sqref="G54:G56">
     <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51:H52">
+  <conditionalFormatting sqref="H63">
     <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54:G56">
+  <conditionalFormatting sqref="H74">
     <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
+  <conditionalFormatting sqref="H75:H77">
     <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H80">
     <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75:H77">
+  <conditionalFormatting sqref="H82">
     <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H85:H89">
     <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
+  <conditionalFormatting sqref="G87:G89">
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85:H89">
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87:G89">
+  <conditionalFormatting sqref="G91">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
+  <conditionalFormatting sqref="H94">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G91">
+  <conditionalFormatting sqref="H96:H97">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
+  <conditionalFormatting sqref="H103">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96:H97">
+  <conditionalFormatting sqref="H104:H107">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103">
+  <conditionalFormatting sqref="H110:H112">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H104:H107">
+  <conditionalFormatting sqref="G112">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H110:H112">
+  <conditionalFormatting sqref="H115">
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G112">
+  <conditionalFormatting sqref="H116:H117">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H115">
+  <conditionalFormatting sqref="G118:G119">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H116:H117">
+  <conditionalFormatting sqref="H122">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G118:G119">
+  <conditionalFormatting sqref="H123:H125">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122">
+  <conditionalFormatting sqref="G70:G71">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H123:H125">
+  <conditionalFormatting sqref="H15">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70:G71">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H37">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H61:H62">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="H131">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393B71A8-7142-D04D-B1A8-179C8F4A45C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B193EDB-81D5-AB48-8477-F49AE6176E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="207">
   <si>
     <t>Note</t>
   </si>
@@ -652,6 +652,12 @@
   </si>
   <si>
     <t>Iterative Apporach</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Single Element in a Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -719,7 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -730,114 +736,13 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1428,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A114" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H132" sqref="H132"/>
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1459,9 +1364,9 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="1">
         <f>COUNTA(G2:I186)</f>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3373,7 +3278,7 @@
       <c r="H128" s="6">
         <v>38078</v>
       </c>
-      <c r="I128" s="9" t="s">
+      <c r="I128" s="8" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3539,189 +3444,167 @@
         <v>41365</v>
       </c>
     </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>540</v>
+      </c>
+      <c r="B143" t="s">
+        <v>206</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="6">
+        <v>45383</v>
+      </c>
+      <c r="H143" s="6"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F43 F47:F71 D1:E71 D68:F1048576">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+  <conditionalFormatting sqref="F1:F43 D1:E71 F47:F71 D68:F1048576">
+    <cfRule type="cellIs" dxfId="24" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48:G53 G57:G69 G90 G92:G111 G113:G117 G72:G86 G2:G46 G120:G1048576">
-    <cfRule type="cellIs" dxfId="33" priority="38" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G2:G46">
+    <cfRule type="cellIs" dxfId="23" priority="39" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48:G1048576">
+    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="21" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="34" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="cellIs" dxfId="17" priority="31" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="cellIs" dxfId="16" priority="30" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:H52">
+    <cfRule type="cellIs" dxfId="15" priority="29" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61:H63">
+    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74:H77">
+    <cfRule type="cellIs" dxfId="13" priority="25" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="12" priority="24" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82:H83">
+    <cfRule type="cellIs" dxfId="11" priority="20" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85:H89">
+    <cfRule type="cellIs" dxfId="10" priority="22" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="cellIs" dxfId="9" priority="18" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96:H97">
+    <cfRule type="cellIs" dxfId="8" priority="17" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H103:H107">
+    <cfRule type="cellIs" dxfId="7" priority="15" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H110:H112">
+    <cfRule type="cellIs" dxfId="6" priority="14" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H115:H117">
+    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:H125">
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H128">
+    <cfRule type="cellIs" dxfId="3" priority="32" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H131">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127:I127">
-    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="33" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51:H52">
-    <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54:G56">
-    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75:H77">
-    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85:H89">
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G87:G89">
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G91">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H96:H97">
-    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H104:H107">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H110:H112">
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G112">
-    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H116:H117">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G118:G119">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H123:H125">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70:G71">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:H62">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H131">
+  <conditionalFormatting sqref="H143">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B193EDB-81D5-AB48-8477-F49AE6176E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3A1B39-FC9C-164D-9CB8-A5A3DDD1C1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="208">
   <si>
     <t>Note</t>
   </si>
@@ -658,6 +658,9 @@
   </si>
   <si>
     <t>Single Element in a Sorted Array</t>
+  </si>
+  <si>
+    <t>Binary search and see condition. XOR</t>
   </si>
 </sst>
 </file>
@@ -742,27 +745,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1335,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2942,54 +2925,51 @@
         <v>43191</v>
       </c>
     </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>540</v>
+      </c>
+      <c r="B108" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" t="s">
+        <v>207</v>
+      </c>
+      <c r="G108" s="6">
+        <v>45383</v>
+      </c>
+      <c r="H108" s="6"/>
+    </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1" t="s">
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>215</v>
-      </c>
-      <c r="B110" t="s">
-        <v>107</v>
-      </c>
-      <c r="C110" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" t="s">
-        <v>108</v>
-      </c>
-      <c r="G110" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H110" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
       </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
       <c r="F111" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="G111" s="6">
         <v>47178</v>
@@ -3000,73 +2980,78 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>502</v>
+        <v>373</v>
       </c>
       <c r="B112" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" t="s">
+        <v>166</v>
+      </c>
+      <c r="G112" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H112" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>502</v>
+      </c>
+      <c r="B113" t="s">
+        <v>167</v>
+      </c>
+      <c r="C113" t="s">
+        <v>168</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
         <v>169</v>
       </c>
-      <c r="G112" s="6">
+      <c r="G113" s="6">
         <v>39539</v>
       </c>
-      <c r="H112" s="6"/>
+      <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1" t="s">
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>67</v>
-      </c>
-      <c r="B115" t="s">
-        <v>111</v>
-      </c>
-      <c r="C115" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" t="s">
-        <v>170</v>
-      </c>
-      <c r="G115" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H115" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B116" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="G116" s="6">
-        <v>11018</v>
+        <v>47178</v>
       </c>
       <c r="H116" s="6">
         <v>39904</v>
@@ -3074,16 +3059,16 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B117" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
       </c>
       <c r="F117" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G117" s="6">
         <v>11018</v>
@@ -3094,83 +3079,85 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B118" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
       </c>
       <c r="F118" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="G118" s="6">
+        <v>11018</v>
+      </c>
+      <c r="H118" s="6">
         <v>39904</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B119" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G119" s="6">
         <v>39904</v>
       </c>
     </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>137</v>
+      </c>
+      <c r="B120" t="s">
+        <v>172</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>174</v>
+      </c>
+      <c r="G120" s="6">
+        <v>39904</v>
+      </c>
+    </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1" t="s">
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>70</v>
-      </c>
-      <c r="B122" t="s">
-        <v>117</v>
-      </c>
-      <c r="C122" t="s">
-        <v>8</v>
-      </c>
-      <c r="G122" s="6">
-        <v>11018</v>
-      </c>
-      <c r="H122" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="G123" s="6">
         <v>11018</v>
@@ -3181,22 +3168,19 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B124" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
       </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
       <c r="F124" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="G124" s="6">
-        <v>11383</v>
+        <v>11018</v>
       </c>
       <c r="H124" s="6">
         <v>39904</v>
@@ -3204,19 +3188,22 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C125" t="s">
         <v>12</v>
       </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
       <c r="F125" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="G125" s="6">
-        <v>37347</v>
+        <v>11383</v>
       </c>
       <c r="H125" s="6">
         <v>39904</v>
@@ -3224,36 +3211,36 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B126" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C126" t="s">
         <v>12</v>
+      </c>
+      <c r="F126" t="s">
+        <v>122</v>
       </c>
       <c r="G126" s="6">
         <v>37347</v>
       </c>
+      <c r="H126" s="6">
+        <v>39904</v>
+      </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B127" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
       </c>
-      <c r="F127" t="s">
-        <v>125</v>
-      </c>
       <c r="G127" s="6">
-        <v>37712</v>
-      </c>
-      <c r="H127" s="6">
-        <v>38078</v>
+        <v>37347</v>
       </c>
       <c r="I127" s="6">
         <v>43191</v>
@@ -3261,16 +3248,16 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G128" s="6">
         <v>37712</v>
@@ -3284,47 +3271,47 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G129" s="6">
+        <v>37712</v>
+      </c>
+      <c r="H129" s="6">
         <v>38078</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>1143</v>
+        <v>97</v>
       </c>
       <c r="B130" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
       </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
       <c r="F130" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="G130" s="6">
-        <v>43556</v>
+        <v>38078</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>72</v>
+        <v>1143</v>
       </c>
       <c r="B131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
@@ -3333,68 +3320,76 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G131" s="6">
         <v>43556</v>
       </c>
-      <c r="H131" s="6">
-        <v>44652</v>
-      </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
+        <v>72</v>
+      </c>
+      <c r="B132" t="s">
+        <v>197</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
+        <v>198</v>
+      </c>
+      <c r="G132" s="6">
+        <v>43556</v>
+      </c>
+      <c r="H132" s="6">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133">
         <v>221</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>200</v>
       </c>
-      <c r="C132" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" t="s">
         <v>201</v>
       </c>
-      <c r="G132" s="6">
+      <c r="G133" s="6">
         <v>43922</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1" t="s">
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
-        <v>178</v>
-      </c>
-      <c r="C135" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" t="s">
-        <v>179</v>
-      </c>
-      <c r="G135" s="6">
-        <v>41365</v>
-      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G136" s="6">
         <v>41365</v>
@@ -3402,13 +3397,13 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G137" s="6">
         <v>41365</v>
@@ -3416,13 +3411,13 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C138" t="s">
         <v>8</v>
       </c>
       <c r="F138" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G138" s="6">
         <v>41365</v>
@@ -3430,7 +3425,13 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" t="s">
+        <v>186</v>
       </c>
       <c r="G139" s="6">
         <v>41365</v>
@@ -3438,173 +3439,158 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G140" s="6">
         <v>41365</v>
       </c>
     </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>188</v>
+      </c>
+      <c r="G141" s="6">
+        <v>41365</v>
+      </c>
+    </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1" t="s">
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>540</v>
-      </c>
-      <c r="B143" t="s">
-        <v>206</v>
-      </c>
-      <c r="C143" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" s="6">
-        <v>45383</v>
-      </c>
-      <c r="H143" s="6"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F43 D1:E71 F47:F71 D68:F1048576">
-    <cfRule type="cellIs" dxfId="24" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G46">
-    <cfRule type="cellIs" dxfId="23" priority="39" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48:G1048576">
-    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G2:G46 I127 H128 G48:G1048576">
+    <cfRule type="cellIs" dxfId="21" priority="39" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="21" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="20" priority="34" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="34" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="17" priority="31" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="16" priority="30" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51:H52">
-    <cfRule type="cellIs" dxfId="15" priority="29" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="29" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61:H63">
-    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74:H77">
-    <cfRule type="cellIs" dxfId="13" priority="25" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="12" priority="24" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82:H83">
-    <cfRule type="cellIs" dxfId="11" priority="20" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85:H89">
-    <cfRule type="cellIs" dxfId="10" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="9" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96:H97">
-    <cfRule type="cellIs" dxfId="8" priority="17" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103:H107">
-    <cfRule type="cellIs" dxfId="7" priority="15" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H110:H112">
-    <cfRule type="cellIs" dxfId="6" priority="14" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H111:H113">
+    <cfRule type="cellIs" dxfId="5" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H115:H117">
-    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H116:H118">
+    <cfRule type="cellIs" dxfId="4" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H125">
-    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H123:H126">
+    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H128">
-    <cfRule type="cellIs" dxfId="3" priority="32" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H129">
+    <cfRule type="cellIs" dxfId="2" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H132">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H127:I127">
-    <cfRule type="cellIs" dxfId="1" priority="33" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H143">
+  <conditionalFormatting sqref="H108">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3A1B39-FC9C-164D-9CB8-A5A3DDD1C1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A223FF86-D1A1-7B44-9114-E2C4B4CE1CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="760" windowWidth="22440" windowHeight="20540" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" activeTab="1" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="213">
   <si>
     <t>Note</t>
   </si>
@@ -661,14 +662,30 @@
   </si>
   <si>
     <t>Binary search and see condition. XOR</t>
+  </si>
+  <si>
+    <t>Fee Earner</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -728,7 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -740,6 +757,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1318,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView topLeftCell="A100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3610,6 +3631,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2B5C3A-B17B-D041-BBF3-75B0BA9FFD02}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13" style="12" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2" s="12">
+        <v>45409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B765CAE0-430B-0048-A6D1-3E8F8EC69097}">
   <dimension ref="A1:A7"/>
   <sheetViews>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A223FF86-D1A1-7B44-9114-E2C4B4CE1CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7C2B3A-495C-2247-AAEE-7B8BCA94C7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" activeTab="1" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" activeTab="2" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="217">
   <si>
     <t>Note</t>
   </si>
@@ -664,28 +664,39 @@
     <t>Binary search and see condition. XOR</t>
   </si>
   <si>
-    <t>Fee Earner</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Due</t>
-  </si>
-  <si>
-    <t>Priority</t>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>DSAD</t>
+  </si>
+  <si>
+    <t>BUS</t>
+  </si>
+  <si>
+    <t>ALML</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -745,7 +756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -757,26 +768,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -999,16 +996,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1024,6 +1011,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3491,128 +3488,123 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="38" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="37" operator="equal">
       <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
-      <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F43 D1:E71 F47:F71 D68:F1048576">
-    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G46 I127 H128 G48:G1048576">
-    <cfRule type="cellIs" dxfId="21" priority="39" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G2:G46 G48:G1048576 I127">
+    <cfRule type="cellIs" dxfId="20" priority="39" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="20" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="19" priority="34" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="34" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="16" priority="31" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="15" priority="30" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51:H52">
-    <cfRule type="cellIs" dxfId="14" priority="29" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="29" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61:H63">
-    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74:H77">
-    <cfRule type="cellIs" dxfId="12" priority="25" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="11" priority="24" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82:H83">
-    <cfRule type="cellIs" dxfId="10" priority="20" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85:H89">
-    <cfRule type="cellIs" dxfId="9" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="8" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96:H97">
-    <cfRule type="cellIs" dxfId="7" priority="17" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103:H107">
-    <cfRule type="cellIs" dxfId="6" priority="15" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H103:H108">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111:H113">
-    <cfRule type="cellIs" dxfId="5" priority="14" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116:H118">
-    <cfRule type="cellIs" dxfId="4" priority="11" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123:H126">
-    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H129">
-    <cfRule type="cellIs" dxfId="2" priority="32" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H128:H129">
+    <cfRule type="cellIs" dxfId="1" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H108">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3631,56 +3623,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2B5C3A-B17B-D041-BBF3-75B0BA9FFD02}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13" style="12" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D2" s="12">
-        <v>45409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B765CAE0-430B-0048-A6D1-3E8F8EC69097}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -3726,4 +3668,117 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CEBE0F-5761-AF47-9D21-690E8201ED45}">
+  <dimension ref="A2:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3">
+        <v>94</v>
+      </c>
+      <c r="D3">
+        <f>B3</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <f>B4</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5">
+        <v>71.33</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <f>B5*0.5+C5*0.5</f>
+        <v>45.664999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6">
+        <v>92.08</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <f>B6*0.2+C6*0.8</f>
+        <v>74.415999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <f>B7*0.2+C7*0.8</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8">
+        <v>79.5</v>
+      </c>
+      <c r="D8">
+        <f>B8</f>
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f>SUM(D3:D8)/6</f>
+        <v>69.263500000000008</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7C2B3A-495C-2247-AAEE-7B8BCA94C7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A12CEB-6A3D-2B43-94CF-E889B696EE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" activeTab="2" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -996,6 +996,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1011,16 +1021,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L140" sqref="L140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2961,9 +2961,6 @@
       </c>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I109" s="1"/>
-    </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
@@ -2975,6 +2972,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="5"/>
       <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
@@ -3039,9 +3037,6 @@
         <v>39539</v>
       </c>
       <c r="H113" s="6"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
@@ -3054,6 +3049,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="5"/>
       <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
@@ -3151,9 +3147,6 @@
       <c r="G120" s="6">
         <v>39904</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
@@ -3166,6 +3159,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="5"/>
       <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
@@ -3383,9 +3377,6 @@
       <c r="G133" s="6">
         <v>43922</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I134" s="1"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
@@ -3398,6 +3389,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="5"/>
       <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
@@ -3470,9 +3462,6 @@
       <c r="G141" s="6">
         <v>41365</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I142" s="1"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
@@ -3485,17 +3474,18 @@
       <c r="F143" s="1"/>
       <c r="G143" s="5"/>
       <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="24" priority="38" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="37" operator="equal">
       <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
+      <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F43 D1:E71 F47:F71 D68:F1048576">
@@ -3674,8 +3664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CEBE0F-5761-AF47-9D21-690E8201ED45}">
   <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3723,11 +3713,11 @@
         <v>71.33</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <f>B5*0.5+C5*0.5</f>
-        <v>45.664999999999999</v>
+        <v>60.664999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3738,11 +3728,11 @@
         <v>92.08</v>
       </c>
       <c r="C6">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <f>B6*0.2+C6*0.8</f>
-        <v>74.415999999999997</v>
+        <v>58.415999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3753,11 +3743,11 @@
         <v>80</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <f>B7*0.2+C7*0.8</f>
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3775,7 +3765,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9">
         <f>SUM(D3:D8)/6</f>
-        <v>69.263500000000008</v>
+        <v>70.430166666666665</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A12CEB-6A3D-2B43-94CF-E889B696EE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B06AD6A-4AF6-8F4C-8AA3-38BF72C416E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="219">
   <si>
     <t>Note</t>
   </si>
@@ -689,6 +689,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Minimum Distance Between Nodes</t>
+  </si>
+  <si>
+    <t>Inoder</t>
   </si>
 </sst>
 </file>
@@ -1334,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L140" sqref="L140"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1366,8 +1372,8 @@
         <v>0</v>
       </c>
       <c r="G1" s="1">
-        <f>COUNTA(G2:I186)</f>
-        <v>140</v>
+        <f>COUNTA(G2:I187)</f>
+        <v>141</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2487,122 +2493,120 @@
       </c>
       <c r="H77" s="6"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>783</v>
+      </c>
+      <c r="B78" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>218</v>
+      </c>
+      <c r="G78" s="6">
+        <v>47209</v>
+      </c>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>200</v>
-      </c>
-      <c r="B80" t="s">
-        <v>46</v>
-      </c>
-      <c r="C80" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G80" s="6">
-        <v>45352</v>
-      </c>
-      <c r="H80" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G81" s="6">
-        <v>45717</v>
+        <v>45352</v>
+      </c>
+      <c r="H81" s="6">
+        <v>38808</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G82" s="6">
         <v>45717</v>
       </c>
-      <c r="H82" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>909</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="G83" s="6">
-        <v>46447</v>
+        <v>45717</v>
       </c>
       <c r="H83" s="6">
-        <v>39173</v>
+        <v>38808</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
       </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
       <c r="F84" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="G84" s="6">
         <v>46447</v>
       </c>
+      <c r="H84" s="6">
+        <v>39173</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
@@ -2611,135 +2615,135 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="G85" s="6">
         <v>46447</v>
       </c>
-      <c r="H85" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>323</v>
-      </c>
-      <c r="H86" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>152</v>
+      </c>
+      <c r="G86" s="6">
+        <v>46447</v>
+      </c>
+      <c r="H86" s="6">
+        <v>38808</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>210</v>
-      </c>
-      <c r="B87" t="s">
-        <v>153</v>
-      </c>
-      <c r="C87" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87" t="s">
-        <v>154</v>
-      </c>
-      <c r="G87" s="6">
-        <v>39173</v>
+        <v>323</v>
       </c>
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
+        <v>210</v>
+      </c>
+      <c r="B88" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>154</v>
+      </c>
+      <c r="G88" s="6">
+        <v>39173</v>
+      </c>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>433</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>156</v>
       </c>
-      <c r="C88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" t="s">
         <v>157</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G89" s="6">
         <v>39539</v>
       </c>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1" t="s">
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>208</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>158</v>
       </c>
-      <c r="C91" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91">
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92">
         <v>1</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F92" t="s">
         <v>160</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G92" s="6">
         <v>39539</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>17</v>
-      </c>
-      <c r="B94" t="s">
-        <v>87</v>
-      </c>
-      <c r="C94" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" t="s">
-        <v>88</v>
-      </c>
-      <c r="G94" s="6">
-        <v>46447</v>
-      </c>
-      <c r="H94" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -2750,36 +2754,33 @@
       <c r="G95" s="6">
         <v>46447</v>
       </c>
+      <c r="H95" s="6">
+        <v>39539</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
       </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
       <c r="F96" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="G96" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H96" s="6">
-        <v>39539</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -2788,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G97" s="6">
         <v>46813</v>
@@ -2797,84 +2798,84 @@
         <v>39539</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>39</v>
+      </c>
+      <c r="B98" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>162</v>
+      </c>
+      <c r="G98" s="6">
+        <v>46813</v>
+      </c>
+      <c r="H98" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>108</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>94</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>8</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F101" t="s">
         <v>92</v>
       </c>
-      <c r="G100" s="6">
+      <c r="G101" s="6">
         <v>46813</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>35</v>
-      </c>
-      <c r="B103" t="s">
-        <v>96</v>
-      </c>
-      <c r="C103" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" t="s">
-        <v>97</v>
-      </c>
-      <c r="G103" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H103" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G104" s="6">
         <v>46813</v>
@@ -2885,16 +2886,19 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
       </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
       <c r="F105" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G105" s="6">
         <v>46813</v>
@@ -2905,39 +2909,39 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B106" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G106" s="6">
         <v>46813</v>
       </c>
       <c r="H106" s="6">
-        <v>43191</v>
+        <v>39539</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G107" s="6">
-        <v>47178</v>
+        <v>46813</v>
       </c>
       <c r="H107" s="6">
         <v>43191</v>
@@ -2945,70 +2949,67 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
+        <v>34</v>
+      </c>
+      <c r="B108" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" t="s">
+        <v>105</v>
+      </c>
+      <c r="G108" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H108" s="6">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109">
         <v>540</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>206</v>
       </c>
-      <c r="C108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" t="s">
         <v>207</v>
       </c>
-      <c r="G108" s="6">
+      <c r="G109" s="6">
         <v>45383</v>
       </c>
-      <c r="H108" s="6"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1" t="s">
+      <c r="H109" s="6"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>215</v>
-      </c>
-      <c r="B111" t="s">
-        <v>107</v>
-      </c>
-      <c r="C111" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" t="s">
-        <v>108</v>
-      </c>
-      <c r="G111" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H111" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C112" t="s">
         <v>12</v>
       </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
       <c r="F112" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="G112" s="6">
         <v>47178</v>
@@ -3019,73 +3020,76 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>502</v>
+        <v>373</v>
       </c>
       <c r="B113" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="C113" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113" t="s">
+        <v>166</v>
+      </c>
+      <c r="G113" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H113" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>502</v>
+      </c>
+      <c r="B114" t="s">
+        <v>167</v>
+      </c>
+      <c r="C114" t="s">
+        <v>168</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
         <v>169</v>
       </c>
-      <c r="G113" s="6">
+      <c r="G114" s="6">
         <v>39539</v>
       </c>
-      <c r="H113" s="6"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1" t="s">
+      <c r="H114" s="6"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>67</v>
-      </c>
-      <c r="B116" t="s">
-        <v>111</v>
-      </c>
-      <c r="C116" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" t="s">
-        <v>170</v>
-      </c>
-      <c r="G116" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H116" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
       </c>
       <c r="F117" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="G117" s="6">
-        <v>11018</v>
+        <v>47178</v>
       </c>
       <c r="H117" s="6">
         <v>39904</v>
@@ -3093,16 +3097,16 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B118" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
       </c>
       <c r="F118" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G118" s="6">
         <v>11018</v>
@@ -3113,83 +3117,83 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B119" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="G119" s="6">
+        <v>11018</v>
+      </c>
+      <c r="H119" s="6">
         <v>39904</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B120" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G120" s="6">
         <v>39904</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>137</v>
+      </c>
+      <c r="B121" t="s">
+        <v>172</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
+        <v>174</v>
+      </c>
+      <c r="G121" s="6">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>70</v>
-      </c>
-      <c r="B123" t="s">
-        <v>117</v>
-      </c>
-      <c r="C123" t="s">
-        <v>8</v>
-      </c>
-      <c r="G123" s="6">
-        <v>11018</v>
-      </c>
-      <c r="H123" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="G124" s="6">
         <v>11018</v>
@@ -3200,22 +3204,19 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C125" t="s">
         <v>12</v>
       </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
       <c r="F125" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="G125" s="6">
-        <v>11383</v>
+        <v>11018</v>
       </c>
       <c r="H125" s="6">
         <v>39904</v>
@@ -3223,19 +3224,22 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B126" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C126" t="s">
         <v>12</v>
       </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
       <c r="F126" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="G126" s="6">
-        <v>37347</v>
+        <v>11383</v>
       </c>
       <c r="H126" s="6">
         <v>39904</v>
@@ -3243,56 +3247,53 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B127" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
+      </c>
+      <c r="F127" t="s">
+        <v>122</v>
       </c>
       <c r="G127" s="6">
         <v>37347</v>
       </c>
-      <c r="I127" s="6">
-        <v>43191</v>
+      <c r="H127" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B128" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
       </c>
-      <c r="F128" t="s">
-        <v>125</v>
-      </c>
       <c r="G128" s="6">
-        <v>37712</v>
-      </c>
-      <c r="H128" s="6">
-        <v>38078</v>
-      </c>
-      <c r="I128" s="8" t="s">
-        <v>193</v>
+        <v>37347</v>
+      </c>
+      <c r="I128" s="6">
+        <v>43191</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B129" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G129" s="6">
         <v>37712</v>
@@ -3300,50 +3301,53 @@
       <c r="H129" s="6">
         <v>38078</v>
       </c>
+      <c r="I129" s="8" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B130" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G130" s="6">
+        <v>37712</v>
+      </c>
+      <c r="H130" s="6">
         <v>38078</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>1143</v>
+        <v>97</v>
       </c>
       <c r="B131" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
       </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
       <c r="F131" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="G131" s="6">
-        <v>43556</v>
+        <v>38078</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>72</v>
+        <v>1143</v>
       </c>
       <c r="B132" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C132" t="s">
         <v>12</v>
@@ -3352,68 +3356,74 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G132" s="6">
         <v>43556</v>
       </c>
-      <c r="H132" s="6">
-        <v>44652</v>
-      </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
+        <v>72</v>
+      </c>
+      <c r="B133" t="s">
+        <v>197</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>198</v>
+      </c>
+      <c r="G133" s="6">
+        <v>43556</v>
+      </c>
+      <c r="H133" s="6">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134">
         <v>221</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>200</v>
       </c>
-      <c r="C133" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" t="s">
         <v>201</v>
       </c>
-      <c r="G133" s="6">
+      <c r="G134" s="6">
         <v>43922</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
-        <v>178</v>
-      </c>
-      <c r="C136" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" t="s">
-        <v>179</v>
-      </c>
-      <c r="G136" s="6">
-        <v>41365</v>
-      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C137" t="s">
         <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G137" s="6">
         <v>41365</v>
@@ -3421,13 +3431,13 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G138" s="6">
         <v>41365</v>
@@ -3435,13 +3445,13 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C139" t="s">
         <v>8</v>
       </c>
       <c r="F139" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G139" s="6">
         <v>41365</v>
@@ -3449,7 +3459,13 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" t="s">
+        <v>186</v>
       </c>
       <c r="G140" s="6">
         <v>41365</v>
@@ -3457,24 +3473,32 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G141" s="6">
         <v>41365</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>188</v>
+      </c>
+      <c r="G142" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
@@ -3493,7 +3517,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G46 G48:G1048576 I127">
+  <conditionalFormatting sqref="G2:G46 G48:G1048576 I128">
     <cfRule type="cellIs" dxfId="20" priority="39" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -3538,62 +3562,62 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74:H77">
+  <conditionalFormatting sqref="H74:H78">
     <cfRule type="cellIs" dxfId="11" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H81">
     <cfRule type="cellIs" dxfId="10" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82:H83">
+  <conditionalFormatting sqref="H83:H84">
     <cfRule type="cellIs" dxfId="9" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85:H89">
+  <conditionalFormatting sqref="H86:H90">
     <cfRule type="cellIs" dxfId="8" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
+  <conditionalFormatting sqref="H95">
     <cfRule type="cellIs" dxfId="7" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96:H97">
+  <conditionalFormatting sqref="H97:H98">
     <cfRule type="cellIs" dxfId="6" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103:H108">
+  <conditionalFormatting sqref="H104:H109">
     <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H111:H113">
+  <conditionalFormatting sqref="H112:H114">
     <cfRule type="cellIs" dxfId="4" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H116:H118">
+  <conditionalFormatting sqref="H117:H119">
     <cfRule type="cellIs" dxfId="3" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H123:H126">
+  <conditionalFormatting sqref="H124:H127">
     <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H128:H129">
+  <conditionalFormatting sqref="H129:H130">
     <cfRule type="cellIs" dxfId="1" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H132">
+  <conditionalFormatting sqref="H133">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B06AD6A-4AF6-8F4C-8AA3-38BF72C416E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F50475F-CAA1-F849-87F5-E648AC8DAF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="221">
   <si>
     <t>Note</t>
   </si>
@@ -695,6 +695,12 @@
   </si>
   <si>
     <t>Inoder</t>
+  </si>
+  <si>
+    <t>Dijkstra's algo</t>
+  </si>
+  <si>
+    <t>Network Delay Time</t>
   </si>
 </sst>
 </file>
@@ -1340,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1372,8 +1378,8 @@
         <v>0</v>
       </c>
       <c r="G1" s="1">
-        <f>COUNTA(G2:I187)</f>
-        <v>141</v>
+        <f>COUNTA(G2:I188)</f>
+        <v>142</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2690,80 +2696,81 @@
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>743</v>
+      </c>
+      <c r="B90" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>219</v>
+      </c>
+      <c r="G90" s="6">
+        <v>37012</v>
+      </c>
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1" t="s">
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>208</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>158</v>
       </c>
-      <c r="C92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92">
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93">
         <v>1</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F93" t="s">
         <v>160</v>
       </c>
-      <c r="G92" s="6">
+      <c r="G93" s="6">
         <v>39539</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>17</v>
-      </c>
-      <c r="B95" t="s">
-        <v>87</v>
-      </c>
-      <c r="C95" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" t="s">
-        <v>88</v>
-      </c>
-      <c r="G95" s="6">
-        <v>46447</v>
-      </c>
-      <c r="H95" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
@@ -2774,36 +2781,33 @@
       <c r="G96" s="6">
         <v>46447</v>
       </c>
+      <c r="H96" s="6">
+        <v>39539</v>
+      </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
       </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
       <c r="F97" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="G97" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H97" s="6">
-        <v>39539</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -2812,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G98" s="6">
         <v>46813</v>
@@ -2821,84 +2825,84 @@
         <v>39539</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>39</v>
+      </c>
+      <c r="B99" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>162</v>
+      </c>
+      <c r="G99" s="6">
+        <v>46813</v>
+      </c>
+      <c r="H99" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>108</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>94</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>8</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F102" t="s">
         <v>92</v>
       </c>
-      <c r="G101" s="6">
+      <c r="G102" s="6">
         <v>46813</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>35</v>
-      </c>
-      <c r="B104" t="s">
-        <v>96</v>
-      </c>
-      <c r="C104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>97</v>
-      </c>
-      <c r="G104" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H104" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B105" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G105" s="6">
         <v>46813</v>
@@ -2909,16 +2913,19 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B106" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
       </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
       <c r="F106" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G106" s="6">
         <v>46813</v>
@@ -2929,39 +2936,39 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G107" s="6">
         <v>46813</v>
       </c>
       <c r="H107" s="6">
-        <v>43191</v>
+        <v>39539</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G108" s="6">
-        <v>47178</v>
+        <v>46813</v>
       </c>
       <c r="H108" s="6">
         <v>43191</v>
@@ -2969,70 +2976,67 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
+        <v>34</v>
+      </c>
+      <c r="B109" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" t="s">
+        <v>105</v>
+      </c>
+      <c r="G109" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H109" s="6">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110">
         <v>540</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>206</v>
       </c>
-      <c r="C109" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
         <v>207</v>
       </c>
-      <c r="G109" s="6">
+      <c r="G110" s="6">
         <v>45383</v>
       </c>
-      <c r="H109" s="6"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1" t="s">
+      <c r="H110" s="6"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>215</v>
-      </c>
-      <c r="B112" t="s">
-        <v>107</v>
-      </c>
-      <c r="C112" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" t="s">
-        <v>108</v>
-      </c>
-      <c r="G112" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H112" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C113" t="s">
         <v>12</v>
       </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
       <c r="F113" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="G113" s="6">
         <v>47178</v>
@@ -3043,73 +3047,76 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>502</v>
+        <v>373</v>
       </c>
       <c r="B114" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="C114" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
       <c r="F114" t="s">
+        <v>166</v>
+      </c>
+      <c r="G114" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H114" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>502</v>
+      </c>
+      <c r="B115" t="s">
+        <v>167</v>
+      </c>
+      <c r="C115" t="s">
+        <v>168</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
         <v>169</v>
       </c>
-      <c r="G114" s="6">
+      <c r="G115" s="6">
         <v>39539</v>
       </c>
-      <c r="H114" s="6"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1" t="s">
+      <c r="H115" s="6"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>67</v>
-      </c>
-      <c r="B117" t="s">
-        <v>111</v>
-      </c>
-      <c r="C117" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" t="s">
-        <v>170</v>
-      </c>
-      <c r="G117" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H117" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
       </c>
       <c r="F118" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="G118" s="6">
-        <v>11018</v>
+        <v>47178</v>
       </c>
       <c r="H118" s="6">
         <v>39904</v>
@@ -3117,16 +3124,16 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B119" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G119" s="6">
         <v>11018</v>
@@ -3137,83 +3144,83 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B120" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="G120" s="6">
+        <v>11018</v>
+      </c>
+      <c r="H120" s="6">
         <v>39904</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B121" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G121" s="6">
         <v>39904</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>137</v>
+      </c>
+      <c r="B122" t="s">
+        <v>172</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>174</v>
+      </c>
+      <c r="G122" s="6">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>70</v>
-      </c>
-      <c r="B124" t="s">
-        <v>117</v>
-      </c>
-      <c r="C124" t="s">
-        <v>8</v>
-      </c>
-      <c r="G124" s="6">
-        <v>11018</v>
-      </c>
-      <c r="H124" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="G125" s="6">
         <v>11018</v>
@@ -3224,22 +3231,19 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B126" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C126" t="s">
         <v>12</v>
       </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
       <c r="F126" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="G126" s="6">
-        <v>11383</v>
+        <v>11018</v>
       </c>
       <c r="H126" s="6">
         <v>39904</v>
@@ -3247,19 +3251,22 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B127" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
       </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
       <c r="F127" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="G127" s="6">
-        <v>37347</v>
+        <v>11383</v>
       </c>
       <c r="H127" s="6">
         <v>39904</v>
@@ -3267,56 +3274,53 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B128" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
+      </c>
+      <c r="F128" t="s">
+        <v>122</v>
       </c>
       <c r="G128" s="6">
         <v>37347</v>
       </c>
-      <c r="I128" s="6">
-        <v>43191</v>
+      <c r="H128" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B129" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
       </c>
-      <c r="F129" t="s">
-        <v>125</v>
-      </c>
       <c r="G129" s="6">
-        <v>37712</v>
-      </c>
-      <c r="H129" s="6">
-        <v>38078</v>
-      </c>
-      <c r="I129" s="8" t="s">
-        <v>193</v>
+        <v>37347</v>
+      </c>
+      <c r="I129" s="6">
+        <v>43191</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G130" s="6">
         <v>37712</v>
@@ -3324,50 +3328,53 @@
       <c r="H130" s="6">
         <v>38078</v>
       </c>
+      <c r="I130" s="8" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B131" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G131" s="6">
+        <v>37712</v>
+      </c>
+      <c r="H131" s="6">
         <v>38078</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>1143</v>
+        <v>97</v>
       </c>
       <c r="B132" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="C132" t="s">
         <v>12</v>
       </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
       <c r="F132" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="G132" s="6">
-        <v>43556</v>
+        <v>38078</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>72</v>
+        <v>1143</v>
       </c>
       <c r="B133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C133" t="s">
         <v>12</v>
@@ -3376,68 +3383,74 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G133" s="6">
         <v>43556</v>
       </c>
-      <c r="H133" s="6">
-        <v>44652</v>
-      </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
+        <v>72</v>
+      </c>
+      <c r="B134" t="s">
+        <v>197</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>198</v>
+      </c>
+      <c r="G134" s="6">
+        <v>43556</v>
+      </c>
+      <c r="H134" s="6">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135">
         <v>221</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>200</v>
       </c>
-      <c r="C134" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" t="s">
         <v>201</v>
       </c>
-      <c r="G134" s="6">
+      <c r="G135" s="6">
         <v>43922</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1" t="s">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
-        <v>178</v>
-      </c>
-      <c r="C137" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" t="s">
-        <v>179</v>
-      </c>
-      <c r="G137" s="6">
-        <v>41365</v>
-      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C138" t="s">
         <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G138" s="6">
         <v>41365</v>
@@ -3445,13 +3458,13 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G139" s="6">
         <v>41365</v>
@@ -3459,13 +3472,13 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C140" t="s">
         <v>8</v>
       </c>
       <c r="F140" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G140" s="6">
         <v>41365</v>
@@ -3473,7 +3486,13 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" t="s">
+        <v>186</v>
       </c>
       <c r="G141" s="6">
         <v>41365</v>
@@ -3481,24 +3500,32 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G142" s="6">
         <v>41365</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>188</v>
+      </c>
+      <c r="G143" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
@@ -3517,7 +3544,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G46 G48:G1048576 I128">
+  <conditionalFormatting sqref="G2:G46 G48:G1048576 I129">
     <cfRule type="cellIs" dxfId="20" priority="39" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -3577,47 +3604,47 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86:H90">
+  <conditionalFormatting sqref="H86:H91">
     <cfRule type="cellIs" dxfId="8" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
+  <conditionalFormatting sqref="H96">
     <cfRule type="cellIs" dxfId="7" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97:H98">
+  <conditionalFormatting sqref="H98:H99">
     <cfRule type="cellIs" dxfId="6" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H104:H109">
+  <conditionalFormatting sqref="H105:H110">
     <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H112:H114">
+  <conditionalFormatting sqref="H113:H115">
     <cfRule type="cellIs" dxfId="4" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H117:H119">
+  <conditionalFormatting sqref="H118:H120">
     <cfRule type="cellIs" dxfId="3" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H124:H127">
+  <conditionalFormatting sqref="H125:H128">
     <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H129:H130">
+  <conditionalFormatting sqref="H130:H131">
     <cfRule type="cellIs" dxfId="1" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H133">
+  <conditionalFormatting sqref="H134">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F50475F-CAA1-F849-87F5-E648AC8DAF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4920C8A8-F682-AC43-8EB4-FE6F81BE4051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" activeTab="2" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1008,16 +1008,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1033,6 +1023,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1348,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86"/>
+    <sheetView topLeftCell="A59" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3529,14 +3529,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="38" operator="equal">
+      <formula>"Easy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="37" operator="equal">
       <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
-      <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F43 D1:E71 F47:F71 D68:F1048576">
@@ -3715,8 +3715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CEBE0F-5761-AF47-9D21-690E8201ED45}">
   <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3749,11 +3749,11 @@
         <v>210</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <f>B4</f>
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3764,11 +3764,11 @@
         <v>71.33</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <f>B5*0.5+C5*0.5</f>
-        <v>60.664999999999999</v>
+        <v>65.664999999999992</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3779,11 +3779,11 @@
         <v>92.08</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <f>B6*0.2+C6*0.8</f>
-        <v>58.415999999999997</v>
+        <v>66.415999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3816,7 +3816,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9">
         <f>SUM(D3:D8)/6</f>
-        <v>70.430166666666665</v>
+        <v>73.930166666666665</v>
       </c>
     </row>
   </sheetData>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4920C8A8-F682-AC43-8EB4-FE6F81BE4051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4595ADB2-510A-1349-9DFB-F22D96055721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" activeTab="2" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="223">
   <si>
     <t>Note</t>
   </si>
@@ -701,6 +701,12 @@
   </si>
   <si>
     <t>Network Delay Time</t>
+  </si>
+  <si>
+    <t>Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>Overflow technique</t>
   </si>
 </sst>
 </file>
@@ -1008,6 +1014,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1023,16 +1039,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1346,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1378,8 +1384,8 @@
         <v>0</v>
       </c>
       <c r="G1" s="1">
-        <f>COUNTA(G2:I188)</f>
-        <v>142</v>
+        <f>COUNTA(G2:I189)</f>
+        <v>143</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3429,42 +3435,45 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>64</v>
+      </c>
+      <c r="B136" t="s">
+        <v>221</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" t="s">
+        <v>222</v>
+      </c>
+      <c r="G136" s="6">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
-        <v>178</v>
-      </c>
-      <c r="C138" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138" t="s">
-        <v>179</v>
-      </c>
-      <c r="G138" s="6">
-        <v>41365</v>
-      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C139" t="s">
         <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G139" s="6">
         <v>41365</v>
@@ -3472,13 +3481,13 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G140" s="6">
         <v>41365</v>
@@ -3486,13 +3495,13 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G141" s="6">
         <v>41365</v>
@@ -3500,7 +3509,13 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" t="s">
+        <v>186</v>
       </c>
       <c r="G142" s="6">
         <v>41365</v>
@@ -3508,35 +3523,43 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G143" s="6">
         <v>41365</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1" t="s">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>188</v>
+      </c>
+      <c r="G144" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="24" priority="38" operator="equal">
-      <formula>"Easy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="37" operator="equal">
       <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
+      <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F43 D1:E71 F47:F71 D68:F1048576">
@@ -3715,7 +3738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CEBE0F-5761-AF47-9D21-690E8201ED45}">
   <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4595ADB2-510A-1349-9DFB-F22D96055721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6D9D2E-4173-9B44-A7DE-DF6809FF5E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -791,7 +791,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1354,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H136" sqref="H136"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1395,7 @@
       </c>
       <c r="G1" s="1">
         <f>COUNTA(G2:I189)</f>
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2285,6 +2295,9 @@
       <c r="G64" s="6">
         <v>46447</v>
       </c>
+      <c r="H64" s="6">
+        <v>44317</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
@@ -3552,123 +3565,128 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="38" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="39" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F43 D1:E71 F47:F71 D68:F1048576">
-    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G46 G48:G1048576 I129">
-    <cfRule type="cellIs" dxfId="20" priority="39" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="40" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="18" priority="34" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="35" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
+    <cfRule type="cellIs" dxfId="18" priority="6" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
     <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H43">
+    <cfRule type="cellIs" dxfId="16" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H49">
     <cfRule type="cellIs" dxfId="15" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
+  <conditionalFormatting sqref="H51:H52">
     <cfRule type="cellIs" dxfId="14" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51:H52">
-    <cfRule type="cellIs" dxfId="13" priority="29" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H61:H63">
-    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74:H78">
+    <cfRule type="cellIs" dxfId="12" priority="26" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
     <cfRule type="cellIs" dxfId="11" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="cellIs" dxfId="10" priority="24" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H83:H84">
-    <cfRule type="cellIs" dxfId="9" priority="20" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86:H91">
-    <cfRule type="cellIs" dxfId="8" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
+    <cfRule type="cellIs" dxfId="8" priority="19" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H98:H99">
     <cfRule type="cellIs" dxfId="7" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98:H99">
-    <cfRule type="cellIs" dxfId="6" priority="17" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H105:H110">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H115">
-    <cfRule type="cellIs" dxfId="4" priority="14" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118:H120">
-    <cfRule type="cellIs" dxfId="3" priority="11" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H125:H128">
-    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130:H131">
-    <cfRule type="cellIs" dxfId="1" priority="32" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="33" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6D9D2E-4173-9B44-A7DE-DF6809FF5E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E8F1C2-021F-8748-A708-0740118A046F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="G1" s="1">
         <f>COUNTA(G2:I189)</f>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2317,6 +2317,9 @@
       </c>
       <c r="G65" s="6">
         <v>46447</v>
+      </c>
+      <c r="H65" s="6">
+        <v>44317</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -3685,7 +3688,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
+  <conditionalFormatting sqref="H64:H65">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E8F1C2-021F-8748-A708-0740118A046F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17468453-F3C5-D348-9CB2-C2C4C4D98349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -1364,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="G1" s="1">
         <f>COUNTA(G2:I189)</f>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1603,6 +1603,9 @@
       </c>
       <c r="H15" s="6">
         <v>39904</v>
+      </c>
+      <c r="I15" s="6">
+        <v>45413</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3588,7 +3591,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H15:I15">
     <cfRule type="cellIs" dxfId="20" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17468453-F3C5-D348-9CB2-C2C4C4D98349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35D1BC4-0A75-2F40-8BC3-5C07ADC1A2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="225">
   <si>
     <t>Note</t>
   </si>
@@ -707,6 +707,12 @@
   </si>
   <si>
     <t>Overflow technique</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>Two pass</t>
   </si>
 </sst>
 </file>
@@ -791,17 +797,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1362,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1394,8 +1390,8 @@
         <v>0</v>
       </c>
       <c r="G1" s="1">
-        <f>COUNTA(G2:I189)</f>
-        <v>146</v>
+        <f>COUNTA(G2:I190)</f>
+        <v>147</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1770,129 +1766,129 @@
         <v>38078</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" s="6">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>383</v>
-      </c>
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6">
-        <v>44256</v>
-      </c>
-      <c r="H31" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>49</v>
+        <v>383</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="G32" s="6">
-        <v>44621</v>
+        <v>44256</v>
+      </c>
+      <c r="H32" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="6">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>205</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G34" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>228</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>138</v>
-      </c>
-      <c r="G36" s="6">
-        <v>44621</v>
-      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="G37" s="6">
         <v>44621</v>
       </c>
-      <c r="H37" s="6">
-        <v>39904</v>
-      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -1901,204 +1897,201 @@
         <v>59</v>
       </c>
       <c r="G38" s="6">
-        <v>46082</v>
+        <v>44621</v>
+      </c>
+      <c r="H38" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="6">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>452</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>139</v>
       </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39">
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40">
         <v>1</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>140</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G40" s="6">
         <v>38443</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="6">
-        <v>44621</v>
-      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G43" s="6">
         <v>44621</v>
       </c>
-      <c r="H43" s="6">
-        <v>38443</v>
-      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
-      <c r="F44" t="s">
-        <v>62</v>
+      <c r="D44">
+        <v>1</v>
       </c>
       <c r="G44" s="6">
-        <v>46082</v>
+        <v>44621</v>
+      </c>
+      <c r="H44" s="6">
+        <v>38443</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
-      <c r="D45">
-        <v>1</v>
+      <c r="F45" t="s">
+        <v>62</v>
       </c>
       <c r="G45" s="6">
         <v>46082</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>150</v>
+      </c>
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="6">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>141</v>
-      </c>
-      <c r="B49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="6">
-        <v>44986</v>
-      </c>
-      <c r="H49" s="6">
-        <v>38443</v>
-      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G50" s="6">
         <v>44986</v>
       </c>
+      <c r="H50" s="6">
+        <v>38443</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
       <c r="F51" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="G51" s="6">
         <v>44986</v>
       </c>
-      <c r="H51" s="6">
-        <v>38443</v>
-      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="G52" s="6">
-        <v>46082</v>
+        <v>44986</v>
       </c>
       <c r="H52" s="6">
         <v>38443</v>
@@ -2106,53 +2099,56 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G53" s="6">
         <v>46082</v>
       </c>
+      <c r="H53" s="6">
+        <v>38443</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="G54" s="6">
-        <v>38443</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
       <c r="F55" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="G55" s="6">
         <v>38443</v>
@@ -2160,91 +2156,94 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="G56" s="6">
         <v>38443</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>146</v>
+      </c>
+      <c r="G57" s="6">
+        <v>38443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>104</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" s="6">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>100</v>
-      </c>
-      <c r="B60" t="s">
-        <v>37</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
       </c>
+      <c r="F60" t="s">
+        <v>36</v>
+      </c>
       <c r="G60" s="6">
         <v>44986</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G61" s="6">
         <v>44986</v>
       </c>
-      <c r="H61" s="6">
-        <v>44652</v>
-      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -2258,56 +2257,50 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G63" s="6">
-        <v>46082</v>
+        <v>44986</v>
       </c>
       <c r="H63" s="6">
-        <v>38443</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G64" s="6">
-        <v>46447</v>
+        <v>46082</v>
       </c>
       <c r="H64" s="6">
-        <v>44317</v>
+        <v>38443</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
@@ -2316,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G65" s="6">
         <v>46447</v>
@@ -2327,10 +2320,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
@@ -2339,41 +2332,47 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G66" s="6">
         <v>46447</v>
       </c>
+      <c r="H66" s="6">
+        <v>44317</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
       </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
       <c r="F67" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="G67" s="6">
-        <v>38808</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G68" s="6">
         <v>38808</v>
@@ -2381,16 +2380,16 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>637</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>151</v>
+        <v>199</v>
+      </c>
+      <c r="B69" t="s">
+        <v>149</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>150</v>
       </c>
       <c r="G69" s="6">
         <v>38808</v>
@@ -2398,89 +2397,83 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>129</v>
+        <v>637</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="F70" t="s">
-        <v>177</v>
-      </c>
       <c r="G70" s="6">
-        <v>39904</v>
+        <v>38808</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
+        <v>129</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>177</v>
+      </c>
+      <c r="G71" s="6">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>94</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B72" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>8</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F72" t="s">
         <v>204</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G72" s="6">
         <v>44287</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>530</v>
-      </c>
-      <c r="B74" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
-        <v>42</v>
-      </c>
-      <c r="G74" s="6">
-        <v>44986</v>
-      </c>
-      <c r="H74" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G75" s="6">
         <v>44986</v>
@@ -2491,19 +2484,22 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
       </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
       <c r="F76" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="G76" s="6">
-        <v>46447</v>
+        <v>44986</v>
       </c>
       <c r="H76" s="6">
         <v>38808</v>
@@ -2511,153 +2507,153 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
       </c>
+      <c r="F77" t="s">
+        <v>83</v>
+      </c>
       <c r="G77" s="6">
-        <v>43922</v>
-      </c>
-      <c r="H77" s="6"/>
+        <v>46447</v>
+      </c>
+      <c r="H77" s="6">
+        <v>38808</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
+        <v>173</v>
+      </c>
+      <c r="B78" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="6">
+        <v>43922</v>
+      </c>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>783</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>217</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>8</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F79" t="s">
         <v>218</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G79" s="6">
         <v>47209</v>
       </c>
-      <c r="H78" s="6"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
+      <c r="H79" s="6"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>200</v>
-      </c>
-      <c r="B81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" t="s">
-        <v>47</v>
-      </c>
-      <c r="G81" s="6">
-        <v>45352</v>
-      </c>
-      <c r="H81" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G82" s="6">
-        <v>45717</v>
+        <v>45352</v>
+      </c>
+      <c r="H82" s="6">
+        <v>38808</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G83" s="6">
         <v>45717</v>
       </c>
-      <c r="H83" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>909</v>
+        <v>133</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="G84" s="6">
-        <v>46447</v>
+        <v>45717</v>
       </c>
       <c r="H84" s="6">
-        <v>39173</v>
+        <v>38808</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
       </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
       <c r="F85" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="G85" s="6">
         <v>46447</v>
       </c>
+      <c r="H85" s="6">
+        <v>39173</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
@@ -2666,156 +2662,156 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="G86" s="6">
         <v>46447</v>
       </c>
-      <c r="H86" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>323</v>
-      </c>
-      <c r="H87" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>152</v>
+      </c>
+      <c r="G87" s="6">
+        <v>46447</v>
+      </c>
+      <c r="H87" s="6">
+        <v>38808</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>210</v>
-      </c>
-      <c r="B88" t="s">
-        <v>153</v>
-      </c>
-      <c r="C88" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>154</v>
-      </c>
-      <c r="G88" s="6">
-        <v>39173</v>
+        <v>323</v>
       </c>
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>433</v>
+        <v>210</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
       </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
       <c r="F89" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G89" s="6">
-        <v>39539</v>
+        <v>39173</v>
       </c>
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
+        <v>433</v>
+      </c>
+      <c r="B90" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>157</v>
+      </c>
+      <c r="G90" s="6">
+        <v>39539</v>
+      </c>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>743</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>220</v>
       </c>
-      <c r="C90" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90">
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91">
         <v>1</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F91" t="s">
         <v>219</v>
       </c>
-      <c r="G90" s="6">
+      <c r="G91" s="6">
         <v>37012</v>
       </c>
-      <c r="H90" s="6"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1" t="s">
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>208</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>158</v>
       </c>
-      <c r="C93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93">
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94">
         <v>1</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F94" t="s">
         <v>160</v>
       </c>
-      <c r="G93" s="6">
+      <c r="G94" s="6">
         <v>39539</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>17</v>
-      </c>
-      <c r="B96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C96" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" t="s">
-        <v>88</v>
-      </c>
-      <c r="G96" s="6">
-        <v>46447</v>
-      </c>
-      <c r="H96" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -2826,36 +2822,33 @@
       <c r="G97" s="6">
         <v>46447</v>
       </c>
+      <c r="H97" s="6">
+        <v>39539</v>
+      </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
       </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
       <c r="F98" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="G98" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H98" s="6">
-        <v>39539</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -2864,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G99" s="6">
         <v>46813</v>
@@ -2873,84 +2866,84 @@
         <v>39539</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>39</v>
+      </c>
+      <c r="B100" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>162</v>
+      </c>
+      <c r="G100" s="6">
+        <v>46813</v>
+      </c>
+      <c r="H100" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103">
         <v>108</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>94</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>8</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F103" t="s">
         <v>92</v>
       </c>
-      <c r="G102" s="6">
+      <c r="G103" s="6">
         <v>46813</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>35</v>
-      </c>
-      <c r="B105" t="s">
-        <v>96</v>
-      </c>
-      <c r="C105" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" t="s">
-        <v>97</v>
-      </c>
-      <c r="G105" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H105" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B106" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G106" s="6">
         <v>46813</v>
@@ -2961,16 +2954,19 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B107" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
       </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
       <c r="F107" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G107" s="6">
         <v>46813</v>
@@ -2981,39 +2977,39 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G108" s="6">
         <v>46813</v>
       </c>
       <c r="H108" s="6">
-        <v>43191</v>
+        <v>39539</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G109" s="6">
-        <v>47178</v>
+        <v>46813</v>
       </c>
       <c r="H109" s="6">
         <v>43191</v>
@@ -3021,70 +3017,67 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
+        <v>34</v>
+      </c>
+      <c r="B110" t="s">
+        <v>104</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>105</v>
+      </c>
+      <c r="G110" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H110" s="6">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111">
         <v>540</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>206</v>
       </c>
-      <c r="C110" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
         <v>207</v>
       </c>
-      <c r="G110" s="6">
+      <c r="G111" s="6">
         <v>45383</v>
       </c>
-      <c r="H110" s="6"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1" t="s">
+      <c r="H111" s="6"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>215</v>
-      </c>
-      <c r="B113" t="s">
-        <v>107</v>
-      </c>
-      <c r="C113" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" t="s">
-        <v>108</v>
-      </c>
-      <c r="G113" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H113" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
       </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
       <c r="F114" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="G114" s="6">
         <v>47178</v>
@@ -3095,73 +3088,76 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>502</v>
+        <v>373</v>
       </c>
       <c r="B115" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="C115" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115" t="s">
+        <v>166</v>
+      </c>
+      <c r="G115" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H115" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>502</v>
+      </c>
+      <c r="B116" t="s">
+        <v>167</v>
+      </c>
+      <c r="C116" t="s">
+        <v>168</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
         <v>169</v>
       </c>
-      <c r="G115" s="6">
+      <c r="G116" s="6">
         <v>39539</v>
       </c>
-      <c r="H115" s="6"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1" t="s">
+      <c r="H116" s="6"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>67</v>
-      </c>
-      <c r="B118" t="s">
-        <v>111</v>
-      </c>
-      <c r="C118" t="s">
-        <v>8</v>
-      </c>
-      <c r="F118" t="s">
-        <v>170</v>
-      </c>
-      <c r="G118" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H118" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="G119" s="6">
-        <v>11018</v>
+        <v>47178</v>
       </c>
       <c r="H119" s="6">
         <v>39904</v>
@@ -3169,16 +3165,16 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B120" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G120" s="6">
         <v>11018</v>
@@ -3189,83 +3185,83 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="G121" s="6">
+        <v>11018</v>
+      </c>
+      <c r="H121" s="6">
         <v>39904</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B122" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G122" s="6">
         <v>39904</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>137</v>
+      </c>
+      <c r="B123" t="s">
+        <v>172</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123" t="s">
+        <v>174</v>
+      </c>
+      <c r="G123" s="6">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>70</v>
-      </c>
-      <c r="B125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C125" t="s">
-        <v>8</v>
-      </c>
-      <c r="G125" s="6">
-        <v>11018</v>
-      </c>
-      <c r="H125" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B126" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="G126" s="6">
         <v>11018</v>
@@ -3276,22 +3272,19 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B127" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
       </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
       <c r="F127" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="G127" s="6">
-        <v>11383</v>
+        <v>11018</v>
       </c>
       <c r="H127" s="6">
         <v>39904</v>
@@ -3299,19 +3292,22 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
       </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
       <c r="F128" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="G128" s="6">
-        <v>37347</v>
+        <v>11383</v>
       </c>
       <c r="H128" s="6">
         <v>39904</v>
@@ -3319,56 +3315,53 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B129" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
+      </c>
+      <c r="F129" t="s">
+        <v>122</v>
       </c>
       <c r="G129" s="6">
         <v>37347</v>
       </c>
-      <c r="I129" s="6">
-        <v>43191</v>
+      <c r="H129" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B130" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
       </c>
-      <c r="F130" t="s">
-        <v>125</v>
-      </c>
       <c r="G130" s="6">
-        <v>37712</v>
-      </c>
-      <c r="H130" s="6">
-        <v>38078</v>
-      </c>
-      <c r="I130" s="8" t="s">
-        <v>193</v>
+        <v>37347</v>
+      </c>
+      <c r="I130" s="6">
+        <v>43191</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B131" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G131" s="6">
         <v>37712</v>
@@ -3376,50 +3369,53 @@
       <c r="H131" s="6">
         <v>38078</v>
       </c>
+      <c r="I131" s="8" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B132" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C132" t="s">
         <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G132" s="6">
+        <v>37712</v>
+      </c>
+      <c r="H132" s="6">
         <v>38078</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>1143</v>
+        <v>97</v>
       </c>
       <c r="B133" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="C133" t="s">
         <v>12</v>
       </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
       <c r="F133" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="G133" s="6">
-        <v>43556</v>
+        <v>38078</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>72</v>
+        <v>1143</v>
       </c>
       <c r="B134" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
@@ -3428,85 +3424,91 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G134" s="6">
         <v>43556</v>
       </c>
-      <c r="H134" s="6">
-        <v>44652</v>
-      </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="B135" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C135" t="s">
         <v>12</v>
       </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
       <c r="F135" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G135" s="6">
-        <v>43922</v>
+        <v>43556</v>
+      </c>
+      <c r="H135" s="6">
+        <v>44652</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
+        <v>221</v>
+      </c>
+      <c r="B136" t="s">
+        <v>200</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" t="s">
+        <v>201</v>
+      </c>
+      <c r="G136" s="6">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137">
         <v>64</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>221</v>
       </c>
-      <c r="C136" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" t="s">
         <v>222</v>
       </c>
-      <c r="G136" s="6">
+      <c r="G137" s="6">
         <v>44317</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1" t="s">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
-        <v>178</v>
-      </c>
-      <c r="C139" t="s">
-        <v>12</v>
-      </c>
-      <c r="F139" t="s">
-        <v>179</v>
-      </c>
-      <c r="G139" s="6">
-        <v>41365</v>
-      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C140" t="s">
         <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G140" s="6">
         <v>41365</v>
@@ -3514,13 +3516,13 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G141" s="6">
         <v>41365</v>
@@ -3528,13 +3530,13 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C142" t="s">
         <v>8</v>
       </c>
       <c r="F142" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G142" s="6">
         <v>41365</v>
@@ -3542,7 +3544,13 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" t="s">
+        <v>186</v>
       </c>
       <c r="G143" s="6">
         <v>41365</v>
@@ -3550,49 +3558,52 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G144" s="6">
         <v>41365</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1" t="s">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>188</v>
+      </c>
+      <c r="G145" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="39" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F43 D1:E71 F47:F71 D68:F1048576">
-    <cfRule type="cellIs" dxfId="22" priority="36" operator="equal">
+  <conditionalFormatting sqref="F1:F44 D1:E72 F48:F72 D69:F1048576">
+    <cfRule type="cellIs" dxfId="21" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G46 G48:G1048576 I129">
-    <cfRule type="cellIs" dxfId="21" priority="40" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:I15">
-    <cfRule type="cellIs" dxfId="20" priority="7" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G2:G47 G49:G1048576 I130">
+    <cfRule type="cellIs" dxfId="20" priority="40" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3601,98 +3612,98 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H32">
     <cfRule type="cellIs" dxfId="18" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="H38">
     <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H44">
     <cfRule type="cellIs" dxfId="16" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
+  <conditionalFormatting sqref="H50">
     <cfRule type="cellIs" dxfId="15" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51:H52">
+  <conditionalFormatting sqref="H52:H53">
     <cfRule type="cellIs" dxfId="14" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61:H63">
-    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H62:H66">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74:H78">
+  <conditionalFormatting sqref="H75:H79">
     <cfRule type="cellIs" dxfId="12" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
+  <conditionalFormatting sqref="H82">
     <cfRule type="cellIs" dxfId="11" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83:H84">
+  <conditionalFormatting sqref="H84:H85">
     <cfRule type="cellIs" dxfId="10" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86:H91">
+  <conditionalFormatting sqref="H87:H92">
     <cfRule type="cellIs" dxfId="9" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
+  <conditionalFormatting sqref="H97">
     <cfRule type="cellIs" dxfId="8" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98:H99">
+  <conditionalFormatting sqref="H99:H100">
     <cfRule type="cellIs" dxfId="7" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H105:H110">
+  <conditionalFormatting sqref="H106:H111">
     <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H113:H115">
+  <conditionalFormatting sqref="H114:H116">
     <cfRule type="cellIs" dxfId="5" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H118:H120">
+  <conditionalFormatting sqref="H119:H121">
     <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125:H128">
+  <conditionalFormatting sqref="H126:H129">
     <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H130:H131">
+  <conditionalFormatting sqref="H131:H132">
     <cfRule type="cellIs" dxfId="2" priority="33" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H134">
+  <conditionalFormatting sqref="H135">
     <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64:H65">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H15:I15">
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3704,7 +3715,7 @@
     <hyperlink ref="B5" r:id="rId5" xr:uid="{61620F85-A756-1948-B905-68253DFF6AD5}"/>
     <hyperlink ref="B6" r:id="rId6" xr:uid="{82624FD5-7C76-EB45-9D9D-195B23F4F9DA}"/>
     <hyperlink ref="B7" r:id="rId7" xr:uid="{1DA24BCD-8B15-3E41-9087-846CE867B65E}"/>
-    <hyperlink ref="B69" r:id="rId8" display="https://leetcode.com/problems/average-of-levels-in-binary-tree/" xr:uid="{CF7ACCDB-130B-6449-BEA9-B7A71C85179B}"/>
+    <hyperlink ref="B70" r:id="rId8" display="https://leetcode.com/problems/average-of-levels-in-binary-tree/" xr:uid="{CF7ACCDB-130B-6449-BEA9-B7A71C85179B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35D1BC4-0A75-2F40-8BC3-5C07ADC1A2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A87EBAB-A52C-5642-A57A-1C0930A0478D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="227">
   <si>
     <t>Note</t>
   </si>
@@ -713,6 +713,12 @@
   </si>
   <si>
     <t>Two pass</t>
+  </si>
+  <si>
+    <t>Valid Anagrams</t>
+  </si>
+  <si>
+    <t>Tuple as key value. Create 26 counter list then use it as key</t>
   </si>
 </sst>
 </file>
@@ -797,7 +803,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1358,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1390,8 +1406,8 @@
         <v>0</v>
       </c>
       <c r="G1" s="1">
-        <f>COUNTA(G2:I190)</f>
-        <v>147</v>
+        <f>COUNTA(G2:I191)</f>
+        <v>149</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1821,94 +1837,98 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
       </c>
       <c r="G33" s="6">
-        <v>44621</v>
-      </c>
+        <v>44317</v>
+      </c>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" s="6">
+        <v>44621</v>
+      </c>
+      <c r="H34" s="6">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>205</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>4</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G35" s="6">
         <v>38078</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>228</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="6">
-        <v>44621</v>
-      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="G38" s="6">
         <v>44621</v>
       </c>
-      <c r="H38" s="6">
-        <v>39904</v>
-      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -1917,204 +1937,201 @@
         <v>59</v>
       </c>
       <c r="G39" s="6">
-        <v>46082</v>
+        <v>44621</v>
+      </c>
+      <c r="H39" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="6">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>452</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>139</v>
       </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40">
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
         <v>1</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" t="s">
         <v>140</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G41" s="6">
         <v>38443</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>20</v>
-      </c>
-      <c r="B43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="6">
-        <v>44621</v>
-      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G44" s="6">
         <v>44621</v>
       </c>
-      <c r="H44" s="6">
-        <v>38443</v>
-      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
-      <c r="F45" t="s">
-        <v>62</v>
+      <c r="D45">
+        <v>1</v>
       </c>
       <c r="G45" s="6">
-        <v>46082</v>
+        <v>44621</v>
+      </c>
+      <c r="H45" s="6">
+        <v>38443</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
-      <c r="D46">
-        <v>1</v>
+      <c r="F46" t="s">
+        <v>62</v>
       </c>
       <c r="G46" s="6">
         <v>46082</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>150</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="6">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>141</v>
-      </c>
-      <c r="B50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="6">
-        <v>44986</v>
-      </c>
-      <c r="H50" s="6">
-        <v>38443</v>
-      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G51" s="6">
         <v>44986</v>
       </c>
+      <c r="H51" s="6">
+        <v>38443</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
       <c r="F52" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="G52" s="6">
         <v>44986</v>
       </c>
-      <c r="H52" s="6">
-        <v>38443</v>
-      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="G53" s="6">
-        <v>46082</v>
+        <v>44986</v>
       </c>
       <c r="H53" s="6">
         <v>38443</v>
@@ -2122,53 +2139,56 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G54" s="6">
         <v>46082</v>
       </c>
+      <c r="H54" s="6">
+        <v>38443</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="G55" s="6">
-        <v>38443</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
       <c r="F56" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="G56" s="6">
         <v>38443</v>
@@ -2176,91 +2196,94 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="G57" s="6">
         <v>38443</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>82</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" s="6">
+        <v>38443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>104</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60" s="6">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>100</v>
-      </c>
-      <c r="B61" t="s">
-        <v>37</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
       </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
       <c r="G61" s="6">
         <v>44986</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G62" s="6">
         <v>44986</v>
       </c>
-      <c r="H62" s="6">
-        <v>44652</v>
-      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
@@ -2274,56 +2297,50 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G64" s="6">
-        <v>46082</v>
+        <v>44986</v>
       </c>
       <c r="H64" s="6">
-        <v>38443</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65">
+        <v>8</v>
+      </c>
+      <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G65" s="6">
-        <v>46447</v>
+        <v>46082</v>
       </c>
       <c r="H65" s="6">
-        <v>44317</v>
+        <v>38443</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
@@ -2332,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G66" s="6">
         <v>46447</v>
@@ -2343,10 +2360,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -2355,41 +2372,47 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G67" s="6">
         <v>46447</v>
       </c>
+      <c r="H67" s="6">
+        <v>44317</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
       <c r="F68" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="G68" s="6">
-        <v>38808</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G69" s="6">
         <v>38808</v>
@@ -2397,16 +2420,16 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>637</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>151</v>
+        <v>199</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>150</v>
       </c>
       <c r="G70" s="6">
         <v>38808</v>
@@ -2414,89 +2437,83 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>129</v>
+        <v>637</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="F71" t="s">
-        <v>177</v>
-      </c>
       <c r="G71" s="6">
-        <v>39904</v>
+        <v>38808</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
+        <v>129</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>177</v>
+      </c>
+      <c r="G72" s="6">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>94</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B73" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>8</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F73" t="s">
         <v>204</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G73" s="6">
         <v>44287</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>530</v>
-      </c>
-      <c r="B75" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" t="s">
-        <v>42</v>
-      </c>
-      <c r="G75" s="6">
-        <v>44986</v>
-      </c>
-      <c r="H75" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G76" s="6">
         <v>44986</v>
@@ -2507,19 +2524,22 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
       </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
       <c r="F77" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="G77" s="6">
-        <v>46447</v>
+        <v>44986</v>
       </c>
       <c r="H77" s="6">
         <v>38808</v>
@@ -2527,153 +2547,153 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
       </c>
+      <c r="F78" t="s">
+        <v>83</v>
+      </c>
       <c r="G78" s="6">
-        <v>43922</v>
-      </c>
-      <c r="H78" s="6"/>
+        <v>46447</v>
+      </c>
+      <c r="H78" s="6">
+        <v>38808</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
+        <v>173</v>
+      </c>
+      <c r="B79" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="6">
+        <v>43922</v>
+      </c>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>783</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>217</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>8</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>218</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G80" s="6">
         <v>47209</v>
       </c>
-      <c r="H79" s="6"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1" t="s">
+      <c r="H80" s="6"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>200</v>
-      </c>
-      <c r="B82" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" t="s">
-        <v>47</v>
-      </c>
-      <c r="G82" s="6">
-        <v>45352</v>
-      </c>
-      <c r="H82" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G83" s="6">
-        <v>45717</v>
+        <v>45352</v>
+      </c>
+      <c r="H83" s="6">
+        <v>38808</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G84" s="6">
         <v>45717</v>
       </c>
-      <c r="H84" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>909</v>
+        <v>133</v>
       </c>
       <c r="B85" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="G85" s="6">
-        <v>46447</v>
+        <v>45717</v>
       </c>
       <c r="H85" s="6">
-        <v>39173</v>
+        <v>38808</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="B86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
       </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
       <c r="F86" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="G86" s="6">
         <v>46447</v>
       </c>
+      <c r="H86" s="6">
+        <v>39173</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -2682,156 +2702,156 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="G87" s="6">
         <v>46447</v>
       </c>
-      <c r="H87" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>323</v>
-      </c>
-      <c r="H88" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B88" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>152</v>
+      </c>
+      <c r="G88" s="6">
+        <v>46447</v>
+      </c>
+      <c r="H88" s="6">
+        <v>38808</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>210</v>
-      </c>
-      <c r="B89" t="s">
-        <v>153</v>
-      </c>
-      <c r="C89" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89" t="s">
-        <v>154</v>
-      </c>
-      <c r="G89" s="6">
-        <v>39173</v>
+        <v>323</v>
       </c>
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>433</v>
+        <v>210</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
       </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
       <c r="F90" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G90" s="6">
-        <v>39539</v>
+        <v>39173</v>
       </c>
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
+        <v>433</v>
+      </c>
+      <c r="B91" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>157</v>
+      </c>
+      <c r="G91" s="6">
+        <v>39539</v>
+      </c>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>743</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>220</v>
       </c>
-      <c r="C91" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91">
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92">
         <v>1</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F92" t="s">
         <v>219</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G92" s="6">
         <v>37012</v>
       </c>
-      <c r="H91" s="6"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1" t="s">
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>208</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>158</v>
       </c>
-      <c r="C94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94">
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95">
         <v>1</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F95" t="s">
         <v>160</v>
       </c>
-      <c r="G94" s="6">
+      <c r="G95" s="6">
         <v>39539</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>17</v>
-      </c>
-      <c r="B97" t="s">
-        <v>87</v>
-      </c>
-      <c r="C97" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" t="s">
-        <v>88</v>
-      </c>
-      <c r="G97" s="6">
-        <v>46447</v>
-      </c>
-      <c r="H97" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -2842,36 +2862,33 @@
       <c r="G98" s="6">
         <v>46447</v>
       </c>
+      <c r="H98" s="6">
+        <v>39539</v>
+      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
       </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
       <c r="F99" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="G99" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H99" s="6">
-        <v>39539</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
@@ -2880,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G100" s="6">
         <v>46813</v>
@@ -2889,84 +2906,84 @@
         <v>39539</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>39</v>
+      </c>
+      <c r="B101" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>162</v>
+      </c>
+      <c r="G101" s="6">
+        <v>46813</v>
+      </c>
+      <c r="H101" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104">
         <v>108</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>94</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>8</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F104" t="s">
         <v>92</v>
       </c>
-      <c r="G103" s="6">
+      <c r="G104" s="6">
         <v>46813</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1" t="s">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>35</v>
-      </c>
-      <c r="B106" t="s">
-        <v>96</v>
-      </c>
-      <c r="C106" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" t="s">
-        <v>97</v>
-      </c>
-      <c r="G106" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H106" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B107" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G107" s="6">
         <v>46813</v>
@@ -2977,16 +2994,19 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B108" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
       </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
       <c r="F108" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G108" s="6">
         <v>46813</v>
@@ -2997,39 +3017,39 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B109" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G109" s="6">
         <v>46813</v>
       </c>
       <c r="H109" s="6">
-        <v>43191</v>
+        <v>39539</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C110" t="s">
         <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G110" s="6">
-        <v>47178</v>
+        <v>46813</v>
       </c>
       <c r="H110" s="6">
         <v>43191</v>
@@ -3037,70 +3057,67 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
+        <v>34</v>
+      </c>
+      <c r="B111" t="s">
+        <v>104</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
+        <v>105</v>
+      </c>
+      <c r="G111" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H111" s="6">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112">
         <v>540</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>206</v>
       </c>
-      <c r="C111" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
         <v>207</v>
       </c>
-      <c r="G111" s="6">
+      <c r="G112" s="6">
         <v>45383</v>
       </c>
-      <c r="H111" s="6"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1" t="s">
+      <c r="H112" s="6"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>215</v>
-      </c>
-      <c r="B114" t="s">
-        <v>107</v>
-      </c>
-      <c r="C114" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" t="s">
-        <v>108</v>
-      </c>
-      <c r="G114" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H114" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B115" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C115" t="s">
         <v>12</v>
       </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
       <c r="F115" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="G115" s="6">
         <v>47178</v>
@@ -3111,73 +3128,76 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>502</v>
+        <v>373</v>
       </c>
       <c r="B116" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="C116" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116" t="s">
+        <v>166</v>
+      </c>
+      <c r="G116" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H116" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>502</v>
+      </c>
+      <c r="B117" t="s">
+        <v>167</v>
+      </c>
+      <c r="C117" t="s">
+        <v>168</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
         <v>169</v>
       </c>
-      <c r="G116" s="6">
+      <c r="G117" s="6">
         <v>39539</v>
       </c>
-      <c r="H116" s="6"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1" t="s">
+      <c r="H117" s="6"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>67</v>
-      </c>
-      <c r="B119" t="s">
-        <v>111</v>
-      </c>
-      <c r="C119" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119" t="s">
-        <v>170</v>
-      </c>
-      <c r="G119" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H119" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B120" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="G120" s="6">
-        <v>11018</v>
+        <v>47178</v>
       </c>
       <c r="H120" s="6">
         <v>39904</v>
@@ -3185,16 +3205,16 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B121" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G121" s="6">
         <v>11018</v>
@@ -3205,83 +3225,83 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B122" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="C122" t="s">
         <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="G122" s="6">
+        <v>11018</v>
+      </c>
+      <c r="H122" s="6">
         <v>39904</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F123" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G123" s="6">
         <v>39904</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>137</v>
+      </c>
+      <c r="B124" t="s">
+        <v>172</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>174</v>
+      </c>
+      <c r="G124" s="6">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>70</v>
-      </c>
-      <c r="B126" t="s">
-        <v>117</v>
-      </c>
-      <c r="C126" t="s">
-        <v>8</v>
-      </c>
-      <c r="G126" s="6">
-        <v>11018</v>
-      </c>
-      <c r="H126" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B127" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="G127" s="6">
         <v>11018</v>
@@ -3292,22 +3312,19 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B128" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
       </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
       <c r="F128" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="G128" s="6">
-        <v>11383</v>
+        <v>11018</v>
       </c>
       <c r="H128" s="6">
         <v>39904</v>
@@ -3315,19 +3332,22 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
       </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
       <c r="F129" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="G129" s="6">
-        <v>37347</v>
+        <v>11383</v>
       </c>
       <c r="H129" s="6">
         <v>39904</v>
@@ -3335,56 +3355,53 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B130" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
+      </c>
+      <c r="F130" t="s">
+        <v>122</v>
       </c>
       <c r="G130" s="6">
         <v>37347</v>
       </c>
-      <c r="I130" s="6">
-        <v>43191</v>
+      <c r="H130" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B131" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
       </c>
-      <c r="F131" t="s">
-        <v>125</v>
-      </c>
       <c r="G131" s="6">
-        <v>37712</v>
-      </c>
-      <c r="H131" s="6">
-        <v>38078</v>
-      </c>
-      <c r="I131" s="8" t="s">
-        <v>193</v>
+        <v>37347</v>
+      </c>
+      <c r="I131" s="6">
+        <v>43191</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B132" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C132" t="s">
         <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G132" s="6">
         <v>37712</v>
@@ -3392,50 +3409,53 @@
       <c r="H132" s="6">
         <v>38078</v>
       </c>
+      <c r="I132" s="8" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B133" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C133" t="s">
         <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G133" s="6">
+        <v>37712</v>
+      </c>
+      <c r="H133" s="6">
         <v>38078</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>1143</v>
+        <v>97</v>
       </c>
       <c r="B134" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
       </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
       <c r="F134" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="G134" s="6">
-        <v>43556</v>
+        <v>38078</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>72</v>
+        <v>1143</v>
       </c>
       <c r="B135" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C135" t="s">
         <v>12</v>
@@ -3444,85 +3464,91 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G135" s="6">
         <v>43556</v>
       </c>
-      <c r="H135" s="6">
-        <v>44652</v>
-      </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="B136" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
       </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
       <c r="F136" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G136" s="6">
-        <v>43922</v>
+        <v>43556</v>
+      </c>
+      <c r="H136" s="6">
+        <v>44652</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
+        <v>221</v>
+      </c>
+      <c r="B137" t="s">
+        <v>200</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" t="s">
+        <v>201</v>
+      </c>
+      <c r="G137" s="6">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138">
         <v>64</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>221</v>
       </c>
-      <c r="C137" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" t="s">
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" t="s">
         <v>222</v>
       </c>
-      <c r="G137" s="6">
+      <c r="G138" s="6">
         <v>44317</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
-        <v>178</v>
-      </c>
-      <c r="C140" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G140" s="6">
-        <v>41365</v>
-      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G141" s="6">
         <v>41365</v>
@@ -3530,13 +3556,13 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G142" s="6">
         <v>41365</v>
@@ -3544,13 +3570,13 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C143" t="s">
         <v>8</v>
       </c>
       <c r="F143" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G143" s="6">
         <v>41365</v>
@@ -3558,7 +3584,13 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" t="s">
+        <v>186</v>
       </c>
       <c r="G144" s="6">
         <v>41365</v>
@@ -3566,144 +3598,157 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G145" s="6">
         <v>41365</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>188</v>
+      </c>
+      <c r="G146" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="40" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F44 D1:E72 F48:F72 D69:F1048576">
-    <cfRule type="cellIs" dxfId="21" priority="36" operator="equal">
+  <conditionalFormatting sqref="F1:F45 D1:E73 F49:F73 D70:F1048576">
+    <cfRule type="cellIs" dxfId="22" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G47 G49:G1048576 I130">
-    <cfRule type="cellIs" dxfId="20" priority="40" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G2:G48 G50:G1048576 I131">
+    <cfRule type="cellIs" dxfId="21" priority="41" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="19" priority="35" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H32:H33">
+    <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="18" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H45">
+    <cfRule type="cellIs" dxfId="17" priority="33" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+  <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="16" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
+  <conditionalFormatting sqref="H53:H54">
     <cfRule type="cellIs" dxfId="15" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52:H53">
-    <cfRule type="cellIs" dxfId="14" priority="30" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H63:H67">
+    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62:H66">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H76:H80">
+    <cfRule type="cellIs" dxfId="13" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75:H79">
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="12" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="11" priority="25" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H85:H86">
+    <cfRule type="cellIs" dxfId="11" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84:H85">
-    <cfRule type="cellIs" dxfId="10" priority="21" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H88:H93">
+    <cfRule type="cellIs" dxfId="10" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87:H92">
-    <cfRule type="cellIs" dxfId="9" priority="23" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H98">
+    <cfRule type="cellIs" dxfId="9" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
+  <conditionalFormatting sqref="H100:H101">
     <cfRule type="cellIs" dxfId="8" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H99:H100">
-    <cfRule type="cellIs" dxfId="7" priority="18" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H107:H112">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H106:H111">
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H115:H117">
+    <cfRule type="cellIs" dxfId="6" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H114:H116">
-    <cfRule type="cellIs" dxfId="5" priority="15" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H120:H122">
+    <cfRule type="cellIs" dxfId="5" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H119:H121">
-    <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H127:H130">
+    <cfRule type="cellIs" dxfId="4" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H126:H129">
-    <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H132:H133">
+    <cfRule type="cellIs" dxfId="3" priority="34" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H131:H132">
-    <cfRule type="cellIs" dxfId="2" priority="33" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H136">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:I15">
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3715,7 +3760,7 @@
     <hyperlink ref="B5" r:id="rId5" xr:uid="{61620F85-A756-1948-B905-68253DFF6AD5}"/>
     <hyperlink ref="B6" r:id="rId6" xr:uid="{82624FD5-7C76-EB45-9D9D-195B23F4F9DA}"/>
     <hyperlink ref="B7" r:id="rId7" xr:uid="{1DA24BCD-8B15-3E41-9087-846CE867B65E}"/>
-    <hyperlink ref="B70" r:id="rId8" display="https://leetcode.com/problems/average-of-levels-in-binary-tree/" xr:uid="{CF7ACCDB-130B-6449-BEA9-B7A71C85179B}"/>
+    <hyperlink ref="B71" r:id="rId8" display="https://leetcode.com/problems/average-of-levels-in-binary-tree/" xr:uid="{CF7ACCDB-130B-6449-BEA9-B7A71C85179B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A87EBAB-A52C-5642-A57A-1C0930A0478D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BAE7C4-0C29-FB49-8571-B8EA80B457B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -803,7 +803,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1376,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1407,7 +1417,7 @@
       </c>
       <c r="G1" s="1">
         <f>COUNTA(G2:I191)</f>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2006,6 +2016,9 @@
       <c r="G44" s="6">
         <v>44621</v>
       </c>
+      <c r="H44" s="6">
+        <v>44317</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -3627,127 +3640,132 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="41" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F45 D1:E73 F49:F73 D70:F1048576">
-    <cfRule type="cellIs" dxfId="22" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G48 G50:G1048576 I131">
-    <cfRule type="cellIs" dxfId="21" priority="41" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="42" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="20" priority="36" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="37" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H33">
+    <cfRule type="cellIs" dxfId="20" priority="8" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="18" priority="6" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H45">
+    <cfRule type="cellIs" dxfId="18" priority="34" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="17" priority="33" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H53:H54">
     <cfRule type="cellIs" dxfId="16" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53:H54">
-    <cfRule type="cellIs" dxfId="15" priority="31" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H63:H67">
-    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76:H80">
+    <cfRule type="cellIs" dxfId="14" priority="28" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="13" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="12" priority="26" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H85:H86">
-    <cfRule type="cellIs" dxfId="11" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88:H93">
-    <cfRule type="cellIs" dxfId="10" priority="24" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
+    <cfRule type="cellIs" dxfId="10" priority="21" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100:H101">
     <cfRule type="cellIs" dxfId="9" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100:H101">
-    <cfRule type="cellIs" dxfId="8" priority="19" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H107:H112">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115:H117">
-    <cfRule type="cellIs" dxfId="6" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H120:H122">
-    <cfRule type="cellIs" dxfId="5" priority="13" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127:H130">
-    <cfRule type="cellIs" dxfId="4" priority="10" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132:H133">
-    <cfRule type="cellIs" dxfId="3" priority="34" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="35" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:I15">
-    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BAE7C4-0C29-FB49-8571-B8EA80B457B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214CB5AC-8661-374E-AA86-8CC0A17EC910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -803,7 +803,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1417,7 +1427,7 @@
       </c>
       <c r="G1" s="1">
         <f>COUNTA(G2:I191)</f>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2039,6 +2049,9 @@
       <c r="H45" s="6">
         <v>38443</v>
       </c>
+      <c r="I45" s="6">
+        <v>44317</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -3640,132 +3653,137 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="41" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="42" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F45 D1:E73 F49:F73 D70:F1048576">
-    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G48 G50:G1048576 I131">
-    <cfRule type="cellIs" dxfId="22" priority="42" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="43" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="21" priority="37" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="38" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H33">
+    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="20" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H45">
+    <cfRule type="cellIs" dxfId="19" priority="35" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="18" priority="34" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H53:H54">
     <cfRule type="cellIs" dxfId="17" priority="33" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53:H54">
-    <cfRule type="cellIs" dxfId="16" priority="32" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H63:H67">
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76:H80">
+    <cfRule type="cellIs" dxfId="15" priority="29" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="14" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="13" priority="27" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H85:H86">
-    <cfRule type="cellIs" dxfId="12" priority="23" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88:H93">
-    <cfRule type="cellIs" dxfId="11" priority="25" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
+    <cfRule type="cellIs" dxfId="11" priority="22" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100:H101">
     <cfRule type="cellIs" dxfId="10" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100:H101">
-    <cfRule type="cellIs" dxfId="9" priority="20" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H107:H112">
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115:H117">
-    <cfRule type="cellIs" dxfId="7" priority="17" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H120:H122">
-    <cfRule type="cellIs" dxfId="6" priority="14" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127:H130">
-    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132:H133">
-    <cfRule type="cellIs" dxfId="4" priority="35" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:I15">
-    <cfRule type="cellIs" dxfId="2" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+  <conditionalFormatting sqref="I45">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214CB5AC-8661-374E-AA86-8CC0A17EC910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162CE322-3035-5B4F-B81D-661545EB6A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -226,9 +226,6 @@
     <t>Min Stack</t>
   </si>
   <si>
-    <t>Consider each node in the stack having a minimum value</t>
-  </si>
-  <si>
     <t>Evaluate Reverse Polish Notation</t>
   </si>
   <si>
@@ -719,6 +716,9 @@
   </si>
   <si>
     <t>Tuple as key value. Create 26 counter list then use it as key</t>
+  </si>
+  <si>
+    <t>Consider each node in the stack having a minimum value. Use 2 stacks</t>
   </si>
 </sst>
 </file>
@@ -803,7 +803,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1397,7 +1407,7 @@
   <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1420,7 +1430,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1510,7 +1520,7 @@
         <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1527,13 +1537,13 @@
         <v>122</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>131</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>132</v>
       </c>
       <c r="G8" s="6">
         <v>38078</v>
@@ -1544,13 +1554,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G9" s="6">
         <v>42461</v>
@@ -1561,13 +1571,13 @@
         <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>191</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>192</v>
       </c>
       <c r="G10" s="6">
         <v>42461</v>
@@ -1578,13 +1588,13 @@
         <v>274</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>194</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>195</v>
       </c>
       <c r="G11" s="6">
         <v>43191</v>
@@ -1685,7 +1695,7 @@
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G18" s="6">
         <v>38078</v>
@@ -1776,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G27" s="6">
         <v>46082</v>
@@ -1790,13 +1800,13 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G28" s="6">
         <v>38078</v>
@@ -1807,7 +1817,7 @@
         <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1816,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G29" s="6">
         <v>44317</v>
@@ -1860,7 +1870,7 @@
         <v>242</v>
       </c>
       <c r="B33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -1884,7 +1894,7 @@
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G34" s="6">
         <v>44621</v>
@@ -1904,7 +1914,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G35" s="6">
         <v>38078</v>
@@ -1937,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G38" s="6">
         <v>44621</v>
@@ -1985,7 +1995,7 @@
         <v>452</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -1994,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G41" s="6">
         <v>38443</v>
@@ -2049,9 +2059,7 @@
       <c r="H45" s="6">
         <v>38443</v>
       </c>
-      <c r="I45" s="6">
-        <v>44317</v>
-      </c>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -2064,10 +2072,13 @@
         <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>226</v>
       </c>
       <c r="G46" s="6">
         <v>46082</v>
+      </c>
+      <c r="H46" s="6">
+        <v>44317</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -2075,7 +2086,7 @@
         <v>150</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -2154,7 +2165,7 @@
         <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G53" s="6">
         <v>44986</v>
@@ -2168,7 +2179,7 @@
         <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -2177,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54" s="6">
         <v>46082</v>
@@ -2191,13 +2202,13 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
         <v>66</v>
-      </c>
-      <c r="C55" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" t="s">
-        <v>67</v>
       </c>
       <c r="G55" s="6">
         <v>46082</v>
@@ -2208,13 +2219,13 @@
         <v>206</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G56" s="6">
         <v>38443</v>
@@ -2225,7 +2236,7 @@
         <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -2245,7 +2256,7 @@
         <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2254,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G58" s="6">
         <v>38443</v>
@@ -2343,7 +2354,7 @@
         <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -2352,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G65" s="6">
         <v>46082</v>
@@ -2366,7 +2377,7 @@
         <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
@@ -2375,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G66" s="6">
         <v>46447</v>
@@ -2389,7 +2400,7 @@
         <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -2398,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G67" s="6">
         <v>46447</v>
@@ -2412,7 +2423,7 @@
         <v>103</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -2421,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G68" s="6">
         <v>46447</v>
@@ -2432,13 +2443,13 @@
         <v>114</v>
       </c>
       <c r="B69" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
         <v>147</v>
-      </c>
-      <c r="C69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" t="s">
-        <v>148</v>
       </c>
       <c r="G69" s="6">
         <v>38808</v>
@@ -2449,13 +2460,13 @@
         <v>199</v>
       </c>
       <c r="B70" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
         <v>149</v>
-      </c>
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" t="s">
-        <v>150</v>
       </c>
       <c r="G70" s="6">
         <v>38808</v>
@@ -2466,7 +2477,7 @@
         <v>637</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
@@ -2483,7 +2494,7 @@
         <v>129</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -2492,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G72" s="6">
         <v>39904</v>
@@ -2503,13 +2514,13 @@
         <v>94</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G73" s="6">
         <v>44287</v>
@@ -2576,13 +2587,13 @@
         <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G78" s="6">
         <v>46447</v>
@@ -2596,7 +2607,7 @@
         <v>173</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -2611,13 +2622,13 @@
         <v>783</v>
       </c>
       <c r="B80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G80" s="6">
         <v>47209</v>
@@ -2699,13 +2710,13 @@
         <v>909</v>
       </c>
       <c r="B86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G86" s="6">
         <v>46447</v>
@@ -2719,7 +2730,7 @@
         <v>399</v>
       </c>
       <c r="B87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -2728,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G87" s="6">
         <v>46447</v>
@@ -2739,7 +2750,7 @@
         <v>207</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
@@ -2748,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G88" s="6">
         <v>46447</v>
@@ -2768,7 +2779,7 @@
         <v>210</v>
       </c>
       <c r="B90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
@@ -2777,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G90" s="6">
         <v>39173</v>
@@ -2789,13 +2800,13 @@
         <v>433</v>
       </c>
       <c r="B91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
         <v>156</v>
-      </c>
-      <c r="C91" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" t="s">
-        <v>157</v>
       </c>
       <c r="G91" s="6">
         <v>39539</v>
@@ -2807,7 +2818,7 @@
         <v>743</v>
       </c>
       <c r="B92" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
@@ -2816,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G92" s="6">
         <v>37012</v>
@@ -2829,7 +2840,7 @@
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2844,7 +2855,7 @@
         <v>208</v>
       </c>
       <c r="B95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -2853,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G95" s="6">
         <v>39539</v>
@@ -2862,7 +2873,7 @@
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2877,13 +2888,13 @@
         <v>17</v>
       </c>
       <c r="B98" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" t="s">
         <v>87</v>
-      </c>
-      <c r="C98" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" t="s">
-        <v>88</v>
       </c>
       <c r="G98" s="6">
         <v>46447</v>
@@ -2897,13 +2908,13 @@
         <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G99" s="6">
         <v>46447</v>
@@ -2914,7 +2925,7 @@
         <v>46</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
@@ -2923,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G100" s="6">
         <v>46813</v>
@@ -2937,7 +2948,7 @@
         <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -2946,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G101" s="6">
         <v>46813</v>
@@ -2958,7 +2969,7 @@
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2973,13 +2984,13 @@
         <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="6">
         <v>46813</v>
@@ -2988,7 +2999,7 @@
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3003,13 +3014,13 @@
         <v>35</v>
       </c>
       <c r="B107" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G107" s="6">
         <v>46813</v>
@@ -3023,7 +3034,7 @@
         <v>74</v>
       </c>
       <c r="B108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
@@ -3032,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G108" s="6">
         <v>46813</v>
@@ -3046,13 +3057,13 @@
         <v>162</v>
       </c>
       <c r="B109" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" t="s">
         <v>100</v>
-      </c>
-      <c r="C109" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" t="s">
-        <v>101</v>
       </c>
       <c r="G109" s="6">
         <v>46813</v>
@@ -3066,13 +3077,13 @@
         <v>33</v>
       </c>
       <c r="B110" t="s">
+        <v>101</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
         <v>102</v>
-      </c>
-      <c r="C110" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" t="s">
-        <v>103</v>
       </c>
       <c r="G110" s="6">
         <v>46813</v>
@@ -3086,13 +3097,13 @@
         <v>34</v>
       </c>
       <c r="B111" t="s">
+        <v>103</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
         <v>104</v>
-      </c>
-      <c r="C111" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" t="s">
-        <v>105</v>
       </c>
       <c r="G111" s="6">
         <v>47178</v>
@@ -3106,13 +3117,13 @@
         <v>540</v>
       </c>
       <c r="B112" t="s">
+        <v>205</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
         <v>206</v>
-      </c>
-      <c r="C112" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" t="s">
-        <v>207</v>
       </c>
       <c r="G112" s="6">
         <v>45383</v>
@@ -3122,7 +3133,7 @@
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3137,13 +3148,13 @@
         <v>215</v>
       </c>
       <c r="B115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" t="s">
         <v>107</v>
-      </c>
-      <c r="C115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" t="s">
-        <v>108</v>
       </c>
       <c r="G115" s="6">
         <v>47178</v>
@@ -3157,7 +3168,7 @@
         <v>373</v>
       </c>
       <c r="B116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116" t="s">
         <v>12</v>
@@ -3166,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G116" s="6">
         <v>47178</v>
@@ -3180,16 +3191,16 @@
         <v>502</v>
       </c>
       <c r="B117" t="s">
+        <v>166</v>
+      </c>
+      <c r="C117" t="s">
         <v>167</v>
-      </c>
-      <c r="C117" t="s">
-        <v>168</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G117" s="6">
         <v>39539</v>
@@ -3199,7 +3210,7 @@
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3214,13 +3225,13 @@
         <v>67</v>
       </c>
       <c r="B120" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G120" s="6">
         <v>47178</v>
@@ -3234,13 +3245,13 @@
         <v>190</v>
       </c>
       <c r="B121" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G121" s="6">
         <v>11018</v>
@@ -3254,13 +3265,13 @@
         <v>136</v>
       </c>
       <c r="B122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C122" t="s">
         <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G122" s="6">
         <v>11018</v>
@@ -3274,13 +3285,13 @@
         <v>191</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
       </c>
       <c r="F123" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G123" s="6">
         <v>39904</v>
@@ -3291,7 +3302,7 @@
         <v>137</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
@@ -3300,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G124" s="6">
         <v>39904</v>
@@ -3309,7 +3320,7 @@
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3324,7 +3335,7 @@
         <v>70</v>
       </c>
       <c r="B127" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
@@ -3341,13 +3352,13 @@
         <v>198</v>
       </c>
       <c r="B128" t="s">
+        <v>117</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" t="s">
         <v>118</v>
-      </c>
-      <c r="C128" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" t="s">
-        <v>119</v>
       </c>
       <c r="G128" s="6">
         <v>11018</v>
@@ -3361,7 +3372,7 @@
         <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
@@ -3370,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G129" s="6">
         <v>11383</v>
@@ -3384,13 +3395,13 @@
         <v>322</v>
       </c>
       <c r="B130" t="s">
+        <v>120</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" t="s">
         <v>121</v>
-      </c>
-      <c r="C130" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130" t="s">
-        <v>122</v>
       </c>
       <c r="G130" s="6">
         <v>37347</v>
@@ -3404,7 +3415,7 @@
         <v>300</v>
       </c>
       <c r="B131" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
@@ -3421,13 +3432,13 @@
         <v>120</v>
       </c>
       <c r="B132" t="s">
+        <v>123</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" t="s">
         <v>124</v>
-      </c>
-      <c r="C132" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" t="s">
-        <v>125</v>
       </c>
       <c r="G132" s="6">
         <v>37712</v>
@@ -3436,7 +3447,7 @@
         <v>38078</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -3444,13 +3455,13 @@
         <v>63</v>
       </c>
       <c r="B133" t="s">
+        <v>125</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" t="s">
         <v>126</v>
-      </c>
-      <c r="C133" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" t="s">
-        <v>127</v>
       </c>
       <c r="G133" s="6">
         <v>37712</v>
@@ -3464,13 +3475,13 @@
         <v>97</v>
       </c>
       <c r="B134" t="s">
+        <v>127</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" t="s">
         <v>128</v>
-      </c>
-      <c r="C134" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" t="s">
-        <v>129</v>
       </c>
       <c r="G134" s="6">
         <v>38078</v>
@@ -3481,7 +3492,7 @@
         <v>1143</v>
       </c>
       <c r="B135" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C135" t="s">
         <v>12</v>
@@ -3490,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G135" s="6">
         <v>43556</v>
@@ -3501,7 +3512,7 @@
         <v>72</v>
       </c>
       <c r="B136" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
@@ -3510,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G136" s="6">
         <v>43556</v>
@@ -3524,13 +3535,13 @@
         <v>221</v>
       </c>
       <c r="B137" t="s">
+        <v>199</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" t="s">
         <v>200</v>
-      </c>
-      <c r="C137" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" t="s">
-        <v>201</v>
       </c>
       <c r="G137" s="6">
         <v>43922</v>
@@ -3541,13 +3552,13 @@
         <v>64</v>
       </c>
       <c r="B138" t="s">
+        <v>220</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" t="s">
         <v>221</v>
-      </c>
-      <c r="C138" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138" t="s">
-        <v>222</v>
       </c>
       <c r="G138" s="6">
         <v>44317</v>
@@ -3556,7 +3567,7 @@
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3568,13 +3579,13 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
+        <v>177</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" t="s">
         <v>178</v>
-      </c>
-      <c r="C141" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" t="s">
-        <v>179</v>
       </c>
       <c r="G141" s="6">
         <v>41365</v>
@@ -3582,13 +3593,13 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
+        <v>180</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" t="s">
         <v>181</v>
-      </c>
-      <c r="C142" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" t="s">
-        <v>182</v>
       </c>
       <c r="G142" s="6">
         <v>41365</v>
@@ -3596,13 +3607,13 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C143" t="s">
         <v>8</v>
       </c>
       <c r="F143" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G143" s="6">
         <v>41365</v>
@@ -3610,13 +3621,13 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C144" t="s">
         <v>8</v>
       </c>
       <c r="F144" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G144" s="6">
         <v>41365</v>
@@ -3624,7 +3635,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G145" s="6">
         <v>41365</v>
@@ -3632,7 +3643,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G146" s="6">
         <v>41365</v>
@@ -3641,7 +3652,7 @@
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3653,137 +3664,142 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F45 D1:E73 F49:F73 D70:F1048576">
-    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G48 G50:G1048576 I131">
-    <cfRule type="cellIs" dxfId="23" priority="43" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="44" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="22" priority="38" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="39" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H33">
+    <cfRule type="cellIs" dxfId="22" priority="10" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="20" priority="8" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H45">
+    <cfRule type="cellIs" dxfId="20" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="19" priority="35" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H53:H54">
     <cfRule type="cellIs" dxfId="18" priority="34" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53:H54">
-    <cfRule type="cellIs" dxfId="17" priority="33" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H63:H67">
-    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76:H80">
+    <cfRule type="cellIs" dxfId="16" priority="30" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="15" priority="29" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="14" priority="28" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H85:H86">
-    <cfRule type="cellIs" dxfId="13" priority="24" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88:H93">
-    <cfRule type="cellIs" dxfId="12" priority="26" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
+    <cfRule type="cellIs" dxfId="12" priority="23" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100:H101">
     <cfRule type="cellIs" dxfId="11" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100:H101">
-    <cfRule type="cellIs" dxfId="10" priority="21" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H107:H112">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115:H117">
-    <cfRule type="cellIs" dxfId="8" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H120:H122">
-    <cfRule type="cellIs" dxfId="7" priority="15" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127:H130">
-    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132:H133">
-    <cfRule type="cellIs" dxfId="5" priority="36" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="37" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:I15">
-    <cfRule type="cellIs" dxfId="3" priority="10" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+  <conditionalFormatting sqref="I45">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
+  <conditionalFormatting sqref="H46">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -3817,32 +3833,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3862,18 +3878,18 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
         <v>214</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>215</v>
-      </c>
-      <c r="D2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3">
         <v>94</v>
@@ -3885,7 +3901,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4">
         <v>98</v>
@@ -3897,7 +3913,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5">
         <v>71.33</v>
@@ -3912,7 +3928,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6">
         <v>92.08</v>
@@ -3927,7 +3943,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7">
         <v>80</v>
@@ -3942,7 +3958,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8">
         <v>79.5</v>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162CE322-3035-5B4F-B81D-661545EB6A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4966DF-1CEC-C749-9F18-2088B0AC9784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -803,27 +803,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1066,11 +1046,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1086,11 +1066,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1406,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1437,7 +1417,7 @@
       </c>
       <c r="G1" s="1">
         <f>COUNTA(G2:I191)</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2153,6 +2133,9 @@
       <c r="G52" s="6">
         <v>44986</v>
       </c>
+      <c r="H52" s="6">
+        <v>44317</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
@@ -3664,142 +3647,132 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
-      <formula>"Hard"</formula>
+    <cfRule type="cellIs" dxfId="26" priority="44" operator="equal">
+      <formula>"Easy"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
-      <formula>"Easy"</formula>
+    <cfRule type="cellIs" dxfId="24" priority="42" operator="equal">
+      <formula>"Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F45 D1:E73 F49:F73 D70:F1048576">
-    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G48 G50:G1048576 I131">
-    <cfRule type="cellIs" dxfId="24" priority="44" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="45" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="23" priority="39" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="40" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H33">
-    <cfRule type="cellIs" dxfId="22" priority="10" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="cellIs" dxfId="20" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="20" priority="36" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="H44:H46">
+    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="19" priority="35" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53:H54">
-    <cfRule type="cellIs" dxfId="18" priority="34" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="35" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H67">
-    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76:H80">
-    <cfRule type="cellIs" dxfId="16" priority="30" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="15" priority="29" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85:H86">
-    <cfRule type="cellIs" dxfId="14" priority="25" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88:H93">
-    <cfRule type="cellIs" dxfId="13" priority="27" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="12" priority="23" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100:H101">
-    <cfRule type="cellIs" dxfId="11" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107:H112">
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115:H117">
-    <cfRule type="cellIs" dxfId="9" priority="19" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H120:H122">
-    <cfRule type="cellIs" dxfId="8" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127:H130">
-    <cfRule type="cellIs" dxfId="7" priority="13" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132:H133">
-    <cfRule type="cellIs" dxfId="6" priority="37" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="38" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:I15">
-    <cfRule type="cellIs" dxfId="4" priority="11" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+  <conditionalFormatting sqref="H52">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4966DF-1CEC-C749-9F18-2088B0AC9784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B90F209-F57E-D144-8697-FCAA5402D7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="228">
   <si>
     <t>Note</t>
   </si>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>Consider each node in the stack having a minimum value. Use 2 stacks</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted List</t>
   </si>
 </sst>
 </file>
@@ -1046,11 +1049,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1066,11 +1069,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1384,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1416,8 +1419,8 @@
         <v>0</v>
       </c>
       <c r="G1" s="1">
-        <f>COUNTA(G2:I191)</f>
-        <v>152</v>
+        <f>COUNTA(G2:I192)</f>
+        <v>153</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2254,73 +2257,73 @@
         <v>38443</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="6">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>104</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" s="6">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>100</v>
-      </c>
-      <c r="B62" t="s">
-        <v>37</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
       </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
       <c r="G62" s="6">
         <v>44986</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G63" s="6">
         <v>44986</v>
       </c>
-      <c r="H63" s="6">
-        <v>44652</v>
-      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -2334,56 +2337,50 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G65" s="6">
-        <v>46082</v>
+        <v>44986</v>
       </c>
       <c r="H65" s="6">
-        <v>38443</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G66" s="6">
-        <v>46447</v>
+        <v>46082</v>
       </c>
       <c r="H66" s="6">
-        <v>44317</v>
+        <v>38443</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -2392,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G67" s="6">
         <v>46447</v>
@@ -2403,10 +2400,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -2415,41 +2412,47 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G68" s="6">
         <v>46447</v>
       </c>
+      <c r="H68" s="6">
+        <v>44317</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
       <c r="F69" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="G69" s="6">
-        <v>38808</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="B70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G70" s="6">
         <v>38808</v>
@@ -2457,16 +2460,16 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>637</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>150</v>
+        <v>199</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>149</v>
       </c>
       <c r="G71" s="6">
         <v>38808</v>
@@ -2474,89 +2477,83 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>129</v>
+        <v>637</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
-      <c r="F72" t="s">
-        <v>176</v>
-      </c>
       <c r="G72" s="6">
-        <v>39904</v>
+        <v>38808</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
+        <v>129</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>176</v>
+      </c>
+      <c r="G73" s="6">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>94</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B74" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>8</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F74" t="s">
         <v>203</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G74" s="6">
         <v>44287</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>530</v>
-      </c>
-      <c r="B76" t="s">
-        <v>41</v>
-      </c>
-      <c r="C76" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" t="s">
-        <v>42</v>
-      </c>
-      <c r="G76" s="6">
-        <v>44986</v>
-      </c>
-      <c r="H76" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G77" s="6">
         <v>44986</v>
@@ -2567,19 +2564,22 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
       </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
       <c r="F78" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G78" s="6">
-        <v>46447</v>
+        <v>44986</v>
       </c>
       <c r="H78" s="6">
         <v>38808</v>
@@ -2587,153 +2587,153 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
       </c>
+      <c r="F79" t="s">
+        <v>82</v>
+      </c>
       <c r="G79" s="6">
-        <v>43922</v>
-      </c>
-      <c r="H79" s="6"/>
+        <v>46447</v>
+      </c>
+      <c r="H79" s="6">
+        <v>38808</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
+        <v>173</v>
+      </c>
+      <c r="B80" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="6">
+        <v>43922</v>
+      </c>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>783</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>216</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>8</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F81" t="s">
         <v>217</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G81" s="6">
         <v>47209</v>
       </c>
-      <c r="H80" s="6"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1" t="s">
+      <c r="H81" s="6"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>200</v>
-      </c>
-      <c r="B83" t="s">
-        <v>46</v>
-      </c>
-      <c r="C83" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" t="s">
-        <v>47</v>
-      </c>
-      <c r="G83" s="6">
-        <v>45352</v>
-      </c>
-      <c r="H83" s="6">
-        <v>38808</v>
-      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G84" s="6">
-        <v>45717</v>
+        <v>45352</v>
+      </c>
+      <c r="H84" s="6">
+        <v>38808</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G85" s="6">
         <v>45717</v>
       </c>
-      <c r="H85" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>909</v>
+        <v>133</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="G86" s="6">
-        <v>46447</v>
+        <v>45717</v>
       </c>
       <c r="H86" s="6">
-        <v>39173</v>
+        <v>38808</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>399</v>
+        <v>909</v>
       </c>
       <c r="B87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
       </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
       <c r="F87" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="G87" s="6">
         <v>46447</v>
       </c>
+      <c r="H87" s="6">
+        <v>39173</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
@@ -2742,156 +2742,156 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="G88" s="6">
         <v>46447</v>
       </c>
-      <c r="H88" s="6">
-        <v>38808</v>
-      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>323</v>
-      </c>
-      <c r="H89" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>151</v>
+      </c>
+      <c r="G89" s="6">
+        <v>46447</v>
+      </c>
+      <c r="H89" s="6">
+        <v>38808</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>210</v>
-      </c>
-      <c r="B90" t="s">
-        <v>152</v>
-      </c>
-      <c r="C90" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90" t="s">
-        <v>153</v>
-      </c>
-      <c r="G90" s="6">
-        <v>39173</v>
+        <v>323</v>
       </c>
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>433</v>
+        <v>210</v>
       </c>
       <c r="B91" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
       </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
       <c r="F91" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G91" s="6">
-        <v>39539</v>
+        <v>39173</v>
       </c>
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
+        <v>433</v>
+      </c>
+      <c r="B92" t="s">
+        <v>155</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
+        <v>156</v>
+      </c>
+      <c r="G92" s="6">
+        <v>39539</v>
+      </c>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>743</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>219</v>
       </c>
-      <c r="C92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92">
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93">
         <v>1</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F93" t="s">
         <v>218</v>
       </c>
-      <c r="G92" s="6">
+      <c r="G93" s="6">
         <v>37012</v>
       </c>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1" t="s">
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>208</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>157</v>
       </c>
-      <c r="C95" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95">
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96">
         <v>1</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
         <v>159</v>
       </c>
-      <c r="G95" s="6">
+      <c r="G96" s="6">
         <v>39539</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>17</v>
-      </c>
-      <c r="B98" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" t="s">
-        <v>87</v>
-      </c>
-      <c r="G98" s="6">
-        <v>46447</v>
-      </c>
-      <c r="H98" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -2902,36 +2902,33 @@
       <c r="G99" s="6">
         <v>46447</v>
       </c>
+      <c r="H99" s="6">
+        <v>39539</v>
+      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B100" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
       </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
       <c r="F100" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="G100" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H100" s="6">
-        <v>39539</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -2940,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G101" s="6">
         <v>46813</v>
@@ -2949,84 +2946,84 @@
         <v>39539</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>39</v>
+      </c>
+      <c r="B102" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>161</v>
+      </c>
+      <c r="G102" s="6">
+        <v>46813</v>
+      </c>
+      <c r="H102" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105">
         <v>108</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>93</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>8</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F105" t="s">
         <v>91</v>
       </c>
-      <c r="G104" s="6">
+      <c r="G105" s="6">
         <v>46813</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>35</v>
-      </c>
-      <c r="B107" t="s">
-        <v>95</v>
-      </c>
-      <c r="C107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" t="s">
-        <v>96</v>
-      </c>
-      <c r="G107" s="6">
-        <v>46813</v>
-      </c>
-      <c r="H107" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B108" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F108" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G108" s="6">
         <v>46813</v>
@@ -3037,16 +3034,19 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
       </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
       <c r="F109" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G109" s="6">
         <v>46813</v>
@@ -3057,39 +3057,39 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B110" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C110" t="s">
         <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G110" s="6">
         <v>46813</v>
       </c>
       <c r="H110" s="6">
-        <v>43191</v>
+        <v>39539</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B111" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G111" s="6">
-        <v>47178</v>
+        <v>46813</v>
       </c>
       <c r="H111" s="6">
         <v>43191</v>
@@ -3097,70 +3097,67 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
+        <v>34</v>
+      </c>
+      <c r="B112" t="s">
+        <v>103</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
+        <v>104</v>
+      </c>
+      <c r="G112" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H112" s="6">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>540</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>205</v>
       </c>
-      <c r="C112" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
         <v>206</v>
       </c>
-      <c r="G112" s="6">
+      <c r="G113" s="6">
         <v>45383</v>
       </c>
-      <c r="H112" s="6"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1" t="s">
+      <c r="H113" s="6"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>215</v>
-      </c>
-      <c r="B115" t="s">
-        <v>106</v>
-      </c>
-      <c r="C115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" t="s">
-        <v>107</v>
-      </c>
-      <c r="G115" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H115" s="6">
-        <v>39539</v>
-      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B116" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C116" t="s">
         <v>12</v>
       </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
       <c r="F116" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="G116" s="6">
         <v>47178</v>
@@ -3171,73 +3168,76 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>502</v>
+        <v>373</v>
       </c>
       <c r="B117" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="C117" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" t="s">
+        <v>165</v>
+      </c>
+      <c r="G117" s="6">
+        <v>47178</v>
+      </c>
+      <c r="H117" s="6">
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>502</v>
+      </c>
+      <c r="B118" t="s">
+        <v>166</v>
+      </c>
+      <c r="C118" t="s">
+        <v>167</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
         <v>168</v>
       </c>
-      <c r="G117" s="6">
+      <c r="G118" s="6">
         <v>39539</v>
       </c>
-      <c r="H117" s="6"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1" t="s">
+      <c r="H118" s="6"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>67</v>
-      </c>
-      <c r="B120" t="s">
-        <v>110</v>
-      </c>
-      <c r="C120" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" t="s">
-        <v>169</v>
-      </c>
-      <c r="G120" s="6">
-        <v>47178</v>
-      </c>
-      <c r="H120" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="G121" s="6">
-        <v>11018</v>
+        <v>47178</v>
       </c>
       <c r="H121" s="6">
         <v>39904</v>
@@ -3245,16 +3245,16 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B122" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C122" t="s">
         <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G122" s="6">
         <v>11018</v>
@@ -3265,83 +3265,83 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
       </c>
       <c r="F123" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="G123" s="6">
+        <v>11018</v>
+      </c>
+      <c r="H123" s="6">
         <v>39904</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B124" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F124" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G124" s="6">
         <v>39904</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>137</v>
+      </c>
+      <c r="B125" t="s">
+        <v>171</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
+        <v>173</v>
+      </c>
+      <c r="G125" s="6">
+        <v>39904</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>70</v>
-      </c>
-      <c r="B127" t="s">
-        <v>116</v>
-      </c>
-      <c r="C127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G127" s="6">
-        <v>11018</v>
-      </c>
-      <c r="H127" s="6">
-        <v>39904</v>
-      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B128" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="G128" s="6">
         <v>11018</v>
@@ -3352,22 +3352,19 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B129" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
       </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
       <c r="F129" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="G129" s="6">
-        <v>11383</v>
+        <v>11018</v>
       </c>
       <c r="H129" s="6">
         <v>39904</v>
@@ -3375,19 +3372,22 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="B130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
       </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
       <c r="F130" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="G130" s="6">
-        <v>37347</v>
+        <v>11383</v>
       </c>
       <c r="H130" s="6">
         <v>39904</v>
@@ -3395,56 +3395,53 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B131" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
+      </c>
+      <c r="F131" t="s">
+        <v>121</v>
       </c>
       <c r="G131" s="6">
         <v>37347</v>
       </c>
-      <c r="I131" s="6">
-        <v>43191</v>
+      <c r="H131" s="6">
+        <v>39904</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="B132" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C132" t="s">
         <v>12</v>
       </c>
-      <c r="F132" t="s">
-        <v>124</v>
-      </c>
       <c r="G132" s="6">
-        <v>37712</v>
-      </c>
-      <c r="H132" s="6">
-        <v>38078</v>
-      </c>
-      <c r="I132" s="8" t="s">
-        <v>192</v>
+        <v>37347</v>
+      </c>
+      <c r="I132" s="6">
+        <v>43191</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B133" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C133" t="s">
         <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G133" s="6">
         <v>37712</v>
@@ -3452,50 +3449,53 @@
       <c r="H133" s="6">
         <v>38078</v>
       </c>
+      <c r="I133" s="8" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B134" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G134" s="6">
+        <v>37712</v>
+      </c>
+      <c r="H134" s="6">
         <v>38078</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>1143</v>
+        <v>97</v>
       </c>
       <c r="B135" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="C135" t="s">
         <v>12</v>
       </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
       <c r="F135" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="G135" s="6">
-        <v>43556</v>
+        <v>38078</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>72</v>
+        <v>1143</v>
       </c>
       <c r="B136" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
@@ -3504,85 +3504,91 @@
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G136" s="6">
         <v>43556</v>
       </c>
-      <c r="H136" s="6">
-        <v>44652</v>
-      </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="B137" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C137" t="s">
         <v>12</v>
       </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
       <c r="F137" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G137" s="6">
-        <v>43922</v>
+        <v>43556</v>
+      </c>
+      <c r="H137" s="6">
+        <v>44652</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
+        <v>221</v>
+      </c>
+      <c r="B138" t="s">
+        <v>199</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" t="s">
+        <v>200</v>
+      </c>
+      <c r="G138" s="6">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139">
         <v>64</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>220</v>
       </c>
-      <c r="C138" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138" t="s">
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" t="s">
         <v>221</v>
       </c>
-      <c r="G138" s="6">
+      <c r="G139" s="6">
         <v>44317</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1" t="s">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
-        <v>177</v>
-      </c>
-      <c r="C141" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" t="s">
-        <v>178</v>
-      </c>
-      <c r="G141" s="6">
-        <v>41365</v>
-      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C142" t="s">
         <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G142" s="6">
         <v>41365</v>
@@ -3590,13 +3596,13 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G143" s="6">
         <v>41365</v>
@@ -3604,13 +3610,13 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C144" t="s">
         <v>8</v>
       </c>
       <c r="F144" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G144" s="6">
         <v>41365</v>
@@ -3618,7 +3624,13 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>185</v>
       </c>
       <c r="G145" s="6">
         <v>41365</v>
@@ -3626,43 +3638,51 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G146" s="6">
         <v>41365</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>187</v>
+      </c>
+      <c r="G147" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="26" priority="44" operator="equal">
-      <formula>"Easy"</formula>
+    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
+      <formula>"Hard"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="42" operator="equal">
-      <formula>"Hard"</formula>
+    <cfRule type="cellIs" dxfId="24" priority="44" operator="equal">
+      <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F45 D1:E73 F49:F73 D70:F1048576">
+  <conditionalFormatting sqref="F1:F45 D1:E74 F49:F74 D71:F1048576">
     <cfRule type="cellIs" dxfId="23" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G48 G50:G1048576 I131">
+  <conditionalFormatting sqref="G2:G48 G50:G1048576 I132">
     <cfRule type="cellIs" dxfId="22" priority="45" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -3697,67 +3717,67 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63:H67">
+  <conditionalFormatting sqref="H64:H68">
     <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76:H80">
+  <conditionalFormatting sqref="H77:H81">
     <cfRule type="cellIs" dxfId="14" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
+  <conditionalFormatting sqref="H84">
     <cfRule type="cellIs" dxfId="13" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85:H86">
+  <conditionalFormatting sqref="H86:H87">
     <cfRule type="cellIs" dxfId="12" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88:H93">
+  <conditionalFormatting sqref="H89:H94">
     <cfRule type="cellIs" dxfId="11" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
+  <conditionalFormatting sqref="H99">
     <cfRule type="cellIs" dxfId="10" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100:H101">
+  <conditionalFormatting sqref="H101:H102">
     <cfRule type="cellIs" dxfId="9" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107:H112">
+  <conditionalFormatting sqref="H108:H113">
     <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H115:H117">
+  <conditionalFormatting sqref="H116:H118">
     <cfRule type="cellIs" dxfId="7" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H120:H122">
+  <conditionalFormatting sqref="H121:H123">
     <cfRule type="cellIs" dxfId="6" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H127:H130">
+  <conditionalFormatting sqref="H128:H131">
     <cfRule type="cellIs" dxfId="5" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H132:H133">
+  <conditionalFormatting sqref="H133:H134">
     <cfRule type="cellIs" dxfId="4" priority="38" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H136">
+  <conditionalFormatting sqref="H137">
     <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -3785,7 +3805,7 @@
     <hyperlink ref="B5" r:id="rId5" xr:uid="{61620F85-A756-1948-B905-68253DFF6AD5}"/>
     <hyperlink ref="B6" r:id="rId6" xr:uid="{82624FD5-7C76-EB45-9D9D-195B23F4F9DA}"/>
     <hyperlink ref="B7" r:id="rId7" xr:uid="{1DA24BCD-8B15-3E41-9087-846CE867B65E}"/>
-    <hyperlink ref="B71" r:id="rId8" display="https://leetcode.com/problems/average-of-levels-in-binary-tree/" xr:uid="{CF7ACCDB-130B-6449-BEA9-B7A71C85179B}"/>
+    <hyperlink ref="B72" r:id="rId8" display="https://leetcode.com/problems/average-of-levels-in-binary-tree/" xr:uid="{CF7ACCDB-130B-6449-BEA9-B7A71C85179B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B90F209-F57E-D144-8697-FCAA5402D7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27410118-A635-724E-BF93-1CEA1FDAF5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -806,7 +806,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1389,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1399,8 +1409,8 @@
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="4" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="64.5" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1420,7 +1430,7 @@
       </c>
       <c r="G1" s="1">
         <f>COUNTA(G2:I192)</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2182,6 +2192,9 @@
       <c r="H54" s="6">
         <v>38443</v>
       </c>
+      <c r="I54" s="6">
+        <v>44317</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -3667,132 +3680,137 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="43" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="44" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="45" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F45 D1:E74 F49:F74 D71:F1048576">
-    <cfRule type="cellIs" dxfId="23" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G48 G50:G1048576 I132">
-    <cfRule type="cellIs" dxfId="22" priority="45" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="46" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="21" priority="40" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="41" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H34">
-    <cfRule type="cellIs" dxfId="20" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="19" priority="10" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44:H46">
-    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" dxfId="18" priority="37" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:H54">
     <cfRule type="cellIs" dxfId="17" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53:H54">
-    <cfRule type="cellIs" dxfId="16" priority="35" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H64:H68">
-    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77:H81">
+    <cfRule type="cellIs" dxfId="15" priority="32" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
     <cfRule type="cellIs" dxfId="14" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="13" priority="30" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H86:H87">
-    <cfRule type="cellIs" dxfId="12" priority="26" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89:H94">
-    <cfRule type="cellIs" dxfId="11" priority="28" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="29" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99">
+    <cfRule type="cellIs" dxfId="11" priority="25" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101:H102">
     <cfRule type="cellIs" dxfId="10" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H101:H102">
-    <cfRule type="cellIs" dxfId="9" priority="23" stopIfTrue="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H108:H113">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116:H118">
-    <cfRule type="cellIs" dxfId="7" priority="20" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121:H123">
-    <cfRule type="cellIs" dxfId="6" priority="17" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128:H131">
-    <cfRule type="cellIs" dxfId="5" priority="14" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H133:H134">
-    <cfRule type="cellIs" dxfId="4" priority="38" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="39" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:I15">
-    <cfRule type="cellIs" dxfId="2" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/leetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27410118-A635-724E-BF93-1CEA1FDAF5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8CBB7F-20EB-324D-8F08-432ED2B3E53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{5D052A5D-2D4F-E348-A1FB-5A00C37AFAC8}"/>
   </bookViews>
@@ -148,9 +148,6 @@
     <t>Maximum Depth of Binary Tree</t>
   </si>
   <si>
-    <t>DFS algorithm</t>
-  </si>
-  <si>
     <t>Same Tree</t>
   </si>
   <si>
@@ -722,6 +719,9 @@
   </si>
   <si>
     <t>Merge Two Sorted List</t>
+  </si>
+  <si>
+    <t>DFS algorithm with counter</t>
   </si>
 </sst>
 </file>
@@ -806,7 +806,27 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1399,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43C2F7-E3E5-DE49-B4C7-4EA3A8811DB9}">
   <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1423,14 +1443,14 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1">
         <f>COUNTA(G2:I192)</f>
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1474,7 +1494,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="6">
         <v>45717</v>
@@ -1505,7 +1525,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1513,7 +1533,7 @@
         <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1530,13 +1550,13 @@
         <v>122</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>130</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>131</v>
       </c>
       <c r="G8" s="6">
         <v>38078</v>
@@ -1547,13 +1567,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G9" s="6">
         <v>42461</v>
@@ -1564,13 +1584,13 @@
         <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>190</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>191</v>
       </c>
       <c r="G10" s="6">
         <v>42461</v>
@@ -1581,13 +1601,13 @@
         <v>274</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>193</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>194</v>
       </c>
       <c r="G11" s="6">
         <v>43191</v>
@@ -1665,7 +1685,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1688,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" s="6">
         <v>38078</v>
@@ -1726,13 +1746,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
         <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>56</v>
       </c>
       <c r="G23" s="6">
         <v>45717</v>
@@ -1770,7 +1790,7 @@
         <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1779,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G27" s="6">
         <v>46082</v>
@@ -1793,13 +1813,13 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G28" s="6">
         <v>38078</v>
@@ -1810,7 +1830,7 @@
         <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1819,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G29" s="6">
         <v>44317</v>
@@ -1863,7 +1883,7 @@
         <v>242</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -1887,7 +1907,7 @@
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G34" s="6">
         <v>44621</v>
@@ -1907,7 +1927,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G35" s="6">
         <v>38078</v>
@@ -1940,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G38" s="6">
         <v>44621</v>
@@ -1951,13 +1971,13 @@
         <v>56</v>
       </c>
       <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
         <v>58</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" t="s">
-        <v>59</v>
       </c>
       <c r="G39" s="6">
         <v>44621</v>
@@ -1971,13 +1991,13 @@
         <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G40" s="6">
         <v>46082</v>
@@ -1988,7 +2008,7 @@
         <v>452</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -1997,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G41" s="6">
         <v>38443</v>
@@ -2059,13 +2079,13 @@
         <v>155</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G46" s="6">
         <v>46082</v>
@@ -2079,7 +2099,7 @@
         <v>150</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -2161,7 +2181,7 @@
         <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G53" s="6">
         <v>44986</v>
@@ -2175,7 +2195,7 @@
         <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -2184,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G54" s="6">
         <v>46082</v>
@@ -2201,13 +2221,13 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
         <v>65</v>
-      </c>
-      <c r="C55" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" t="s">
-        <v>66</v>
       </c>
       <c r="G55" s="6">
         <v>46082</v>
@@ -2218,13 +2238,13 @@
         <v>206</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G56" s="6">
         <v>38443</v>
@@ -2235,7 +2255,7 @@
         <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -2255,7 +2275,7 @@
         <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2264,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G58" s="6">
         <v>38443</v>
@@ -2275,7 +2295,7 @@
         <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
@@ -2311,10 +2331,13 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>227</v>
       </c>
       <c r="G62" s="6">
         <v>44986</v>
+      </c>
+      <c r="H62" s="6">
+        <v>11079</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -2322,7 +2345,7 @@
         <v>100</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
@@ -2336,7 +2359,7 @@
         <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -2353,7 +2376,7 @@
         <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
@@ -2370,7 +2393,7 @@
         <v>112</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -2379,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G66" s="6">
         <v>46082</v>
@@ -2393,7 +2416,7 @@
         <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -2402,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G67" s="6">
         <v>46447</v>
@@ -2416,7 +2439,7 @@
         <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -2425,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G68" s="6">
         <v>46447</v>
@@ -2439,7 +2462,7 @@
         <v>103</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -2448,10 +2471,13 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G69" s="6">
         <v>46447</v>
+      </c>
+      <c r="H69" s="6">
+        <v>11079</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -2459,13 +2485,13 @@
         <v>114</v>
       </c>
       <c r="B70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
         <v>146</v>
-      </c>
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" t="s">
-        <v>147</v>
       </c>
       <c r="G70" s="6">
         <v>38808</v>
@@ -2476,13 +2502,13 @@
         <v>199</v>
       </c>
       <c r="B71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
         <v>148</v>
-      </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" t="s">
-        <v>149</v>
       </c>
       <c r="G71" s="6">
         <v>38808</v>
@@ -2493,7 +2519,7 @@
         <v>637</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
@@ -2510,7 +2536,7 @@
         <v>129</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -2519,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G73" s="6">
         <v>39904</v>
@@ -2530,13 +2556,13 @@
         <v>94</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G74" s="6">
         <v>44287</v>
@@ -2545,7 +2571,7 @@
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2560,13 +2586,13 @@
         <v>530</v>
       </c>
       <c r="B77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G77" s="6">
         <v>44986</v>
@@ -2580,7 +2606,7 @@
         <v>230</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -2589,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G78" s="6">
         <v>44986</v>
@@ -2603,13 +2629,13 @@
         <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G79" s="6">
         <v>46447</v>
@@ -2623,7 +2649,7 @@
         <v>173</v>
       </c>
       <c r="B80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -2638,13 +2664,13 @@
         <v>783</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G81" s="6">
         <v>47209</v>
@@ -2654,7 +2680,7 @@
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2669,13 +2695,13 @@
         <v>200</v>
       </c>
       <c r="B84" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
         <v>46</v>
-      </c>
-      <c r="C84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" t="s">
-        <v>47</v>
       </c>
       <c r="G84" s="6">
         <v>45352</v>
@@ -2689,13 +2715,13 @@
         <v>130</v>
       </c>
       <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
         <v>48</v>
-      </c>
-      <c r="C85" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" t="s">
-        <v>49</v>
       </c>
       <c r="G85" s="6">
         <v>45717</v>
@@ -2706,13 +2732,13 @@
         <v>133</v>
       </c>
       <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
         <v>50</v>
-      </c>
-      <c r="C86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" t="s">
-        <v>51</v>
       </c>
       <c r="G86" s="6">
         <v>45717</v>
@@ -2726,13 +2752,13 @@
         <v>909</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G87" s="6">
         <v>46447</v>
@@ -2746,7 +2772,7 @@
         <v>399</v>
       </c>
       <c r="B88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
@@ -2755,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G88" s="6">
         <v>46447</v>
@@ -2766,7 +2792,7 @@
         <v>207</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -2775,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G89" s="6">
         <v>46447</v>
@@ -2795,7 +2821,7 @@
         <v>210</v>
       </c>
       <c r="B91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -2804,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G91" s="6">
         <v>39173</v>
@@ -2816,13 +2842,13 @@
         <v>433</v>
       </c>
       <c r="B92" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
         <v>155</v>
-      </c>
-      <c r="C92" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" t="s">
-        <v>156</v>
       </c>
       <c r="G92" s="6">
         <v>39539</v>
@@ -2834,7 +2860,7 @@
         <v>743</v>
       </c>
       <c r="B93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
@@ -2843,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G93" s="6">
         <v>37012</v>
@@ -2856,7 +2882,7 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2871,7 +2897,7 @@
         <v>208</v>
       </c>
       <c r="B96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
@@ -2880,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G96" s="6">
         <v>39539</v>
@@ -2889,7 +2915,7 @@
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2904,13 +2930,13 @@
         <v>17</v>
       </c>
       <c r="B99" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" t="s">
         <v>86</v>
-      </c>
-      <c r="C99" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" t="s">
-        <v>87</v>
       </c>
       <c r="G99" s="6">
         <v>46447</v>
@@ -2924,13 +2950,13 @@
         <v>77</v>
       </c>
       <c r="B100" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G100" s="6">
         <v>46447</v>
@@ -2941,7 +2967,7 @@
         <v>46</v>
       </c>
       <c r="B101" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -2950,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G101" s="6">
         <v>46813</v>
@@ -2964,7 +2990,7 @@
         <v>39</v>
       </c>
       <c r="B102" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
@@ -2973,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G102" s="6">
         <v>46813</v>
@@ -2985,7 +3011,7 @@
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3000,13 +3026,13 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G105" s="6">
         <v>46813</v>
@@ -3015,7 +3041,7 @@
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3030,13 +3056,13 @@
         <v>35</v>
       </c>
       <c r="B108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
       </c>
       <c r="F108" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G108" s="6">
         <v>46813</v>
@@ -3050,7 +3076,7 @@
         <v>74</v>
       </c>
       <c r="B109" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
@@ -3059,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G109" s="6">
         <v>46813</v>
@@ -3073,13 +3099,13 @@
         <v>162</v>
       </c>
       <c r="B110" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
         <v>99</v>
-      </c>
-      <c r="C110" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" t="s">
-        <v>100</v>
       </c>
       <c r="G110" s="6">
         <v>46813</v>
@@ -3093,13 +3119,13 @@
         <v>33</v>
       </c>
       <c r="B111" t="s">
+        <v>100</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
         <v>101</v>
-      </c>
-      <c r="C111" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" t="s">
-        <v>102</v>
       </c>
       <c r="G111" s="6">
         <v>46813</v>
@@ -3113,13 +3139,13 @@
         <v>34</v>
       </c>
       <c r="B112" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
         <v>103</v>
-      </c>
-      <c r="C112" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" t="s">
-        <v>104</v>
       </c>
       <c r="G112" s="6">
         <v>47178</v>
@@ -3133,13 +3159,13 @@
         <v>540</v>
       </c>
       <c r="B113" t="s">
+        <v>204</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
         <v>205</v>
-      </c>
-      <c r="C113" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" t="s">
-        <v>206</v>
       </c>
       <c r="G113" s="6">
         <v>45383</v>
@@ -3149,7 +3175,7 @@
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3164,13 +3190,13 @@
         <v>215</v>
       </c>
       <c r="B116" t="s">
+        <v>105</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
         <v>106</v>
-      </c>
-      <c r="C116" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" t="s">
-        <v>107</v>
       </c>
       <c r="G116" s="6">
         <v>47178</v>
@@ -3184,7 +3210,7 @@
         <v>373</v>
       </c>
       <c r="B117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
@@ -3193,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G117" s="6">
         <v>47178</v>
@@ -3207,16 +3233,16 @@
         <v>502</v>
       </c>
       <c r="B118" t="s">
+        <v>165</v>
+      </c>
+      <c r="C118" t="s">
         <v>166</v>
-      </c>
-      <c r="C118" t="s">
-        <v>167</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G118" s="6">
         <v>39539</v>
@@ -3226,